--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Czech Republic First League_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Czech Republic First League_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1460" uniqueCount="335">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1508" uniqueCount="343">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -718,6 +718,21 @@
     <t>['90+9']</t>
   </si>
   <si>
+    <t>['10', '33', '73', '82']</t>
+  </si>
+  <si>
+    <t>['10', '48']</t>
+  </si>
+  <si>
+    <t>['45']</t>
+  </si>
+  <si>
+    <t>['35', '59', '80']</t>
+  </si>
+  <si>
+    <t>['41', '85']</t>
+  </si>
+  <si>
     <t>['25']</t>
   </si>
   <si>
@@ -1019,6 +1034,15 @@
   </si>
   <si>
     <t>['29', '48']</t>
+  </si>
+  <si>
+    <t>['4', '89']</t>
+  </si>
+  <si>
+    <t>['45', '51', '69']</t>
+  </si>
+  <si>
+    <t>['16', '64']</t>
   </si>
 </sst>
 </file>
@@ -1380,7 +1404,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP233"/>
+  <dimension ref="A1:BP241"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1639,7 +1663,7 @@
         <v>86</v>
       </c>
       <c r="P2" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="Q2">
         <v>1.53</v>
@@ -2051,7 +2075,7 @@
         <v>88</v>
       </c>
       <c r="P4" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="Q4">
         <v>2.88</v>
@@ -2463,7 +2487,7 @@
         <v>90</v>
       </c>
       <c r="P6" t="s">
-        <v>236</v>
+        <v>241</v>
       </c>
       <c r="Q6">
         <v>5.5</v>
@@ -2669,7 +2693,7 @@
         <v>91</v>
       </c>
       <c r="P7" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="Q7">
         <v>3.2</v>
@@ -3368,7 +3392,7 @@
         <v>0.87</v>
       </c>
       <c r="AQ10">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="AR10">
         <v>0.98</v>
@@ -3493,7 +3517,7 @@
         <v>94</v>
       </c>
       <c r="P11" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="Q11">
         <v>6.5</v>
@@ -3571,10 +3595,10 @@
         <v>0</v>
       </c>
       <c r="AP11">
-        <v>1.36</v>
+        <v>1.47</v>
       </c>
       <c r="AQ11">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AR11">
         <v>0</v>
@@ -3699,7 +3723,7 @@
         <v>88</v>
       </c>
       <c r="P12" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="Q12">
         <v>2.85</v>
@@ -3777,10 +3801,10 @@
         <v>0</v>
       </c>
       <c r="AP12">
-        <v>0.93</v>
+        <v>0.87</v>
       </c>
       <c r="AQ12">
-        <v>1.14</v>
+        <v>1.27</v>
       </c>
       <c r="AR12">
         <v>0</v>
@@ -4189,7 +4213,7 @@
         <v>3</v>
       </c>
       <c r="AP14">
-        <v>1.64</v>
+        <v>1.53</v>
       </c>
       <c r="AQ14">
         <v>1.33</v>
@@ -4395,10 +4419,10 @@
         <v>0</v>
       </c>
       <c r="AP15">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="AQ15">
-        <v>0.79</v>
+        <v>0.73</v>
       </c>
       <c r="AR15">
         <v>0</v>
@@ -4601,10 +4625,10 @@
         <v>0</v>
       </c>
       <c r="AP16">
-        <v>2.43</v>
+        <v>2.47</v>
       </c>
       <c r="AQ16">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AR16">
         <v>0</v>
@@ -4807,10 +4831,10 @@
         <v>0</v>
       </c>
       <c r="AP17">
-        <v>2.29</v>
+        <v>2.33</v>
       </c>
       <c r="AQ17">
-        <v>1.21</v>
+        <v>1.13</v>
       </c>
       <c r="AR17">
         <v>0</v>
@@ -4935,7 +4959,7 @@
         <v>88</v>
       </c>
       <c r="P18" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="Q18">
         <v>5.4</v>
@@ -5013,7 +5037,7 @@
         <v>1</v>
       </c>
       <c r="AP18">
-        <v>1.64</v>
+        <v>1.53</v>
       </c>
       <c r="AQ18">
         <v>2.2</v>
@@ -5222,7 +5246,7 @@
         <v>2.13</v>
       </c>
       <c r="AQ19">
-        <v>0.79</v>
+        <v>0.73</v>
       </c>
       <c r="AR19">
         <v>1.9</v>
@@ -5428,7 +5452,7 @@
         <v>1.27</v>
       </c>
       <c r="AQ20">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="AR20">
         <v>1</v>
@@ -5837,7 +5861,7 @@
         <v>0</v>
       </c>
       <c r="AP22">
-        <v>1.43</v>
+        <v>1.53</v>
       </c>
       <c r="AQ22">
         <v>0.8</v>
@@ -5965,7 +5989,7 @@
         <v>102</v>
       </c>
       <c r="P23" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="Q23">
         <v>2.6</v>
@@ -6171,7 +6195,7 @@
         <v>103</v>
       </c>
       <c r="P24" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="Q24">
         <v>2.75</v>
@@ -6377,7 +6401,7 @@
         <v>88</v>
       </c>
       <c r="P25" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="Q25">
         <v>1.06</v>
@@ -6458,7 +6482,7 @@
         <v>0.87</v>
       </c>
       <c r="AQ25">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AR25">
         <v>0.93</v>
@@ -6583,7 +6607,7 @@
         <v>104</v>
       </c>
       <c r="P26" t="s">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="Q26">
         <v>6.23</v>
@@ -6664,7 +6688,7 @@
         <v>1</v>
       </c>
       <c r="AQ26">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AR26">
         <v>1.73</v>
@@ -6867,7 +6891,7 @@
         <v>3</v>
       </c>
       <c r="AP27">
-        <v>1.36</v>
+        <v>1.47</v>
       </c>
       <c r="AQ27">
         <v>1.27</v>
@@ -7279,10 +7303,10 @@
         <v>0</v>
       </c>
       <c r="AP29">
-        <v>0.93</v>
+        <v>0.87</v>
       </c>
       <c r="AQ29">
-        <v>0.79</v>
+        <v>0.73</v>
       </c>
       <c r="AR29">
         <v>1.22</v>
@@ -7485,10 +7509,10 @@
         <v>0</v>
       </c>
       <c r="AP30">
-        <v>2.43</v>
+        <v>2.47</v>
       </c>
       <c r="AQ30">
-        <v>1.21</v>
+        <v>1.13</v>
       </c>
       <c r="AR30">
         <v>1.24</v>
@@ -7691,7 +7715,7 @@
         <v>0</v>
       </c>
       <c r="AP31">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="AQ31">
         <v>0.07000000000000001</v>
@@ -7897,10 +7921,10 @@
         <v>3</v>
       </c>
       <c r="AP32">
-        <v>2.29</v>
+        <v>2.33</v>
       </c>
       <c r="AQ32">
-        <v>1.14</v>
+        <v>1.27</v>
       </c>
       <c r="AR32">
         <v>1.64</v>
@@ -8106,7 +8130,7 @@
         <v>1.53</v>
       </c>
       <c r="AQ33">
-        <v>0.79</v>
+        <v>0.73</v>
       </c>
       <c r="AR33">
         <v>1.08</v>
@@ -8231,7 +8255,7 @@
         <v>111</v>
       </c>
       <c r="P34" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="Q34">
         <v>1.45</v>
@@ -8437,7 +8461,7 @@
         <v>112</v>
       </c>
       <c r="P35" t="s">
-        <v>246</v>
+        <v>251</v>
       </c>
       <c r="Q35">
         <v>2.84</v>
@@ -8518,7 +8542,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ35">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="AR35">
         <v>1.93</v>
@@ -8643,7 +8667,7 @@
         <v>113</v>
       </c>
       <c r="P36" t="s">
-        <v>247</v>
+        <v>252</v>
       </c>
       <c r="Q36">
         <v>5.63</v>
@@ -8724,7 +8748,7 @@
         <v>2</v>
       </c>
       <c r="AQ36">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AR36">
         <v>1.54</v>
@@ -8849,7 +8873,7 @@
         <v>114</v>
       </c>
       <c r="P37" t="s">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="Q37">
         <v>2.58</v>
@@ -8927,7 +8951,7 @@
         <v>0</v>
       </c>
       <c r="AP37">
-        <v>1.43</v>
+        <v>1.53</v>
       </c>
       <c r="AQ37">
         <v>1</v>
@@ -9133,7 +9157,7 @@
         <v>1.5</v>
       </c>
       <c r="AP38">
-        <v>1.64</v>
+        <v>1.53</v>
       </c>
       <c r="AQ38">
         <v>0.4</v>
@@ -9261,7 +9285,7 @@
         <v>88</v>
       </c>
       <c r="P39" t="s">
-        <v>249</v>
+        <v>254</v>
       </c>
       <c r="Q39">
         <v>4.75</v>
@@ -9673,7 +9697,7 @@
         <v>117</v>
       </c>
       <c r="P41" t="s">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="Q41">
         <v>2.4</v>
@@ -9754,7 +9778,7 @@
         <v>1</v>
       </c>
       <c r="AQ41">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AR41">
         <v>1.49</v>
@@ -9879,7 +9903,7 @@
         <v>107</v>
       </c>
       <c r="P42" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="Q42">
         <v>2.61</v>
@@ -9957,10 +9981,10 @@
         <v>1.5</v>
       </c>
       <c r="AP42">
-        <v>1.36</v>
+        <v>1.47</v>
       </c>
       <c r="AQ42">
-        <v>1.14</v>
+        <v>1.27</v>
       </c>
       <c r="AR42">
         <v>1.41</v>
@@ -10085,7 +10109,7 @@
         <v>118</v>
       </c>
       <c r="P43" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="Q43">
         <v>1.69</v>
@@ -10166,7 +10190,7 @@
         <v>2.13</v>
       </c>
       <c r="AQ43">
-        <v>0.79</v>
+        <v>0.73</v>
       </c>
       <c r="AR43">
         <v>2.07</v>
@@ -10369,10 +10393,10 @@
         <v>0</v>
       </c>
       <c r="AP44">
-        <v>0.93</v>
+        <v>0.87</v>
       </c>
       <c r="AQ44">
-        <v>1.21</v>
+        <v>1.13</v>
       </c>
       <c r="AR44">
         <v>1.16</v>
@@ -10575,7 +10599,7 @@
         <v>1.5</v>
       </c>
       <c r="AP45">
-        <v>2.43</v>
+        <v>2.47</v>
       </c>
       <c r="AQ45">
         <v>1.27</v>
@@ -11196,7 +11220,7 @@
         <v>0.27</v>
       </c>
       <c r="AQ48">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="AR48">
         <v>1.34</v>
@@ -11402,7 +11426,7 @@
         <v>1.27</v>
       </c>
       <c r="AQ49">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AR49">
         <v>1.24</v>
@@ -11527,7 +11551,7 @@
         <v>88</v>
       </c>
       <c r="P50" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="Q50">
         <v>5.1</v>
@@ -11608,7 +11632,7 @@
         <v>1.53</v>
       </c>
       <c r="AQ50">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AR50">
         <v>1.24</v>
@@ -11814,7 +11838,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ51">
-        <v>0.79</v>
+        <v>0.73</v>
       </c>
       <c r="AR51">
         <v>1.76</v>
@@ -11939,7 +11963,7 @@
         <v>122</v>
       </c>
       <c r="P52" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="Q52">
         <v>3</v>
@@ -12017,7 +12041,7 @@
         <v>0.33</v>
       </c>
       <c r="AP52">
-        <v>1.43</v>
+        <v>1.53</v>
       </c>
       <c r="AQ52">
         <v>1.8</v>
@@ -12351,7 +12375,7 @@
         <v>124</v>
       </c>
       <c r="P54" t="s">
-        <v>255</v>
+        <v>260</v>
       </c>
       <c r="Q54">
         <v>3</v>
@@ -12429,7 +12453,7 @@
         <v>0</v>
       </c>
       <c r="AP54">
-        <v>1.36</v>
+        <v>1.47</v>
       </c>
       <c r="AQ54">
         <v>1</v>
@@ -12635,7 +12659,7 @@
         <v>2.33</v>
       </c>
       <c r="AP55">
-        <v>1.64</v>
+        <v>1.53</v>
       </c>
       <c r="AQ55">
         <v>2</v>
@@ -12841,7 +12865,7 @@
         <v>1.33</v>
       </c>
       <c r="AP56">
-        <v>2.29</v>
+        <v>2.33</v>
       </c>
       <c r="AQ56">
         <v>1.33</v>
@@ -12969,7 +12993,7 @@
         <v>88</v>
       </c>
       <c r="P57" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="Q57">
         <v>5.88</v>
@@ -13047,7 +13071,7 @@
         <v>2</v>
       </c>
       <c r="AP57">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="AQ57">
         <v>2.2</v>
@@ -13256,7 +13280,7 @@
         <v>1.53</v>
       </c>
       <c r="AQ58">
-        <v>0.79</v>
+        <v>0.73</v>
       </c>
       <c r="AR58">
         <v>1.32</v>
@@ -13381,7 +13405,7 @@
         <v>127</v>
       </c>
       <c r="P59" t="s">
-        <v>257</v>
+        <v>262</v>
       </c>
       <c r="Q59">
         <v>3.86</v>
@@ -13459,7 +13483,7 @@
         <v>0.5</v>
       </c>
       <c r="AP59">
-        <v>1.36</v>
+        <v>1.47</v>
       </c>
       <c r="AQ59">
         <v>1.8</v>
@@ -13668,7 +13692,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ60">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AR60">
         <v>1.83</v>
@@ -13999,7 +14023,7 @@
         <v>130</v>
       </c>
       <c r="P62" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="Q62">
         <v>1.83</v>
@@ -14077,7 +14101,7 @@
         <v>0.75</v>
       </c>
       <c r="AP62">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="AQ62">
         <v>0.4</v>
@@ -14205,7 +14229,7 @@
         <v>88</v>
       </c>
       <c r="P63" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="Q63">
         <v>8.77</v>
@@ -14286,7 +14310,7 @@
         <v>0.27</v>
       </c>
       <c r="AQ63">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AR63">
         <v>1.37</v>
@@ -14489,10 +14513,10 @@
         <v>0.33</v>
       </c>
       <c r="AP64">
-        <v>1.43</v>
+        <v>1.53</v>
       </c>
       <c r="AQ64">
-        <v>0.79</v>
+        <v>0.73</v>
       </c>
       <c r="AR64">
         <v>1.75</v>
@@ -14617,7 +14641,7 @@
         <v>132</v>
       </c>
       <c r="P65" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="Q65">
         <v>2.4</v>
@@ -14695,10 +14719,10 @@
         <v>1.25</v>
       </c>
       <c r="AP65">
-        <v>1.64</v>
+        <v>1.53</v>
       </c>
       <c r="AQ65">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="AR65">
         <v>1.42</v>
@@ -14823,7 +14847,7 @@
         <v>133</v>
       </c>
       <c r="P66" t="s">
-        <v>261</v>
+        <v>266</v>
       </c>
       <c r="Q66">
         <v>1.55</v>
@@ -15029,7 +15053,7 @@
         <v>134</v>
       </c>
       <c r="P67" t="s">
-        <v>262</v>
+        <v>267</v>
       </c>
       <c r="Q67">
         <v>4</v>
@@ -15235,7 +15259,7 @@
         <v>88</v>
       </c>
       <c r="P68" t="s">
-        <v>263</v>
+        <v>268</v>
       </c>
       <c r="Q68">
         <v>3.1</v>
@@ -15313,7 +15337,7 @@
         <v>0</v>
       </c>
       <c r="AP68">
-        <v>0.93</v>
+        <v>0.87</v>
       </c>
       <c r="AQ68">
         <v>0.8</v>
@@ -15522,7 +15546,7 @@
         <v>1.27</v>
       </c>
       <c r="AQ69">
-        <v>1.14</v>
+        <v>1.27</v>
       </c>
       <c r="AR69">
         <v>1.16</v>
@@ -15728,7 +15752,7 @@
         <v>2</v>
       </c>
       <c r="AQ70">
-        <v>1.21</v>
+        <v>1.13</v>
       </c>
       <c r="AR70">
         <v>1.53</v>
@@ -15931,7 +15955,7 @@
         <v>0</v>
       </c>
       <c r="AP71">
-        <v>2.43</v>
+        <v>2.47</v>
       </c>
       <c r="AQ71">
         <v>0.07000000000000001</v>
@@ -16059,7 +16083,7 @@
         <v>124</v>
       </c>
       <c r="P72" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="Q72">
         <v>1.88</v>
@@ -16137,7 +16161,7 @@
         <v>0.75</v>
       </c>
       <c r="AP72">
-        <v>2.29</v>
+        <v>2.33</v>
       </c>
       <c r="AQ72">
         <v>1</v>
@@ -16265,7 +16289,7 @@
         <v>88</v>
       </c>
       <c r="P73" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="Q73">
         <v>7</v>
@@ -16552,7 +16576,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ74">
-        <v>1.21</v>
+        <v>1.13</v>
       </c>
       <c r="AR74">
         <v>1.81</v>
@@ -16677,7 +16701,7 @@
         <v>138</v>
       </c>
       <c r="P75" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="Q75">
         <v>2.3</v>
@@ -16755,10 +16779,10 @@
         <v>0.25</v>
       </c>
       <c r="AP75">
-        <v>1.36</v>
+        <v>1.47</v>
       </c>
       <c r="AQ75">
-        <v>0.79</v>
+        <v>0.73</v>
       </c>
       <c r="AR75">
         <v>1.49</v>
@@ -16883,7 +16907,7 @@
         <v>88</v>
       </c>
       <c r="P76" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="Q76">
         <v>3.7</v>
@@ -16964,7 +16988,7 @@
         <v>0.27</v>
       </c>
       <c r="AQ76">
-        <v>0.79</v>
+        <v>0.73</v>
       </c>
       <c r="AR76">
         <v>1.29</v>
@@ -17089,7 +17113,7 @@
         <v>88</v>
       </c>
       <c r="P77" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="Q77">
         <v>2.47</v>
@@ -17167,10 +17191,10 @@
         <v>1.4</v>
       </c>
       <c r="AP77">
-        <v>1.64</v>
+        <v>1.53</v>
       </c>
       <c r="AQ77">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AR77">
         <v>1.45</v>
@@ -17373,7 +17397,7 @@
         <v>0.8</v>
       </c>
       <c r="AP78">
-        <v>2.29</v>
+        <v>2.33</v>
       </c>
       <c r="AQ78">
         <v>0.4</v>
@@ -17579,7 +17603,7 @@
         <v>1</v>
       </c>
       <c r="AP79">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="AQ79">
         <v>1.8</v>
@@ -17707,7 +17731,7 @@
         <v>140</v>
       </c>
       <c r="P80" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="Q80">
         <v>2.5</v>
@@ -17785,10 +17809,10 @@
         <v>1.2</v>
       </c>
       <c r="AP80">
-        <v>1.43</v>
+        <v>1.53</v>
       </c>
       <c r="AQ80">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="AR80">
         <v>1.66</v>
@@ -17913,7 +17937,7 @@
         <v>141</v>
       </c>
       <c r="P81" t="s">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="Q81">
         <v>2.38</v>
@@ -17994,7 +18018,7 @@
         <v>3</v>
       </c>
       <c r="AQ81">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AR81">
         <v>2.43</v>
@@ -18119,7 +18143,7 @@
         <v>142</v>
       </c>
       <c r="P82" t="s">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="Q82">
         <v>2.8</v>
@@ -18325,7 +18349,7 @@
         <v>143</v>
       </c>
       <c r="P83" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="Q83">
         <v>2.6</v>
@@ -18531,7 +18555,7 @@
         <v>144</v>
       </c>
       <c r="P84" t="s">
-        <v>273</v>
+        <v>278</v>
       </c>
       <c r="Q84">
         <v>3.4</v>
@@ -18609,7 +18633,7 @@
         <v>1.6</v>
       </c>
       <c r="AP84">
-        <v>2.43</v>
+        <v>2.47</v>
       </c>
       <c r="AQ84">
         <v>2</v>
@@ -18943,7 +18967,7 @@
         <v>146</v>
       </c>
       <c r="P86" t="s">
-        <v>274</v>
+        <v>279</v>
       </c>
       <c r="Q86">
         <v>2.88</v>
@@ -19355,7 +19379,7 @@
         <v>88</v>
       </c>
       <c r="P88" t="s">
-        <v>275</v>
+        <v>280</v>
       </c>
       <c r="Q88">
         <v>2.6</v>
@@ -19561,7 +19585,7 @@
         <v>93</v>
       </c>
       <c r="P89" t="s">
-        <v>276</v>
+        <v>281</v>
       </c>
       <c r="Q89">
         <v>6.5</v>
@@ -19845,10 +19869,10 @@
         <v>1.4</v>
       </c>
       <c r="AP90">
-        <v>1.64</v>
+        <v>1.53</v>
       </c>
       <c r="AQ90">
-        <v>0.79</v>
+        <v>0.73</v>
       </c>
       <c r="AR90">
         <v>1.39</v>
@@ -19973,7 +19997,7 @@
         <v>149</v>
       </c>
       <c r="P91" t="s">
-        <v>277</v>
+        <v>282</v>
       </c>
       <c r="Q91">
         <v>4.7</v>
@@ -20051,7 +20075,7 @@
         <v>1</v>
       </c>
       <c r="AP91">
-        <v>0.93</v>
+        <v>0.87</v>
       </c>
       <c r="AQ91">
         <v>1.8</v>
@@ -20179,7 +20203,7 @@
         <v>88</v>
       </c>
       <c r="P92" t="s">
-        <v>278</v>
+        <v>283</v>
       </c>
       <c r="Q92">
         <v>3.8</v>
@@ -20260,7 +20284,7 @@
         <v>0.27</v>
       </c>
       <c r="AQ92">
-        <v>1.21</v>
+        <v>1.13</v>
       </c>
       <c r="AR92">
         <v>1.33</v>
@@ -20463,10 +20487,10 @@
         <v>1.67</v>
       </c>
       <c r="AP93">
-        <v>1.43</v>
+        <v>1.53</v>
       </c>
       <c r="AQ93">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AR93">
         <v>1.61</v>
@@ -20591,7 +20615,7 @@
         <v>150</v>
       </c>
       <c r="P94" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="Q94">
         <v>3</v>
@@ -20669,10 +20693,10 @@
         <v>1.5</v>
       </c>
       <c r="AP94">
-        <v>1.36</v>
+        <v>1.47</v>
       </c>
       <c r="AQ94">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="AR94">
         <v>1.52</v>
@@ -20875,10 +20899,10 @@
         <v>1.5</v>
       </c>
       <c r="AP95">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="AQ95">
-        <v>1.14</v>
+        <v>1.27</v>
       </c>
       <c r="AR95">
         <v>1.43</v>
@@ -21084,7 +21108,7 @@
         <v>3</v>
       </c>
       <c r="AQ96">
-        <v>0.79</v>
+        <v>0.73</v>
       </c>
       <c r="AR96">
         <v>2.31</v>
@@ -21287,10 +21311,10 @@
         <v>2.5</v>
       </c>
       <c r="AP97">
-        <v>2.29</v>
+        <v>2.33</v>
       </c>
       <c r="AQ97">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AR97">
         <v>1.81</v>
@@ -22033,7 +22057,7 @@
         <v>156</v>
       </c>
       <c r="P101" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
       <c r="Q101">
         <v>1.83</v>
@@ -23141,10 +23165,10 @@
         <v>0.33</v>
       </c>
       <c r="AP106">
-        <v>2.43</v>
+        <v>2.47</v>
       </c>
       <c r="AQ106">
-        <v>0.79</v>
+        <v>0.73</v>
       </c>
       <c r="AR106">
         <v>1.87</v>
@@ -23347,10 +23371,10 @@
         <v>1.57</v>
       </c>
       <c r="AP107">
-        <v>0.93</v>
+        <v>0.87</v>
       </c>
       <c r="AQ107">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AR107">
         <v>1.14</v>
@@ -23553,10 +23577,10 @@
         <v>0.67</v>
       </c>
       <c r="AP108">
-        <v>1.64</v>
+        <v>1.53</v>
       </c>
       <c r="AQ108">
-        <v>1.21</v>
+        <v>1.13</v>
       </c>
       <c r="AR108">
         <v>1.5</v>
@@ -23681,7 +23705,7 @@
         <v>161</v>
       </c>
       <c r="P109" t="s">
-        <v>281</v>
+        <v>286</v>
       </c>
       <c r="Q109">
         <v>2.24</v>
@@ -23759,7 +23783,7 @@
         <v>0</v>
       </c>
       <c r="AP109">
-        <v>1.36</v>
+        <v>1.47</v>
       </c>
       <c r="AQ109">
         <v>0.07000000000000001</v>
@@ -23887,7 +23911,7 @@
         <v>162</v>
       </c>
       <c r="P110" t="s">
-        <v>282</v>
+        <v>287</v>
       </c>
       <c r="Q110">
         <v>4.6</v>
@@ -23965,10 +23989,10 @@
         <v>2.14</v>
       </c>
       <c r="AP110">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="AQ110">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AR110">
         <v>1.51</v>
@@ -24171,10 +24195,10 @@
         <v>1.71</v>
       </c>
       <c r="AP111">
-        <v>2.29</v>
+        <v>2.33</v>
       </c>
       <c r="AQ111">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="AR111">
         <v>1.73</v>
@@ -24380,7 +24404,7 @@
         <v>3</v>
       </c>
       <c r="AQ112">
-        <v>1.14</v>
+        <v>1.27</v>
       </c>
       <c r="AR112">
         <v>2.21</v>
@@ -24505,7 +24529,7 @@
         <v>165</v>
       </c>
       <c r="P113" t="s">
-        <v>283</v>
+        <v>288</v>
       </c>
       <c r="Q113">
         <v>3.25</v>
@@ -24711,7 +24735,7 @@
         <v>151</v>
       </c>
       <c r="P114" t="s">
-        <v>284</v>
+        <v>289</v>
       </c>
       <c r="Q114">
         <v>2.88</v>
@@ -24917,7 +24941,7 @@
         <v>99</v>
       </c>
       <c r="P115" t="s">
-        <v>285</v>
+        <v>290</v>
       </c>
       <c r="Q115">
         <v>1.73</v>
@@ -25123,7 +25147,7 @@
         <v>88</v>
       </c>
       <c r="P116" t="s">
-        <v>286</v>
+        <v>291</v>
       </c>
       <c r="Q116">
         <v>4.33</v>
@@ -25410,7 +25434,7 @@
         <v>1</v>
       </c>
       <c r="AQ117">
-        <v>0.79</v>
+        <v>0.73</v>
       </c>
       <c r="AR117">
         <v>1.44</v>
@@ -25741,7 +25765,7 @@
         <v>88</v>
       </c>
       <c r="P119" t="s">
-        <v>287</v>
+        <v>292</v>
       </c>
       <c r="Q119">
         <v>15</v>
@@ -25947,7 +25971,7 @@
         <v>168</v>
       </c>
       <c r="P120" t="s">
-        <v>288</v>
+        <v>293</v>
       </c>
       <c r="Q120">
         <v>3</v>
@@ -26025,7 +26049,7 @@
         <v>1.17</v>
       </c>
       <c r="AP120">
-        <v>1.43</v>
+        <v>1.53</v>
       </c>
       <c r="AQ120">
         <v>1.27</v>
@@ -26231,10 +26255,10 @@
         <v>1.17</v>
       </c>
       <c r="AP121">
-        <v>1.43</v>
+        <v>1.53</v>
       </c>
       <c r="AQ121">
-        <v>0.79</v>
+        <v>0.73</v>
       </c>
       <c r="AR121">
         <v>1.57</v>
@@ -26359,7 +26383,7 @@
         <v>170</v>
       </c>
       <c r="P122" t="s">
-        <v>289</v>
+        <v>294</v>
       </c>
       <c r="Q122">
         <v>3.25</v>
@@ -26440,7 +26464,7 @@
         <v>1</v>
       </c>
       <c r="AQ122">
-        <v>0.79</v>
+        <v>0.73</v>
       </c>
       <c r="AR122">
         <v>1.54</v>
@@ -26643,7 +26667,7 @@
         <v>1.14</v>
       </c>
       <c r="AP123">
-        <v>1.36</v>
+        <v>1.47</v>
       </c>
       <c r="AQ123">
         <v>1.33</v>
@@ -26771,7 +26795,7 @@
         <v>172</v>
       </c>
       <c r="P124" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="Q124">
         <v>1.83</v>
@@ -26849,10 +26873,10 @@
         <v>1.17</v>
       </c>
       <c r="AP124">
-        <v>2.43</v>
+        <v>2.47</v>
       </c>
       <c r="AQ124">
-        <v>1.14</v>
+        <v>1.27</v>
       </c>
       <c r="AR124">
         <v>1.87</v>
@@ -26977,7 +27001,7 @@
         <v>171</v>
       </c>
       <c r="P125" t="s">
-        <v>290</v>
+        <v>295</v>
       </c>
       <c r="Q125">
         <v>6.3</v>
@@ -27058,7 +27082,7 @@
         <v>0.87</v>
       </c>
       <c r="AQ125">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AR125">
         <v>1.21</v>
@@ -27467,10 +27491,10 @@
         <v>0.71</v>
       </c>
       <c r="AP127">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="AQ127">
-        <v>1.21</v>
+        <v>1.13</v>
       </c>
       <c r="AR127">
         <v>1.5</v>
@@ -27673,7 +27697,7 @@
         <v>0</v>
       </c>
       <c r="AP128">
-        <v>0.93</v>
+        <v>0.87</v>
       </c>
       <c r="AQ128">
         <v>0.07000000000000001</v>
@@ -27801,7 +27825,7 @@
         <v>174</v>
       </c>
       <c r="P129" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="Q129">
         <v>2.1</v>
@@ -27879,10 +27903,10 @@
         <v>1.38</v>
       </c>
       <c r="AP129">
-        <v>2.29</v>
+        <v>2.33</v>
       </c>
       <c r="AQ129">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AR129">
         <v>1.69</v>
@@ -28007,7 +28031,7 @@
         <v>175</v>
       </c>
       <c r="P130" t="s">
-        <v>292</v>
+        <v>297</v>
       </c>
       <c r="Q130">
         <v>1.5</v>
@@ -28088,7 +28112,7 @@
         <v>2.13</v>
       </c>
       <c r="AQ130">
-        <v>1.14</v>
+        <v>1.27</v>
       </c>
       <c r="AR130">
         <v>1.93</v>
@@ -28213,7 +28237,7 @@
         <v>176</v>
       </c>
       <c r="P131" t="s">
-        <v>293</v>
+        <v>298</v>
       </c>
       <c r="Q131">
         <v>3.5</v>
@@ -28291,7 +28315,7 @@
         <v>1</v>
       </c>
       <c r="AP131">
-        <v>0.93</v>
+        <v>0.87</v>
       </c>
       <c r="AQ131">
         <v>1.33</v>
@@ -28419,7 +28443,7 @@
         <v>177</v>
       </c>
       <c r="P132" t="s">
-        <v>294</v>
+        <v>299</v>
       </c>
       <c r="Q132">
         <v>4.04</v>
@@ -28500,7 +28524,7 @@
         <v>0.87</v>
       </c>
       <c r="AQ132">
-        <v>0.79</v>
+        <v>0.73</v>
       </c>
       <c r="AR132">
         <v>1.24</v>
@@ -28831,7 +28855,7 @@
         <v>88</v>
       </c>
       <c r="P134" t="s">
-        <v>295</v>
+        <v>300</v>
       </c>
       <c r="Q134">
         <v>2.75</v>
@@ -28912,7 +28936,7 @@
         <v>1</v>
       </c>
       <c r="AQ134">
-        <v>1.21</v>
+        <v>1.13</v>
       </c>
       <c r="AR134">
         <v>1.51</v>
@@ -29115,7 +29139,7 @@
         <v>1.25</v>
       </c>
       <c r="AP135">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="AQ135">
         <v>1.27</v>
@@ -29321,7 +29345,7 @@
         <v>2.43</v>
       </c>
       <c r="AP136">
-        <v>2.43</v>
+        <v>2.47</v>
       </c>
       <c r="AQ136">
         <v>2.2</v>
@@ -29527,7 +29551,7 @@
         <v>1</v>
       </c>
       <c r="AP137">
-        <v>2.29</v>
+        <v>2.33</v>
       </c>
       <c r="AQ137">
         <v>0.8</v>
@@ -29655,7 +29679,7 @@
         <v>91</v>
       </c>
       <c r="P138" t="s">
-        <v>283</v>
+        <v>288</v>
       </c>
       <c r="Q138">
         <v>2.25</v>
@@ -29861,7 +29885,7 @@
         <v>179</v>
       </c>
       <c r="P139" t="s">
-        <v>292</v>
+        <v>297</v>
       </c>
       <c r="Q139">
         <v>1.9</v>
@@ -29942,7 +29966,7 @@
         <v>2</v>
       </c>
       <c r="AQ139">
-        <v>0.79</v>
+        <v>0.73</v>
       </c>
       <c r="AR139">
         <v>1.71</v>
@@ -30148,7 +30172,7 @@
         <v>2.13</v>
       </c>
       <c r="AQ140">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="AR140">
         <v>2.06</v>
@@ -30273,7 +30297,7 @@
         <v>88</v>
       </c>
       <c r="P141" t="s">
-        <v>296</v>
+        <v>301</v>
       </c>
       <c r="Q141">
         <v>4</v>
@@ -30479,7 +30503,7 @@
         <v>117</v>
       </c>
       <c r="P142" t="s">
-        <v>297</v>
+        <v>302</v>
       </c>
       <c r="Q142">
         <v>4</v>
@@ -30763,7 +30787,7 @@
         <v>1</v>
       </c>
       <c r="AP143">
-        <v>1.64</v>
+        <v>1.53</v>
       </c>
       <c r="AQ143">
         <v>0.8</v>
@@ -30891,7 +30915,7 @@
         <v>182</v>
       </c>
       <c r="P144" t="s">
-        <v>298</v>
+        <v>303</v>
       </c>
       <c r="Q144">
         <v>6</v>
@@ -30969,7 +30993,7 @@
         <v>2.5</v>
       </c>
       <c r="AP144">
-        <v>1.43</v>
+        <v>1.53</v>
       </c>
       <c r="AQ144">
         <v>2.2</v>
@@ -31097,7 +31121,7 @@
         <v>88</v>
       </c>
       <c r="P145" t="s">
-        <v>299</v>
+        <v>304</v>
       </c>
       <c r="Q145">
         <v>3.5</v>
@@ -31303,7 +31327,7 @@
         <v>183</v>
       </c>
       <c r="P146" t="s">
-        <v>300</v>
+        <v>305</v>
       </c>
       <c r="Q146">
         <v>4.33</v>
@@ -31384,7 +31408,7 @@
         <v>0.87</v>
       </c>
       <c r="AQ146">
-        <v>1.21</v>
+        <v>1.13</v>
       </c>
       <c r="AR146">
         <v>1.22</v>
@@ -31509,7 +31533,7 @@
         <v>184</v>
       </c>
       <c r="P147" t="s">
-        <v>301</v>
+        <v>306</v>
       </c>
       <c r="Q147">
         <v>3.8</v>
@@ -31587,7 +31611,7 @@
         <v>1.11</v>
       </c>
       <c r="AP147">
-        <v>0.93</v>
+        <v>0.87</v>
       </c>
       <c r="AQ147">
         <v>1.27</v>
@@ -31715,7 +31739,7 @@
         <v>185</v>
       </c>
       <c r="P148" t="s">
-        <v>302</v>
+        <v>307</v>
       </c>
       <c r="Q148">
         <v>2.5</v>
@@ -31796,7 +31820,7 @@
         <v>1</v>
       </c>
       <c r="AQ148">
-        <v>1.14</v>
+        <v>1.27</v>
       </c>
       <c r="AR148">
         <v>1.47</v>
@@ -31921,7 +31945,7 @@
         <v>186</v>
       </c>
       <c r="P149" t="s">
-        <v>299</v>
+        <v>304</v>
       </c>
       <c r="Q149">
         <v>2.05</v>
@@ -31999,10 +32023,10 @@
         <v>1.22</v>
       </c>
       <c r="AP149">
-        <v>2.43</v>
+        <v>2.47</v>
       </c>
       <c r="AQ149">
-        <v>0.79</v>
+        <v>0.73</v>
       </c>
       <c r="AR149">
         <v>1.91</v>
@@ -32208,7 +32232,7 @@
         <v>2.13</v>
       </c>
       <c r="AQ150">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AR150">
         <v>1.98</v>
@@ -32333,7 +32357,7 @@
         <v>188</v>
       </c>
       <c r="P151" t="s">
-        <v>303</v>
+        <v>308</v>
       </c>
       <c r="Q151">
         <v>2.48</v>
@@ -32411,7 +32435,7 @@
         <v>1</v>
       </c>
       <c r="AP151">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="AQ151">
         <v>1.33</v>
@@ -32617,7 +32641,7 @@
         <v>2.56</v>
       </c>
       <c r="AP152">
-        <v>1.36</v>
+        <v>1.47</v>
       </c>
       <c r="AQ152">
         <v>2.2</v>
@@ -32745,7 +32769,7 @@
         <v>190</v>
       </c>
       <c r="P153" t="s">
-        <v>304</v>
+        <v>309</v>
       </c>
       <c r="Q153">
         <v>1.4</v>
@@ -32823,7 +32847,7 @@
         <v>0.13</v>
       </c>
       <c r="AP153">
-        <v>2.29</v>
+        <v>2.33</v>
       </c>
       <c r="AQ153">
         <v>0.07000000000000001</v>
@@ -33157,7 +33181,7 @@
         <v>88</v>
       </c>
       <c r="P155" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="Q155">
         <v>3.2</v>
@@ -33235,7 +33259,7 @@
         <v>1.5</v>
       </c>
       <c r="AP155">
-        <v>1.64</v>
+        <v>1.53</v>
       </c>
       <c r="AQ155">
         <v>1.8</v>
@@ -33444,7 +33468,7 @@
         <v>0.27</v>
       </c>
       <c r="AQ156">
-        <v>0.79</v>
+        <v>0.73</v>
       </c>
       <c r="AR156">
         <v>1.34</v>
@@ -33775,7 +33799,7 @@
         <v>88</v>
       </c>
       <c r="P158" t="s">
-        <v>305</v>
+        <v>310</v>
       </c>
       <c r="Q158">
         <v>5</v>
@@ -33856,7 +33880,7 @@
         <v>1.27</v>
       </c>
       <c r="AQ158">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AR158">
         <v>1.21</v>
@@ -33981,7 +34005,7 @@
         <v>88</v>
       </c>
       <c r="P159" t="s">
-        <v>263</v>
+        <v>268</v>
       </c>
       <c r="Q159">
         <v>2.38</v>
@@ -34062,7 +34086,7 @@
         <v>2</v>
       </c>
       <c r="AQ159">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="AR159">
         <v>1.67</v>
@@ -34393,7 +34417,7 @@
         <v>193</v>
       </c>
       <c r="P161" t="s">
-        <v>290</v>
+        <v>295</v>
       </c>
       <c r="Q161">
         <v>4.75</v>
@@ -34471,7 +34495,7 @@
         <v>1.89</v>
       </c>
       <c r="AP161">
-        <v>1.43</v>
+        <v>1.53</v>
       </c>
       <c r="AQ161">
         <v>2</v>
@@ -34599,7 +34623,7 @@
         <v>194</v>
       </c>
       <c r="P162" t="s">
-        <v>306</v>
+        <v>311</v>
       </c>
       <c r="Q162">
         <v>2.63</v>
@@ -34677,7 +34701,7 @@
         <v>0.9</v>
       </c>
       <c r="AP162">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="AQ162">
         <v>0.8</v>
@@ -34805,7 +34829,7 @@
         <v>88</v>
       </c>
       <c r="P163" t="s">
-        <v>307</v>
+        <v>312</v>
       </c>
       <c r="Q163">
         <v>11</v>
@@ -34883,7 +34907,7 @@
         <v>2.3</v>
       </c>
       <c r="AP163">
-        <v>0.93</v>
+        <v>0.87</v>
       </c>
       <c r="AQ163">
         <v>2.2</v>
@@ -35011,7 +35035,7 @@
         <v>195</v>
       </c>
       <c r="P164" t="s">
-        <v>308</v>
+        <v>313</v>
       </c>
       <c r="Q164">
         <v>2</v>
@@ -35089,7 +35113,7 @@
         <v>1.1</v>
       </c>
       <c r="AP164">
-        <v>2.29</v>
+        <v>2.33</v>
       </c>
       <c r="AQ164">
         <v>1.27</v>
@@ -35217,7 +35241,7 @@
         <v>196</v>
       </c>
       <c r="P165" t="s">
-        <v>309</v>
+        <v>314</v>
       </c>
       <c r="Q165">
         <v>2.5</v>
@@ -35298,7 +35322,7 @@
         <v>2</v>
       </c>
       <c r="AQ165">
-        <v>0.79</v>
+        <v>0.73</v>
       </c>
       <c r="AR165">
         <v>1.66</v>
@@ -35501,7 +35525,7 @@
         <v>1.2</v>
       </c>
       <c r="AP166">
-        <v>2.43</v>
+        <v>2.47</v>
       </c>
       <c r="AQ166">
         <v>1.33</v>
@@ -35916,7 +35940,7 @@
         <v>2.13</v>
       </c>
       <c r="AQ168">
-        <v>1.21</v>
+        <v>1.13</v>
       </c>
       <c r="AR168">
         <v>1.96</v>
@@ -36119,7 +36143,7 @@
         <v>0.55</v>
       </c>
       <c r="AP169">
-        <v>1.43</v>
+        <v>1.53</v>
       </c>
       <c r="AQ169">
         <v>0.4</v>
@@ -36328,7 +36352,7 @@
         <v>1.27</v>
       </c>
       <c r="AQ170">
-        <v>0.79</v>
+        <v>0.73</v>
       </c>
       <c r="AR170">
         <v>1.21</v>
@@ -36453,7 +36477,7 @@
         <v>201</v>
       </c>
       <c r="P171" t="s">
-        <v>310</v>
+        <v>315</v>
       </c>
       <c r="Q171">
         <v>5.2</v>
@@ -36534,7 +36558,7 @@
         <v>0.27</v>
       </c>
       <c r="AQ171">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AR171">
         <v>1.3</v>
@@ -36659,7 +36683,7 @@
         <v>202</v>
       </c>
       <c r="P172" t="s">
-        <v>311</v>
+        <v>316</v>
       </c>
       <c r="Q172">
         <v>6.35</v>
@@ -36740,7 +36764,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ172">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AR172">
         <v>1.5</v>
@@ -36865,7 +36889,7 @@
         <v>203</v>
       </c>
       <c r="P173" t="s">
-        <v>312</v>
+        <v>317</v>
       </c>
       <c r="Q173">
         <v>2.6</v>
@@ -36946,7 +36970,7 @@
         <v>1.53</v>
       </c>
       <c r="AQ173">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="AR173">
         <v>1.47</v>
@@ -37071,7 +37095,7 @@
         <v>88</v>
       </c>
       <c r="P174" t="s">
-        <v>313</v>
+        <v>318</v>
       </c>
       <c r="Q174">
         <v>4.86</v>
@@ -37149,7 +37173,7 @@
         <v>1.7</v>
       </c>
       <c r="AP174">
-        <v>1.36</v>
+        <v>1.47</v>
       </c>
       <c r="AQ174">
         <v>2</v>
@@ -37277,7 +37301,7 @@
         <v>204</v>
       </c>
       <c r="P175" t="s">
-        <v>299</v>
+        <v>304</v>
       </c>
       <c r="Q175">
         <v>2.66</v>
@@ -37355,7 +37379,7 @@
         <v>1.2</v>
       </c>
       <c r="AP175">
-        <v>1.64</v>
+        <v>1.53</v>
       </c>
       <c r="AQ175">
         <v>1</v>
@@ -37689,7 +37713,7 @@
         <v>171</v>
       </c>
       <c r="P177" t="s">
-        <v>314</v>
+        <v>319</v>
       </c>
       <c r="Q177">
         <v>3.63</v>
@@ -37973,7 +37997,7 @@
         <v>0.82</v>
       </c>
       <c r="AP178">
-        <v>2.43</v>
+        <v>2.47</v>
       </c>
       <c r="AQ178">
         <v>0.8</v>
@@ -38101,7 +38125,7 @@
         <v>88</v>
       </c>
       <c r="P179" t="s">
-        <v>315</v>
+        <v>320</v>
       </c>
       <c r="Q179">
         <v>3.92</v>
@@ -38179,7 +38203,7 @@
         <v>1.09</v>
       </c>
       <c r="AP179">
-        <v>0.93</v>
+        <v>0.87</v>
       </c>
       <c r="AQ179">
         <v>1</v>
@@ -38800,7 +38824,7 @@
         <v>2</v>
       </c>
       <c r="AQ182">
-        <v>1.14</v>
+        <v>1.27</v>
       </c>
       <c r="AR182">
         <v>1.67</v>
@@ -38925,7 +38949,7 @@
         <v>208</v>
       </c>
       <c r="P183" t="s">
-        <v>316</v>
+        <v>321</v>
       </c>
       <c r="Q183">
         <v>4.3</v>
@@ -39003,7 +39027,7 @@
         <v>2.36</v>
       </c>
       <c r="AP183">
-        <v>2.29</v>
+        <v>2.33</v>
       </c>
       <c r="AQ183">
         <v>2.2</v>
@@ -39131,7 +39155,7 @@
         <v>88</v>
       </c>
       <c r="P184" t="s">
-        <v>317</v>
+        <v>322</v>
       </c>
       <c r="Q184">
         <v>5.8</v>
@@ -39418,7 +39442,7 @@
         <v>1.53</v>
       </c>
       <c r="AQ185">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AR185">
         <v>1.46</v>
@@ -39543,7 +39567,7 @@
         <v>96</v>
       </c>
       <c r="P186" t="s">
-        <v>318</v>
+        <v>323</v>
       </c>
       <c r="Q186">
         <v>4.7</v>
@@ -39621,10 +39645,10 @@
         <v>2.09</v>
       </c>
       <c r="AP186">
-        <v>1.43</v>
+        <v>1.53</v>
       </c>
       <c r="AQ186">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AR186">
         <v>1.58</v>
@@ -39827,7 +39851,7 @@
         <v>0.5</v>
       </c>
       <c r="AP187">
-        <v>1.36</v>
+        <v>1.47</v>
       </c>
       <c r="AQ187">
         <v>0.4</v>
@@ -40033,10 +40057,10 @@
         <v>0.36</v>
       </c>
       <c r="AP188">
-        <v>1.64</v>
+        <v>1.53</v>
       </c>
       <c r="AQ188">
-        <v>0.79</v>
+        <v>0.73</v>
       </c>
       <c r="AR188">
         <v>1.49</v>
@@ -40161,7 +40185,7 @@
         <v>88</v>
       </c>
       <c r="P189" t="s">
-        <v>319</v>
+        <v>324</v>
       </c>
       <c r="Q189">
         <v>4.5</v>
@@ -40239,7 +40263,7 @@
         <v>1.82</v>
       </c>
       <c r="AP189">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="AQ189">
         <v>2</v>
@@ -40448,7 +40472,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ190">
-        <v>0.79</v>
+        <v>0.73</v>
       </c>
       <c r="AR190">
         <v>1.53</v>
@@ -40654,7 +40678,7 @@
         <v>3</v>
       </c>
       <c r="AQ191">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="AR191">
         <v>2.28</v>
@@ -41603,7 +41627,7 @@
         <v>215</v>
       </c>
       <c r="P196" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="Q196">
         <v>1.95</v>
@@ -41681,7 +41705,7 @@
         <v>1.25</v>
       </c>
       <c r="AP196">
-        <v>2.43</v>
+        <v>2.47</v>
       </c>
       <c r="AQ196">
         <v>1</v>
@@ -41809,7 +41833,7 @@
         <v>88</v>
       </c>
       <c r="P197" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="Q197">
         <v>2.88</v>
@@ -42096,7 +42120,7 @@
         <v>1.53</v>
       </c>
       <c r="AQ198">
-        <v>1.14</v>
+        <v>1.27</v>
       </c>
       <c r="AR198">
         <v>1.45</v>
@@ -42299,7 +42323,7 @@
         <v>1.92</v>
       </c>
       <c r="AP199">
-        <v>0.93</v>
+        <v>0.87</v>
       </c>
       <c r="AQ199">
         <v>2</v>
@@ -42508,7 +42532,7 @@
         <v>0.87</v>
       </c>
       <c r="AQ200">
-        <v>1.14</v>
+        <v>1.27</v>
       </c>
       <c r="AR200">
         <v>1.2</v>
@@ -42633,7 +42657,7 @@
         <v>158</v>
       </c>
       <c r="P201" t="s">
-        <v>320</v>
+        <v>325</v>
       </c>
       <c r="Q201">
         <v>2.63</v>
@@ -42711,10 +42735,10 @@
         <v>1.33</v>
       </c>
       <c r="AP201">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="AQ201">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="AR201">
         <v>1.55</v>
@@ -42917,10 +42941,10 @@
         <v>0.92</v>
       </c>
       <c r="AP202">
-        <v>1.36</v>
+        <v>1.47</v>
       </c>
       <c r="AQ202">
-        <v>0.79</v>
+        <v>0.73</v>
       </c>
       <c r="AR202">
         <v>1.47</v>
@@ -43045,7 +43069,7 @@
         <v>88</v>
       </c>
       <c r="P203" t="s">
-        <v>263</v>
+        <v>268</v>
       </c>
       <c r="Q203">
         <v>2.75</v>
@@ -43123,10 +43147,10 @@
         <v>0.42</v>
       </c>
       <c r="AP203">
-        <v>0.93</v>
+        <v>0.87</v>
       </c>
       <c r="AQ203">
-        <v>0.79</v>
+        <v>0.73</v>
       </c>
       <c r="AR203">
         <v>1.23</v>
@@ -43329,10 +43353,10 @@
         <v>2.17</v>
       </c>
       <c r="AP204">
-        <v>1.64</v>
+        <v>1.53</v>
       </c>
       <c r="AQ204">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AR204">
         <v>1.5</v>
@@ -43457,7 +43481,7 @@
         <v>218</v>
       </c>
       <c r="P205" t="s">
-        <v>321</v>
+        <v>326</v>
       </c>
       <c r="Q205">
         <v>2.88</v>
@@ -43535,10 +43559,10 @@
         <v>1</v>
       </c>
       <c r="AP205">
-        <v>1.43</v>
+        <v>1.53</v>
       </c>
       <c r="AQ205">
-        <v>1.21</v>
+        <v>1.13</v>
       </c>
       <c r="AR205">
         <v>1.56</v>
@@ -43663,7 +43687,7 @@
         <v>88</v>
       </c>
       <c r="P206" t="s">
-        <v>284</v>
+        <v>289</v>
       </c>
       <c r="Q206">
         <v>2.38</v>
@@ -43741,7 +43765,7 @@
         <v>1.62</v>
       </c>
       <c r="AP206">
-        <v>2.29</v>
+        <v>2.33</v>
       </c>
       <c r="AQ206">
         <v>1.8</v>
@@ -43869,7 +43893,7 @@
         <v>219</v>
       </c>
       <c r="P207" t="s">
-        <v>322</v>
+        <v>327</v>
       </c>
       <c r="Q207">
         <v>4.75</v>
@@ -43950,7 +43974,7 @@
         <v>0.27</v>
       </c>
       <c r="AQ207">
-        <v>1.14</v>
+        <v>1.27</v>
       </c>
       <c r="AR207">
         <v>1.21</v>
@@ -44156,7 +44180,7 @@
         <v>3</v>
       </c>
       <c r="AQ208">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AR208">
         <v>2.31</v>
@@ -44693,7 +44717,7 @@
         <v>221</v>
       </c>
       <c r="P211" t="s">
-        <v>323</v>
+        <v>328</v>
       </c>
       <c r="Q211">
         <v>1.57</v>
@@ -44771,7 +44795,7 @@
         <v>0.46</v>
       </c>
       <c r="AP211">
-        <v>2.43</v>
+        <v>2.47</v>
       </c>
       <c r="AQ211">
         <v>0.4</v>
@@ -45105,7 +45129,7 @@
         <v>88</v>
       </c>
       <c r="P213" t="s">
-        <v>324</v>
+        <v>329</v>
       </c>
       <c r="Q213">
         <v>3.5</v>
@@ -45723,7 +45747,7 @@
         <v>224</v>
       </c>
       <c r="P216" t="s">
-        <v>325</v>
+        <v>330</v>
       </c>
       <c r="Q216">
         <v>2.75</v>
@@ -46007,10 +46031,10 @@
         <v>1.46</v>
       </c>
       <c r="AP217">
-        <v>0.93</v>
+        <v>0.87</v>
       </c>
       <c r="AQ217">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="AR217">
         <v>1.24</v>
@@ -46135,7 +46159,7 @@
         <v>124</v>
       </c>
       <c r="P218" t="s">
-        <v>326</v>
+        <v>331</v>
       </c>
       <c r="Q218">
         <v>2.4</v>
@@ -46213,10 +46237,10 @@
         <v>1</v>
       </c>
       <c r="AP218">
-        <v>1.43</v>
+        <v>1.53</v>
       </c>
       <c r="AQ218">
-        <v>1.14</v>
+        <v>1.27</v>
       </c>
       <c r="AR218">
         <v>1.55</v>
@@ -46341,7 +46365,7 @@
         <v>226</v>
       </c>
       <c r="P219" t="s">
-        <v>327</v>
+        <v>332</v>
       </c>
       <c r="Q219">
         <v>3</v>
@@ -46419,10 +46443,10 @@
         <v>2</v>
       </c>
       <c r="AP219">
-        <v>2.43</v>
+        <v>2.47</v>
       </c>
       <c r="AQ219">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AR219">
         <v>1.85</v>
@@ -46625,7 +46649,7 @@
         <v>0.08</v>
       </c>
       <c r="AP220">
-        <v>1.64</v>
+        <v>1.53</v>
       </c>
       <c r="AQ220">
         <v>0.07000000000000001</v>
@@ -46753,7 +46777,7 @@
         <v>228</v>
       </c>
       <c r="P221" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="Q221">
         <v>1.67</v>
@@ -46834,7 +46858,7 @@
         <v>3</v>
       </c>
       <c r="AQ221">
-        <v>1.21</v>
+        <v>1.13</v>
       </c>
       <c r="AR221">
         <v>2.26</v>
@@ -47037,10 +47061,10 @@
         <v>1.15</v>
       </c>
       <c r="AP222">
-        <v>1.36</v>
+        <v>1.47</v>
       </c>
       <c r="AQ222">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AR222">
         <v>1.47</v>
@@ -47165,7 +47189,7 @@
         <v>88</v>
       </c>
       <c r="P223" t="s">
-        <v>299</v>
+        <v>304</v>
       </c>
       <c r="Q223">
         <v>2.3</v>
@@ -47243,10 +47267,10 @@
         <v>0.62</v>
       </c>
       <c r="AP223">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="AQ223">
-        <v>0.79</v>
+        <v>0.73</v>
       </c>
       <c r="AR223">
         <v>1.65</v>
@@ -47449,10 +47473,10 @@
         <v>0.85</v>
       </c>
       <c r="AP224">
-        <v>2.29</v>
+        <v>2.33</v>
       </c>
       <c r="AQ224">
-        <v>0.79</v>
+        <v>0.73</v>
       </c>
       <c r="AR224">
         <v>1.77</v>
@@ -47577,7 +47601,7 @@
         <v>218</v>
       </c>
       <c r="P225" t="s">
-        <v>328</v>
+        <v>333</v>
       </c>
       <c r="Q225">
         <v>3.3</v>
@@ -47658,7 +47682,7 @@
         <v>1.27</v>
       </c>
       <c r="AQ225">
-        <v>1.21</v>
+        <v>1.13</v>
       </c>
       <c r="AR225">
         <v>1.23</v>
@@ -47783,7 +47807,7 @@
         <v>88</v>
       </c>
       <c r="P226" t="s">
-        <v>329</v>
+        <v>334</v>
       </c>
       <c r="Q226">
         <v>7.5</v>
@@ -47989,7 +48013,7 @@
         <v>151</v>
       </c>
       <c r="P227" t="s">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="Q227">
         <v>5.5</v>
@@ -48195,7 +48219,7 @@
         <v>230</v>
       </c>
       <c r="P228" t="s">
-        <v>331</v>
+        <v>336</v>
       </c>
       <c r="Q228">
         <v>5</v>
@@ -48813,7 +48837,7 @@
         <v>232</v>
       </c>
       <c r="P231" t="s">
-        <v>332</v>
+        <v>337</v>
       </c>
       <c r="Q231">
         <v>3.6</v>
@@ -49019,7 +49043,7 @@
         <v>88</v>
       </c>
       <c r="P232" t="s">
-        <v>333</v>
+        <v>338</v>
       </c>
       <c r="Q232">
         <v>3</v>
@@ -49225,7 +49249,7 @@
         <v>233</v>
       </c>
       <c r="P233" t="s">
-        <v>334</v>
+        <v>339</v>
       </c>
       <c r="Q233">
         <v>4.5</v>
@@ -49381,6 +49405,1654 @@
         <v>0</v>
       </c>
       <c r="BP233">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="234" spans="1:68">
+      <c r="A234" s="1">
+        <v>233</v>
+      </c>
+      <c r="B234">
+        <v>7468325</v>
+      </c>
+      <c r="C234" t="s">
+        <v>68</v>
+      </c>
+      <c r="D234" t="s">
+        <v>69</v>
+      </c>
+      <c r="E234" s="2">
+        <v>45766.45833333334</v>
+      </c>
+      <c r="F234">
+        <v>30</v>
+      </c>
+      <c r="G234" t="s">
+        <v>84</v>
+      </c>
+      <c r="H234" t="s">
+        <v>74</v>
+      </c>
+      <c r="I234">
+        <v>2</v>
+      </c>
+      <c r="J234">
+        <v>1</v>
+      </c>
+      <c r="K234">
+        <v>3</v>
+      </c>
+      <c r="L234">
+        <v>4</v>
+      </c>
+      <c r="M234">
+        <v>2</v>
+      </c>
+      <c r="N234">
+        <v>6</v>
+      </c>
+      <c r="O234" t="s">
+        <v>234</v>
+      </c>
+      <c r="P234" t="s">
+        <v>340</v>
+      </c>
+      <c r="Q234">
+        <v>1.67</v>
+      </c>
+      <c r="R234">
+        <v>2.75</v>
+      </c>
+      <c r="S234">
+        <v>9</v>
+      </c>
+      <c r="T234">
+        <v>1.25</v>
+      </c>
+      <c r="U234">
+        <v>3.75</v>
+      </c>
+      <c r="V234">
+        <v>2.2</v>
+      </c>
+      <c r="W234">
+        <v>1.62</v>
+      </c>
+      <c r="X234">
+        <v>5</v>
+      </c>
+      <c r="Y234">
+        <v>1.17</v>
+      </c>
+      <c r="Z234">
+        <v>1.23</v>
+      </c>
+      <c r="AA234">
+        <v>6.54</v>
+      </c>
+      <c r="AB234">
+        <v>9.970000000000001</v>
+      </c>
+      <c r="AC234">
+        <v>0</v>
+      </c>
+      <c r="AD234">
+        <v>0</v>
+      </c>
+      <c r="AE234">
+        <v>0</v>
+      </c>
+      <c r="AF234">
+        <v>0</v>
+      </c>
+      <c r="AG234">
+        <v>1.5</v>
+      </c>
+      <c r="AH234">
+        <v>2.5</v>
+      </c>
+      <c r="AI234">
+        <v>2</v>
+      </c>
+      <c r="AJ234">
+        <v>1.75</v>
+      </c>
+      <c r="AK234">
+        <v>0</v>
+      </c>
+      <c r="AL234">
+        <v>0</v>
+      </c>
+      <c r="AM234">
+        <v>0</v>
+      </c>
+      <c r="AN234">
+        <v>2.29</v>
+      </c>
+      <c r="AO234">
+        <v>0.79</v>
+      </c>
+      <c r="AP234">
+        <v>2.33</v>
+      </c>
+      <c r="AQ234">
+        <v>0.73</v>
+      </c>
+      <c r="AR234">
+        <v>1.77</v>
+      </c>
+      <c r="AS234">
+        <v>0.99</v>
+      </c>
+      <c r="AT234">
+        <v>2.76</v>
+      </c>
+      <c r="AU234">
+        <v>7</v>
+      </c>
+      <c r="AV234">
+        <v>3</v>
+      </c>
+      <c r="AW234">
+        <v>6</v>
+      </c>
+      <c r="AX234">
+        <v>5</v>
+      </c>
+      <c r="AY234">
+        <v>13</v>
+      </c>
+      <c r="AZ234">
+        <v>8</v>
+      </c>
+      <c r="BA234">
+        <v>4</v>
+      </c>
+      <c r="BB234">
+        <v>0</v>
+      </c>
+      <c r="BC234">
+        <v>4</v>
+      </c>
+      <c r="BD234">
+        <v>0</v>
+      </c>
+      <c r="BE234">
+        <v>0</v>
+      </c>
+      <c r="BF234">
+        <v>0</v>
+      </c>
+      <c r="BG234">
+        <v>0</v>
+      </c>
+      <c r="BH234">
+        <v>0</v>
+      </c>
+      <c r="BI234">
+        <v>0</v>
+      </c>
+      <c r="BJ234">
+        <v>0</v>
+      </c>
+      <c r="BK234">
+        <v>0</v>
+      </c>
+      <c r="BL234">
+        <v>0</v>
+      </c>
+      <c r="BM234">
+        <v>0</v>
+      </c>
+      <c r="BN234">
+        <v>0</v>
+      </c>
+      <c r="BO234">
+        <v>0</v>
+      </c>
+      <c r="BP234">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="235" spans="1:68">
+      <c r="A235" s="1">
+        <v>234</v>
+      </c>
+      <c r="B235">
+        <v>7468318</v>
+      </c>
+      <c r="C235" t="s">
+        <v>68</v>
+      </c>
+      <c r="D235" t="s">
+        <v>69</v>
+      </c>
+      <c r="E235" s="2">
+        <v>45766.45833333334</v>
+      </c>
+      <c r="F235">
+        <v>30</v>
+      </c>
+      <c r="G235" t="s">
+        <v>81</v>
+      </c>
+      <c r="H235" t="s">
+        <v>75</v>
+      </c>
+      <c r="I235">
+        <v>1</v>
+      </c>
+      <c r="J235">
+        <v>1</v>
+      </c>
+      <c r="K235">
+        <v>2</v>
+      </c>
+      <c r="L235">
+        <v>2</v>
+      </c>
+      <c r="M235">
+        <v>3</v>
+      </c>
+      <c r="N235">
+        <v>5</v>
+      </c>
+      <c r="O235" t="s">
+        <v>235</v>
+      </c>
+      <c r="P235" t="s">
+        <v>341</v>
+      </c>
+      <c r="Q235">
+        <v>2.3</v>
+      </c>
+      <c r="R235">
+        <v>2.3</v>
+      </c>
+      <c r="S235">
+        <v>4.75</v>
+      </c>
+      <c r="T235">
+        <v>1.33</v>
+      </c>
+      <c r="U235">
+        <v>3.25</v>
+      </c>
+      <c r="V235">
+        <v>2.63</v>
+      </c>
+      <c r="W235">
+        <v>1.44</v>
+      </c>
+      <c r="X235">
+        <v>6.5</v>
+      </c>
+      <c r="Y235">
+        <v>1.11</v>
+      </c>
+      <c r="Z235">
+        <v>1.7</v>
+      </c>
+      <c r="AA235">
+        <v>3.87</v>
+      </c>
+      <c r="AB235">
+        <v>4.65</v>
+      </c>
+      <c r="AC235">
+        <v>0</v>
+      </c>
+      <c r="AD235">
+        <v>0</v>
+      </c>
+      <c r="AE235">
+        <v>0</v>
+      </c>
+      <c r="AF235">
+        <v>0</v>
+      </c>
+      <c r="AG235">
+        <v>1.73</v>
+      </c>
+      <c r="AH235">
+        <v>2</v>
+      </c>
+      <c r="AI235">
+        <v>1.75</v>
+      </c>
+      <c r="AJ235">
+        <v>2</v>
+      </c>
+      <c r="AK235">
+        <v>0</v>
+      </c>
+      <c r="AL235">
+        <v>0</v>
+      </c>
+      <c r="AM235">
+        <v>0</v>
+      </c>
+      <c r="AN235">
+        <v>1.64</v>
+      </c>
+      <c r="AO235">
+        <v>1.14</v>
+      </c>
+      <c r="AP235">
+        <v>1.53</v>
+      </c>
+      <c r="AQ235">
+        <v>1.27</v>
+      </c>
+      <c r="AR235">
+        <v>1.49</v>
+      </c>
+      <c r="AS235">
+        <v>1.36</v>
+      </c>
+      <c r="AT235">
+        <v>2.85</v>
+      </c>
+      <c r="AU235">
+        <v>7</v>
+      </c>
+      <c r="AV235">
+        <v>4</v>
+      </c>
+      <c r="AW235">
+        <v>9</v>
+      </c>
+      <c r="AX235">
+        <v>2</v>
+      </c>
+      <c r="AY235">
+        <v>16</v>
+      </c>
+      <c r="AZ235">
+        <v>6</v>
+      </c>
+      <c r="BA235">
+        <v>7</v>
+      </c>
+      <c r="BB235">
+        <v>1</v>
+      </c>
+      <c r="BC235">
+        <v>8</v>
+      </c>
+      <c r="BD235">
+        <v>0</v>
+      </c>
+      <c r="BE235">
+        <v>0</v>
+      </c>
+      <c r="BF235">
+        <v>0</v>
+      </c>
+      <c r="BG235">
+        <v>0</v>
+      </c>
+      <c r="BH235">
+        <v>0</v>
+      </c>
+      <c r="BI235">
+        <v>0</v>
+      </c>
+      <c r="BJ235">
+        <v>0</v>
+      </c>
+      <c r="BK235">
+        <v>0</v>
+      </c>
+      <c r="BL235">
+        <v>0</v>
+      </c>
+      <c r="BM235">
+        <v>0</v>
+      </c>
+      <c r="BN235">
+        <v>0</v>
+      </c>
+      <c r="BO235">
+        <v>0</v>
+      </c>
+      <c r="BP235">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="236" spans="1:68">
+      <c r="A236" s="1">
+        <v>235</v>
+      </c>
+      <c r="B236">
+        <v>7468319</v>
+      </c>
+      <c r="C236" t="s">
+        <v>68</v>
+      </c>
+      <c r="D236" t="s">
+        <v>69</v>
+      </c>
+      <c r="E236" s="2">
+        <v>45766.45833333334</v>
+      </c>
+      <c r="F236">
+        <v>30</v>
+      </c>
+      <c r="G236" t="s">
+        <v>83</v>
+      </c>
+      <c r="H236" t="s">
+        <v>73</v>
+      </c>
+      <c r="I236">
+        <v>1</v>
+      </c>
+      <c r="J236">
+        <v>0</v>
+      </c>
+      <c r="K236">
+        <v>1</v>
+      </c>
+      <c r="L236">
+        <v>1</v>
+      </c>
+      <c r="M236">
+        <v>0</v>
+      </c>
+      <c r="N236">
+        <v>1</v>
+      </c>
+      <c r="O236" t="s">
+        <v>236</v>
+      </c>
+      <c r="P236" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q236">
+        <v>1.91</v>
+      </c>
+      <c r="R236">
+        <v>2.6</v>
+      </c>
+      <c r="S236">
+        <v>6.5</v>
+      </c>
+      <c r="T236">
+        <v>1.29</v>
+      </c>
+      <c r="U236">
+        <v>3.5</v>
+      </c>
+      <c r="V236">
+        <v>2.25</v>
+      </c>
+      <c r="W236">
+        <v>1.57</v>
+      </c>
+      <c r="X236">
+        <v>5.5</v>
+      </c>
+      <c r="Y236">
+        <v>1.14</v>
+      </c>
+      <c r="Z236">
+        <v>1.39</v>
+      </c>
+      <c r="AA236">
+        <v>4.92</v>
+      </c>
+      <c r="AB236">
+        <v>7.1</v>
+      </c>
+      <c r="AC236">
+        <v>0</v>
+      </c>
+      <c r="AD236">
+        <v>0</v>
+      </c>
+      <c r="AE236">
+        <v>3.14</v>
+      </c>
+      <c r="AF236">
+        <v>1.35</v>
+      </c>
+      <c r="AG236">
+        <v>1.53</v>
+      </c>
+      <c r="AH236">
+        <v>2.3</v>
+      </c>
+      <c r="AI236">
+        <v>1.75</v>
+      </c>
+      <c r="AJ236">
+        <v>2</v>
+      </c>
+      <c r="AK236">
+        <v>0</v>
+      </c>
+      <c r="AL236">
+        <v>0</v>
+      </c>
+      <c r="AM236">
+        <v>0</v>
+      </c>
+      <c r="AN236">
+        <v>2.43</v>
+      </c>
+      <c r="AO236">
+        <v>1.36</v>
+      </c>
+      <c r="AP236">
+        <v>2.47</v>
+      </c>
+      <c r="AQ236">
+        <v>1.27</v>
+      </c>
+      <c r="AR236">
+        <v>1.84</v>
+      </c>
+      <c r="AS236">
+        <v>1.33</v>
+      </c>
+      <c r="AT236">
+        <v>3.17</v>
+      </c>
+      <c r="AU236">
+        <v>4</v>
+      </c>
+      <c r="AV236">
+        <v>2</v>
+      </c>
+      <c r="AW236">
+        <v>7</v>
+      </c>
+      <c r="AX236">
+        <v>5</v>
+      </c>
+      <c r="AY236">
+        <v>11</v>
+      </c>
+      <c r="AZ236">
+        <v>7</v>
+      </c>
+      <c r="BA236">
+        <v>2</v>
+      </c>
+      <c r="BB236">
+        <v>6</v>
+      </c>
+      <c r="BC236">
+        <v>8</v>
+      </c>
+      <c r="BD236">
+        <v>0</v>
+      </c>
+      <c r="BE236">
+        <v>0</v>
+      </c>
+      <c r="BF236">
+        <v>0</v>
+      </c>
+      <c r="BG236">
+        <v>0</v>
+      </c>
+      <c r="BH236">
+        <v>0</v>
+      </c>
+      <c r="BI236">
+        <v>0</v>
+      </c>
+      <c r="BJ236">
+        <v>0</v>
+      </c>
+      <c r="BK236">
+        <v>0</v>
+      </c>
+      <c r="BL236">
+        <v>0</v>
+      </c>
+      <c r="BM236">
+        <v>0</v>
+      </c>
+      <c r="BN236">
+        <v>0</v>
+      </c>
+      <c r="BO236">
+        <v>0</v>
+      </c>
+      <c r="BP236">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="237" spans="1:68">
+      <c r="A237" s="1">
+        <v>236</v>
+      </c>
+      <c r="B237">
+        <v>7468320</v>
+      </c>
+      <c r="C237" t="s">
+        <v>68</v>
+      </c>
+      <c r="D237" t="s">
+        <v>69</v>
+      </c>
+      <c r="E237" s="2">
+        <v>45766.45833333334</v>
+      </c>
+      <c r="F237">
+        <v>30</v>
+      </c>
+      <c r="G237" t="s">
+        <v>85</v>
+      </c>
+      <c r="H237" t="s">
+        <v>72</v>
+      </c>
+      <c r="I237">
+        <v>1</v>
+      </c>
+      <c r="J237">
+        <v>0</v>
+      </c>
+      <c r="K237">
+        <v>1</v>
+      </c>
+      <c r="L237">
+        <v>3</v>
+      </c>
+      <c r="M237">
+        <v>0</v>
+      </c>
+      <c r="N237">
+        <v>3</v>
+      </c>
+      <c r="O237" t="s">
+        <v>237</v>
+      </c>
+      <c r="P237" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q237">
+        <v>1.73</v>
+      </c>
+      <c r="R237">
+        <v>2.63</v>
+      </c>
+      <c r="S237">
+        <v>8</v>
+      </c>
+      <c r="T237">
+        <v>1.29</v>
+      </c>
+      <c r="U237">
+        <v>3.5</v>
+      </c>
+      <c r="V237">
+        <v>2.25</v>
+      </c>
+      <c r="W237">
+        <v>1.57</v>
+      </c>
+      <c r="X237">
+        <v>5.5</v>
+      </c>
+      <c r="Y237">
+        <v>1.14</v>
+      </c>
+      <c r="Z237">
+        <v>1.29</v>
+      </c>
+      <c r="AA237">
+        <v>5.51</v>
+      </c>
+      <c r="AB237">
+        <v>9.23</v>
+      </c>
+      <c r="AC237">
+        <v>0</v>
+      </c>
+      <c r="AD237">
+        <v>0</v>
+      </c>
+      <c r="AE237">
+        <v>0</v>
+      </c>
+      <c r="AF237">
+        <v>0</v>
+      </c>
+      <c r="AG237">
+        <v>1.53</v>
+      </c>
+      <c r="AH237">
+        <v>2.3</v>
+      </c>
+      <c r="AI237">
+        <v>1.95</v>
+      </c>
+      <c r="AJ237">
+        <v>1.8</v>
+      </c>
+      <c r="AK237">
+        <v>0</v>
+      </c>
+      <c r="AL237">
+        <v>0</v>
+      </c>
+      <c r="AM237">
+        <v>0</v>
+      </c>
+      <c r="AN237">
+        <v>1.43</v>
+      </c>
+      <c r="AO237">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="AP237">
+        <v>1.53</v>
+      </c>
+      <c r="AQ237">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="AR237">
+        <v>1.57</v>
+      </c>
+      <c r="AS237">
+        <v>0.98</v>
+      </c>
+      <c r="AT237">
+        <v>2.55</v>
+      </c>
+      <c r="AU237">
+        <v>8</v>
+      </c>
+      <c r="AV237">
+        <v>2</v>
+      </c>
+      <c r="AW237">
+        <v>5</v>
+      </c>
+      <c r="AX237">
+        <v>4</v>
+      </c>
+      <c r="AY237">
+        <v>13</v>
+      </c>
+      <c r="AZ237">
+        <v>6</v>
+      </c>
+      <c r="BA237">
+        <v>6</v>
+      </c>
+      <c r="BB237">
+        <v>2</v>
+      </c>
+      <c r="BC237">
+        <v>8</v>
+      </c>
+      <c r="BD237">
+        <v>0</v>
+      </c>
+      <c r="BE237">
+        <v>0</v>
+      </c>
+      <c r="BF237">
+        <v>0</v>
+      </c>
+      <c r="BG237">
+        <v>0</v>
+      </c>
+      <c r="BH237">
+        <v>0</v>
+      </c>
+      <c r="BI237">
+        <v>0</v>
+      </c>
+      <c r="BJ237">
+        <v>0</v>
+      </c>
+      <c r="BK237">
+        <v>0</v>
+      </c>
+      <c r="BL237">
+        <v>0</v>
+      </c>
+      <c r="BM237">
+        <v>0</v>
+      </c>
+      <c r="BN237">
+        <v>0</v>
+      </c>
+      <c r="BO237">
+        <v>0</v>
+      </c>
+      <c r="BP237">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="238" spans="1:68">
+      <c r="A238" s="1">
+        <v>237</v>
+      </c>
+      <c r="B238">
+        <v>7468321</v>
+      </c>
+      <c r="C238" t="s">
+        <v>68</v>
+      </c>
+      <c r="D238" t="s">
+        <v>69</v>
+      </c>
+      <c r="E238" s="2">
+        <v>45766.45833333334</v>
+      </c>
+      <c r="F238">
+        <v>30</v>
+      </c>
+      <c r="G238" t="s">
+        <v>80</v>
+      </c>
+      <c r="H238" t="s">
+        <v>76</v>
+      </c>
+      <c r="I238">
+        <v>1</v>
+      </c>
+      <c r="J238">
+        <v>0</v>
+      </c>
+      <c r="K238">
+        <v>1</v>
+      </c>
+      <c r="L238">
+        <v>2</v>
+      </c>
+      <c r="M238">
+        <v>0</v>
+      </c>
+      <c r="N238">
+        <v>2</v>
+      </c>
+      <c r="O238" t="s">
+        <v>238</v>
+      </c>
+      <c r="P238" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q238">
+        <v>1.44</v>
+      </c>
+      <c r="R238">
+        <v>3.1</v>
+      </c>
+      <c r="S238">
+        <v>15</v>
+      </c>
+      <c r="T238">
+        <v>1.22</v>
+      </c>
+      <c r="U238">
+        <v>4</v>
+      </c>
+      <c r="V238">
+        <v>2.1</v>
+      </c>
+      <c r="W238">
+        <v>1.67</v>
+      </c>
+      <c r="X238">
+        <v>4.5</v>
+      </c>
+      <c r="Y238">
+        <v>1.18</v>
+      </c>
+      <c r="Z238">
+        <v>1.1</v>
+      </c>
+      <c r="AA238">
+        <v>9.869999999999999</v>
+      </c>
+      <c r="AB238">
+        <v>20.17</v>
+      </c>
+      <c r="AC238">
+        <v>0</v>
+      </c>
+      <c r="AD238">
+        <v>0</v>
+      </c>
+      <c r="AE238">
+        <v>0</v>
+      </c>
+      <c r="AF238">
+        <v>0</v>
+      </c>
+      <c r="AG238">
+        <v>1.44</v>
+      </c>
+      <c r="AH238">
+        <v>2.7</v>
+      </c>
+      <c r="AI238">
+        <v>2.38</v>
+      </c>
+      <c r="AJ238">
+        <v>1.53</v>
+      </c>
+      <c r="AK238">
+        <v>0</v>
+      </c>
+      <c r="AL238">
+        <v>0</v>
+      </c>
+      <c r="AM238">
+        <v>0</v>
+      </c>
+      <c r="AN238">
+        <v>3</v>
+      </c>
+      <c r="AO238">
+        <v>0.79</v>
+      </c>
+      <c r="AP238">
+        <v>3</v>
+      </c>
+      <c r="AQ238">
+        <v>0.73</v>
+      </c>
+      <c r="AR238">
+        <v>2.25</v>
+      </c>
+      <c r="AS238">
+        <v>1.13</v>
+      </c>
+      <c r="AT238">
+        <v>3.38</v>
+      </c>
+      <c r="AU238">
+        <v>11</v>
+      </c>
+      <c r="AV238">
+        <v>2</v>
+      </c>
+      <c r="AW238">
+        <v>8</v>
+      </c>
+      <c r="AX238">
+        <v>2</v>
+      </c>
+      <c r="AY238">
+        <v>19</v>
+      </c>
+      <c r="AZ238">
+        <v>4</v>
+      </c>
+      <c r="BA238">
+        <v>15</v>
+      </c>
+      <c r="BB238">
+        <v>3</v>
+      </c>
+      <c r="BC238">
+        <v>18</v>
+      </c>
+      <c r="BD238">
+        <v>0</v>
+      </c>
+      <c r="BE238">
+        <v>0</v>
+      </c>
+      <c r="BF238">
+        <v>0</v>
+      </c>
+      <c r="BG238">
+        <v>0</v>
+      </c>
+      <c r="BH238">
+        <v>0</v>
+      </c>
+      <c r="BI238">
+        <v>0</v>
+      </c>
+      <c r="BJ238">
+        <v>0</v>
+      </c>
+      <c r="BK238">
+        <v>0</v>
+      </c>
+      <c r="BL238">
+        <v>0</v>
+      </c>
+      <c r="BM238">
+        <v>0</v>
+      </c>
+      <c r="BN238">
+        <v>0</v>
+      </c>
+      <c r="BO238">
+        <v>0</v>
+      </c>
+      <c r="BP238">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="239" spans="1:68">
+      <c r="A239" s="1">
+        <v>238</v>
+      </c>
+      <c r="B239">
+        <v>7468322</v>
+      </c>
+      <c r="C239" t="s">
+        <v>68</v>
+      </c>
+      <c r="D239" t="s">
+        <v>69</v>
+      </c>
+      <c r="E239" s="2">
+        <v>45766.45833333334</v>
+      </c>
+      <c r="F239">
+        <v>30</v>
+      </c>
+      <c r="G239" t="s">
+        <v>78</v>
+      </c>
+      <c r="H239" t="s">
+        <v>77</v>
+      </c>
+      <c r="I239">
+        <v>0</v>
+      </c>
+      <c r="J239">
+        <v>0</v>
+      </c>
+      <c r="K239">
+        <v>0</v>
+      </c>
+      <c r="L239">
+        <v>1</v>
+      </c>
+      <c r="M239">
+        <v>0</v>
+      </c>
+      <c r="N239">
+        <v>1</v>
+      </c>
+      <c r="O239" t="s">
+        <v>113</v>
+      </c>
+      <c r="P239" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q239">
+        <v>3.2</v>
+      </c>
+      <c r="R239">
+        <v>2.05</v>
+      </c>
+      <c r="S239">
+        <v>3.6</v>
+      </c>
+      <c r="T239">
+        <v>1.44</v>
+      </c>
+      <c r="U239">
+        <v>2.63</v>
+      </c>
+      <c r="V239">
+        <v>3.4</v>
+      </c>
+      <c r="W239">
+        <v>1.3</v>
+      </c>
+      <c r="X239">
+        <v>10</v>
+      </c>
+      <c r="Y239">
+        <v>1.06</v>
+      </c>
+      <c r="Z239">
+        <v>2.39</v>
+      </c>
+      <c r="AA239">
+        <v>3.26</v>
+      </c>
+      <c r="AB239">
+        <v>3.03</v>
+      </c>
+      <c r="AC239">
+        <v>2.32</v>
+      </c>
+      <c r="AD239">
+        <v>1.59</v>
+      </c>
+      <c r="AE239">
+        <v>0</v>
+      </c>
+      <c r="AF239">
+        <v>0</v>
+      </c>
+      <c r="AG239">
+        <v>2.1</v>
+      </c>
+      <c r="AH239">
+        <v>1.65</v>
+      </c>
+      <c r="AI239">
+        <v>1.91</v>
+      </c>
+      <c r="AJ239">
+        <v>1.91</v>
+      </c>
+      <c r="AK239">
+        <v>0</v>
+      </c>
+      <c r="AL239">
+        <v>0</v>
+      </c>
+      <c r="AM239">
+        <v>0</v>
+      </c>
+      <c r="AN239">
+        <v>1.36</v>
+      </c>
+      <c r="AO239">
+        <v>1.21</v>
+      </c>
+      <c r="AP239">
+        <v>1.47</v>
+      </c>
+      <c r="AQ239">
+        <v>1.13</v>
+      </c>
+      <c r="AR239">
+        <v>1.41</v>
+      </c>
+      <c r="AS239">
+        <v>1.29</v>
+      </c>
+      <c r="AT239">
+        <v>2.7</v>
+      </c>
+      <c r="AU239">
+        <v>6</v>
+      </c>
+      <c r="AV239">
+        <v>5</v>
+      </c>
+      <c r="AW239">
+        <v>6</v>
+      </c>
+      <c r="AX239">
+        <v>6</v>
+      </c>
+      <c r="AY239">
+        <v>12</v>
+      </c>
+      <c r="AZ239">
+        <v>11</v>
+      </c>
+      <c r="BA239">
+        <v>4</v>
+      </c>
+      <c r="BB239">
+        <v>5</v>
+      </c>
+      <c r="BC239">
+        <v>9</v>
+      </c>
+      <c r="BD239">
+        <v>0</v>
+      </c>
+      <c r="BE239">
+        <v>0</v>
+      </c>
+      <c r="BF239">
+        <v>0</v>
+      </c>
+      <c r="BG239">
+        <v>0</v>
+      </c>
+      <c r="BH239">
+        <v>0</v>
+      </c>
+      <c r="BI239">
+        <v>0</v>
+      </c>
+      <c r="BJ239">
+        <v>0</v>
+      </c>
+      <c r="BK239">
+        <v>0</v>
+      </c>
+      <c r="BL239">
+        <v>0</v>
+      </c>
+      <c r="BM239">
+        <v>0</v>
+      </c>
+      <c r="BN239">
+        <v>0</v>
+      </c>
+      <c r="BO239">
+        <v>0</v>
+      </c>
+      <c r="BP239">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="240" spans="1:68">
+      <c r="A240" s="1">
+        <v>239</v>
+      </c>
+      <c r="B240">
+        <v>7468323</v>
+      </c>
+      <c r="C240" t="s">
+        <v>68</v>
+      </c>
+      <c r="D240" t="s">
+        <v>69</v>
+      </c>
+      <c r="E240" s="2">
+        <v>45766.45833333334</v>
+      </c>
+      <c r="F240">
+        <v>30</v>
+      </c>
+      <c r="G240" t="s">
+        <v>82</v>
+      </c>
+      <c r="H240" t="s">
+        <v>71</v>
+      </c>
+      <c r="I240">
+        <v>0</v>
+      </c>
+      <c r="J240">
+        <v>1</v>
+      </c>
+      <c r="K240">
+        <v>1</v>
+      </c>
+      <c r="L240">
+        <v>0</v>
+      </c>
+      <c r="M240">
+        <v>1</v>
+      </c>
+      <c r="N240">
+        <v>1</v>
+      </c>
+      <c r="O240" t="s">
+        <v>88</v>
+      </c>
+      <c r="P240" t="s">
+        <v>153</v>
+      </c>
+      <c r="Q240">
+        <v>3.4</v>
+      </c>
+      <c r="R240">
+        <v>2.25</v>
+      </c>
+      <c r="S240">
+        <v>2.88</v>
+      </c>
+      <c r="T240">
+        <v>1.33</v>
+      </c>
+      <c r="U240">
+        <v>3.25</v>
+      </c>
+      <c r="V240">
+        <v>2.63</v>
+      </c>
+      <c r="W240">
+        <v>1.44</v>
+      </c>
+      <c r="X240">
+        <v>7</v>
+      </c>
+      <c r="Y240">
+        <v>1.1</v>
+      </c>
+      <c r="Z240">
+        <v>3.22</v>
+      </c>
+      <c r="AA240">
+        <v>3.39</v>
+      </c>
+      <c r="AB240">
+        <v>2.22</v>
+      </c>
+      <c r="AC240">
+        <v>0</v>
+      </c>
+      <c r="AD240">
+        <v>0</v>
+      </c>
+      <c r="AE240">
+        <v>3.24</v>
+      </c>
+      <c r="AF240">
+        <v>1.32</v>
+      </c>
+      <c r="AG240">
+        <v>1.75</v>
+      </c>
+      <c r="AH240">
+        <v>2</v>
+      </c>
+      <c r="AI240">
+        <v>1.62</v>
+      </c>
+      <c r="AJ240">
+        <v>2.2</v>
+      </c>
+      <c r="AK240">
+        <v>0</v>
+      </c>
+      <c r="AL240">
+        <v>0</v>
+      </c>
+      <c r="AM240">
+        <v>0</v>
+      </c>
+      <c r="AN240">
+        <v>1.36</v>
+      </c>
+      <c r="AO240">
+        <v>1.29</v>
+      </c>
+      <c r="AP240">
+        <v>1.27</v>
+      </c>
+      <c r="AQ240">
+        <v>1.4</v>
+      </c>
+      <c r="AR240">
+        <v>1.64</v>
+      </c>
+      <c r="AS240">
+        <v>1.39</v>
+      </c>
+      <c r="AT240">
+        <v>3.03</v>
+      </c>
+      <c r="AU240">
+        <v>2</v>
+      </c>
+      <c r="AV240">
+        <v>4</v>
+      </c>
+      <c r="AW240">
+        <v>7</v>
+      </c>
+      <c r="AX240">
+        <v>5</v>
+      </c>
+      <c r="AY240">
+        <v>9</v>
+      </c>
+      <c r="AZ240">
+        <v>10</v>
+      </c>
+      <c r="BA240">
+        <v>7</v>
+      </c>
+      <c r="BB240">
+        <v>6</v>
+      </c>
+      <c r="BC240">
+        <v>13</v>
+      </c>
+      <c r="BD240">
+        <v>0</v>
+      </c>
+      <c r="BE240">
+        <v>0</v>
+      </c>
+      <c r="BF240">
+        <v>0</v>
+      </c>
+      <c r="BG240">
+        <v>0</v>
+      </c>
+      <c r="BH240">
+        <v>0</v>
+      </c>
+      <c r="BI240">
+        <v>0</v>
+      </c>
+      <c r="BJ240">
+        <v>0</v>
+      </c>
+      <c r="BK240">
+        <v>0</v>
+      </c>
+      <c r="BL240">
+        <v>0</v>
+      </c>
+      <c r="BM240">
+        <v>0</v>
+      </c>
+      <c r="BN240">
+        <v>0</v>
+      </c>
+      <c r="BO240">
+        <v>0</v>
+      </c>
+      <c r="BP240">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="241" spans="1:68">
+      <c r="A241" s="1">
+        <v>240</v>
+      </c>
+      <c r="B241">
+        <v>7468324</v>
+      </c>
+      <c r="C241" t="s">
+        <v>68</v>
+      </c>
+      <c r="D241" t="s">
+        <v>69</v>
+      </c>
+      <c r="E241" s="2">
+        <v>45766.45833333334</v>
+      </c>
+      <c r="F241">
+        <v>30</v>
+      </c>
+      <c r="G241" t="s">
+        <v>79</v>
+      </c>
+      <c r="H241" t="s">
+        <v>70</v>
+      </c>
+      <c r="I241">
+        <v>0</v>
+      </c>
+      <c r="J241">
+        <v>1</v>
+      </c>
+      <c r="K241">
+        <v>1</v>
+      </c>
+      <c r="L241">
+        <v>1</v>
+      </c>
+      <c r="M241">
+        <v>2</v>
+      </c>
+      <c r="N241">
+        <v>3</v>
+      </c>
+      <c r="O241" t="s">
+        <v>158</v>
+      </c>
+      <c r="P241" t="s">
+        <v>342</v>
+      </c>
+      <c r="Q241">
+        <v>8</v>
+      </c>
+      <c r="R241">
+        <v>2.6</v>
+      </c>
+      <c r="S241">
+        <v>1.8</v>
+      </c>
+      <c r="T241">
+        <v>1.3</v>
+      </c>
+      <c r="U241">
+        <v>3.4</v>
+      </c>
+      <c r="V241">
+        <v>2.38</v>
+      </c>
+      <c r="W241">
+        <v>1.53</v>
+      </c>
+      <c r="X241">
+        <v>6</v>
+      </c>
+      <c r="Y241">
+        <v>1.13</v>
+      </c>
+      <c r="Z241">
+        <v>9.27</v>
+      </c>
+      <c r="AA241">
+        <v>5.59</v>
+      </c>
+      <c r="AB241">
+        <v>1.29</v>
+      </c>
+      <c r="AC241">
+        <v>0</v>
+      </c>
+      <c r="AD241">
+        <v>0</v>
+      </c>
+      <c r="AE241">
+        <v>0</v>
+      </c>
+      <c r="AF241">
+        <v>0</v>
+      </c>
+      <c r="AG241">
+        <v>1.6</v>
+      </c>
+      <c r="AH241">
+        <v>2.2</v>
+      </c>
+      <c r="AI241">
+        <v>1.95</v>
+      </c>
+      <c r="AJ241">
+        <v>1.8</v>
+      </c>
+      <c r="AK241">
+        <v>0</v>
+      </c>
+      <c r="AL241">
+        <v>0</v>
+      </c>
+      <c r="AM241">
+        <v>0</v>
+      </c>
+      <c r="AN241">
+        <v>0.93</v>
+      </c>
+      <c r="AO241">
+        <v>1.93</v>
+      </c>
+      <c r="AP241">
+        <v>0.87</v>
+      </c>
+      <c r="AQ241">
+        <v>2</v>
+      </c>
+      <c r="AR241">
+        <v>1.23</v>
+      </c>
+      <c r="AS241">
+        <v>1.75</v>
+      </c>
+      <c r="AT241">
+        <v>2.98</v>
+      </c>
+      <c r="AU241">
+        <v>4</v>
+      </c>
+      <c r="AV241">
+        <v>4</v>
+      </c>
+      <c r="AW241">
+        <v>5</v>
+      </c>
+      <c r="AX241">
+        <v>6</v>
+      </c>
+      <c r="AY241">
+        <v>9</v>
+      </c>
+      <c r="AZ241">
+        <v>10</v>
+      </c>
+      <c r="BA241">
+        <v>5</v>
+      </c>
+      <c r="BB241">
+        <v>5</v>
+      </c>
+      <c r="BC241">
+        <v>10</v>
+      </c>
+      <c r="BD241">
+        <v>0</v>
+      </c>
+      <c r="BE241">
+        <v>0</v>
+      </c>
+      <c r="BF241">
+        <v>0</v>
+      </c>
+      <c r="BG241">
+        <v>0</v>
+      </c>
+      <c r="BH241">
+        <v>0</v>
+      </c>
+      <c r="BI241">
+        <v>0</v>
+      </c>
+      <c r="BJ241">
+        <v>0</v>
+      </c>
+      <c r="BK241">
+        <v>0</v>
+      </c>
+      <c r="BL241">
+        <v>0</v>
+      </c>
+      <c r="BM241">
+        <v>0</v>
+      </c>
+      <c r="BN241">
+        <v>0</v>
+      </c>
+      <c r="BO241">
+        <v>0</v>
+      </c>
+      <c r="BP241">
         <v>0</v>
       </c>
     </row>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Czech Republic First League_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Czech Republic First League_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1508" uniqueCount="343">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1520" uniqueCount="346">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -733,6 +733,12 @@
     <t>['10', '33', '73', '82']</t>
   </si>
   <si>
+    <t>['70']</t>
+  </si>
+  <si>
+    <t>['72']</t>
+  </si>
+  <si>
     <t>['25']</t>
   </si>
   <si>
@@ -1043,6 +1049,9 @@
   </si>
   <si>
     <t>['4', '89']</t>
+  </si>
+  <si>
+    <t>['53', '58']</t>
   </si>
 </sst>
 </file>
@@ -1404,7 +1413,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP241"/>
+  <dimension ref="A1:BP243"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1663,7 +1672,7 @@
         <v>86</v>
       </c>
       <c r="P2" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="Q2">
         <v>1.53</v>
@@ -1744,7 +1753,7 @@
         <v>2.13</v>
       </c>
       <c r="AQ2">
-        <v>0.4</v>
+        <v>0.38</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -1950,7 +1959,7 @@
         <v>2</v>
       </c>
       <c r="AQ3">
-        <v>1</v>
+        <v>1.13</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -2075,7 +2084,7 @@
         <v>88</v>
       </c>
       <c r="P4" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="Q4">
         <v>2.88</v>
@@ -2153,7 +2162,7 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>0.27</v>
+        <v>0.25</v>
       </c>
       <c r="AQ4">
         <v>1.33</v>
@@ -2487,7 +2496,7 @@
         <v>90</v>
       </c>
       <c r="P6" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="Q6">
         <v>5.5</v>
@@ -2693,7 +2702,7 @@
         <v>91</v>
       </c>
       <c r="P7" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="Q7">
         <v>3.2</v>
@@ -2977,7 +2986,7 @@
         <v>0</v>
       </c>
       <c r="AP8">
-        <v>1.27</v>
+        <v>1.38</v>
       </c>
       <c r="AQ8">
         <v>2.2</v>
@@ -3517,7 +3526,7 @@
         <v>94</v>
       </c>
       <c r="P11" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="Q11">
         <v>6.5</v>
@@ -3723,7 +3732,7 @@
         <v>88</v>
       </c>
       <c r="P12" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="Q12">
         <v>2.85</v>
@@ -4959,7 +4968,7 @@
         <v>88</v>
       </c>
       <c r="P18" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="Q18">
         <v>5.4</v>
@@ -5449,7 +5458,7 @@
         <v>0</v>
       </c>
       <c r="AP20">
-        <v>1.27</v>
+        <v>1.38</v>
       </c>
       <c r="AQ20">
         <v>1.27</v>
@@ -5989,7 +5998,7 @@
         <v>102</v>
       </c>
       <c r="P23" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="Q23">
         <v>2.6</v>
@@ -6067,10 +6076,10 @@
         <v>0</v>
       </c>
       <c r="AP23">
-        <v>0.27</v>
+        <v>0.25</v>
       </c>
       <c r="AQ23">
-        <v>0.4</v>
+        <v>0.38</v>
       </c>
       <c r="AR23">
         <v>1.33</v>
@@ -6195,7 +6204,7 @@
         <v>103</v>
       </c>
       <c r="P24" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="Q24">
         <v>2.75</v>
@@ -6276,7 +6285,7 @@
         <v>1.53</v>
       </c>
       <c r="AQ24">
-        <v>1</v>
+        <v>1.13</v>
       </c>
       <c r="AR24">
         <v>1.19</v>
@@ -6401,7 +6410,7 @@
         <v>88</v>
       </c>
       <c r="P25" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="Q25">
         <v>1.06</v>
@@ -6813,7 +6822,7 @@
         <v>105</v>
       </c>
       <c r="P27" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="Q27">
         <v>6.23</v>
@@ -8255,7 +8264,7 @@
         <v>111</v>
       </c>
       <c r="P34" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="Q34">
         <v>2.84</v>
@@ -8461,7 +8470,7 @@
         <v>112</v>
       </c>
       <c r="P35" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="Q35">
         <v>1.45</v>
@@ -8667,7 +8676,7 @@
         <v>113</v>
       </c>
       <c r="P36" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="Q36">
         <v>5.63</v>
@@ -8873,7 +8882,7 @@
         <v>114</v>
       </c>
       <c r="P37" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="Q37">
         <v>2.58</v>
@@ -8954,7 +8963,7 @@
         <v>1.53</v>
       </c>
       <c r="AQ37">
-        <v>1</v>
+        <v>1.13</v>
       </c>
       <c r="AR37">
         <v>1.25</v>
@@ -9079,7 +9088,7 @@
         <v>88</v>
       </c>
       <c r="P38" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="Q38">
         <v>4.75</v>
@@ -9157,7 +9166,7 @@
         <v>2</v>
       </c>
       <c r="AP38">
-        <v>0.27</v>
+        <v>0.25</v>
       </c>
       <c r="AQ38">
         <v>2</v>
@@ -9366,7 +9375,7 @@
         <v>1.53</v>
       </c>
       <c r="AQ39">
-        <v>0.4</v>
+        <v>0.38</v>
       </c>
       <c r="AR39">
         <v>1.34</v>
@@ -9569,7 +9578,7 @@
         <v>0</v>
       </c>
       <c r="AP40">
-        <v>1.27</v>
+        <v>1.38</v>
       </c>
       <c r="AQ40">
         <v>1.8</v>
@@ -9697,7 +9706,7 @@
         <v>117</v>
       </c>
       <c r="P41" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="Q41">
         <v>2.4</v>
@@ -9903,7 +9912,7 @@
         <v>108</v>
       </c>
       <c r="P42" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="Q42">
         <v>2.61</v>
@@ -10109,7 +10118,7 @@
         <v>118</v>
       </c>
       <c r="P43" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="Q43">
         <v>1.69</v>
@@ -11217,7 +11226,7 @@
         <v>1.33</v>
       </c>
       <c r="AP48">
-        <v>0.27</v>
+        <v>0.25</v>
       </c>
       <c r="AQ48">
         <v>1.27</v>
@@ -11423,7 +11432,7 @@
         <v>2</v>
       </c>
       <c r="AP49">
-        <v>1.27</v>
+        <v>1.38</v>
       </c>
       <c r="AQ49">
         <v>1.4</v>
@@ -11551,7 +11560,7 @@
         <v>88</v>
       </c>
       <c r="P50" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="Q50">
         <v>5.1</v>
@@ -11963,7 +11972,7 @@
         <v>122</v>
       </c>
       <c r="P52" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="Q52">
         <v>3</v>
@@ -12250,7 +12259,7 @@
         <v>3</v>
       </c>
       <c r="AQ53">
-        <v>0.4</v>
+        <v>0.38</v>
       </c>
       <c r="AR53">
         <v>2.35</v>
@@ -12375,7 +12384,7 @@
         <v>124</v>
       </c>
       <c r="P54" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="Q54">
         <v>3</v>
@@ -12456,7 +12465,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ54">
-        <v>1</v>
+        <v>1.13</v>
       </c>
       <c r="AR54">
         <v>1.4</v>
@@ -12993,7 +13002,7 @@
         <v>88</v>
       </c>
       <c r="P57" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="Q57">
         <v>5.88</v>
@@ -13611,7 +13620,7 @@
         <v>128</v>
       </c>
       <c r="P60" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="Q60">
         <v>3.86</v>
@@ -14023,7 +14032,7 @@
         <v>130</v>
       </c>
       <c r="P62" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="Q62">
         <v>1.83</v>
@@ -14104,7 +14113,7 @@
         <v>1.27</v>
       </c>
       <c r="AQ62">
-        <v>0.4</v>
+        <v>0.38</v>
       </c>
       <c r="AR62">
         <v>1.42</v>
@@ -14435,7 +14444,7 @@
         <v>88</v>
       </c>
       <c r="P64" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="Q64">
         <v>8.77</v>
@@ -14513,7 +14522,7 @@
         <v>3</v>
       </c>
       <c r="AP64">
-        <v>0.27</v>
+        <v>0.25</v>
       </c>
       <c r="AQ64">
         <v>2</v>
@@ -14641,7 +14650,7 @@
         <v>132</v>
       </c>
       <c r="P65" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="Q65">
         <v>2.4</v>
@@ -14847,7 +14856,7 @@
         <v>133</v>
       </c>
       <c r="P66" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="Q66">
         <v>1.55</v>
@@ -15053,7 +15062,7 @@
         <v>134</v>
       </c>
       <c r="P67" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="Q67">
         <v>4</v>
@@ -15337,7 +15346,7 @@
         <v>2</v>
       </c>
       <c r="AP68">
-        <v>1.27</v>
+        <v>1.38</v>
       </c>
       <c r="AQ68">
         <v>1.27</v>
@@ -15465,7 +15474,7 @@
         <v>88</v>
       </c>
       <c r="P69" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="Q69">
         <v>3.1</v>
@@ -16083,7 +16092,7 @@
         <v>124</v>
       </c>
       <c r="P72" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="Q72">
         <v>1.88</v>
@@ -16164,7 +16173,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ72">
-        <v>1</v>
+        <v>1.13</v>
       </c>
       <c r="AR72">
         <v>1.84</v>
@@ -16289,7 +16298,7 @@
         <v>88</v>
       </c>
       <c r="P73" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="Q73">
         <v>7</v>
@@ -16701,7 +16710,7 @@
         <v>88</v>
       </c>
       <c r="P75" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="Q75">
         <v>3.7</v>
@@ -16779,7 +16788,7 @@
         <v>1</v>
       </c>
       <c r="AP75">
-        <v>0.27</v>
+        <v>0.25</v>
       </c>
       <c r="AQ75">
         <v>0.73</v>
@@ -16907,7 +16916,7 @@
         <v>138</v>
       </c>
       <c r="P76" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="Q76">
         <v>2.3</v>
@@ -17113,7 +17122,7 @@
         <v>88</v>
       </c>
       <c r="P77" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="Q77">
         <v>2.47</v>
@@ -17400,7 +17409,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ78">
-        <v>0.4</v>
+        <v>0.38</v>
       </c>
       <c r="AR78">
         <v>1.78</v>
@@ -17525,7 +17534,7 @@
         <v>140</v>
       </c>
       <c r="P79" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="Q79">
         <v>2.5</v>
@@ -17937,7 +17946,7 @@
         <v>141</v>
       </c>
       <c r="P81" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="Q81">
         <v>2.38</v>
@@ -18143,7 +18152,7 @@
         <v>142</v>
       </c>
       <c r="P82" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="Q82">
         <v>2.8</v>
@@ -18349,7 +18358,7 @@
         <v>143</v>
       </c>
       <c r="P83" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="Q83">
         <v>2.6</v>
@@ -18430,7 +18439,7 @@
         <v>0.87</v>
       </c>
       <c r="AQ83">
-        <v>0.4</v>
+        <v>0.38</v>
       </c>
       <c r="AR83">
         <v>1.14</v>
@@ -18555,7 +18564,7 @@
         <v>144</v>
       </c>
       <c r="P84" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="Q84">
         <v>3.4</v>
@@ -18967,7 +18976,7 @@
         <v>146</v>
       </c>
       <c r="P86" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="Q86">
         <v>2.88</v>
@@ -19048,7 +19057,7 @@
         <v>1</v>
       </c>
       <c r="AQ86">
-        <v>1</v>
+        <v>1.13</v>
       </c>
       <c r="AR86">
         <v>1.41</v>
@@ -19173,7 +19182,7 @@
         <v>88</v>
       </c>
       <c r="P87" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="Q87">
         <v>2.6</v>
@@ -19251,7 +19260,7 @@
         <v>0.75</v>
       </c>
       <c r="AP87">
-        <v>1.27</v>
+        <v>1.38</v>
       </c>
       <c r="AQ87">
         <v>0.8</v>
@@ -19585,7 +19594,7 @@
         <v>93</v>
       </c>
       <c r="P89" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="Q89">
         <v>6.5</v>
@@ -19997,7 +20006,7 @@
         <v>88</v>
       </c>
       <c r="P91" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="Q91">
         <v>3.8</v>
@@ -20075,7 +20084,7 @@
         <v>0.2</v>
       </c>
       <c r="AP91">
-        <v>0.27</v>
+        <v>0.25</v>
       </c>
       <c r="AQ91">
         <v>1.13</v>
@@ -20203,7 +20212,7 @@
         <v>149</v>
       </c>
       <c r="P92" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="Q92">
         <v>4.7</v>
@@ -20615,7 +20624,7 @@
         <v>150</v>
       </c>
       <c r="P94" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="Q94">
         <v>3</v>
@@ -21520,7 +21529,7 @@
         <v>0.87</v>
       </c>
       <c r="AQ98">
-        <v>1</v>
+        <v>1.13</v>
       </c>
       <c r="AR98">
         <v>1.15</v>
@@ -22057,7 +22066,7 @@
         <v>156</v>
       </c>
       <c r="P101" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="Q101">
         <v>1.83</v>
@@ -22341,7 +22350,7 @@
         <v>1.2</v>
       </c>
       <c r="AP102">
-        <v>0.27</v>
+        <v>0.25</v>
       </c>
       <c r="AQ102">
         <v>1.27</v>
@@ -22547,7 +22556,7 @@
         <v>1.83</v>
       </c>
       <c r="AP103">
-        <v>1.27</v>
+        <v>1.38</v>
       </c>
       <c r="AQ103">
         <v>2</v>
@@ -22756,7 +22765,7 @@
         <v>1</v>
       </c>
       <c r="AQ104">
-        <v>0.4</v>
+        <v>0.38</v>
       </c>
       <c r="AR104">
         <v>1.41</v>
@@ -23705,7 +23714,7 @@
         <v>161</v>
       </c>
       <c r="P109" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="Q109">
         <v>2.24</v>
@@ -24117,7 +24126,7 @@
         <v>163</v>
       </c>
       <c r="P111" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="Q111">
         <v>4.6</v>
@@ -24529,7 +24538,7 @@
         <v>165</v>
       </c>
       <c r="P113" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="Q113">
         <v>3.25</v>
@@ -24735,7 +24744,7 @@
         <v>152</v>
       </c>
       <c r="P114" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="Q114">
         <v>2.88</v>
@@ -24813,10 +24822,10 @@
         <v>1.14</v>
       </c>
       <c r="AP114">
-        <v>1.27</v>
+        <v>1.38</v>
       </c>
       <c r="AQ114">
-        <v>1</v>
+        <v>1.13</v>
       </c>
       <c r="AR114">
         <v>1.11</v>
@@ -24941,7 +24950,7 @@
         <v>99</v>
       </c>
       <c r="P115" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="Q115">
         <v>1.73</v>
@@ -25147,7 +25156,7 @@
         <v>88</v>
       </c>
       <c r="P116" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="Q116">
         <v>4.33</v>
@@ -25559,7 +25568,7 @@
         <v>88</v>
       </c>
       <c r="P118" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="Q118">
         <v>15</v>
@@ -25637,7 +25646,7 @@
         <v>2.33</v>
       </c>
       <c r="AP118">
-        <v>0.27</v>
+        <v>0.25</v>
       </c>
       <c r="AQ118">
         <v>2.2</v>
@@ -25846,7 +25855,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ119">
-        <v>0.4</v>
+        <v>0.38</v>
       </c>
       <c r="AR119">
         <v>1.64</v>
@@ -25971,7 +25980,7 @@
         <v>168</v>
       </c>
       <c r="P120" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="Q120">
         <v>3</v>
@@ -26383,7 +26392,7 @@
         <v>170</v>
       </c>
       <c r="P122" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="Q122">
         <v>3.25</v>
@@ -26589,7 +26598,7 @@
         <v>171</v>
       </c>
       <c r="P123" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="Q123">
         <v>1.83</v>
@@ -27001,7 +27010,7 @@
         <v>172</v>
       </c>
       <c r="P125" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="Q125">
         <v>6.3</v>
@@ -27825,7 +27834,7 @@
         <v>174</v>
       </c>
       <c r="P129" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="Q129">
         <v>2.1</v>
@@ -28031,7 +28040,7 @@
         <v>175</v>
       </c>
       <c r="P130" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="Q130">
         <v>1.5</v>
@@ -28443,7 +28452,7 @@
         <v>177</v>
       </c>
       <c r="P132" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="Q132">
         <v>3.5</v>
@@ -28649,7 +28658,7 @@
         <v>178</v>
       </c>
       <c r="P133" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="Q133">
         <v>4.04</v>
@@ -28855,7 +28864,7 @@
         <v>88</v>
       </c>
       <c r="P134" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="Q134">
         <v>2.75</v>
@@ -29679,7 +29688,7 @@
         <v>91</v>
       </c>
       <c r="P138" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="Q138">
         <v>2.25</v>
@@ -29757,10 +29766,10 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AP138">
-        <v>1.27</v>
+        <v>1.38</v>
       </c>
       <c r="AQ138">
-        <v>0.4</v>
+        <v>0.38</v>
       </c>
       <c r="AR138">
         <v>1.11</v>
@@ -29885,7 +29894,7 @@
         <v>179</v>
       </c>
       <c r="P139" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="Q139">
         <v>1.9</v>
@@ -30297,7 +30306,7 @@
         <v>88</v>
       </c>
       <c r="P141" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="Q141">
         <v>4</v>
@@ -30375,10 +30384,10 @@
         <v>1.13</v>
       </c>
       <c r="AP141">
-        <v>0.27</v>
+        <v>0.25</v>
       </c>
       <c r="AQ141">
-        <v>1</v>
+        <v>1.13</v>
       </c>
       <c r="AR141">
         <v>1.34</v>
@@ -30503,7 +30512,7 @@
         <v>117</v>
       </c>
       <c r="P142" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="Q142">
         <v>4</v>
@@ -30709,7 +30718,7 @@
         <v>181</v>
       </c>
       <c r="P143" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="Q143">
         <v>6</v>
@@ -31121,7 +31130,7 @@
         <v>88</v>
       </c>
       <c r="P145" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="Q145">
         <v>3.5</v>
@@ -31327,7 +31336,7 @@
         <v>183</v>
       </c>
       <c r="P146" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="Q146">
         <v>4.33</v>
@@ -31533,7 +31542,7 @@
         <v>184</v>
       </c>
       <c r="P147" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="Q147">
         <v>3.8</v>
@@ -31739,7 +31748,7 @@
         <v>185</v>
       </c>
       <c r="P148" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="Q148">
         <v>2.5</v>
@@ -31945,7 +31954,7 @@
         <v>186</v>
       </c>
       <c r="P149" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="Q149">
         <v>2.05</v>
@@ -32357,7 +32366,7 @@
         <v>188</v>
       </c>
       <c r="P151" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="Q151">
         <v>2.48</v>
@@ -32769,7 +32778,7 @@
         <v>190</v>
       </c>
       <c r="P153" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="Q153">
         <v>1.4</v>
@@ -33181,7 +33190,7 @@
         <v>88</v>
       </c>
       <c r="P155" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="Q155">
         <v>3.2</v>
@@ -33465,7 +33474,7 @@
         <v>0.22</v>
       </c>
       <c r="AP156">
-        <v>0.27</v>
+        <v>0.25</v>
       </c>
       <c r="AQ156">
         <v>0.73</v>
@@ -33674,7 +33683,7 @@
         <v>1.53</v>
       </c>
       <c r="AQ157">
-        <v>0.4</v>
+        <v>0.38</v>
       </c>
       <c r="AR157">
         <v>1.43</v>
@@ -33799,7 +33808,7 @@
         <v>88</v>
       </c>
       <c r="P158" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="Q158">
         <v>5</v>
@@ -33877,7 +33886,7 @@
         <v>1.89</v>
       </c>
       <c r="AP158">
-        <v>1.27</v>
+        <v>1.38</v>
       </c>
       <c r="AQ158">
         <v>2</v>
@@ -34005,7 +34014,7 @@
         <v>88</v>
       </c>
       <c r="P159" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="Q159">
         <v>2.38</v>
@@ -34292,7 +34301,7 @@
         <v>3</v>
       </c>
       <c r="AQ160">
-        <v>1</v>
+        <v>1.13</v>
       </c>
       <c r="AR160">
         <v>2.39</v>
@@ -34417,7 +34426,7 @@
         <v>193</v>
       </c>
       <c r="P161" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="Q161">
         <v>4.75</v>
@@ -34623,7 +34632,7 @@
         <v>194</v>
       </c>
       <c r="P162" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="Q162">
         <v>2.63</v>
@@ -34829,7 +34838,7 @@
         <v>88</v>
       </c>
       <c r="P163" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="Q163">
         <v>11</v>
@@ -35035,7 +35044,7 @@
         <v>195</v>
       </c>
       <c r="P164" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="Q164">
         <v>2</v>
@@ -35241,7 +35250,7 @@
         <v>196</v>
       </c>
       <c r="P165" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="Q165">
         <v>2.5</v>
@@ -36146,7 +36155,7 @@
         <v>1.53</v>
       </c>
       <c r="AQ169">
-        <v>0.4</v>
+        <v>0.38</v>
       </c>
       <c r="AR169">
         <v>1.54</v>
@@ -36349,7 +36358,7 @@
         <v>0.3</v>
       </c>
       <c r="AP170">
-        <v>1.27</v>
+        <v>1.38</v>
       </c>
       <c r="AQ170">
         <v>0.73</v>
@@ -36477,7 +36486,7 @@
         <v>201</v>
       </c>
       <c r="P171" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="Q171">
         <v>5.2</v>
@@ -36555,7 +36564,7 @@
         <v>1.1</v>
       </c>
       <c r="AP171">
-        <v>0.27</v>
+        <v>0.25</v>
       </c>
       <c r="AQ171">
         <v>1.4</v>
@@ -36683,7 +36692,7 @@
         <v>202</v>
       </c>
       <c r="P172" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="Q172">
         <v>6.35</v>
@@ -36889,7 +36898,7 @@
         <v>203</v>
       </c>
       <c r="P173" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="Q173">
         <v>2.6</v>
@@ -37095,7 +37104,7 @@
         <v>204</v>
       </c>
       <c r="P174" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="Q174">
         <v>2.66</v>
@@ -37176,7 +37185,7 @@
         <v>1.53</v>
       </c>
       <c r="AQ174">
-        <v>1</v>
+        <v>1.13</v>
       </c>
       <c r="AR174">
         <v>1.42</v>
@@ -37301,7 +37310,7 @@
         <v>88</v>
       </c>
       <c r="P175" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="Q175">
         <v>4.86</v>
@@ -37713,7 +37722,7 @@
         <v>172</v>
       </c>
       <c r="P177" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="Q177">
         <v>3.63</v>
@@ -37919,7 +37928,7 @@
         <v>88</v>
       </c>
       <c r="P178" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="Q178">
         <v>3.92</v>
@@ -38000,7 +38009,7 @@
         <v>0.87</v>
       </c>
       <c r="AQ178">
-        <v>1</v>
+        <v>1.13</v>
       </c>
       <c r="AR178">
         <v>1.2</v>
@@ -38949,7 +38958,7 @@
         <v>208</v>
       </c>
       <c r="P183" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="Q183">
         <v>4.3</v>
@@ -39155,7 +39164,7 @@
         <v>88</v>
       </c>
       <c r="P184" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="Q184">
         <v>5.8</v>
@@ -39233,7 +39242,7 @@
         <v>1.5</v>
       </c>
       <c r="AP184">
-        <v>0.27</v>
+        <v>0.25</v>
       </c>
       <c r="AQ184">
         <v>1.8</v>
@@ -39361,7 +39370,7 @@
         <v>96</v>
       </c>
       <c r="P185" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="Q185">
         <v>4.7</v>
@@ -39854,7 +39863,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ187">
-        <v>0.4</v>
+        <v>0.38</v>
       </c>
       <c r="AR187">
         <v>1.45</v>
@@ -40185,7 +40194,7 @@
         <v>88</v>
       </c>
       <c r="P189" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="Q189">
         <v>4.5</v>
@@ -41087,7 +41096,7 @@
         <v>0.09</v>
       </c>
       <c r="AP193">
-        <v>1.27</v>
+        <v>1.38</v>
       </c>
       <c r="AQ193">
         <v>0.07000000000000001</v>
@@ -41627,7 +41636,7 @@
         <v>215</v>
       </c>
       <c r="P196" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="Q196">
         <v>1.95</v>
@@ -41708,7 +41717,7 @@
         <v>2.47</v>
       </c>
       <c r="AQ196">
-        <v>1</v>
+        <v>1.13</v>
       </c>
       <c r="AR196">
         <v>1.76</v>
@@ -41833,7 +41842,7 @@
         <v>88</v>
       </c>
       <c r="P197" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="Q197">
         <v>2.88</v>
@@ -42657,7 +42666,7 @@
         <v>158</v>
       </c>
       <c r="P201" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="Q201">
         <v>2.63</v>
@@ -42863,7 +42872,7 @@
         <v>88</v>
       </c>
       <c r="P202" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="Q202">
         <v>2.75</v>
@@ -43481,7 +43490,7 @@
         <v>218</v>
       </c>
       <c r="P205" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="Q205">
         <v>2.88</v>
@@ -43687,7 +43696,7 @@
         <v>88</v>
       </c>
       <c r="P206" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="Q206">
         <v>2.38</v>
@@ -43893,7 +43902,7 @@
         <v>219</v>
       </c>
       <c r="P207" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="Q207">
         <v>4.75</v>
@@ -43971,7 +43980,7 @@
         <v>0.83</v>
       </c>
       <c r="AP207">
-        <v>0.27</v>
+        <v>0.25</v>
       </c>
       <c r="AQ207">
         <v>1.27</v>
@@ -44717,7 +44726,7 @@
         <v>221</v>
       </c>
       <c r="P211" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="Q211">
         <v>1.57</v>
@@ -44798,7 +44807,7 @@
         <v>2.47</v>
       </c>
       <c r="AQ211">
-        <v>0.4</v>
+        <v>0.38</v>
       </c>
       <c r="AR211">
         <v>1.83</v>
@@ -45129,7 +45138,7 @@
         <v>88</v>
       </c>
       <c r="P213" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="Q213">
         <v>3.5</v>
@@ -45207,7 +45216,7 @@
         <v>1</v>
       </c>
       <c r="AP213">
-        <v>1.27</v>
+        <v>1.38</v>
       </c>
       <c r="AQ213">
         <v>1.27</v>
@@ -45622,7 +45631,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ215">
-        <v>1</v>
+        <v>1.13</v>
       </c>
       <c r="AR215">
         <v>1.57</v>
@@ -45747,7 +45756,7 @@
         <v>224</v>
       </c>
       <c r="P216" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="Q216">
         <v>2.75</v>
@@ -46159,7 +46168,7 @@
         <v>124</v>
       </c>
       <c r="P218" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="Q218">
         <v>2.4</v>
@@ -46365,7 +46374,7 @@
         <v>226</v>
       </c>
       <c r="P219" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="Q219">
         <v>3</v>
@@ -46777,7 +46786,7 @@
         <v>228</v>
       </c>
       <c r="P221" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="Q221">
         <v>1.67</v>
@@ -47189,7 +47198,7 @@
         <v>88</v>
       </c>
       <c r="P223" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="Q223">
         <v>2.3</v>
@@ -47601,7 +47610,7 @@
         <v>218</v>
       </c>
       <c r="P225" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="Q225">
         <v>3.3</v>
@@ -47679,7 +47688,7 @@
         <v>1.08</v>
       </c>
       <c r="AP225">
-        <v>1.27</v>
+        <v>1.38</v>
       </c>
       <c r="AQ225">
         <v>1.13</v>
@@ -47807,7 +47816,7 @@
         <v>88</v>
       </c>
       <c r="P226" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="Q226">
         <v>7.5</v>
@@ -48013,7 +48022,7 @@
         <v>152</v>
       </c>
       <c r="P227" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="Q227">
         <v>5.5</v>
@@ -48219,7 +48228,7 @@
         <v>230</v>
       </c>
       <c r="P228" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="Q228">
         <v>5</v>
@@ -48297,7 +48306,7 @@
         <v>0.79</v>
       </c>
       <c r="AP228">
-        <v>0.27</v>
+        <v>0.25</v>
       </c>
       <c r="AQ228">
         <v>0.8</v>
@@ -48506,7 +48515,7 @@
         <v>2</v>
       </c>
       <c r="AQ229">
-        <v>0.4</v>
+        <v>0.38</v>
       </c>
       <c r="AR229">
         <v>1.64</v>
@@ -48712,7 +48721,7 @@
         <v>2.13</v>
       </c>
       <c r="AQ230">
-        <v>1</v>
+        <v>1.13</v>
       </c>
       <c r="AR230">
         <v>2</v>
@@ -48837,7 +48846,7 @@
         <v>232</v>
       </c>
       <c r="P231" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="Q231">
         <v>3.6</v>
@@ -48915,7 +48924,7 @@
         <v>1.36</v>
       </c>
       <c r="AP231">
-        <v>1.27</v>
+        <v>1.38</v>
       </c>
       <c r="AQ231">
         <v>1.33</v>
@@ -49043,7 +49052,7 @@
         <v>88</v>
       </c>
       <c r="P232" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="Q232">
         <v>3</v>
@@ -49249,7 +49258,7 @@
         <v>233</v>
       </c>
       <c r="P233" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="Q233">
         <v>4.5</v>
@@ -49455,7 +49464,7 @@
         <v>234</v>
       </c>
       <c r="P234" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="Q234">
         <v>2.3</v>
@@ -50691,7 +50700,7 @@
         <v>158</v>
       </c>
       <c r="P240" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="Q240">
         <v>8</v>
@@ -50897,7 +50906,7 @@
         <v>238</v>
       </c>
       <c r="P241" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="Q241">
         <v>1.67</v>
@@ -51054,6 +51063,418 @@
       </c>
       <c r="BP241">
         <v>0</v>
+      </c>
+    </row>
+    <row r="242" spans="1:68">
+      <c r="A242" s="1">
+        <v>241</v>
+      </c>
+      <c r="B242">
+        <v>7885761</v>
+      </c>
+      <c r="C242" t="s">
+        <v>68</v>
+      </c>
+      <c r="D242" t="s">
+        <v>69</v>
+      </c>
+      <c r="E242" s="2">
+        <v>45773.35416666666</v>
+      </c>
+      <c r="F242">
+        <v>1</v>
+      </c>
+      <c r="G242" t="s">
+        <v>72</v>
+      </c>
+      <c r="H242" t="s">
+        <v>83</v>
+      </c>
+      <c r="I242">
+        <v>0</v>
+      </c>
+      <c r="J242">
+        <v>0</v>
+      </c>
+      <c r="K242">
+        <v>0</v>
+      </c>
+      <c r="L242">
+        <v>1</v>
+      </c>
+      <c r="M242">
+        <v>2</v>
+      </c>
+      <c r="N242">
+        <v>3</v>
+      </c>
+      <c r="O242" t="s">
+        <v>239</v>
+      </c>
+      <c r="P242" t="s">
+        <v>345</v>
+      </c>
+      <c r="Q242">
+        <v>3.9</v>
+      </c>
+      <c r="R242">
+        <v>2.4</v>
+      </c>
+      <c r="S242">
+        <v>2.32</v>
+      </c>
+      <c r="T242">
+        <v>1.27</v>
+      </c>
+      <c r="U242">
+        <v>3.4</v>
+      </c>
+      <c r="V242">
+        <v>2.3</v>
+      </c>
+      <c r="W242">
+        <v>1.57</v>
+      </c>
+      <c r="X242">
+        <v>5.1</v>
+      </c>
+      <c r="Y242">
+        <v>1.13</v>
+      </c>
+      <c r="Z242">
+        <v>3.65</v>
+      </c>
+      <c r="AA242">
+        <v>3.85</v>
+      </c>
+      <c r="AB242">
+        <v>1.8</v>
+      </c>
+      <c r="AC242">
+        <v>1.01</v>
+      </c>
+      <c r="AD242">
+        <v>13</v>
+      </c>
+      <c r="AE242">
+        <v>1.14</v>
+      </c>
+      <c r="AF242">
+        <v>4.75</v>
+      </c>
+      <c r="AG242">
+        <v>1.56</v>
+      </c>
+      <c r="AH242">
+        <v>2.25</v>
+      </c>
+      <c r="AI242">
+        <v>1.53</v>
+      </c>
+      <c r="AJ242">
+        <v>2.23</v>
+      </c>
+      <c r="AK242">
+        <v>1.92</v>
+      </c>
+      <c r="AL242">
+        <v>1.24</v>
+      </c>
+      <c r="AM242">
+        <v>1.26</v>
+      </c>
+      <c r="AN242">
+        <v>0.27</v>
+      </c>
+      <c r="AO242">
+        <v>1</v>
+      </c>
+      <c r="AP242">
+        <v>0.25</v>
+      </c>
+      <c r="AQ242">
+        <v>1.13</v>
+      </c>
+      <c r="AR242">
+        <v>1.2</v>
+      </c>
+      <c r="AS242">
+        <v>1.29</v>
+      </c>
+      <c r="AT242">
+        <v>2.49</v>
+      </c>
+      <c r="AU242">
+        <v>4</v>
+      </c>
+      <c r="AV242">
+        <v>3</v>
+      </c>
+      <c r="AW242">
+        <v>2</v>
+      </c>
+      <c r="AX242">
+        <v>4</v>
+      </c>
+      <c r="AY242">
+        <v>6</v>
+      </c>
+      <c r="AZ242">
+        <v>7</v>
+      </c>
+      <c r="BA242">
+        <v>8</v>
+      </c>
+      <c r="BB242">
+        <v>5</v>
+      </c>
+      <c r="BC242">
+        <v>13</v>
+      </c>
+      <c r="BD242">
+        <v>2.48</v>
+      </c>
+      <c r="BE242">
+        <v>6.75</v>
+      </c>
+      <c r="BF242">
+        <v>1.64</v>
+      </c>
+      <c r="BG242">
+        <v>1.21</v>
+      </c>
+      <c r="BH242">
+        <v>3.9</v>
+      </c>
+      <c r="BI242">
+        <v>1.35</v>
+      </c>
+      <c r="BJ242">
+        <v>2.88</v>
+      </c>
+      <c r="BK242">
+        <v>1.58</v>
+      </c>
+      <c r="BL242">
+        <v>2.18</v>
+      </c>
+      <c r="BM242">
+        <v>1.92</v>
+      </c>
+      <c r="BN242">
+        <v>1.78</v>
+      </c>
+      <c r="BO242">
+        <v>2.4</v>
+      </c>
+      <c r="BP242">
+        <v>1.49</v>
+      </c>
+    </row>
+    <row r="243" spans="1:68">
+      <c r="A243" s="1">
+        <v>242</v>
+      </c>
+      <c r="B243">
+        <v>7885762</v>
+      </c>
+      <c r="C243" t="s">
+        <v>68</v>
+      </c>
+      <c r="D243" t="s">
+        <v>69</v>
+      </c>
+      <c r="E243" s="2">
+        <v>45773.45833333334</v>
+      </c>
+      <c r="F243">
+        <v>1</v>
+      </c>
+      <c r="G243" t="s">
+        <v>76</v>
+      </c>
+      <c r="H243" t="s">
+        <v>79</v>
+      </c>
+      <c r="I243">
+        <v>0</v>
+      </c>
+      <c r="J243">
+        <v>0</v>
+      </c>
+      <c r="K243">
+        <v>0</v>
+      </c>
+      <c r="L243">
+        <v>1</v>
+      </c>
+      <c r="M243">
+        <v>0</v>
+      </c>
+      <c r="N243">
+        <v>1</v>
+      </c>
+      <c r="O243" t="s">
+        <v>240</v>
+      </c>
+      <c r="P243" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q243">
+        <v>2.33</v>
+      </c>
+      <c r="R243">
+        <v>2.2</v>
+      </c>
+      <c r="S243">
+        <v>4.4</v>
+      </c>
+      <c r="T243">
+        <v>1.4</v>
+      </c>
+      <c r="U243">
+        <v>2.8</v>
+      </c>
+      <c r="V243">
+        <v>2.85</v>
+      </c>
+      <c r="W243">
+        <v>1.37</v>
+      </c>
+      <c r="X243">
+        <v>6.75</v>
+      </c>
+      <c r="Y243">
+        <v>1.06</v>
+      </c>
+      <c r="Z243">
+        <v>1.71</v>
+      </c>
+      <c r="AA243">
+        <v>3.7</v>
+      </c>
+      <c r="AB243">
+        <v>4.35</v>
+      </c>
+      <c r="AC243">
+        <v>1.01</v>
+      </c>
+      <c r="AD243">
+        <v>11</v>
+      </c>
+      <c r="AE243">
+        <v>1.26</v>
+      </c>
+      <c r="AF243">
+        <v>3.45</v>
+      </c>
+      <c r="AG243">
+        <v>1.96</v>
+      </c>
+      <c r="AH243">
+        <v>1.8</v>
+      </c>
+      <c r="AI243">
+        <v>1.82</v>
+      </c>
+      <c r="AJ243">
+        <v>1.83</v>
+      </c>
+      <c r="AK243">
+        <v>1.21</v>
+      </c>
+      <c r="AL243">
+        <v>1.26</v>
+      </c>
+      <c r="AM243">
+        <v>2.02</v>
+      </c>
+      <c r="AN243">
+        <v>1.27</v>
+      </c>
+      <c r="AO243">
+        <v>0.4</v>
+      </c>
+      <c r="AP243">
+        <v>1.38</v>
+      </c>
+      <c r="AQ243">
+        <v>0.38</v>
+      </c>
+      <c r="AR243">
+        <v>1.3</v>
+      </c>
+      <c r="AS243">
+        <v>1</v>
+      </c>
+      <c r="AT243">
+        <v>2.3</v>
+      </c>
+      <c r="AU243">
+        <v>4</v>
+      </c>
+      <c r="AV243">
+        <v>0</v>
+      </c>
+      <c r="AW243">
+        <v>1</v>
+      </c>
+      <c r="AX243">
+        <v>5</v>
+      </c>
+      <c r="AY243">
+        <v>5</v>
+      </c>
+      <c r="AZ243">
+        <v>5</v>
+      </c>
+      <c r="BA243">
+        <v>4</v>
+      </c>
+      <c r="BB243">
+        <v>5</v>
+      </c>
+      <c r="BC243">
+        <v>9</v>
+      </c>
+      <c r="BD243">
+        <v>1.5</v>
+      </c>
+      <c r="BE243">
+        <v>6.75</v>
+      </c>
+      <c r="BF243">
+        <v>2.8</v>
+      </c>
+      <c r="BG243">
+        <v>1.32</v>
+      </c>
+      <c r="BH243">
+        <v>3.05</v>
+      </c>
+      <c r="BI243">
+        <v>1.56</v>
+      </c>
+      <c r="BJ243">
+        <v>2.23</v>
+      </c>
+      <c r="BK243">
+        <v>1.9</v>
+      </c>
+      <c r="BL243">
+        <v>1.79</v>
+      </c>
+      <c r="BM243">
+        <v>2.38</v>
+      </c>
+      <c r="BN243">
+        <v>1.5</v>
+      </c>
+      <c r="BO243">
+        <v>3.05</v>
+      </c>
+      <c r="BP243">
+        <v>1.3</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Czech Republic First League_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Czech Republic First League_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1520" uniqueCount="346">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1526" uniqueCount="347">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -1053,6 +1053,9 @@
   <si>
     <t>['53', '58']</t>
   </si>
+  <si>
+    <t>['22', '46', '52', '60', '66']</t>
+  </si>
 </sst>
 </file>
 
@@ -1413,7 +1416,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP243"/>
+  <dimension ref="A1:BP244"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2989,7 +2992,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ8">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="AR8">
         <v>0</v>
@@ -5049,7 +5052,7 @@
         <v>1.53</v>
       </c>
       <c r="AQ18">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="AR18">
         <v>1.26</v>
@@ -5870,7 +5873,7 @@
         <v>0</v>
       </c>
       <c r="AP22">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="AQ22">
         <v>0.8</v>
@@ -8960,7 +8963,7 @@
         <v>0</v>
       </c>
       <c r="AP37">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="AQ37">
         <v>1.13</v>
@@ -12050,7 +12053,7 @@
         <v>0.33</v>
       </c>
       <c r="AP52">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="AQ52">
         <v>1.8</v>
@@ -13083,7 +13086,7 @@
         <v>1.27</v>
       </c>
       <c r="AQ57">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="AR57">
         <v>1.7</v>
@@ -14316,7 +14319,7 @@
         <v>0.33</v>
       </c>
       <c r="AP63">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="AQ63">
         <v>0.73</v>
@@ -16379,7 +16382,7 @@
         <v>1</v>
       </c>
       <c r="AQ73">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="AR73">
         <v>1.68</v>
@@ -17612,7 +17615,7 @@
         <v>1.2</v>
       </c>
       <c r="AP79">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="AQ79">
         <v>1.27</v>
@@ -19675,7 +19678,7 @@
         <v>2</v>
       </c>
       <c r="AQ89">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="AR89">
         <v>1.74</v>
@@ -20496,7 +20499,7 @@
         <v>1.67</v>
       </c>
       <c r="AP93">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="AQ93">
         <v>1.4</v>
@@ -22971,7 +22974,7 @@
         <v>1.53</v>
       </c>
       <c r="AQ105">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="AR105">
         <v>1.41</v>
@@ -25649,7 +25652,7 @@
         <v>0.25</v>
       </c>
       <c r="AQ118">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="AR118">
         <v>1.38</v>
@@ -26058,7 +26061,7 @@
         <v>1.17</v>
       </c>
       <c r="AP120">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="AQ120">
         <v>1.27</v>
@@ -26264,7 +26267,7 @@
         <v>1.17</v>
       </c>
       <c r="AP121">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="AQ121">
         <v>0.73</v>
@@ -29357,7 +29360,7 @@
         <v>2.47</v>
       </c>
       <c r="AQ136">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="AR136">
         <v>2.02</v>
@@ -30796,10 +30799,10 @@
         <v>2.5</v>
       </c>
       <c r="AP143">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="AQ143">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="AR143">
         <v>1.69</v>
@@ -32653,7 +32656,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ152">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="AR152">
         <v>1.55</v>
@@ -34504,7 +34507,7 @@
         <v>1.89</v>
       </c>
       <c r="AP161">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="AQ161">
         <v>2</v>
@@ -34919,7 +34922,7 @@
         <v>0.87</v>
       </c>
       <c r="AQ163">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="AR163">
         <v>1.29</v>
@@ -36152,7 +36155,7 @@
         <v>0.55</v>
       </c>
       <c r="AP169">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="AQ169">
         <v>0.38</v>
@@ -39039,7 +39042,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ183">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="AR183">
         <v>1.82</v>
@@ -39448,7 +39451,7 @@
         <v>2.09</v>
       </c>
       <c r="AP185">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="AQ185">
         <v>2</v>
@@ -41511,7 +41514,7 @@
         <v>2.13</v>
       </c>
       <c r="AQ195">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="AR195">
         <v>2.09</v>
@@ -43568,7 +43571,7 @@
         <v>1</v>
       </c>
       <c r="AP205">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="AQ205">
         <v>1.13</v>
@@ -45013,7 +45016,7 @@
         <v>0.87</v>
       </c>
       <c r="AQ212">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="AR212">
         <v>1.26</v>
@@ -46246,7 +46249,7 @@
         <v>1</v>
       </c>
       <c r="AP218">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="AQ218">
         <v>1.27</v>
@@ -47897,7 +47900,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ226">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="AR226">
         <v>1.59</v>
@@ -49954,7 +49957,7 @@
         <v>0.07000000000000001</v>
       </c>
       <c r="AP236">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="AQ236">
         <v>0.07000000000000001</v>
@@ -51475,6 +51478,212 @@
       </c>
       <c r="BP243">
         <v>1.3</v>
+      </c>
+    </row>
+    <row r="244" spans="1:68">
+      <c r="A244" s="1">
+        <v>243</v>
+      </c>
+      <c r="B244">
+        <v>7885763</v>
+      </c>
+      <c r="C244" t="s">
+        <v>68</v>
+      </c>
+      <c r="D244" t="s">
+        <v>69</v>
+      </c>
+      <c r="E244" s="2">
+        <v>45773.58333333334</v>
+      </c>
+      <c r="F244">
+        <v>1</v>
+      </c>
+      <c r="G244" t="s">
+        <v>85</v>
+      </c>
+      <c r="H244" t="s">
+        <v>80</v>
+      </c>
+      <c r="I244">
+        <v>0</v>
+      </c>
+      <c r="J244">
+        <v>1</v>
+      </c>
+      <c r="K244">
+        <v>1</v>
+      </c>
+      <c r="L244">
+        <v>0</v>
+      </c>
+      <c r="M244">
+        <v>5</v>
+      </c>
+      <c r="N244">
+        <v>5</v>
+      </c>
+      <c r="O244" t="s">
+        <v>88</v>
+      </c>
+      <c r="P244" t="s">
+        <v>346</v>
+      </c>
+      <c r="Q244">
+        <v>6.5</v>
+      </c>
+      <c r="R244">
+        <v>2.32</v>
+      </c>
+      <c r="S244">
+        <v>1.92</v>
+      </c>
+      <c r="T244">
+        <v>1.32</v>
+      </c>
+      <c r="U244">
+        <v>3.1</v>
+      </c>
+      <c r="V244">
+        <v>2.62</v>
+      </c>
+      <c r="W244">
+        <v>1.43</v>
+      </c>
+      <c r="X244">
+        <v>6.4</v>
+      </c>
+      <c r="Y244">
+        <v>1.05</v>
+      </c>
+      <c r="Z244">
+        <v>6.95</v>
+      </c>
+      <c r="AA244">
+        <v>4.5</v>
+      </c>
+      <c r="AB244">
+        <v>1.43</v>
+      </c>
+      <c r="AC244">
+        <v>1.01</v>
+      </c>
+      <c r="AD244">
+        <v>11</v>
+      </c>
+      <c r="AE244">
+        <v>1.2</v>
+      </c>
+      <c r="AF244">
+        <v>3.74</v>
+      </c>
+      <c r="AG244">
+        <v>1.78</v>
+      </c>
+      <c r="AH244">
+        <v>2</v>
+      </c>
+      <c r="AI244">
+        <v>1.94</v>
+      </c>
+      <c r="AJ244">
+        <v>1.77</v>
+      </c>
+      <c r="AK244">
+        <v>2.75</v>
+      </c>
+      <c r="AL244">
+        <v>1.19</v>
+      </c>
+      <c r="AM244">
+        <v>1.09</v>
+      </c>
+      <c r="AN244">
+        <v>1.53</v>
+      </c>
+      <c r="AO244">
+        <v>2.2</v>
+      </c>
+      <c r="AP244">
+        <v>1.44</v>
+      </c>
+      <c r="AQ244">
+        <v>2.25</v>
+      </c>
+      <c r="AR244">
+        <v>1.59</v>
+      </c>
+      <c r="AS244">
+        <v>1.75</v>
+      </c>
+      <c r="AT244">
+        <v>3.34</v>
+      </c>
+      <c r="AU244">
+        <v>0</v>
+      </c>
+      <c r="AV244">
+        <v>9</v>
+      </c>
+      <c r="AW244">
+        <v>0</v>
+      </c>
+      <c r="AX244">
+        <v>6</v>
+      </c>
+      <c r="AY244">
+        <v>0</v>
+      </c>
+      <c r="AZ244">
+        <v>17</v>
+      </c>
+      <c r="BA244">
+        <v>2</v>
+      </c>
+      <c r="BB244">
+        <v>5</v>
+      </c>
+      <c r="BC244">
+        <v>7</v>
+      </c>
+      <c r="BD244">
+        <v>3.8</v>
+      </c>
+      <c r="BE244">
+        <v>7.5</v>
+      </c>
+      <c r="BF244">
+        <v>1.3</v>
+      </c>
+      <c r="BG244">
+        <v>1.25</v>
+      </c>
+      <c r="BH244">
+        <v>3.45</v>
+      </c>
+      <c r="BI244">
+        <v>1.44</v>
+      </c>
+      <c r="BJ244">
+        <v>2.55</v>
+      </c>
+      <c r="BK244">
+        <v>1.73</v>
+      </c>
+      <c r="BL244">
+        <v>1.98</v>
+      </c>
+      <c r="BM244">
+        <v>2.1</v>
+      </c>
+      <c r="BN244">
+        <v>1.64</v>
+      </c>
+      <c r="BO244">
+        <v>2.65</v>
+      </c>
+      <c r="BP244">
+        <v>1.42</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Czech Republic First League_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Czech Republic First League_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1526" uniqueCount="347">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1532" uniqueCount="349">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -739,6 +739,9 @@
     <t>['72']</t>
   </si>
   <si>
+    <t>['12', '88']</t>
+  </si>
+  <si>
     <t>['25']</t>
   </si>
   <si>
@@ -1055,6 +1058,9 @@
   </si>
   <si>
     <t>['22', '46', '52', '60', '66']</t>
+  </si>
+  <si>
+    <t>['3', '15']</t>
   </si>
 </sst>
 </file>
@@ -1416,7 +1422,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP244"/>
+  <dimension ref="A1:BP245"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1675,7 +1681,7 @@
         <v>86</v>
       </c>
       <c r="P2" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q2">
         <v>1.53</v>
@@ -2087,7 +2093,7 @@
         <v>88</v>
       </c>
       <c r="P4" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q4">
         <v>2.88</v>
@@ -2499,7 +2505,7 @@
         <v>90</v>
       </c>
       <c r="P6" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q6">
         <v>5.5</v>
@@ -2705,7 +2711,7 @@
         <v>91</v>
       </c>
       <c r="P7" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q7">
         <v>3.2</v>
@@ -3529,7 +3535,7 @@
         <v>94</v>
       </c>
       <c r="P11" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q11">
         <v>6.5</v>
@@ -3735,7 +3741,7 @@
         <v>88</v>
       </c>
       <c r="P12" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q12">
         <v>2.85</v>
@@ -4971,7 +4977,7 @@
         <v>88</v>
       </c>
       <c r="P18" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q18">
         <v>5.4</v>
@@ -6001,7 +6007,7 @@
         <v>102</v>
       </c>
       <c r="P23" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q23">
         <v>2.6</v>
@@ -6207,7 +6213,7 @@
         <v>103</v>
       </c>
       <c r="P24" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q24">
         <v>2.75</v>
@@ -6413,7 +6419,7 @@
         <v>88</v>
       </c>
       <c r="P25" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Q25">
         <v>1.06</v>
@@ -6825,7 +6831,7 @@
         <v>105</v>
       </c>
       <c r="P27" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Q27">
         <v>6.23</v>
@@ -8267,7 +8273,7 @@
         <v>111</v>
       </c>
       <c r="P34" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q34">
         <v>2.84</v>
@@ -8473,7 +8479,7 @@
         <v>112</v>
       </c>
       <c r="P35" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q35">
         <v>1.45</v>
@@ -8679,7 +8685,7 @@
         <v>113</v>
       </c>
       <c r="P36" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q36">
         <v>5.63</v>
@@ -8885,7 +8891,7 @@
         <v>114</v>
       </c>
       <c r="P37" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q37">
         <v>2.58</v>
@@ -9091,7 +9097,7 @@
         <v>88</v>
       </c>
       <c r="P38" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Q38">
         <v>4.75</v>
@@ -9709,7 +9715,7 @@
         <v>117</v>
       </c>
       <c r="P41" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Q41">
         <v>2.4</v>
@@ -9915,7 +9921,7 @@
         <v>108</v>
       </c>
       <c r="P42" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Q42">
         <v>2.61</v>
@@ -10121,7 +10127,7 @@
         <v>118</v>
       </c>
       <c r="P43" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q43">
         <v>1.69</v>
@@ -11563,7 +11569,7 @@
         <v>88</v>
       </c>
       <c r="P50" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Q50">
         <v>5.1</v>
@@ -11975,7 +11981,7 @@
         <v>122</v>
       </c>
       <c r="P52" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Q52">
         <v>3</v>
@@ -12387,7 +12393,7 @@
         <v>124</v>
       </c>
       <c r="P54" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Q54">
         <v>3</v>
@@ -13005,7 +13011,7 @@
         <v>88</v>
       </c>
       <c r="P57" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Q57">
         <v>5.88</v>
@@ -13623,7 +13629,7 @@
         <v>128</v>
       </c>
       <c r="P60" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Q60">
         <v>3.86</v>
@@ -14035,7 +14041,7 @@
         <v>130</v>
       </c>
       <c r="P62" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="Q62">
         <v>1.83</v>
@@ -14447,7 +14453,7 @@
         <v>88</v>
       </c>
       <c r="P64" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Q64">
         <v>8.77</v>
@@ -14653,7 +14659,7 @@
         <v>132</v>
       </c>
       <c r="P65" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="Q65">
         <v>2.4</v>
@@ -14859,7 +14865,7 @@
         <v>133</v>
       </c>
       <c r="P66" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="Q66">
         <v>1.55</v>
@@ -15065,7 +15071,7 @@
         <v>134</v>
       </c>
       <c r="P67" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Q67">
         <v>4</v>
@@ -15477,7 +15483,7 @@
         <v>88</v>
       </c>
       <c r="P69" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="Q69">
         <v>3.1</v>
@@ -16095,7 +16101,7 @@
         <v>124</v>
       </c>
       <c r="P72" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="Q72">
         <v>1.88</v>
@@ -16301,7 +16307,7 @@
         <v>88</v>
       </c>
       <c r="P73" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Q73">
         <v>7</v>
@@ -16713,7 +16719,7 @@
         <v>88</v>
       </c>
       <c r="P75" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Q75">
         <v>3.7</v>
@@ -16919,7 +16925,7 @@
         <v>138</v>
       </c>
       <c r="P76" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="Q76">
         <v>2.3</v>
@@ -17125,7 +17131,7 @@
         <v>88</v>
       </c>
       <c r="P77" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="Q77">
         <v>2.47</v>
@@ -17537,7 +17543,7 @@
         <v>140</v>
       </c>
       <c r="P79" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="Q79">
         <v>2.5</v>
@@ -17949,7 +17955,7 @@
         <v>141</v>
       </c>
       <c r="P81" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="Q81">
         <v>2.38</v>
@@ -18155,7 +18161,7 @@
         <v>142</v>
       </c>
       <c r="P82" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="Q82">
         <v>2.8</v>
@@ -18361,7 +18367,7 @@
         <v>143</v>
       </c>
       <c r="P83" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="Q83">
         <v>2.6</v>
@@ -18567,7 +18573,7 @@
         <v>144</v>
       </c>
       <c r="P84" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="Q84">
         <v>3.4</v>
@@ -18979,7 +18985,7 @@
         <v>146</v>
       </c>
       <c r="P86" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="Q86">
         <v>2.88</v>
@@ -19185,7 +19191,7 @@
         <v>88</v>
       </c>
       <c r="P87" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="Q87">
         <v>2.6</v>
@@ -19597,7 +19603,7 @@
         <v>93</v>
       </c>
       <c r="P89" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="Q89">
         <v>6.5</v>
@@ -20009,7 +20015,7 @@
         <v>88</v>
       </c>
       <c r="P91" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="Q91">
         <v>3.8</v>
@@ -20215,7 +20221,7 @@
         <v>149</v>
       </c>
       <c r="P92" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="Q92">
         <v>4.7</v>
@@ -20627,7 +20633,7 @@
         <v>150</v>
       </c>
       <c r="P94" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="Q94">
         <v>3</v>
@@ -22069,7 +22075,7 @@
         <v>156</v>
       </c>
       <c r="P101" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="Q101">
         <v>1.83</v>
@@ -23717,7 +23723,7 @@
         <v>161</v>
       </c>
       <c r="P109" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="Q109">
         <v>2.24</v>
@@ -24129,7 +24135,7 @@
         <v>163</v>
       </c>
       <c r="P111" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="Q111">
         <v>4.6</v>
@@ -24541,7 +24547,7 @@
         <v>165</v>
       </c>
       <c r="P113" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="Q113">
         <v>3.25</v>
@@ -24747,7 +24753,7 @@
         <v>152</v>
       </c>
       <c r="P114" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="Q114">
         <v>2.88</v>
@@ -24953,7 +24959,7 @@
         <v>99</v>
       </c>
       <c r="P115" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="Q115">
         <v>1.73</v>
@@ -25159,7 +25165,7 @@
         <v>88</v>
       </c>
       <c r="P116" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="Q116">
         <v>4.33</v>
@@ -25571,7 +25577,7 @@
         <v>88</v>
       </c>
       <c r="P118" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="Q118">
         <v>15</v>
@@ -25983,7 +25989,7 @@
         <v>168</v>
       </c>
       <c r="P120" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="Q120">
         <v>3</v>
@@ -26395,7 +26401,7 @@
         <v>170</v>
       </c>
       <c r="P122" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="Q122">
         <v>3.25</v>
@@ -26601,7 +26607,7 @@
         <v>171</v>
       </c>
       <c r="P123" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q123">
         <v>1.83</v>
@@ -27013,7 +27019,7 @@
         <v>172</v>
       </c>
       <c r="P125" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="Q125">
         <v>6.3</v>
@@ -27837,7 +27843,7 @@
         <v>174</v>
       </c>
       <c r="P129" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="Q129">
         <v>2.1</v>
@@ -28043,7 +28049,7 @@
         <v>175</v>
       </c>
       <c r="P130" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="Q130">
         <v>1.5</v>
@@ -28455,7 +28461,7 @@
         <v>177</v>
       </c>
       <c r="P132" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="Q132">
         <v>3.5</v>
@@ -28661,7 +28667,7 @@
         <v>178</v>
       </c>
       <c r="P133" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="Q133">
         <v>4.04</v>
@@ -28867,7 +28873,7 @@
         <v>88</v>
       </c>
       <c r="P134" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="Q134">
         <v>2.75</v>
@@ -29691,7 +29697,7 @@
         <v>91</v>
       </c>
       <c r="P138" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="Q138">
         <v>2.25</v>
@@ -29897,7 +29903,7 @@
         <v>179</v>
       </c>
       <c r="P139" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="Q139">
         <v>1.9</v>
@@ -30309,7 +30315,7 @@
         <v>88</v>
       </c>
       <c r="P141" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="Q141">
         <v>4</v>
@@ -30515,7 +30521,7 @@
         <v>117</v>
       </c>
       <c r="P142" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="Q142">
         <v>4</v>
@@ -30721,7 +30727,7 @@
         <v>181</v>
       </c>
       <c r="P143" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="Q143">
         <v>6</v>
@@ -31133,7 +31139,7 @@
         <v>88</v>
       </c>
       <c r="P145" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="Q145">
         <v>3.5</v>
@@ -31339,7 +31345,7 @@
         <v>183</v>
       </c>
       <c r="P146" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="Q146">
         <v>4.33</v>
@@ -31545,7 +31551,7 @@
         <v>184</v>
       </c>
       <c r="P147" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="Q147">
         <v>3.8</v>
@@ -31751,7 +31757,7 @@
         <v>185</v>
       </c>
       <c r="P148" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="Q148">
         <v>2.5</v>
@@ -31957,7 +31963,7 @@
         <v>186</v>
       </c>
       <c r="P149" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="Q149">
         <v>2.05</v>
@@ -32369,7 +32375,7 @@
         <v>188</v>
       </c>
       <c r="P151" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="Q151">
         <v>2.48</v>
@@ -32781,7 +32787,7 @@
         <v>190</v>
       </c>
       <c r="P153" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="Q153">
         <v>1.4</v>
@@ -33193,7 +33199,7 @@
         <v>88</v>
       </c>
       <c r="P155" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q155">
         <v>3.2</v>
@@ -33811,7 +33817,7 @@
         <v>88</v>
       </c>
       <c r="P158" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="Q158">
         <v>5</v>
@@ -34017,7 +34023,7 @@
         <v>88</v>
       </c>
       <c r="P159" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="Q159">
         <v>2.38</v>
@@ -34429,7 +34435,7 @@
         <v>193</v>
       </c>
       <c r="P161" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="Q161">
         <v>4.75</v>
@@ -34635,7 +34641,7 @@
         <v>194</v>
       </c>
       <c r="P162" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="Q162">
         <v>2.63</v>
@@ -34841,7 +34847,7 @@
         <v>88</v>
       </c>
       <c r="P163" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="Q163">
         <v>11</v>
@@ -35047,7 +35053,7 @@
         <v>195</v>
       </c>
       <c r="P164" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="Q164">
         <v>2</v>
@@ -35253,7 +35259,7 @@
         <v>196</v>
       </c>
       <c r="P165" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="Q165">
         <v>2.5</v>
@@ -36489,7 +36495,7 @@
         <v>201</v>
       </c>
       <c r="P171" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="Q171">
         <v>5.2</v>
@@ -36695,7 +36701,7 @@
         <v>202</v>
       </c>
       <c r="P172" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="Q172">
         <v>6.35</v>
@@ -36901,7 +36907,7 @@
         <v>203</v>
       </c>
       <c r="P173" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="Q173">
         <v>2.6</v>
@@ -37107,7 +37113,7 @@
         <v>204</v>
       </c>
       <c r="P174" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="Q174">
         <v>2.66</v>
@@ -37313,7 +37319,7 @@
         <v>88</v>
       </c>
       <c r="P175" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="Q175">
         <v>4.86</v>
@@ -37725,7 +37731,7 @@
         <v>172</v>
       </c>
       <c r="P177" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="Q177">
         <v>3.63</v>
@@ -37931,7 +37937,7 @@
         <v>88</v>
       </c>
       <c r="P178" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="Q178">
         <v>3.92</v>
@@ -38961,7 +38967,7 @@
         <v>208</v>
       </c>
       <c r="P183" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="Q183">
         <v>4.3</v>
@@ -39167,7 +39173,7 @@
         <v>88</v>
       </c>
       <c r="P184" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="Q184">
         <v>5.8</v>
@@ -39373,7 +39379,7 @@
         <v>96</v>
       </c>
       <c r="P185" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="Q185">
         <v>4.7</v>
@@ -40197,7 +40203,7 @@
         <v>88</v>
       </c>
       <c r="P189" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="Q189">
         <v>4.5</v>
@@ -41639,7 +41645,7 @@
         <v>215</v>
       </c>
       <c r="P196" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q196">
         <v>1.95</v>
@@ -41845,7 +41851,7 @@
         <v>88</v>
       </c>
       <c r="P197" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q197">
         <v>2.88</v>
@@ -42669,7 +42675,7 @@
         <v>158</v>
       </c>
       <c r="P201" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="Q201">
         <v>2.63</v>
@@ -42875,7 +42881,7 @@
         <v>88</v>
       </c>
       <c r="P202" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="Q202">
         <v>2.75</v>
@@ -43493,7 +43499,7 @@
         <v>218</v>
       </c>
       <c r="P205" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="Q205">
         <v>2.88</v>
@@ -43699,7 +43705,7 @@
         <v>88</v>
       </c>
       <c r="P206" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="Q206">
         <v>2.38</v>
@@ -43905,7 +43911,7 @@
         <v>219</v>
       </c>
       <c r="P207" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="Q207">
         <v>4.75</v>
@@ -44729,7 +44735,7 @@
         <v>221</v>
       </c>
       <c r="P211" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="Q211">
         <v>1.57</v>
@@ -45141,7 +45147,7 @@
         <v>88</v>
       </c>
       <c r="P213" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="Q213">
         <v>3.5</v>
@@ -45759,7 +45765,7 @@
         <v>224</v>
       </c>
       <c r="P216" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="Q216">
         <v>2.75</v>
@@ -46171,7 +46177,7 @@
         <v>124</v>
       </c>
       <c r="P218" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="Q218">
         <v>2.4</v>
@@ -46377,7 +46383,7 @@
         <v>226</v>
       </c>
       <c r="P219" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="Q219">
         <v>3</v>
@@ -46789,7 +46795,7 @@
         <v>228</v>
       </c>
       <c r="P221" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q221">
         <v>1.67</v>
@@ -47201,7 +47207,7 @@
         <v>88</v>
       </c>
       <c r="P223" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="Q223">
         <v>2.3</v>
@@ -47613,7 +47619,7 @@
         <v>218</v>
       </c>
       <c r="P225" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="Q225">
         <v>3.3</v>
@@ -47819,7 +47825,7 @@
         <v>88</v>
       </c>
       <c r="P226" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="Q226">
         <v>7.5</v>
@@ -48025,7 +48031,7 @@
         <v>152</v>
       </c>
       <c r="P227" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="Q227">
         <v>5.5</v>
@@ -48231,7 +48237,7 @@
         <v>230</v>
       </c>
       <c r="P228" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="Q228">
         <v>5</v>
@@ -48849,7 +48855,7 @@
         <v>232</v>
       </c>
       <c r="P231" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="Q231">
         <v>3.6</v>
@@ -49055,7 +49061,7 @@
         <v>88</v>
       </c>
       <c r="P232" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="Q232">
         <v>3</v>
@@ -49261,7 +49267,7 @@
         <v>233</v>
       </c>
       <c r="P233" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="Q233">
         <v>4.5</v>
@@ -49467,7 +49473,7 @@
         <v>234</v>
       </c>
       <c r="P234" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="Q234">
         <v>2.3</v>
@@ -50369,7 +50375,7 @@
         <v>1.21</v>
       </c>
       <c r="AP238">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="AQ238">
         <v>1.13</v>
@@ -50703,7 +50709,7 @@
         <v>158</v>
       </c>
       <c r="P240" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="Q240">
         <v>8</v>
@@ -50909,7 +50915,7 @@
         <v>238</v>
       </c>
       <c r="P241" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="Q241">
         <v>1.67</v>
@@ -51115,7 +51121,7 @@
         <v>239</v>
       </c>
       <c r="P242" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="Q242">
         <v>3.9</v>
@@ -51527,7 +51533,7 @@
         <v>88</v>
       </c>
       <c r="P244" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="Q244">
         <v>6.5</v>
@@ -51684,6 +51690,212 @@
       </c>
       <c r="BP244">
         <v>1.42</v>
+      </c>
+    </row>
+    <row r="245" spans="1:68">
+      <c r="A245" s="1">
+        <v>244</v>
+      </c>
+      <c r="B245">
+        <v>7885764</v>
+      </c>
+      <c r="C245" t="s">
+        <v>68</v>
+      </c>
+      <c r="D245" t="s">
+        <v>69</v>
+      </c>
+      <c r="E245" s="2">
+        <v>45774.33333333334</v>
+      </c>
+      <c r="F245">
+        <v>1</v>
+      </c>
+      <c r="G245" t="s">
+        <v>78</v>
+      </c>
+      <c r="H245" t="s">
+        <v>74</v>
+      </c>
+      <c r="I245">
+        <v>1</v>
+      </c>
+      <c r="J245">
+        <v>2</v>
+      </c>
+      <c r="K245">
+        <v>3</v>
+      </c>
+      <c r="L245">
+        <v>2</v>
+      </c>
+      <c r="M245">
+        <v>2</v>
+      </c>
+      <c r="N245">
+        <v>4</v>
+      </c>
+      <c r="O245" t="s">
+        <v>241</v>
+      </c>
+      <c r="P245" t="s">
+        <v>348</v>
+      </c>
+      <c r="Q245">
+        <v>2.5</v>
+      </c>
+      <c r="R245">
+        <v>2.15</v>
+      </c>
+      <c r="S245">
+        <v>4.1</v>
+      </c>
+      <c r="T245">
+        <v>1.42</v>
+      </c>
+      <c r="U245">
+        <v>2.8</v>
+      </c>
+      <c r="V245">
+        <v>2.9</v>
+      </c>
+      <c r="W245">
+        <v>1.37</v>
+      </c>
+      <c r="X245">
+        <v>7</v>
+      </c>
+      <c r="Y245">
+        <v>1.06</v>
+      </c>
+      <c r="Z245">
+        <v>1.87</v>
+      </c>
+      <c r="AA245">
+        <v>3.35</v>
+      </c>
+      <c r="AB245">
+        <v>3.8</v>
+      </c>
+      <c r="AC245">
+        <v>1.01</v>
+      </c>
+      <c r="AD245">
+        <v>10</v>
+      </c>
+      <c r="AE245">
+        <v>1.3</v>
+      </c>
+      <c r="AF245">
+        <v>3.15</v>
+      </c>
+      <c r="AG245">
+        <v>2.05</v>
+      </c>
+      <c r="AH245">
+        <v>1.73</v>
+      </c>
+      <c r="AI245">
+        <v>1.85</v>
+      </c>
+      <c r="AJ245">
+        <v>1.8</v>
+      </c>
+      <c r="AK245">
+        <v>1.25</v>
+      </c>
+      <c r="AL245">
+        <v>1.3</v>
+      </c>
+      <c r="AM245">
+        <v>1.85</v>
+      </c>
+      <c r="AN245">
+        <v>1.47</v>
+      </c>
+      <c r="AO245">
+        <v>0.73</v>
+      </c>
+      <c r="AP245">
+        <v>1.44</v>
+      </c>
+      <c r="AQ245">
+        <v>0.75</v>
+      </c>
+      <c r="AR245">
+        <v>1.43</v>
+      </c>
+      <c r="AS245">
+        <v>0.99</v>
+      </c>
+      <c r="AT245">
+        <v>2.42</v>
+      </c>
+      <c r="AU245">
+        <v>-1</v>
+      </c>
+      <c r="AV245">
+        <v>-1</v>
+      </c>
+      <c r="AW245">
+        <v>-1</v>
+      </c>
+      <c r="AX245">
+        <v>-1</v>
+      </c>
+      <c r="AY245">
+        <v>-1</v>
+      </c>
+      <c r="AZ245">
+        <v>-1</v>
+      </c>
+      <c r="BA245">
+        <v>-1</v>
+      </c>
+      <c r="BB245">
+        <v>-1</v>
+      </c>
+      <c r="BC245">
+        <v>-1</v>
+      </c>
+      <c r="BD245">
+        <v>1.55</v>
+      </c>
+      <c r="BE245">
+        <v>7</v>
+      </c>
+      <c r="BF245">
+        <v>2.65</v>
+      </c>
+      <c r="BG245">
+        <v>1.26</v>
+      </c>
+      <c r="BH245">
+        <v>3.4</v>
+      </c>
+      <c r="BI245">
+        <v>1.47</v>
+      </c>
+      <c r="BJ245">
+        <v>2.48</v>
+      </c>
+      <c r="BK245">
+        <v>1.74</v>
+      </c>
+      <c r="BL245">
+        <v>1.95</v>
+      </c>
+      <c r="BM245">
+        <v>2.18</v>
+      </c>
+      <c r="BN245">
+        <v>1.58</v>
+      </c>
+      <c r="BO245">
+        <v>2.8</v>
+      </c>
+      <c r="BP245">
+        <v>1.36</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Czech Republic First League_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Czech Republic First League_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1532" uniqueCount="349">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1544" uniqueCount="352">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -742,6 +742,12 @@
     <t>['12', '88']</t>
   </si>
   <si>
+    <t>['59']</t>
+  </si>
+  <si>
+    <t>['45+4', '66']</t>
+  </si>
+  <si>
     <t>['25']</t>
   </si>
   <si>
@@ -1061,6 +1067,9 @@
   </si>
   <si>
     <t>['3', '15']</t>
+  </si>
+  <si>
+    <t>['24', '45+5']</t>
   </si>
 </sst>
 </file>
@@ -1422,7 +1431,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP245"/>
+  <dimension ref="A1:BP247"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1681,7 +1690,7 @@
         <v>86</v>
       </c>
       <c r="P2" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="Q2">
         <v>1.53</v>
@@ -2093,7 +2102,7 @@
         <v>88</v>
       </c>
       <c r="P4" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="Q4">
         <v>2.88</v>
@@ -2505,7 +2514,7 @@
         <v>90</v>
       </c>
       <c r="P6" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="Q6">
         <v>5.5</v>
@@ -2711,7 +2720,7 @@
         <v>91</v>
       </c>
       <c r="P7" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="Q7">
         <v>3.2</v>
@@ -3535,7 +3544,7 @@
         <v>94</v>
       </c>
       <c r="P11" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="Q11">
         <v>6.5</v>
@@ -3613,10 +3622,10 @@
         <v>0</v>
       </c>
       <c r="AP11">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="AQ11">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AR11">
         <v>0</v>
@@ -3741,7 +3750,7 @@
         <v>88</v>
       </c>
       <c r="P12" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="Q12">
         <v>2.85</v>
@@ -4437,10 +4446,10 @@
         <v>0</v>
       </c>
       <c r="AP15">
-        <v>2.47</v>
+        <v>2.31</v>
       </c>
       <c r="AQ15">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="AR15">
         <v>0</v>
@@ -4849,7 +4858,7 @@
         <v>0</v>
       </c>
       <c r="AP17">
-        <v>2.33</v>
+        <v>2.38</v>
       </c>
       <c r="AQ17">
         <v>1.13</v>
@@ -4977,7 +4986,7 @@
         <v>88</v>
       </c>
       <c r="P18" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="Q18">
         <v>5.4</v>
@@ -5264,7 +5273,7 @@
         <v>2.13</v>
       </c>
       <c r="AQ19">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AR19">
         <v>1.9</v>
@@ -6007,7 +6016,7 @@
         <v>102</v>
       </c>
       <c r="P23" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="Q23">
         <v>2.6</v>
@@ -6213,7 +6222,7 @@
         <v>103</v>
       </c>
       <c r="P24" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="Q24">
         <v>2.75</v>
@@ -6419,7 +6428,7 @@
         <v>88</v>
       </c>
       <c r="P25" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="Q25">
         <v>1.06</v>
@@ -6500,7 +6509,7 @@
         <v>0.87</v>
       </c>
       <c r="AQ25">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="AR25">
         <v>0.93</v>
@@ -6703,7 +6712,7 @@
         <v>3</v>
       </c>
       <c r="AP26">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="AQ26">
         <v>1.27</v>
@@ -6831,7 +6840,7 @@
         <v>105</v>
       </c>
       <c r="P27" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="Q27">
         <v>6.23</v>
@@ -6912,7 +6921,7 @@
         <v>1</v>
       </c>
       <c r="AQ27">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AR27">
         <v>1.73</v>
@@ -7733,7 +7742,7 @@
         <v>0</v>
       </c>
       <c r="AP31">
-        <v>2.47</v>
+        <v>2.31</v>
       </c>
       <c r="AQ31">
         <v>1.13</v>
@@ -7939,7 +7948,7 @@
         <v>3</v>
       </c>
       <c r="AP32">
-        <v>2.33</v>
+        <v>2.38</v>
       </c>
       <c r="AQ32">
         <v>1.27</v>
@@ -8148,7 +8157,7 @@
         <v>1.53</v>
       </c>
       <c r="AQ33">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AR33">
         <v>1.08</v>
@@ -8273,7 +8282,7 @@
         <v>111</v>
       </c>
       <c r="P34" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="Q34">
         <v>2.84</v>
@@ -8479,7 +8488,7 @@
         <v>112</v>
       </c>
       <c r="P35" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="Q35">
         <v>1.45</v>
@@ -8685,7 +8694,7 @@
         <v>113</v>
       </c>
       <c r="P36" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="Q36">
         <v>5.63</v>
@@ -8766,7 +8775,7 @@
         <v>2</v>
       </c>
       <c r="AQ36">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AR36">
         <v>1.54</v>
@@ -8891,7 +8900,7 @@
         <v>114</v>
       </c>
       <c r="P37" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="Q37">
         <v>2.58</v>
@@ -9097,7 +9106,7 @@
         <v>88</v>
       </c>
       <c r="P38" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="Q38">
         <v>4.75</v>
@@ -9715,7 +9724,7 @@
         <v>117</v>
       </c>
       <c r="P41" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="Q41">
         <v>2.4</v>
@@ -9796,7 +9805,7 @@
         <v>1</v>
       </c>
       <c r="AQ41">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="AR41">
         <v>1.49</v>
@@ -9921,7 +9930,7 @@
         <v>108</v>
       </c>
       <c r="P42" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="Q42">
         <v>2.61</v>
@@ -9999,7 +10008,7 @@
         <v>1.5</v>
       </c>
       <c r="AP42">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="AQ42">
         <v>1.27</v>
@@ -10127,7 +10136,7 @@
         <v>118</v>
       </c>
       <c r="P43" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="Q43">
         <v>1.69</v>
@@ -10617,7 +10626,7 @@
         <v>1.5</v>
       </c>
       <c r="AP45">
-        <v>2.47</v>
+        <v>2.31</v>
       </c>
       <c r="AQ45">
         <v>1.27</v>
@@ -11444,7 +11453,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ49">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="AR49">
         <v>1.24</v>
@@ -11569,7 +11578,7 @@
         <v>88</v>
       </c>
       <c r="P50" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="Q50">
         <v>5.1</v>
@@ -11650,7 +11659,7 @@
         <v>1.53</v>
       </c>
       <c r="AQ50">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AR50">
         <v>1.24</v>
@@ -11856,7 +11865,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ51">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AR51">
         <v>1.76</v>
@@ -11981,7 +11990,7 @@
         <v>122</v>
       </c>
       <c r="P52" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="Q52">
         <v>3</v>
@@ -12393,7 +12402,7 @@
         <v>124</v>
       </c>
       <c r="P54" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="Q54">
         <v>3</v>
@@ -12471,7 +12480,7 @@
         <v>0</v>
       </c>
       <c r="AP54">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="AQ54">
         <v>1.13</v>
@@ -12883,7 +12892,7 @@
         <v>1.33</v>
       </c>
       <c r="AP56">
-        <v>2.33</v>
+        <v>2.38</v>
       </c>
       <c r="AQ56">
         <v>1.33</v>
@@ -13011,7 +13020,7 @@
         <v>88</v>
       </c>
       <c r="P57" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="Q57">
         <v>5.88</v>
@@ -13504,7 +13513,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ59">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="AR59">
         <v>1.83</v>
@@ -13629,7 +13638,7 @@
         <v>128</v>
       </c>
       <c r="P60" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="Q60">
         <v>3.86</v>
@@ -13707,7 +13716,7 @@
         <v>0.5</v>
       </c>
       <c r="AP60">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="AQ60">
         <v>1.8</v>
@@ -14041,7 +14050,7 @@
         <v>130</v>
       </c>
       <c r="P62" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="Q62">
         <v>1.83</v>
@@ -14328,7 +14337,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ63">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AR63">
         <v>1.75</v>
@@ -14453,7 +14462,7 @@
         <v>88</v>
       </c>
       <c r="P64" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="Q64">
         <v>8.77</v>
@@ -14534,7 +14543,7 @@
         <v>0.25</v>
       </c>
       <c r="AQ64">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AR64">
         <v>1.37</v>
@@ -14659,7 +14668,7 @@
         <v>132</v>
       </c>
       <c r="P65" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="Q65">
         <v>2.4</v>
@@ -14865,7 +14874,7 @@
         <v>133</v>
       </c>
       <c r="P66" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="Q66">
         <v>1.55</v>
@@ -15071,7 +15080,7 @@
         <v>134</v>
       </c>
       <c r="P67" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="Q67">
         <v>4</v>
@@ -15483,7 +15492,7 @@
         <v>88</v>
       </c>
       <c r="P69" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="Q69">
         <v>3.1</v>
@@ -15973,7 +15982,7 @@
         <v>0</v>
       </c>
       <c r="AP71">
-        <v>2.47</v>
+        <v>2.31</v>
       </c>
       <c r="AQ71">
         <v>0.07000000000000001</v>
@@ -16101,7 +16110,7 @@
         <v>124</v>
       </c>
       <c r="P72" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="Q72">
         <v>1.88</v>
@@ -16179,7 +16188,7 @@
         <v>0.75</v>
       </c>
       <c r="AP72">
-        <v>2.33</v>
+        <v>2.38</v>
       </c>
       <c r="AQ72">
         <v>1.13</v>
@@ -16307,7 +16316,7 @@
         <v>88</v>
       </c>
       <c r="P73" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="Q73">
         <v>7</v>
@@ -16719,7 +16728,7 @@
         <v>88</v>
       </c>
       <c r="P75" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="Q75">
         <v>3.7</v>
@@ -16925,7 +16934,7 @@
         <v>138</v>
       </c>
       <c r="P76" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="Q76">
         <v>2.3</v>
@@ -17003,10 +17012,10 @@
         <v>0.25</v>
       </c>
       <c r="AP76">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="AQ76">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AR76">
         <v>1.49</v>
@@ -17131,7 +17140,7 @@
         <v>88</v>
       </c>
       <c r="P77" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="Q77">
         <v>2.47</v>
@@ -17212,7 +17221,7 @@
         <v>1.53</v>
       </c>
       <c r="AQ77">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="AR77">
         <v>1.45</v>
@@ -17415,7 +17424,7 @@
         <v>0.8</v>
       </c>
       <c r="AP78">
-        <v>2.33</v>
+        <v>2.38</v>
       </c>
       <c r="AQ78">
         <v>0.38</v>
@@ -17543,7 +17552,7 @@
         <v>140</v>
       </c>
       <c r="P79" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="Q79">
         <v>2.5</v>
@@ -17955,7 +17964,7 @@
         <v>141</v>
       </c>
       <c r="P81" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="Q81">
         <v>2.38</v>
@@ -18036,7 +18045,7 @@
         <v>3</v>
       </c>
       <c r="AQ81">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AR81">
         <v>2.43</v>
@@ -18161,7 +18170,7 @@
         <v>142</v>
       </c>
       <c r="P82" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="Q82">
         <v>2.8</v>
@@ -18367,7 +18376,7 @@
         <v>143</v>
       </c>
       <c r="P83" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="Q83">
         <v>2.6</v>
@@ -18573,7 +18582,7 @@
         <v>144</v>
       </c>
       <c r="P84" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="Q84">
         <v>3.4</v>
@@ -18651,7 +18660,7 @@
         <v>1.6</v>
       </c>
       <c r="AP84">
-        <v>2.47</v>
+        <v>2.31</v>
       </c>
       <c r="AQ84">
         <v>2</v>
@@ -18985,7 +18994,7 @@
         <v>146</v>
       </c>
       <c r="P86" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="Q86">
         <v>2.88</v>
@@ -19191,7 +19200,7 @@
         <v>88</v>
       </c>
       <c r="P87" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="Q87">
         <v>2.6</v>
@@ -19603,7 +19612,7 @@
         <v>93</v>
       </c>
       <c r="P89" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="Q89">
         <v>6.5</v>
@@ -20015,7 +20024,7 @@
         <v>88</v>
       </c>
       <c r="P91" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="Q91">
         <v>3.8</v>
@@ -20221,7 +20230,7 @@
         <v>149</v>
       </c>
       <c r="P92" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="Q92">
         <v>4.7</v>
@@ -20508,7 +20517,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ93">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="AR93">
         <v>1.61</v>
@@ -20633,7 +20642,7 @@
         <v>150</v>
       </c>
       <c r="P94" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="Q94">
         <v>3</v>
@@ -20711,7 +20720,7 @@
         <v>1.5</v>
       </c>
       <c r="AP94">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="AQ94">
         <v>1.27</v>
@@ -20920,7 +20929,7 @@
         <v>3</v>
       </c>
       <c r="AQ95">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AR95">
         <v>2.31</v>
@@ -21329,10 +21338,10 @@
         <v>2.5</v>
       </c>
       <c r="AP97">
-        <v>2.33</v>
+        <v>2.38</v>
       </c>
       <c r="AQ97">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AR97">
         <v>1.81</v>
@@ -22075,7 +22084,7 @@
         <v>156</v>
       </c>
       <c r="P101" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="Q101">
         <v>1.83</v>
@@ -23183,10 +23192,10 @@
         <v>0.33</v>
       </c>
       <c r="AP106">
-        <v>2.47</v>
+        <v>2.31</v>
       </c>
       <c r="AQ106">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AR106">
         <v>1.87</v>
@@ -23392,7 +23401,7 @@
         <v>0.87</v>
       </c>
       <c r="AQ107">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="AR107">
         <v>1.14</v>
@@ -23723,7 +23732,7 @@
         <v>161</v>
       </c>
       <c r="P109" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="Q109">
         <v>2.24</v>
@@ -23801,7 +23810,7 @@
         <v>0</v>
       </c>
       <c r="AP109">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="AQ109">
         <v>0.07000000000000001</v>
@@ -24007,7 +24016,7 @@
         <v>1.71</v>
       </c>
       <c r="AP110">
-        <v>2.33</v>
+        <v>2.38</v>
       </c>
       <c r="AQ110">
         <v>1.27</v>
@@ -24135,7 +24144,7 @@
         <v>163</v>
       </c>
       <c r="P111" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="Q111">
         <v>4.6</v>
@@ -24216,7 +24225,7 @@
         <v>1.27</v>
       </c>
       <c r="AQ111">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AR111">
         <v>1.51</v>
@@ -24547,7 +24556,7 @@
         <v>165</v>
       </c>
       <c r="P113" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="Q113">
         <v>3.25</v>
@@ -24753,7 +24762,7 @@
         <v>152</v>
       </c>
       <c r="P114" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="Q114">
         <v>2.88</v>
@@ -24959,7 +24968,7 @@
         <v>99</v>
       </c>
       <c r="P115" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="Q115">
         <v>1.73</v>
@@ -25165,7 +25174,7 @@
         <v>88</v>
       </c>
       <c r="P116" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="Q116">
         <v>4.33</v>
@@ -25452,7 +25461,7 @@
         <v>1</v>
       </c>
       <c r="AQ117">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AR117">
         <v>1.44</v>
@@ -25577,7 +25586,7 @@
         <v>88</v>
       </c>
       <c r="P118" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="Q118">
         <v>15</v>
@@ -25989,7 +25998,7 @@
         <v>168</v>
       </c>
       <c r="P120" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="Q120">
         <v>3</v>
@@ -26401,7 +26410,7 @@
         <v>170</v>
       </c>
       <c r="P122" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="Q122">
         <v>3.25</v>
@@ -26607,7 +26616,7 @@
         <v>171</v>
       </c>
       <c r="P123" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="Q123">
         <v>1.83</v>
@@ -26685,7 +26694,7 @@
         <v>1.17</v>
       </c>
       <c r="AP123">
-        <v>2.47</v>
+        <v>2.31</v>
       </c>
       <c r="AQ123">
         <v>1.27</v>
@@ -26891,7 +26900,7 @@
         <v>1.14</v>
       </c>
       <c r="AP124">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="AQ124">
         <v>1.33</v>
@@ -27019,7 +27028,7 @@
         <v>172</v>
       </c>
       <c r="P125" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="Q125">
         <v>6.3</v>
@@ -27100,7 +27109,7 @@
         <v>0.87</v>
       </c>
       <c r="AQ125">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AR125">
         <v>1.21</v>
@@ -27843,7 +27852,7 @@
         <v>174</v>
       </c>
       <c r="P129" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="Q129">
         <v>2.1</v>
@@ -27921,10 +27930,10 @@
         <v>1.38</v>
       </c>
       <c r="AP129">
-        <v>2.33</v>
+        <v>2.38</v>
       </c>
       <c r="AQ129">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="AR129">
         <v>1.69</v>
@@ -28049,7 +28058,7 @@
         <v>175</v>
       </c>
       <c r="P130" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="Q130">
         <v>1.5</v>
@@ -28461,7 +28470,7 @@
         <v>177</v>
       </c>
       <c r="P132" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="Q132">
         <v>3.5</v>
@@ -28667,7 +28676,7 @@
         <v>178</v>
       </c>
       <c r="P133" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="Q133">
         <v>4.04</v>
@@ -28873,7 +28882,7 @@
         <v>88</v>
       </c>
       <c r="P134" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="Q134">
         <v>2.75</v>
@@ -29363,7 +29372,7 @@
         <v>2.43</v>
       </c>
       <c r="AP136">
-        <v>2.47</v>
+        <v>2.31</v>
       </c>
       <c r="AQ136">
         <v>2.25</v>
@@ -29569,7 +29578,7 @@
         <v>1</v>
       </c>
       <c r="AP137">
-        <v>2.33</v>
+        <v>2.38</v>
       </c>
       <c r="AQ137">
         <v>0.8</v>
@@ -29697,7 +29706,7 @@
         <v>91</v>
       </c>
       <c r="P138" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="Q138">
         <v>2.25</v>
@@ -29903,7 +29912,7 @@
         <v>179</v>
       </c>
       <c r="P139" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="Q139">
         <v>1.9</v>
@@ -29984,7 +29993,7 @@
         <v>2</v>
       </c>
       <c r="AQ139">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AR139">
         <v>1.71</v>
@@ -30315,7 +30324,7 @@
         <v>88</v>
       </c>
       <c r="P141" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="Q141">
         <v>4</v>
@@ -30521,7 +30530,7 @@
         <v>117</v>
       </c>
       <c r="P142" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="Q142">
         <v>4</v>
@@ -30727,7 +30736,7 @@
         <v>181</v>
       </c>
       <c r="P143" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="Q143">
         <v>6</v>
@@ -31139,7 +31148,7 @@
         <v>88</v>
       </c>
       <c r="P145" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="Q145">
         <v>3.5</v>
@@ -31345,7 +31354,7 @@
         <v>183</v>
       </c>
       <c r="P146" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="Q146">
         <v>4.33</v>
@@ -31551,7 +31560,7 @@
         <v>184</v>
       </c>
       <c r="P147" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="Q147">
         <v>3.8</v>
@@ -31757,7 +31766,7 @@
         <v>185</v>
       </c>
       <c r="P148" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="Q148">
         <v>2.5</v>
@@ -31963,7 +31972,7 @@
         <v>186</v>
       </c>
       <c r="P149" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="Q149">
         <v>2.05</v>
@@ -32041,7 +32050,7 @@
         <v>1.22</v>
       </c>
       <c r="AP149">
-        <v>2.47</v>
+        <v>2.31</v>
       </c>
       <c r="AQ149">
         <v>0.73</v>
@@ -32250,7 +32259,7 @@
         <v>2.13</v>
       </c>
       <c r="AQ150">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="AR150">
         <v>1.98</v>
@@ -32375,7 +32384,7 @@
         <v>188</v>
       </c>
       <c r="P151" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="Q151">
         <v>2.48</v>
@@ -32659,7 +32668,7 @@
         <v>2.56</v>
       </c>
       <c r="AP152">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="AQ152">
         <v>2.25</v>
@@ -32787,7 +32796,7 @@
         <v>190</v>
       </c>
       <c r="P153" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="Q153">
         <v>1.4</v>
@@ -32865,7 +32874,7 @@
         <v>0.13</v>
       </c>
       <c r="AP153">
-        <v>2.33</v>
+        <v>2.38</v>
       </c>
       <c r="AQ153">
         <v>0.07000000000000001</v>
@@ -33199,7 +33208,7 @@
         <v>88</v>
       </c>
       <c r="P155" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="Q155">
         <v>3.2</v>
@@ -33486,7 +33495,7 @@
         <v>0.25</v>
       </c>
       <c r="AQ156">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AR156">
         <v>1.34</v>
@@ -33817,7 +33826,7 @@
         <v>88</v>
       </c>
       <c r="P158" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="Q158">
         <v>5</v>
@@ -33898,7 +33907,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ158">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AR158">
         <v>1.21</v>
@@ -34023,7 +34032,7 @@
         <v>88</v>
       </c>
       <c r="P159" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="Q159">
         <v>2.38</v>
@@ -34435,7 +34444,7 @@
         <v>193</v>
       </c>
       <c r="P161" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="Q161">
         <v>4.75</v>
@@ -34641,7 +34650,7 @@
         <v>194</v>
       </c>
       <c r="P162" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="Q162">
         <v>2.63</v>
@@ -34847,7 +34856,7 @@
         <v>88</v>
       </c>
       <c r="P163" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="Q163">
         <v>11</v>
@@ -35053,7 +35062,7 @@
         <v>195</v>
       </c>
       <c r="P164" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="Q164">
         <v>2</v>
@@ -35131,7 +35140,7 @@
         <v>1.1</v>
       </c>
       <c r="AP164">
-        <v>2.33</v>
+        <v>2.38</v>
       </c>
       <c r="AQ164">
         <v>1.27</v>
@@ -35259,7 +35268,7 @@
         <v>196</v>
       </c>
       <c r="P165" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="Q165">
         <v>2.5</v>
@@ -35749,7 +35758,7 @@
         <v>1.2</v>
       </c>
       <c r="AP167">
-        <v>2.47</v>
+        <v>2.31</v>
       </c>
       <c r="AQ167">
         <v>1.33</v>
@@ -36370,7 +36379,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ170">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AR170">
         <v>1.21</v>
@@ -36495,7 +36504,7 @@
         <v>201</v>
       </c>
       <c r="P171" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="Q171">
         <v>5.2</v>
@@ -36576,7 +36585,7 @@
         <v>0.25</v>
       </c>
       <c r="AQ171">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="AR171">
         <v>1.3</v>
@@ -36701,7 +36710,7 @@
         <v>202</v>
       </c>
       <c r="P172" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="Q172">
         <v>6.35</v>
@@ -36782,7 +36791,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ172">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AR172">
         <v>1.5</v>
@@ -36907,7 +36916,7 @@
         <v>203</v>
       </c>
       <c r="P173" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="Q173">
         <v>2.6</v>
@@ -37113,7 +37122,7 @@
         <v>204</v>
       </c>
       <c r="P174" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="Q174">
         <v>2.66</v>
@@ -37319,7 +37328,7 @@
         <v>88</v>
       </c>
       <c r="P175" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="Q175">
         <v>4.86</v>
@@ -37397,7 +37406,7 @@
         <v>1.7</v>
       </c>
       <c r="AP175">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="AQ175">
         <v>2</v>
@@ -37731,7 +37740,7 @@
         <v>172</v>
       </c>
       <c r="P177" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="Q177">
         <v>3.63</v>
@@ -37937,7 +37946,7 @@
         <v>88</v>
       </c>
       <c r="P178" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="Q178">
         <v>3.92</v>
@@ -38221,7 +38230,7 @@
         <v>0.82</v>
       </c>
       <c r="AP179">
-        <v>2.47</v>
+        <v>2.31</v>
       </c>
       <c r="AQ179">
         <v>0.8</v>
@@ -38967,7 +38976,7 @@
         <v>208</v>
       </c>
       <c r="P183" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="Q183">
         <v>4.3</v>
@@ -39045,7 +39054,7 @@
         <v>2.36</v>
       </c>
       <c r="AP183">
-        <v>2.33</v>
+        <v>2.38</v>
       </c>
       <c r="AQ183">
         <v>2.25</v>
@@ -39173,7 +39182,7 @@
         <v>88</v>
       </c>
       <c r="P184" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="Q184">
         <v>5.8</v>
@@ -39379,7 +39388,7 @@
         <v>96</v>
       </c>
       <c r="P185" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="Q185">
         <v>4.7</v>
@@ -39460,7 +39469,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ185">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AR185">
         <v>1.58</v>
@@ -39666,7 +39675,7 @@
         <v>1.53</v>
       </c>
       <c r="AQ186">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="AR186">
         <v>1.46</v>
@@ -39869,7 +39878,7 @@
         <v>0.5</v>
       </c>
       <c r="AP187">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="AQ187">
         <v>0.38</v>
@@ -40078,7 +40087,7 @@
         <v>1.53</v>
       </c>
       <c r="AQ188">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AR188">
         <v>1.49</v>
@@ -40203,7 +40212,7 @@
         <v>88</v>
       </c>
       <c r="P189" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="Q189">
         <v>4.5</v>
@@ -41645,7 +41654,7 @@
         <v>215</v>
       </c>
       <c r="P196" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="Q196">
         <v>1.95</v>
@@ -41723,7 +41732,7 @@
         <v>1.25</v>
       </c>
       <c r="AP196">
-        <v>2.47</v>
+        <v>2.31</v>
       </c>
       <c r="AQ196">
         <v>1.13</v>
@@ -41851,7 +41860,7 @@
         <v>88</v>
       </c>
       <c r="P197" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="Q197">
         <v>2.88</v>
@@ -42675,7 +42684,7 @@
         <v>158</v>
       </c>
       <c r="P201" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="Q201">
         <v>2.63</v>
@@ -42881,7 +42890,7 @@
         <v>88</v>
       </c>
       <c r="P202" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="Q202">
         <v>2.75</v>
@@ -42962,7 +42971,7 @@
         <v>0.87</v>
       </c>
       <c r="AQ202">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AR202">
         <v>1.23</v>
@@ -43165,7 +43174,7 @@
         <v>0.92</v>
       </c>
       <c r="AP203">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="AQ203">
         <v>0.73</v>
@@ -43374,7 +43383,7 @@
         <v>1.53</v>
       </c>
       <c r="AQ204">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AR204">
         <v>1.49</v>
@@ -43499,7 +43508,7 @@
         <v>218</v>
       </c>
       <c r="P205" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="Q205">
         <v>2.88</v>
@@ -43705,7 +43714,7 @@
         <v>88</v>
       </c>
       <c r="P206" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="Q206">
         <v>2.38</v>
@@ -43783,7 +43792,7 @@
         <v>1.62</v>
       </c>
       <c r="AP206">
-        <v>2.33</v>
+        <v>2.38</v>
       </c>
       <c r="AQ206">
         <v>1.8</v>
@@ -43911,7 +43920,7 @@
         <v>219</v>
       </c>
       <c r="P207" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="Q207">
         <v>4.75</v>
@@ -44198,7 +44207,7 @@
         <v>3</v>
       </c>
       <c r="AQ208">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="AR208">
         <v>2.31</v>
@@ -44735,7 +44744,7 @@
         <v>221</v>
       </c>
       <c r="P211" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="Q211">
         <v>1.57</v>
@@ -44813,7 +44822,7 @@
         <v>0.46</v>
       </c>
       <c r="AP211">
-        <v>2.47</v>
+        <v>2.31</v>
       </c>
       <c r="AQ211">
         <v>0.38</v>
@@ -45147,7 +45156,7 @@
         <v>88</v>
       </c>
       <c r="P213" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="Q213">
         <v>3.5</v>
@@ -45765,7 +45774,7 @@
         <v>224</v>
       </c>
       <c r="P216" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="Q216">
         <v>2.75</v>
@@ -46177,7 +46186,7 @@
         <v>124</v>
       </c>
       <c r="P218" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="Q218">
         <v>2.4</v>
@@ -46383,7 +46392,7 @@
         <v>226</v>
       </c>
       <c r="P219" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="Q219">
         <v>3</v>
@@ -46461,10 +46470,10 @@
         <v>2</v>
       </c>
       <c r="AP219">
-        <v>2.47</v>
+        <v>2.31</v>
       </c>
       <c r="AQ219">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AR219">
         <v>1.85</v>
@@ -46795,7 +46804,7 @@
         <v>228</v>
       </c>
       <c r="P221" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="Q221">
         <v>1.67</v>
@@ -47079,10 +47088,10 @@
         <v>1.15</v>
       </c>
       <c r="AP222">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="AQ222">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="AR222">
         <v>1.47</v>
@@ -47207,7 +47216,7 @@
         <v>88</v>
       </c>
       <c r="P223" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="Q223">
         <v>2.3</v>
@@ -47288,7 +47297,7 @@
         <v>1.27</v>
       </c>
       <c r="AQ223">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AR223">
         <v>1.65</v>
@@ -47491,7 +47500,7 @@
         <v>0.85</v>
       </c>
       <c r="AP224">
-        <v>2.33</v>
+        <v>2.38</v>
       </c>
       <c r="AQ224">
         <v>0.73</v>
@@ -47619,7 +47628,7 @@
         <v>218</v>
       </c>
       <c r="P225" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="Q225">
         <v>3.3</v>
@@ -47825,7 +47834,7 @@
         <v>88</v>
       </c>
       <c r="P226" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="Q226">
         <v>7.5</v>
@@ -48031,7 +48040,7 @@
         <v>152</v>
       </c>
       <c r="P227" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="Q227">
         <v>5.5</v>
@@ -48237,7 +48246,7 @@
         <v>230</v>
       </c>
       <c r="P228" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="Q228">
         <v>5</v>
@@ -48855,7 +48864,7 @@
         <v>232</v>
       </c>
       <c r="P231" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="Q231">
         <v>3.6</v>
@@ -49061,7 +49070,7 @@
         <v>88</v>
       </c>
       <c r="P232" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="Q232">
         <v>3</v>
@@ -49267,7 +49276,7 @@
         <v>233</v>
       </c>
       <c r="P233" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="Q233">
         <v>4.5</v>
@@ -49473,7 +49482,7 @@
         <v>234</v>
       </c>
       <c r="P234" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="Q234">
         <v>2.3</v>
@@ -49757,7 +49766,7 @@
         <v>1.36</v>
       </c>
       <c r="AP235">
-        <v>2.47</v>
+        <v>2.31</v>
       </c>
       <c r="AQ235">
         <v>1.27</v>
@@ -50584,7 +50593,7 @@
         <v>1.27</v>
       </c>
       <c r="AQ239">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="AR239">
         <v>1.64</v>
@@ -50709,7 +50718,7 @@
         <v>158</v>
       </c>
       <c r="P240" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="Q240">
         <v>8</v>
@@ -50790,7 +50799,7 @@
         <v>0.87</v>
       </c>
       <c r="AQ240">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AR240">
         <v>1.23</v>
@@ -50915,7 +50924,7 @@
         <v>238</v>
       </c>
       <c r="P241" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="Q241">
         <v>1.67</v>
@@ -50993,10 +51002,10 @@
         <v>0.79</v>
       </c>
       <c r="AP241">
-        <v>2.33</v>
+        <v>2.38</v>
       </c>
       <c r="AQ241">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AR241">
         <v>1.77</v>
@@ -51121,7 +51130,7 @@
         <v>239</v>
       </c>
       <c r="P242" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="Q242">
         <v>3.9</v>
@@ -51533,7 +51542,7 @@
         <v>88</v>
       </c>
       <c r="P244" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="Q244">
         <v>6.5</v>
@@ -51739,7 +51748,7 @@
         <v>241</v>
       </c>
       <c r="P245" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="Q245">
         <v>2.5</v>
@@ -51832,31 +51841,31 @@
         <v>2.42</v>
       </c>
       <c r="AU245">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="AV245">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="AW245">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="AX245">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="AY245">
-        <v>-1</v>
+        <v>12</v>
       </c>
       <c r="AZ245">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="BA245">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="BB245">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="BC245">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="BD245">
         <v>1.55</v>
@@ -51896,6 +51905,418 @@
       </c>
       <c r="BP245">
         <v>1.36</v>
+      </c>
+    </row>
+    <row r="246" spans="1:68">
+      <c r="A246" s="1">
+        <v>245</v>
+      </c>
+      <c r="B246">
+        <v>7885765</v>
+      </c>
+      <c r="C246" t="s">
+        <v>68</v>
+      </c>
+      <c r="D246" t="s">
+        <v>69</v>
+      </c>
+      <c r="E246" s="2">
+        <v>45774.4375</v>
+      </c>
+      <c r="F246">
+        <v>1</v>
+      </c>
+      <c r="G246" t="s">
+        <v>82</v>
+      </c>
+      <c r="H246" t="s">
+        <v>71</v>
+      </c>
+      <c r="I246">
+        <v>0</v>
+      </c>
+      <c r="J246">
+        <v>2</v>
+      </c>
+      <c r="K246">
+        <v>2</v>
+      </c>
+      <c r="L246">
+        <v>1</v>
+      </c>
+      <c r="M246">
+        <v>2</v>
+      </c>
+      <c r="N246">
+        <v>3</v>
+      </c>
+      <c r="O246" t="s">
+        <v>242</v>
+      </c>
+      <c r="P246" t="s">
+        <v>351</v>
+      </c>
+      <c r="Q246">
+        <v>2</v>
+      </c>
+      <c r="R246">
+        <v>2.3</v>
+      </c>
+      <c r="S246">
+        <v>5</v>
+      </c>
+      <c r="T246">
+        <v>1.29</v>
+      </c>
+      <c r="U246">
+        <v>3.28</v>
+      </c>
+      <c r="V246">
+        <v>2.53</v>
+      </c>
+      <c r="W246">
+        <v>1.51</v>
+      </c>
+      <c r="X246">
+        <v>5.85</v>
+      </c>
+      <c r="Y246">
+        <v>1.07</v>
+      </c>
+      <c r="Z246">
+        <v>1.57</v>
+      </c>
+      <c r="AA246">
+        <v>4.1</v>
+      </c>
+      <c r="AB246">
+        <v>5</v>
+      </c>
+      <c r="AC246">
+        <v>1.01</v>
+      </c>
+      <c r="AD246">
+        <v>11</v>
+      </c>
+      <c r="AE246">
+        <v>1.17</v>
+      </c>
+      <c r="AF246">
+        <v>4.5</v>
+      </c>
+      <c r="AG246">
+        <v>1.6</v>
+      </c>
+      <c r="AH246">
+        <v>2.2</v>
+      </c>
+      <c r="AI246">
+        <v>1.67</v>
+      </c>
+      <c r="AJ246">
+        <v>2.15</v>
+      </c>
+      <c r="AK246">
+        <v>1.14</v>
+      </c>
+      <c r="AL246">
+        <v>1.21</v>
+      </c>
+      <c r="AM246">
+        <v>2.38</v>
+      </c>
+      <c r="AN246">
+        <v>2.47</v>
+      </c>
+      <c r="AO246">
+        <v>1.4</v>
+      </c>
+      <c r="AP246">
+        <v>2.31</v>
+      </c>
+      <c r="AQ246">
+        <v>1.5</v>
+      </c>
+      <c r="AR246">
+        <v>1.81</v>
+      </c>
+      <c r="AS246">
+        <v>1.38</v>
+      </c>
+      <c r="AT246">
+        <v>3.19</v>
+      </c>
+      <c r="AU246">
+        <v>4</v>
+      </c>
+      <c r="AV246">
+        <v>8</v>
+      </c>
+      <c r="AW246">
+        <v>2</v>
+      </c>
+      <c r="AX246">
+        <v>6</v>
+      </c>
+      <c r="AY246">
+        <v>6</v>
+      </c>
+      <c r="AZ246">
+        <v>14</v>
+      </c>
+      <c r="BA246">
+        <v>8</v>
+      </c>
+      <c r="BB246">
+        <v>4</v>
+      </c>
+      <c r="BC246">
+        <v>12</v>
+      </c>
+      <c r="BD246">
+        <v>0</v>
+      </c>
+      <c r="BE246">
+        <v>0</v>
+      </c>
+      <c r="BF246">
+        <v>0</v>
+      </c>
+      <c r="BG246">
+        <v>0</v>
+      </c>
+      <c r="BH246">
+        <v>0</v>
+      </c>
+      <c r="BI246">
+        <v>0</v>
+      </c>
+      <c r="BJ246">
+        <v>0</v>
+      </c>
+      <c r="BK246">
+        <v>0</v>
+      </c>
+      <c r="BL246">
+        <v>0</v>
+      </c>
+      <c r="BM246">
+        <v>0</v>
+      </c>
+      <c r="BN246">
+        <v>0</v>
+      </c>
+      <c r="BO246">
+        <v>0</v>
+      </c>
+      <c r="BP246">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="247" spans="1:68">
+      <c r="A247" s="1">
+        <v>246</v>
+      </c>
+      <c r="B247">
+        <v>7885766</v>
+      </c>
+      <c r="C247" t="s">
+        <v>68</v>
+      </c>
+      <c r="D247" t="s">
+        <v>69</v>
+      </c>
+      <c r="E247" s="2">
+        <v>45774.5625</v>
+      </c>
+      <c r="F247">
+        <v>1</v>
+      </c>
+      <c r="G247" t="s">
+        <v>84</v>
+      </c>
+      <c r="H247" t="s">
+        <v>70</v>
+      </c>
+      <c r="I247">
+        <v>1</v>
+      </c>
+      <c r="J247">
+        <v>0</v>
+      </c>
+      <c r="K247">
+        <v>1</v>
+      </c>
+      <c r="L247">
+        <v>2</v>
+      </c>
+      <c r="M247">
+        <v>0</v>
+      </c>
+      <c r="N247">
+        <v>2</v>
+      </c>
+      <c r="O247" t="s">
+        <v>243</v>
+      </c>
+      <c r="P247" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q247">
+        <v>2.75</v>
+      </c>
+      <c r="R247">
+        <v>2.25</v>
+      </c>
+      <c r="S247">
+        <v>3.75</v>
+      </c>
+      <c r="T247">
+        <v>1.36</v>
+      </c>
+      <c r="U247">
+        <v>3</v>
+      </c>
+      <c r="V247">
+        <v>2.63</v>
+      </c>
+      <c r="W247">
+        <v>1.44</v>
+      </c>
+      <c r="X247">
+        <v>7</v>
+      </c>
+      <c r="Y247">
+        <v>1.1</v>
+      </c>
+      <c r="Z247">
+        <v>2.1</v>
+      </c>
+      <c r="AA247">
+        <v>3.5</v>
+      </c>
+      <c r="AB247">
+        <v>3.25</v>
+      </c>
+      <c r="AC247">
+        <v>0</v>
+      </c>
+      <c r="AD247">
+        <v>0</v>
+      </c>
+      <c r="AE247">
+        <v>0</v>
+      </c>
+      <c r="AF247">
+        <v>0</v>
+      </c>
+      <c r="AG247">
+        <v>1.8</v>
+      </c>
+      <c r="AH247">
+        <v>2</v>
+      </c>
+      <c r="AI247">
+        <v>1.67</v>
+      </c>
+      <c r="AJ247">
+        <v>2.1</v>
+      </c>
+      <c r="AK247">
+        <v>0</v>
+      </c>
+      <c r="AL247">
+        <v>0</v>
+      </c>
+      <c r="AM247">
+        <v>0</v>
+      </c>
+      <c r="AN247">
+        <v>2.33</v>
+      </c>
+      <c r="AO247">
+        <v>2</v>
+      </c>
+      <c r="AP247">
+        <v>2.38</v>
+      </c>
+      <c r="AQ247">
+        <v>1.88</v>
+      </c>
+      <c r="AR247">
+        <v>1.76</v>
+      </c>
+      <c r="AS247">
+        <v>1.71</v>
+      </c>
+      <c r="AT247">
+        <v>3.47</v>
+      </c>
+      <c r="AU247">
+        <v>8</v>
+      </c>
+      <c r="AV247">
+        <v>0</v>
+      </c>
+      <c r="AW247">
+        <v>3</v>
+      </c>
+      <c r="AX247">
+        <v>2</v>
+      </c>
+      <c r="AY247">
+        <v>11</v>
+      </c>
+      <c r="AZ247">
+        <v>2</v>
+      </c>
+      <c r="BA247">
+        <v>0</v>
+      </c>
+      <c r="BB247">
+        <v>2</v>
+      </c>
+      <c r="BC247">
+        <v>2</v>
+      </c>
+      <c r="BD247">
+        <v>0</v>
+      </c>
+      <c r="BE247">
+        <v>0</v>
+      </c>
+      <c r="BF247">
+        <v>0</v>
+      </c>
+      <c r="BG247">
+        <v>0</v>
+      </c>
+      <c r="BH247">
+        <v>0</v>
+      </c>
+      <c r="BI247">
+        <v>0</v>
+      </c>
+      <c r="BJ247">
+        <v>0</v>
+      </c>
+      <c r="BK247">
+        <v>0</v>
+      </c>
+      <c r="BL247">
+        <v>0</v>
+      </c>
+      <c r="BM247">
+        <v>0</v>
+      </c>
+      <c r="BN247">
+        <v>0</v>
+      </c>
+      <c r="BO247">
+        <v>0</v>
+      </c>
+      <c r="BP247">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Czech Republic First League_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Czech Republic First League_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1544" uniqueCount="352">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1568" uniqueCount="355">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -748,6 +748,12 @@
     <t>['45+4', '66']</t>
   </si>
   <si>
+    <t>['46', '47']</t>
+  </si>
+  <si>
+    <t>['9', '57', '69', '73']</t>
+  </si>
+  <si>
     <t>['25']</t>
   </si>
   <si>
@@ -1070,6 +1076,9 @@
   </si>
   <si>
     <t>['24', '45+5']</t>
+  </si>
+  <si>
+    <t>['15', '22', '55']</t>
   </si>
 </sst>
 </file>
@@ -1431,7 +1440,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP247"/>
+  <dimension ref="A1:BP251"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1690,7 +1699,7 @@
         <v>86</v>
       </c>
       <c r="P2" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="Q2">
         <v>1.53</v>
@@ -1771,7 +1780,7 @@
         <v>2.13</v>
       </c>
       <c r="AQ2">
-        <v>0.38</v>
+        <v>0.35</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -2102,7 +2111,7 @@
         <v>88</v>
       </c>
       <c r="P4" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="Q4">
         <v>2.88</v>
@@ -2183,7 +2192,7 @@
         <v>0.25</v>
       </c>
       <c r="AQ4">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -2514,7 +2523,7 @@
         <v>90</v>
       </c>
       <c r="P6" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="Q6">
         <v>5.5</v>
@@ -2592,10 +2601,10 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>0.87</v>
+        <v>1</v>
       </c>
       <c r="AQ6">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -2720,7 +2729,7 @@
         <v>91</v>
       </c>
       <c r="P7" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="Q7">
         <v>3.2</v>
@@ -3210,7 +3219,7 @@
         <v>0</v>
       </c>
       <c r="AP9">
-        <v>1.53</v>
+        <v>1.63</v>
       </c>
       <c r="AQ9">
         <v>0.8</v>
@@ -3416,7 +3425,7 @@
         <v>0</v>
       </c>
       <c r="AP10">
-        <v>0.87</v>
+        <v>1</v>
       </c>
       <c r="AQ10">
         <v>1.27</v>
@@ -3544,7 +3553,7 @@
         <v>94</v>
       </c>
       <c r="P11" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="Q11">
         <v>6.5</v>
@@ -3750,7 +3759,7 @@
         <v>88</v>
       </c>
       <c r="P12" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="Q12">
         <v>2.85</v>
@@ -3831,7 +3840,7 @@
         <v>0.87</v>
       </c>
       <c r="AQ12">
-        <v>1.27</v>
+        <v>1.19</v>
       </c>
       <c r="AR12">
         <v>0</v>
@@ -4243,7 +4252,7 @@
         <v>1.53</v>
       </c>
       <c r="AQ14">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AR14">
         <v>0</v>
@@ -4446,7 +4455,7 @@
         <v>0</v>
       </c>
       <c r="AP15">
-        <v>2.31</v>
+        <v>2.24</v>
       </c>
       <c r="AQ15">
         <v>1.5</v>
@@ -4986,7 +4995,7 @@
         <v>88</v>
       </c>
       <c r="P18" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="Q18">
         <v>5.4</v>
@@ -5685,7 +5694,7 @@
         <v>2</v>
       </c>
       <c r="AQ21">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AR21">
         <v>1.81</v>
@@ -6016,7 +6025,7 @@
         <v>102</v>
       </c>
       <c r="P23" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="Q23">
         <v>2.6</v>
@@ -6097,7 +6106,7 @@
         <v>0.25</v>
       </c>
       <c r="AQ23">
-        <v>0.38</v>
+        <v>0.35</v>
       </c>
       <c r="AR23">
         <v>1.33</v>
@@ -6222,7 +6231,7 @@
         <v>103</v>
       </c>
       <c r="P24" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="Q24">
         <v>2.75</v>
@@ -6300,7 +6309,7 @@
         <v>0</v>
       </c>
       <c r="AP24">
-        <v>1.53</v>
+        <v>1.63</v>
       </c>
       <c r="AQ24">
         <v>1.13</v>
@@ -6428,7 +6437,7 @@
         <v>88</v>
       </c>
       <c r="P25" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="Q25">
         <v>1.06</v>
@@ -6506,7 +6515,7 @@
         <v>0</v>
       </c>
       <c r="AP25">
-        <v>0.87</v>
+        <v>1</v>
       </c>
       <c r="AQ25">
         <v>1.5</v>
@@ -6840,7 +6849,7 @@
         <v>105</v>
       </c>
       <c r="P27" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="Q27">
         <v>6.23</v>
@@ -7127,7 +7136,7 @@
         <v>3</v>
       </c>
       <c r="AQ28">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AR28">
         <v>2.4</v>
@@ -7742,7 +7751,7 @@
         <v>0</v>
       </c>
       <c r="AP31">
-        <v>2.31</v>
+        <v>2.24</v>
       </c>
       <c r="AQ31">
         <v>1.13</v>
@@ -7951,7 +7960,7 @@
         <v>2.38</v>
       </c>
       <c r="AQ32">
-        <v>1.27</v>
+        <v>1.19</v>
       </c>
       <c r="AR32">
         <v>1.64</v>
@@ -8154,7 +8163,7 @@
         <v>0</v>
       </c>
       <c r="AP33">
-        <v>1.53</v>
+        <v>1.63</v>
       </c>
       <c r="AQ33">
         <v>0.75</v>
@@ -8282,7 +8291,7 @@
         <v>111</v>
       </c>
       <c r="P34" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="Q34">
         <v>2.84</v>
@@ -8488,7 +8497,7 @@
         <v>112</v>
       </c>
       <c r="P35" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="Q35">
         <v>1.45</v>
@@ -8694,7 +8703,7 @@
         <v>113</v>
       </c>
       <c r="P36" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="Q36">
         <v>5.63</v>
@@ -8900,7 +8909,7 @@
         <v>114</v>
       </c>
       <c r="P37" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="Q37">
         <v>2.58</v>
@@ -9106,7 +9115,7 @@
         <v>88</v>
       </c>
       <c r="P38" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="Q38">
         <v>4.75</v>
@@ -9187,7 +9196,7 @@
         <v>0.25</v>
       </c>
       <c r="AQ38">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AR38">
         <v>1.46</v>
@@ -9393,7 +9402,7 @@
         <v>1.53</v>
       </c>
       <c r="AQ39">
-        <v>0.38</v>
+        <v>0.35</v>
       </c>
       <c r="AR39">
         <v>1.34</v>
@@ -9724,7 +9733,7 @@
         <v>117</v>
       </c>
       <c r="P41" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="Q41">
         <v>2.4</v>
@@ -9930,7 +9939,7 @@
         <v>108</v>
       </c>
       <c r="P42" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="Q42">
         <v>2.61</v>
@@ -10011,7 +10020,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ42">
-        <v>1.27</v>
+        <v>1.19</v>
       </c>
       <c r="AR42">
         <v>1.41</v>
@@ -10136,7 +10145,7 @@
         <v>118</v>
       </c>
       <c r="P43" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="Q43">
         <v>1.69</v>
@@ -10626,7 +10635,7 @@
         <v>1.5</v>
       </c>
       <c r="AP45">
-        <v>2.31</v>
+        <v>2.24</v>
       </c>
       <c r="AQ45">
         <v>1.27</v>
@@ -10832,7 +10841,7 @@
         <v>0</v>
       </c>
       <c r="AP46">
-        <v>0.87</v>
+        <v>1</v>
       </c>
       <c r="AQ46">
         <v>0.07000000000000001</v>
@@ -11578,7 +11587,7 @@
         <v>88</v>
       </c>
       <c r="P50" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="Q50">
         <v>5.1</v>
@@ -11656,7 +11665,7 @@
         <v>3</v>
       </c>
       <c r="AP50">
-        <v>1.53</v>
+        <v>1.63</v>
       </c>
       <c r="AQ50">
         <v>1.88</v>
@@ -11990,7 +11999,7 @@
         <v>122</v>
       </c>
       <c r="P52" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="Q52">
         <v>3</v>
@@ -12277,7 +12286,7 @@
         <v>3</v>
       </c>
       <c r="AQ53">
-        <v>0.38</v>
+        <v>0.35</v>
       </c>
       <c r="AR53">
         <v>2.35</v>
@@ -12402,7 +12411,7 @@
         <v>124</v>
       </c>
       <c r="P54" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="Q54">
         <v>3</v>
@@ -12689,7 +12698,7 @@
         <v>1.53</v>
       </c>
       <c r="AQ55">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AR55">
         <v>1.32</v>
@@ -12895,7 +12904,7 @@
         <v>2.38</v>
       </c>
       <c r="AQ56">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AR56">
         <v>1.85</v>
@@ -13020,7 +13029,7 @@
         <v>88</v>
       </c>
       <c r="P57" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="Q57">
         <v>5.88</v>
@@ -13304,7 +13313,7 @@
         <v>1.33</v>
       </c>
       <c r="AP58">
-        <v>1.53</v>
+        <v>1.63</v>
       </c>
       <c r="AQ58">
         <v>0.73</v>
@@ -13638,7 +13647,7 @@
         <v>128</v>
       </c>
       <c r="P60" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="Q60">
         <v>3.86</v>
@@ -13925,7 +13934,7 @@
         <v>3</v>
       </c>
       <c r="AQ61">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AR61">
         <v>2.33</v>
@@ -14050,7 +14059,7 @@
         <v>130</v>
       </c>
       <c r="P62" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="Q62">
         <v>1.83</v>
@@ -14131,7 +14140,7 @@
         <v>1.27</v>
       </c>
       <c r="AQ62">
-        <v>0.38</v>
+        <v>0.35</v>
       </c>
       <c r="AR62">
         <v>1.42</v>
@@ -14462,7 +14471,7 @@
         <v>88</v>
       </c>
       <c r="P64" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="Q64">
         <v>8.77</v>
@@ -14668,7 +14677,7 @@
         <v>132</v>
       </c>
       <c r="P65" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="Q65">
         <v>2.4</v>
@@ -14874,7 +14883,7 @@
         <v>133</v>
       </c>
       <c r="P66" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="Q66">
         <v>1.55</v>
@@ -14955,7 +14964,7 @@
         <v>2.13</v>
       </c>
       <c r="AQ66">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AR66">
         <v>2.05</v>
@@ -15080,7 +15089,7 @@
         <v>134</v>
       </c>
       <c r="P67" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="Q67">
         <v>4</v>
@@ -15158,7 +15167,7 @@
         <v>1</v>
       </c>
       <c r="AP67">
-        <v>0.87</v>
+        <v>1</v>
       </c>
       <c r="AQ67">
         <v>1.27</v>
@@ -15367,7 +15376,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ68">
-        <v>1.27</v>
+        <v>1.19</v>
       </c>
       <c r="AR68">
         <v>1.16</v>
@@ -15492,7 +15501,7 @@
         <v>88</v>
       </c>
       <c r="P69" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="Q69">
         <v>3.1</v>
@@ -15982,7 +15991,7 @@
         <v>0</v>
       </c>
       <c r="AP71">
-        <v>2.31</v>
+        <v>2.24</v>
       </c>
       <c r="AQ71">
         <v>0.07000000000000001</v>
@@ -16110,7 +16119,7 @@
         <v>124</v>
       </c>
       <c r="P72" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="Q72">
         <v>1.88</v>
@@ -16316,7 +16325,7 @@
         <v>88</v>
       </c>
       <c r="P73" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="Q73">
         <v>7</v>
@@ -16728,7 +16737,7 @@
         <v>88</v>
       </c>
       <c r="P75" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="Q75">
         <v>3.7</v>
@@ -16934,7 +16943,7 @@
         <v>138</v>
       </c>
       <c r="P76" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="Q76">
         <v>2.3</v>
@@ -17140,7 +17149,7 @@
         <v>88</v>
       </c>
       <c r="P77" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="Q77">
         <v>2.47</v>
@@ -17427,7 +17436,7 @@
         <v>2.38</v>
       </c>
       <c r="AQ78">
-        <v>0.38</v>
+        <v>0.35</v>
       </c>
       <c r="AR78">
         <v>1.78</v>
@@ -17552,7 +17561,7 @@
         <v>140</v>
       </c>
       <c r="P79" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="Q79">
         <v>2.5</v>
@@ -17964,7 +17973,7 @@
         <v>141</v>
       </c>
       <c r="P81" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="Q81">
         <v>2.38</v>
@@ -18170,7 +18179,7 @@
         <v>142</v>
       </c>
       <c r="P82" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="Q82">
         <v>2.8</v>
@@ -18248,10 +18257,10 @@
         <v>1.4</v>
       </c>
       <c r="AP82">
-        <v>1.53</v>
+        <v>1.63</v>
       </c>
       <c r="AQ82">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AR82">
         <v>1.31</v>
@@ -18376,7 +18385,7 @@
         <v>143</v>
       </c>
       <c r="P83" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="Q83">
         <v>2.6</v>
@@ -18454,10 +18463,10 @@
         <v>0.67</v>
       </c>
       <c r="AP83">
-        <v>0.87</v>
+        <v>1</v>
       </c>
       <c r="AQ83">
-        <v>0.38</v>
+        <v>0.35</v>
       </c>
       <c r="AR83">
         <v>1.14</v>
@@ -18582,7 +18591,7 @@
         <v>144</v>
       </c>
       <c r="P84" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="Q84">
         <v>3.4</v>
@@ -18660,10 +18669,10 @@
         <v>1.6</v>
       </c>
       <c r="AP84">
-        <v>2.31</v>
+        <v>2.24</v>
       </c>
       <c r="AQ84">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AR84">
         <v>1.81</v>
@@ -18994,7 +19003,7 @@
         <v>146</v>
       </c>
       <c r="P86" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="Q86">
         <v>2.88</v>
@@ -19200,7 +19209,7 @@
         <v>88</v>
       </c>
       <c r="P87" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="Q87">
         <v>2.6</v>
@@ -19612,7 +19621,7 @@
         <v>93</v>
       </c>
       <c r="P89" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="Q89">
         <v>6.5</v>
@@ -20024,7 +20033,7 @@
         <v>88</v>
       </c>
       <c r="P91" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="Q91">
         <v>3.8</v>
@@ -20230,7 +20239,7 @@
         <v>149</v>
       </c>
       <c r="P92" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="Q92">
         <v>4.7</v>
@@ -20642,7 +20651,7 @@
         <v>150</v>
       </c>
       <c r="P94" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="Q94">
         <v>3</v>
@@ -21135,7 +21144,7 @@
         <v>1.27</v>
       </c>
       <c r="AQ96">
-        <v>1.27</v>
+        <v>1.19</v>
       </c>
       <c r="AR96">
         <v>1.43</v>
@@ -21544,7 +21553,7 @@
         <v>0.83</v>
       </c>
       <c r="AP98">
-        <v>0.87</v>
+        <v>1</v>
       </c>
       <c r="AQ98">
         <v>1.13</v>
@@ -21959,7 +21968,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ100">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AR100">
         <v>1.67</v>
@@ -22084,7 +22093,7 @@
         <v>156</v>
       </c>
       <c r="P101" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="Q101">
         <v>1.83</v>
@@ -22577,7 +22586,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ103">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AR103">
         <v>1.15</v>
@@ -22783,7 +22792,7 @@
         <v>1</v>
       </c>
       <c r="AQ104">
-        <v>0.38</v>
+        <v>0.35</v>
       </c>
       <c r="AR104">
         <v>1.41</v>
@@ -22986,7 +22995,7 @@
         <v>2.6</v>
       </c>
       <c r="AP105">
-        <v>1.53</v>
+        <v>1.63</v>
       </c>
       <c r="AQ105">
         <v>2.25</v>
@@ -23192,7 +23201,7 @@
         <v>0.33</v>
       </c>
       <c r="AP106">
-        <v>2.31</v>
+        <v>2.24</v>
       </c>
       <c r="AQ106">
         <v>0.75</v>
@@ -23732,7 +23741,7 @@
         <v>161</v>
       </c>
       <c r="P109" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="Q109">
         <v>2.24</v>
@@ -24144,7 +24153,7 @@
         <v>163</v>
       </c>
       <c r="P111" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="Q111">
         <v>4.6</v>
@@ -24431,7 +24440,7 @@
         <v>3</v>
       </c>
       <c r="AQ112">
-        <v>1.27</v>
+        <v>1.19</v>
       </c>
       <c r="AR112">
         <v>2.21</v>
@@ -24556,7 +24565,7 @@
         <v>165</v>
       </c>
       <c r="P113" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="Q113">
         <v>3.25</v>
@@ -24762,7 +24771,7 @@
         <v>152</v>
       </c>
       <c r="P114" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="Q114">
         <v>2.88</v>
@@ -24968,7 +24977,7 @@
         <v>99</v>
       </c>
       <c r="P115" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="Q115">
         <v>1.73</v>
@@ -25174,7 +25183,7 @@
         <v>88</v>
       </c>
       <c r="P116" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="Q116">
         <v>4.33</v>
@@ -25252,10 +25261,10 @@
         <v>1.57</v>
       </c>
       <c r="AP116">
-        <v>1.53</v>
+        <v>1.63</v>
       </c>
       <c r="AQ116">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AR116">
         <v>1.34</v>
@@ -25586,7 +25595,7 @@
         <v>88</v>
       </c>
       <c r="P118" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="Q118">
         <v>15</v>
@@ -25873,7 +25882,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ119">
-        <v>0.38</v>
+        <v>0.35</v>
       </c>
       <c r="AR119">
         <v>1.64</v>
@@ -25998,7 +26007,7 @@
         <v>168</v>
       </c>
       <c r="P120" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="Q120">
         <v>3</v>
@@ -26410,7 +26419,7 @@
         <v>170</v>
       </c>
       <c r="P122" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="Q122">
         <v>3.25</v>
@@ -26616,7 +26625,7 @@
         <v>171</v>
       </c>
       <c r="P123" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="Q123">
         <v>1.83</v>
@@ -26694,10 +26703,10 @@
         <v>1.17</v>
       </c>
       <c r="AP123">
-        <v>2.31</v>
+        <v>2.24</v>
       </c>
       <c r="AQ123">
-        <v>1.27</v>
+        <v>1.19</v>
       </c>
       <c r="AR123">
         <v>1.87</v>
@@ -26903,7 +26912,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ124">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AR124">
         <v>1.58</v>
@@ -27028,7 +27037,7 @@
         <v>172</v>
       </c>
       <c r="P125" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="Q125">
         <v>6.3</v>
@@ -27106,7 +27115,7 @@
         <v>2</v>
       </c>
       <c r="AP125">
-        <v>0.87</v>
+        <v>1</v>
       </c>
       <c r="AQ125">
         <v>1.88</v>
@@ -27852,7 +27861,7 @@
         <v>174</v>
       </c>
       <c r="P129" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="Q129">
         <v>2.1</v>
@@ -28058,7 +28067,7 @@
         <v>175</v>
       </c>
       <c r="P130" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="Q130">
         <v>1.5</v>
@@ -28139,7 +28148,7 @@
         <v>2.13</v>
       </c>
       <c r="AQ130">
-        <v>1.27</v>
+        <v>1.19</v>
       </c>
       <c r="AR130">
         <v>1.93</v>
@@ -28470,7 +28479,7 @@
         <v>177</v>
       </c>
       <c r="P132" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="Q132">
         <v>3.5</v>
@@ -28551,7 +28560,7 @@
         <v>0.87</v>
       </c>
       <c r="AQ132">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AR132">
         <v>1.21</v>
@@ -28676,7 +28685,7 @@
         <v>178</v>
       </c>
       <c r="P133" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="Q133">
         <v>4.04</v>
@@ -28754,7 +28763,7 @@
         <v>1</v>
       </c>
       <c r="AP133">
-        <v>0.87</v>
+        <v>1</v>
       </c>
       <c r="AQ133">
         <v>0.73</v>
@@ -28882,7 +28891,7 @@
         <v>88</v>
       </c>
       <c r="P134" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="Q134">
         <v>2.75</v>
@@ -29372,7 +29381,7 @@
         <v>2.43</v>
       </c>
       <c r="AP136">
-        <v>2.31</v>
+        <v>2.24</v>
       </c>
       <c r="AQ136">
         <v>2.25</v>
@@ -29706,7 +29715,7 @@
         <v>91</v>
       </c>
       <c r="P138" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="Q138">
         <v>2.25</v>
@@ -29787,7 +29796,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ138">
-        <v>0.38</v>
+        <v>0.35</v>
       </c>
       <c r="AR138">
         <v>1.11</v>
@@ -29912,7 +29921,7 @@
         <v>179</v>
       </c>
       <c r="P139" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="Q139">
         <v>1.9</v>
@@ -30324,7 +30333,7 @@
         <v>88</v>
       </c>
       <c r="P141" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="Q141">
         <v>4</v>
@@ -30530,7 +30539,7 @@
         <v>117</v>
       </c>
       <c r="P142" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="Q142">
         <v>4</v>
@@ -30611,7 +30620,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ142">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AR142">
         <v>1.59</v>
@@ -30736,7 +30745,7 @@
         <v>181</v>
       </c>
       <c r="P143" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="Q143">
         <v>6</v>
@@ -31148,7 +31157,7 @@
         <v>88</v>
       </c>
       <c r="P145" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="Q145">
         <v>3.5</v>
@@ -31226,7 +31235,7 @@
         <v>1.33</v>
       </c>
       <c r="AP145">
-        <v>1.53</v>
+        <v>1.63</v>
       </c>
       <c r="AQ145">
         <v>1.8</v>
@@ -31354,7 +31363,7 @@
         <v>183</v>
       </c>
       <c r="P146" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="Q146">
         <v>4.33</v>
@@ -31432,7 +31441,7 @@
         <v>0.89</v>
       </c>
       <c r="AP146">
-        <v>0.87</v>
+        <v>1</v>
       </c>
       <c r="AQ146">
         <v>1.13</v>
@@ -31560,7 +31569,7 @@
         <v>184</v>
       </c>
       <c r="P147" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="Q147">
         <v>3.8</v>
@@ -31766,7 +31775,7 @@
         <v>185</v>
       </c>
       <c r="P148" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="Q148">
         <v>2.5</v>
@@ -31847,7 +31856,7 @@
         <v>1</v>
       </c>
       <c r="AQ148">
-        <v>1.27</v>
+        <v>1.19</v>
       </c>
       <c r="AR148">
         <v>1.47</v>
@@ -31972,7 +31981,7 @@
         <v>186</v>
       </c>
       <c r="P149" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="Q149">
         <v>2.05</v>
@@ -32050,7 +32059,7 @@
         <v>1.22</v>
       </c>
       <c r="AP149">
-        <v>2.31</v>
+        <v>2.24</v>
       </c>
       <c r="AQ149">
         <v>0.73</v>
@@ -32384,7 +32393,7 @@
         <v>188</v>
       </c>
       <c r="P151" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="Q151">
         <v>2.48</v>
@@ -32465,7 +32474,7 @@
         <v>1.27</v>
       </c>
       <c r="AQ151">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AR151">
         <v>1.53</v>
@@ -32796,7 +32805,7 @@
         <v>190</v>
       </c>
       <c r="P153" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="Q153">
         <v>1.4</v>
@@ -33208,7 +33217,7 @@
         <v>88</v>
       </c>
       <c r="P155" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="Q155">
         <v>3.2</v>
@@ -33698,10 +33707,10 @@
         <v>0.6</v>
       </c>
       <c r="AP157">
-        <v>1.53</v>
+        <v>1.63</v>
       </c>
       <c r="AQ157">
-        <v>0.38</v>
+        <v>0.35</v>
       </c>
       <c r="AR157">
         <v>1.43</v>
@@ -33826,7 +33835,7 @@
         <v>88</v>
       </c>
       <c r="P158" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="Q158">
         <v>5</v>
@@ -34032,7 +34041,7 @@
         <v>88</v>
       </c>
       <c r="P159" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="Q159">
         <v>2.38</v>
@@ -34444,7 +34453,7 @@
         <v>193</v>
       </c>
       <c r="P161" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="Q161">
         <v>4.75</v>
@@ -34525,7 +34534,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ161">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AR161">
         <v>1.6</v>
@@ -34650,7 +34659,7 @@
         <v>194</v>
       </c>
       <c r="P162" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="Q162">
         <v>2.63</v>
@@ -34856,7 +34865,7 @@
         <v>88</v>
       </c>
       <c r="P163" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="Q163">
         <v>11</v>
@@ -35062,7 +35071,7 @@
         <v>195</v>
       </c>
       <c r="P164" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="Q164">
         <v>2</v>
@@ -35268,7 +35277,7 @@
         <v>196</v>
       </c>
       <c r="P165" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="Q165">
         <v>2.5</v>
@@ -35758,10 +35767,10 @@
         <v>1.2</v>
       </c>
       <c r="AP167">
-        <v>2.31</v>
+        <v>2.24</v>
       </c>
       <c r="AQ167">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AR167">
         <v>1.9</v>
@@ -36173,7 +36182,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ169">
-        <v>0.38</v>
+        <v>0.35</v>
       </c>
       <c r="AR169">
         <v>1.54</v>
@@ -36504,7 +36513,7 @@
         <v>201</v>
       </c>
       <c r="P171" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="Q171">
         <v>5.2</v>
@@ -36710,7 +36719,7 @@
         <v>202</v>
       </c>
       <c r="P172" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="Q172">
         <v>6.35</v>
@@ -36916,7 +36925,7 @@
         <v>203</v>
       </c>
       <c r="P173" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="Q173">
         <v>2.6</v>
@@ -36994,7 +37003,7 @@
         <v>1.5</v>
       </c>
       <c r="AP173">
-        <v>1.53</v>
+        <v>1.63</v>
       </c>
       <c r="AQ173">
         <v>1.27</v>
@@ -37122,7 +37131,7 @@
         <v>204</v>
       </c>
       <c r="P174" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="Q174">
         <v>2.66</v>
@@ -37328,7 +37337,7 @@
         <v>88</v>
       </c>
       <c r="P175" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="Q175">
         <v>4.86</v>
@@ -37409,7 +37418,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ175">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AR175">
         <v>1.47</v>
@@ -37740,7 +37749,7 @@
         <v>172</v>
       </c>
       <c r="P177" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="Q177">
         <v>3.63</v>
@@ -37818,10 +37827,10 @@
         <v>1.09</v>
       </c>
       <c r="AP177">
-        <v>0.87</v>
+        <v>1</v>
       </c>
       <c r="AQ177">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AR177">
         <v>1.28</v>
@@ -37946,7 +37955,7 @@
         <v>88</v>
       </c>
       <c r="P178" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="Q178">
         <v>3.92</v>
@@ -38230,7 +38239,7 @@
         <v>0.82</v>
       </c>
       <c r="AP179">
-        <v>2.31</v>
+        <v>2.24</v>
       </c>
       <c r="AQ179">
         <v>0.8</v>
@@ -38851,7 +38860,7 @@
         <v>2</v>
       </c>
       <c r="AQ182">
-        <v>1.27</v>
+        <v>1.19</v>
       </c>
       <c r="AR182">
         <v>1.67</v>
@@ -38976,7 +38985,7 @@
         <v>208</v>
       </c>
       <c r="P183" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="Q183">
         <v>4.3</v>
@@ -39182,7 +39191,7 @@
         <v>88</v>
       </c>
       <c r="P184" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="Q184">
         <v>5.8</v>
@@ -39388,7 +39397,7 @@
         <v>96</v>
       </c>
       <c r="P185" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="Q185">
         <v>4.7</v>
@@ -39672,7 +39681,7 @@
         <v>1.27</v>
       </c>
       <c r="AP186">
-        <v>1.53</v>
+        <v>1.63</v>
       </c>
       <c r="AQ186">
         <v>1.5</v>
@@ -39881,7 +39890,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ187">
-        <v>0.38</v>
+        <v>0.35</v>
       </c>
       <c r="AR187">
         <v>1.45</v>
@@ -40212,7 +40221,7 @@
         <v>88</v>
       </c>
       <c r="P189" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="Q189">
         <v>4.5</v>
@@ -40293,7 +40302,7 @@
         <v>1.27</v>
       </c>
       <c r="AQ189">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AR189">
         <v>1.57</v>
@@ -40908,7 +40917,7 @@
         <v>0.75</v>
       </c>
       <c r="AP192">
-        <v>0.87</v>
+        <v>1</v>
       </c>
       <c r="AQ192">
         <v>0.8</v>
@@ -41654,7 +41663,7 @@
         <v>215</v>
       </c>
       <c r="P196" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="Q196">
         <v>1.95</v>
@@ -41732,7 +41741,7 @@
         <v>1.25</v>
       </c>
       <c r="AP196">
-        <v>2.31</v>
+        <v>2.24</v>
       </c>
       <c r="AQ196">
         <v>1.13</v>
@@ -41860,7 +41869,7 @@
         <v>88</v>
       </c>
       <c r="P197" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="Q197">
         <v>2.88</v>
@@ -41941,7 +41950,7 @@
         <v>1</v>
       </c>
       <c r="AQ197">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AR197">
         <v>1.61</v>
@@ -42144,10 +42153,10 @@
         <v>0.8</v>
       </c>
       <c r="AP198">
-        <v>1.53</v>
+        <v>1.63</v>
       </c>
       <c r="AQ198">
-        <v>1.27</v>
+        <v>1.19</v>
       </c>
       <c r="AR198">
         <v>1.45</v>
@@ -42353,7 +42362,7 @@
         <v>0.87</v>
       </c>
       <c r="AQ199">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AR199">
         <v>1.23</v>
@@ -42556,10 +42565,10 @@
         <v>0.82</v>
       </c>
       <c r="AP200">
-        <v>0.87</v>
+        <v>1</v>
       </c>
       <c r="AQ200">
-        <v>1.27</v>
+        <v>1.19</v>
       </c>
       <c r="AR200">
         <v>1.2</v>
@@ -42684,7 +42693,7 @@
         <v>158</v>
       </c>
       <c r="P201" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="Q201">
         <v>2.63</v>
@@ -42890,7 +42899,7 @@
         <v>88</v>
       </c>
       <c r="P202" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="Q202">
         <v>2.75</v>
@@ -43508,7 +43517,7 @@
         <v>218</v>
       </c>
       <c r="P205" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="Q205">
         <v>2.88</v>
@@ -43714,7 +43723,7 @@
         <v>88</v>
       </c>
       <c r="P206" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="Q206">
         <v>2.38</v>
@@ -43920,7 +43929,7 @@
         <v>219</v>
       </c>
       <c r="P207" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="Q207">
         <v>4.75</v>
@@ -44001,7 +44010,7 @@
         <v>0.25</v>
       </c>
       <c r="AQ207">
-        <v>1.27</v>
+        <v>1.19</v>
       </c>
       <c r="AR207">
         <v>1.21</v>
@@ -44413,7 +44422,7 @@
         <v>2</v>
       </c>
       <c r="AQ209">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AR209">
         <v>1.67</v>
@@ -44744,7 +44753,7 @@
         <v>221</v>
       </c>
       <c r="P211" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="Q211">
         <v>1.57</v>
@@ -44822,10 +44831,10 @@
         <v>0.46</v>
       </c>
       <c r="AP211">
-        <v>2.31</v>
+        <v>2.24</v>
       </c>
       <c r="AQ211">
-        <v>0.38</v>
+        <v>0.35</v>
       </c>
       <c r="AR211">
         <v>1.83</v>
@@ -45028,7 +45037,7 @@
         <v>2.23</v>
       </c>
       <c r="AP212">
-        <v>0.87</v>
+        <v>1</v>
       </c>
       <c r="AQ212">
         <v>2.25</v>
@@ -45156,7 +45165,7 @@
         <v>88</v>
       </c>
       <c r="P213" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="Q213">
         <v>3.5</v>
@@ -45440,7 +45449,7 @@
         <v>0.08</v>
       </c>
       <c r="AP214">
-        <v>1.53</v>
+        <v>1.63</v>
       </c>
       <c r="AQ214">
         <v>0.07000000000000001</v>
@@ -45774,7 +45783,7 @@
         <v>224</v>
       </c>
       <c r="P216" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="Q216">
         <v>2.75</v>
@@ -45855,7 +45864,7 @@
         <v>2.13</v>
       </c>
       <c r="AQ216">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AR216">
         <v>2.04</v>
@@ -46186,7 +46195,7 @@
         <v>124</v>
       </c>
       <c r="P218" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="Q218">
         <v>2.4</v>
@@ -46267,7 +46276,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ218">
-        <v>1.27</v>
+        <v>1.19</v>
       </c>
       <c r="AR218">
         <v>1.55</v>
@@ -46392,7 +46401,7 @@
         <v>226</v>
       </c>
       <c r="P219" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="Q219">
         <v>3</v>
@@ -46470,7 +46479,7 @@
         <v>2</v>
       </c>
       <c r="AP219">
-        <v>2.31</v>
+        <v>2.24</v>
       </c>
       <c r="AQ219">
         <v>1.88</v>
@@ -46804,7 +46813,7 @@
         <v>228</v>
       </c>
       <c r="P221" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="Q221">
         <v>1.67</v>
@@ -47216,7 +47225,7 @@
         <v>88</v>
       </c>
       <c r="P223" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="Q223">
         <v>2.3</v>
@@ -47628,7 +47637,7 @@
         <v>218</v>
       </c>
       <c r="P225" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="Q225">
         <v>3.3</v>
@@ -47834,7 +47843,7 @@
         <v>88</v>
       </c>
       <c r="P226" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="Q226">
         <v>7.5</v>
@@ -48040,7 +48049,7 @@
         <v>152</v>
       </c>
       <c r="P227" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="Q227">
         <v>5.5</v>
@@ -48118,7 +48127,7 @@
         <v>1.71</v>
       </c>
       <c r="AP227">
-        <v>0.87</v>
+        <v>1</v>
       </c>
       <c r="AQ227">
         <v>1.8</v>
@@ -48246,7 +48255,7 @@
         <v>230</v>
       </c>
       <c r="P228" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="Q228">
         <v>5</v>
@@ -48533,7 +48542,7 @@
         <v>2</v>
       </c>
       <c r="AQ229">
-        <v>0.38</v>
+        <v>0.35</v>
       </c>
       <c r="AR229">
         <v>1.64</v>
@@ -48864,7 +48873,7 @@
         <v>232</v>
       </c>
       <c r="P231" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="Q231">
         <v>3.6</v>
@@ -48945,7 +48954,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ231">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AR231">
         <v>1.27</v>
@@ -49070,7 +49079,7 @@
         <v>88</v>
       </c>
       <c r="P232" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="Q232">
         <v>3</v>
@@ -49148,7 +49157,7 @@
         <v>1.14</v>
       </c>
       <c r="AP232">
-        <v>1.53</v>
+        <v>1.63</v>
       </c>
       <c r="AQ232">
         <v>1.27</v>
@@ -49276,7 +49285,7 @@
         <v>233</v>
       </c>
       <c r="P233" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="Q233">
         <v>4.5</v>
@@ -49357,7 +49366,7 @@
         <v>1</v>
       </c>
       <c r="AQ233">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AR233">
         <v>1.58</v>
@@ -49482,7 +49491,7 @@
         <v>234</v>
       </c>
       <c r="P234" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="Q234">
         <v>2.3</v>
@@ -49563,7 +49572,7 @@
         <v>1.53</v>
       </c>
       <c r="AQ234">
-        <v>1.27</v>
+        <v>1.19</v>
       </c>
       <c r="AR234">
         <v>1.48</v>
@@ -49766,7 +49775,7 @@
         <v>1.36</v>
       </c>
       <c r="AP235">
-        <v>2.31</v>
+        <v>2.24</v>
       </c>
       <c r="AQ235">
         <v>1.27</v>
@@ -50718,7 +50727,7 @@
         <v>158</v>
       </c>
       <c r="P240" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="Q240">
         <v>8</v>
@@ -50924,7 +50933,7 @@
         <v>238</v>
       </c>
       <c r="P241" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="Q241">
         <v>1.67</v>
@@ -51130,7 +51139,7 @@
         <v>239</v>
       </c>
       <c r="P242" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="Q242">
         <v>3.9</v>
@@ -51417,7 +51426,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ243">
-        <v>0.38</v>
+        <v>0.35</v>
       </c>
       <c r="AR243">
         <v>1.3</v>
@@ -51542,7 +51551,7 @@
         <v>88</v>
       </c>
       <c r="P244" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="Q244">
         <v>6.5</v>
@@ -51748,7 +51757,7 @@
         <v>241</v>
       </c>
       <c r="P245" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="Q245">
         <v>2.5</v>
@@ -51954,7 +51963,7 @@
         <v>242</v>
       </c>
       <c r="P246" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="Q246">
         <v>2</v>
@@ -52032,7 +52041,7 @@
         <v>1.4</v>
       </c>
       <c r="AP246">
-        <v>2.31</v>
+        <v>2.24</v>
       </c>
       <c r="AQ246">
         <v>1.5</v>
@@ -52317,6 +52326,830 @@
       </c>
       <c r="BP247">
         <v>0</v>
+      </c>
+    </row>
+    <row r="248" spans="1:68">
+      <c r="A248" s="1">
+        <v>247</v>
+      </c>
+      <c r="B248">
+        <v>7885767</v>
+      </c>
+      <c r="C248" t="s">
+        <v>68</v>
+      </c>
+      <c r="D248" t="s">
+        <v>69</v>
+      </c>
+      <c r="E248" s="2">
+        <v>45780.35416666666</v>
+      </c>
+      <c r="F248">
+        <v>2</v>
+      </c>
+      <c r="G248" t="s">
+        <v>74</v>
+      </c>
+      <c r="H248" t="s">
+        <v>79</v>
+      </c>
+      <c r="I248">
+        <v>0</v>
+      </c>
+      <c r="J248">
+        <v>0</v>
+      </c>
+      <c r="K248">
+        <v>0</v>
+      </c>
+      <c r="L248">
+        <v>2</v>
+      </c>
+      <c r="M248">
+        <v>0</v>
+      </c>
+      <c r="N248">
+        <v>2</v>
+      </c>
+      <c r="O248" t="s">
+        <v>244</v>
+      </c>
+      <c r="P248" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q248">
+        <v>2.5</v>
+      </c>
+      <c r="R248">
+        <v>2.2</v>
+      </c>
+      <c r="S248">
+        <v>4.5</v>
+      </c>
+      <c r="T248">
+        <v>1.4</v>
+      </c>
+      <c r="U248">
+        <v>2.75</v>
+      </c>
+      <c r="V248">
+        <v>2.75</v>
+      </c>
+      <c r="W248">
+        <v>1.4</v>
+      </c>
+      <c r="X248">
+        <v>8</v>
+      </c>
+      <c r="Y248">
+        <v>1.08</v>
+      </c>
+      <c r="Z248">
+        <v>1.83</v>
+      </c>
+      <c r="AA248">
+        <v>3.6</v>
+      </c>
+      <c r="AB248">
+        <v>3.8</v>
+      </c>
+      <c r="AC248">
+        <v>1.01</v>
+      </c>
+      <c r="AD248">
+        <v>8.5</v>
+      </c>
+      <c r="AE248">
+        <v>1.31</v>
+      </c>
+      <c r="AF248">
+        <v>3.35</v>
+      </c>
+      <c r="AG248">
+        <v>1.95</v>
+      </c>
+      <c r="AH248">
+        <v>1.85</v>
+      </c>
+      <c r="AI248">
+        <v>1.91</v>
+      </c>
+      <c r="AJ248">
+        <v>1.91</v>
+      </c>
+      <c r="AK248">
+        <v>1.22</v>
+      </c>
+      <c r="AL248">
+        <v>1.27</v>
+      </c>
+      <c r="AM248">
+        <v>1.93</v>
+      </c>
+      <c r="AN248">
+        <v>0.87</v>
+      </c>
+      <c r="AO248">
+        <v>0.38</v>
+      </c>
+      <c r="AP248">
+        <v>1</v>
+      </c>
+      <c r="AQ248">
+        <v>0.35</v>
+      </c>
+      <c r="AR248">
+        <v>1.33</v>
+      </c>
+      <c r="AS248">
+        <v>0.98</v>
+      </c>
+      <c r="AT248">
+        <v>2.31</v>
+      </c>
+      <c r="AU248">
+        <v>4</v>
+      </c>
+      <c r="AV248">
+        <v>0</v>
+      </c>
+      <c r="AW248">
+        <v>3</v>
+      </c>
+      <c r="AX248">
+        <v>0</v>
+      </c>
+      <c r="AY248">
+        <v>7</v>
+      </c>
+      <c r="AZ248">
+        <v>0</v>
+      </c>
+      <c r="BA248">
+        <v>7</v>
+      </c>
+      <c r="BB248">
+        <v>3</v>
+      </c>
+      <c r="BC248">
+        <v>10</v>
+      </c>
+      <c r="BD248">
+        <v>1.45</v>
+      </c>
+      <c r="BE248">
+        <v>7</v>
+      </c>
+      <c r="BF248">
+        <v>3.05</v>
+      </c>
+      <c r="BG248">
+        <v>1.23</v>
+      </c>
+      <c r="BH248">
+        <v>3.65</v>
+      </c>
+      <c r="BI248">
+        <v>1.41</v>
+      </c>
+      <c r="BJ248">
+        <v>2.65</v>
+      </c>
+      <c r="BK248">
+        <v>1.67</v>
+      </c>
+      <c r="BL248">
+        <v>2.07</v>
+      </c>
+      <c r="BM248">
+        <v>2.02</v>
+      </c>
+      <c r="BN248">
+        <v>1.7</v>
+      </c>
+      <c r="BO248">
+        <v>2.55</v>
+      </c>
+      <c r="BP248">
+        <v>1.45</v>
+      </c>
+    </row>
+    <row r="249" spans="1:68">
+      <c r="A249" s="1">
+        <v>248</v>
+      </c>
+      <c r="B249">
+        <v>7885768</v>
+      </c>
+      <c r="C249" t="s">
+        <v>68</v>
+      </c>
+      <c r="D249" t="s">
+        <v>69</v>
+      </c>
+      <c r="E249" s="2">
+        <v>45780.35416666666</v>
+      </c>
+      <c r="F249">
+        <v>0</v>
+      </c>
+      <c r="G249" t="s">
+        <v>77</v>
+      </c>
+      <c r="H249" t="s">
+        <v>75</v>
+      </c>
+      <c r="I249">
+        <v>0</v>
+      </c>
+      <c r="J249">
+        <v>0</v>
+      </c>
+      <c r="K249">
+        <v>0</v>
+      </c>
+      <c r="L249">
+        <v>1</v>
+      </c>
+      <c r="M249">
+        <v>0</v>
+      </c>
+      <c r="N249">
+        <v>1</v>
+      </c>
+      <c r="O249" t="s">
+        <v>180</v>
+      </c>
+      <c r="P249" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q249">
+        <v>2.5</v>
+      </c>
+      <c r="R249">
+        <v>2.25</v>
+      </c>
+      <c r="S249">
+        <v>4</v>
+      </c>
+      <c r="T249">
+        <v>1.36</v>
+      </c>
+      <c r="U249">
+        <v>3</v>
+      </c>
+      <c r="V249">
+        <v>2.63</v>
+      </c>
+      <c r="W249">
+        <v>1.44</v>
+      </c>
+      <c r="X249">
+        <v>7</v>
+      </c>
+      <c r="Y249">
+        <v>1.1</v>
+      </c>
+      <c r="Z249">
+        <v>1.9</v>
+      </c>
+      <c r="AA249">
+        <v>3.5</v>
+      </c>
+      <c r="AB249">
+        <v>3.5</v>
+      </c>
+      <c r="AC249">
+        <v>0</v>
+      </c>
+      <c r="AD249">
+        <v>0</v>
+      </c>
+      <c r="AE249">
+        <v>2.55</v>
+      </c>
+      <c r="AF249">
+        <v>1.5</v>
+      </c>
+      <c r="AG249">
+        <v>1.85</v>
+      </c>
+      <c r="AH249">
+        <v>1.95</v>
+      </c>
+      <c r="AI249">
+        <v>1.75</v>
+      </c>
+      <c r="AJ249">
+        <v>2</v>
+      </c>
+      <c r="AK249">
+        <v>0</v>
+      </c>
+      <c r="AL249">
+        <v>0</v>
+      </c>
+      <c r="AM249">
+        <v>0</v>
+      </c>
+      <c r="AN249">
+        <v>1.33</v>
+      </c>
+      <c r="AO249">
+        <v>1.37</v>
+      </c>
+      <c r="AP249">
+        <v>1.39</v>
+      </c>
+      <c r="AQ249">
+        <v>1.32</v>
+      </c>
+      <c r="AR249">
+        <v>1.45</v>
+      </c>
+      <c r="AS249">
+        <v>1.43</v>
+      </c>
+      <c r="AT249">
+        <v>2.88</v>
+      </c>
+      <c r="AU249">
+        <v>5</v>
+      </c>
+      <c r="AV249">
+        <v>4</v>
+      </c>
+      <c r="AW249">
+        <v>6</v>
+      </c>
+      <c r="AX249">
+        <v>9</v>
+      </c>
+      <c r="AY249">
+        <v>11</v>
+      </c>
+      <c r="AZ249">
+        <v>13</v>
+      </c>
+      <c r="BA249">
+        <v>6</v>
+      </c>
+      <c r="BB249">
+        <v>5</v>
+      </c>
+      <c r="BC249">
+        <v>11</v>
+      </c>
+      <c r="BD249">
+        <v>0</v>
+      </c>
+      <c r="BE249">
+        <v>0</v>
+      </c>
+      <c r="BF249">
+        <v>0</v>
+      </c>
+      <c r="BG249">
+        <v>0</v>
+      </c>
+      <c r="BH249">
+        <v>0</v>
+      </c>
+      <c r="BI249">
+        <v>0</v>
+      </c>
+      <c r="BJ249">
+        <v>0</v>
+      </c>
+      <c r="BK249">
+        <v>0</v>
+      </c>
+      <c r="BL249">
+        <v>0</v>
+      </c>
+      <c r="BM249">
+        <v>0</v>
+      </c>
+      <c r="BN249">
+        <v>0</v>
+      </c>
+      <c r="BO249">
+        <v>0</v>
+      </c>
+      <c r="BP249">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="250" spans="1:68">
+      <c r="A250" s="1">
+        <v>249</v>
+      </c>
+      <c r="B250">
+        <v>7885769</v>
+      </c>
+      <c r="C250" t="s">
+        <v>68</v>
+      </c>
+      <c r="D250" t="s">
+        <v>69</v>
+      </c>
+      <c r="E250" s="2">
+        <v>45780.45833333334</v>
+      </c>
+      <c r="F250">
+        <v>2</v>
+      </c>
+      <c r="G250" t="s">
+        <v>80</v>
+      </c>
+      <c r="H250" t="s">
+        <v>84</v>
+      </c>
+      <c r="I250">
+        <v>1</v>
+      </c>
+      <c r="J250">
+        <v>2</v>
+      </c>
+      <c r="K250">
+        <v>3</v>
+      </c>
+      <c r="L250">
+        <v>4</v>
+      </c>
+      <c r="M250">
+        <v>3</v>
+      </c>
+      <c r="N250">
+        <v>7</v>
+      </c>
+      <c r="O250" t="s">
+        <v>245</v>
+      </c>
+      <c r="P250" t="s">
+        <v>354</v>
+      </c>
+      <c r="Q250">
+        <v>2.25</v>
+      </c>
+      <c r="R250">
+        <v>2.3</v>
+      </c>
+      <c r="S250">
+        <v>5</v>
+      </c>
+      <c r="T250">
+        <v>1.36</v>
+      </c>
+      <c r="U250">
+        <v>3</v>
+      </c>
+      <c r="V250">
+        <v>2.63</v>
+      </c>
+      <c r="W250">
+        <v>1.44</v>
+      </c>
+      <c r="X250">
+        <v>7</v>
+      </c>
+      <c r="Y250">
+        <v>1.1</v>
+      </c>
+      <c r="Z250">
+        <v>1.67</v>
+      </c>
+      <c r="AA250">
+        <v>3.6</v>
+      </c>
+      <c r="AB250">
+        <v>5</v>
+      </c>
+      <c r="AC250">
+        <v>1.04</v>
+      </c>
+      <c r="AD250">
+        <v>9</v>
+      </c>
+      <c r="AE250">
+        <v>1.25</v>
+      </c>
+      <c r="AF250">
+        <v>3.6</v>
+      </c>
+      <c r="AG250">
+        <v>1.85</v>
+      </c>
+      <c r="AH250">
+        <v>1.95</v>
+      </c>
+      <c r="AI250">
+        <v>1.8</v>
+      </c>
+      <c r="AJ250">
+        <v>1.95</v>
+      </c>
+      <c r="AK250">
+        <v>1.17</v>
+      </c>
+      <c r="AL250">
+        <v>1.24</v>
+      </c>
+      <c r="AM250">
+        <v>2.15</v>
+      </c>
+      <c r="AN250">
+        <v>3</v>
+      </c>
+      <c r="AO250">
+        <v>2</v>
+      </c>
+      <c r="AP250">
+        <v>3</v>
+      </c>
+      <c r="AQ250">
+        <v>1.88</v>
+      </c>
+      <c r="AR250">
+        <v>2.28</v>
+      </c>
+      <c r="AS250">
+        <v>1.44</v>
+      </c>
+      <c r="AT250">
+        <v>3.72</v>
+      </c>
+      <c r="AU250">
+        <v>10</v>
+      </c>
+      <c r="AV250">
+        <v>6</v>
+      </c>
+      <c r="AW250">
+        <v>9</v>
+      </c>
+      <c r="AX250">
+        <v>4</v>
+      </c>
+      <c r="AY250">
+        <v>20</v>
+      </c>
+      <c r="AZ250">
+        <v>10</v>
+      </c>
+      <c r="BA250">
+        <v>5</v>
+      </c>
+      <c r="BB250">
+        <v>7</v>
+      </c>
+      <c r="BC250">
+        <v>12</v>
+      </c>
+      <c r="BD250">
+        <v>1.3</v>
+      </c>
+      <c r="BE250">
+        <v>8</v>
+      </c>
+      <c r="BF250">
+        <v>3.65</v>
+      </c>
+      <c r="BG250">
+        <v>1.24</v>
+      </c>
+      <c r="BH250">
+        <v>3.55</v>
+      </c>
+      <c r="BI250">
+        <v>1.42</v>
+      </c>
+      <c r="BJ250">
+        <v>2.65</v>
+      </c>
+      <c r="BK250">
+        <v>1.65</v>
+      </c>
+      <c r="BL250">
+        <v>2.08</v>
+      </c>
+      <c r="BM250">
+        <v>1.9</v>
+      </c>
+      <c r="BN250">
+        <v>1.9</v>
+      </c>
+      <c r="BO250">
+        <v>2.48</v>
+      </c>
+      <c r="BP250">
+        <v>1.47</v>
+      </c>
+    </row>
+    <row r="251" spans="1:68">
+      <c r="A251" s="1">
+        <v>250</v>
+      </c>
+      <c r="B251">
+        <v>7885770</v>
+      </c>
+      <c r="C251" t="s">
+        <v>68</v>
+      </c>
+      <c r="D251" t="s">
+        <v>69</v>
+      </c>
+      <c r="E251" s="2">
+        <v>45780.58333333334</v>
+      </c>
+      <c r="F251">
+        <v>2</v>
+      </c>
+      <c r="G251" t="s">
+        <v>82</v>
+      </c>
+      <c r="H251" t="s">
+        <v>85</v>
+      </c>
+      <c r="I251">
+        <v>0</v>
+      </c>
+      <c r="J251">
+        <v>0</v>
+      </c>
+      <c r="K251">
+        <v>0</v>
+      </c>
+      <c r="L251">
+        <v>0</v>
+      </c>
+      <c r="M251">
+        <v>0</v>
+      </c>
+      <c r="N251">
+        <v>0</v>
+      </c>
+      <c r="O251" t="s">
+        <v>88</v>
+      </c>
+      <c r="P251" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q251">
+        <v>2.05</v>
+      </c>
+      <c r="R251">
+        <v>2.5</v>
+      </c>
+      <c r="S251">
+        <v>5.5</v>
+      </c>
+      <c r="T251">
+        <v>1.29</v>
+      </c>
+      <c r="U251">
+        <v>3.5</v>
+      </c>
+      <c r="V251">
+        <v>2.25</v>
+      </c>
+      <c r="W251">
+        <v>1.57</v>
+      </c>
+      <c r="X251">
+        <v>5.5</v>
+      </c>
+      <c r="Y251">
+        <v>1.14</v>
+      </c>
+      <c r="Z251">
+        <v>1.53</v>
+      </c>
+      <c r="AA251">
+        <v>4.2</v>
+      </c>
+      <c r="AB251">
+        <v>5</v>
+      </c>
+      <c r="AC251">
+        <v>1.03</v>
+      </c>
+      <c r="AD251">
+        <v>10</v>
+      </c>
+      <c r="AE251">
+        <v>1.2</v>
+      </c>
+      <c r="AF251">
+        <v>4.33</v>
+      </c>
+      <c r="AG251">
+        <v>1.6</v>
+      </c>
+      <c r="AH251">
+        <v>2.3</v>
+      </c>
+      <c r="AI251">
+        <v>1.7</v>
+      </c>
+      <c r="AJ251">
+        <v>2.05</v>
+      </c>
+      <c r="AK251">
+        <v>1.15</v>
+      </c>
+      <c r="AL251">
+        <v>1.21</v>
+      </c>
+      <c r="AM251">
+        <v>2.37</v>
+      </c>
+      <c r="AN251">
+        <v>2.31</v>
+      </c>
+      <c r="AO251">
+        <v>1.33</v>
+      </c>
+      <c r="AP251">
+        <v>2.24</v>
+      </c>
+      <c r="AQ251">
+        <v>1.31</v>
+      </c>
+      <c r="AR251">
+        <v>1.76</v>
+      </c>
+      <c r="AS251">
+        <v>1.22</v>
+      </c>
+      <c r="AT251">
+        <v>2.98</v>
+      </c>
+      <c r="AU251">
+        <v>6</v>
+      </c>
+      <c r="AV251">
+        <v>3</v>
+      </c>
+      <c r="AW251">
+        <v>8</v>
+      </c>
+      <c r="AX251">
+        <v>5</v>
+      </c>
+      <c r="AY251">
+        <v>14</v>
+      </c>
+      <c r="AZ251">
+        <v>8</v>
+      </c>
+      <c r="BA251">
+        <v>10</v>
+      </c>
+      <c r="BB251">
+        <v>2</v>
+      </c>
+      <c r="BC251">
+        <v>12</v>
+      </c>
+      <c r="BD251">
+        <v>1.3</v>
+      </c>
+      <c r="BE251">
+        <v>7.5</v>
+      </c>
+      <c r="BF251">
+        <v>3.7</v>
+      </c>
+      <c r="BG251">
+        <v>1.2</v>
+      </c>
+      <c r="BH251">
+        <v>3.95</v>
+      </c>
+      <c r="BI251">
+        <v>1.35</v>
+      </c>
+      <c r="BJ251">
+        <v>2.9</v>
+      </c>
+      <c r="BK251">
+        <v>1.57</v>
+      </c>
+      <c r="BL251">
+        <v>2.23</v>
+      </c>
+      <c r="BM251">
+        <v>1.92</v>
+      </c>
+      <c r="BN251">
+        <v>1.88</v>
+      </c>
+      <c r="BO251">
+        <v>2.33</v>
+      </c>
+      <c r="BP251">
+        <v>1.5</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Czech Republic First League_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Czech Republic First League_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1568" uniqueCount="355">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1592" uniqueCount="358">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -754,6 +754,12 @@
     <t>['9', '57', '69', '73']</t>
   </si>
   <si>
+    <t>['85']</t>
+  </si>
+  <si>
+    <t>['4', '20', '31', '90+3']</t>
+  </si>
+  <si>
     <t>['25']</t>
   </si>
   <si>
@@ -1079,6 +1085,9 @@
   </si>
   <si>
     <t>['15', '22', '55']</t>
+  </si>
+  <si>
+    <t>['29', '38', '78']</t>
   </si>
 </sst>
 </file>
@@ -1440,7 +1449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP251"/>
+  <dimension ref="A1:BP255"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1699,7 +1708,7 @@
         <v>86</v>
       </c>
       <c r="P2" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="Q2">
         <v>1.53</v>
@@ -1777,7 +1786,7 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="AQ2">
         <v>0.35</v>
@@ -2111,7 +2120,7 @@
         <v>88</v>
       </c>
       <c r="P4" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="Q4">
         <v>2.88</v>
@@ -2395,7 +2404,7 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>1</v>
+        <v>1.13</v>
       </c>
       <c r="AQ5">
         <v>1.8</v>
@@ -2523,7 +2532,7 @@
         <v>90</v>
       </c>
       <c r="P6" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="Q6">
         <v>5.5</v>
@@ -2729,7 +2738,7 @@
         <v>91</v>
       </c>
       <c r="P7" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="Q7">
         <v>3.2</v>
@@ -2810,7 +2819,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ7">
-        <v>1.27</v>
+        <v>1.19</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -3013,7 +3022,7 @@
         <v>0</v>
       </c>
       <c r="AP8">
-        <v>1.38</v>
+        <v>1.35</v>
       </c>
       <c r="AQ8">
         <v>2.25</v>
@@ -3222,7 +3231,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ9">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="AR9">
         <v>0</v>
@@ -3553,7 +3562,7 @@
         <v>94</v>
       </c>
       <c r="P11" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="Q11">
         <v>6.5</v>
@@ -3759,7 +3768,7 @@
         <v>88</v>
       </c>
       <c r="P12" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="Q12">
         <v>2.85</v>
@@ -4046,7 +4055,7 @@
         <v>3</v>
       </c>
       <c r="AQ13">
-        <v>0.07000000000000001</v>
+        <v>0.13</v>
       </c>
       <c r="AR13">
         <v>0</v>
@@ -4458,7 +4467,7 @@
         <v>2.24</v>
       </c>
       <c r="AQ15">
-        <v>1.5</v>
+        <v>1.59</v>
       </c>
       <c r="AR15">
         <v>0</v>
@@ -4661,7 +4670,7 @@
         <v>0</v>
       </c>
       <c r="AP16">
-        <v>1.27</v>
+        <v>1.38</v>
       </c>
       <c r="AQ16">
         <v>0.73</v>
@@ -4995,7 +5004,7 @@
         <v>88</v>
       </c>
       <c r="P18" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="Q18">
         <v>5.4</v>
@@ -5279,7 +5288,7 @@
         <v>0</v>
       </c>
       <c r="AP19">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="AQ19">
         <v>0.75</v>
@@ -5485,7 +5494,7 @@
         <v>0</v>
       </c>
       <c r="AP20">
-        <v>1.38</v>
+        <v>1.35</v>
       </c>
       <c r="AQ20">
         <v>1.27</v>
@@ -5900,7 +5909,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ22">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="AR22">
         <v>0</v>
@@ -6025,7 +6034,7 @@
         <v>102</v>
       </c>
       <c r="P23" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="Q23">
         <v>2.6</v>
@@ -6231,7 +6240,7 @@
         <v>103</v>
       </c>
       <c r="P24" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="Q24">
         <v>2.75</v>
@@ -6437,7 +6446,7 @@
         <v>88</v>
       </c>
       <c r="P25" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="Q25">
         <v>1.06</v>
@@ -6518,7 +6527,7 @@
         <v>1</v>
       </c>
       <c r="AQ25">
-        <v>1.5</v>
+        <v>1.59</v>
       </c>
       <c r="AR25">
         <v>0.93</v>
@@ -6724,7 +6733,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ26">
-        <v>1.27</v>
+        <v>1.19</v>
       </c>
       <c r="AR26">
         <v>1.06</v>
@@ -6849,7 +6858,7 @@
         <v>105</v>
       </c>
       <c r="P27" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="Q27">
         <v>6.23</v>
@@ -6927,7 +6936,7 @@
         <v>3</v>
       </c>
       <c r="AP27">
-        <v>1</v>
+        <v>1.13</v>
       </c>
       <c r="AQ27">
         <v>1.88</v>
@@ -7545,10 +7554,10 @@
         <v>0</v>
       </c>
       <c r="AP30">
-        <v>1.27</v>
+        <v>1.38</v>
       </c>
       <c r="AQ30">
-        <v>0.07000000000000001</v>
+        <v>0.13</v>
       </c>
       <c r="AR30">
         <v>1.76</v>
@@ -8291,7 +8300,7 @@
         <v>111</v>
       </c>
       <c r="P34" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="Q34">
         <v>2.84</v>
@@ -8497,7 +8506,7 @@
         <v>112</v>
       </c>
       <c r="P35" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="Q35">
         <v>1.45</v>
@@ -8578,7 +8587,7 @@
         <v>3</v>
       </c>
       <c r="AQ35">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="AR35">
         <v>2.27</v>
@@ -8703,7 +8712,7 @@
         <v>113</v>
       </c>
       <c r="P36" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="Q36">
         <v>5.63</v>
@@ -8909,7 +8918,7 @@
         <v>114</v>
       </c>
       <c r="P37" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="Q37">
         <v>2.58</v>
@@ -9115,7 +9124,7 @@
         <v>88</v>
       </c>
       <c r="P38" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="Q38">
         <v>4.75</v>
@@ -9605,7 +9614,7 @@
         <v>0</v>
       </c>
       <c r="AP40">
-        <v>1.38</v>
+        <v>1.35</v>
       </c>
       <c r="AQ40">
         <v>1.8</v>
@@ -9733,7 +9742,7 @@
         <v>117</v>
       </c>
       <c r="P41" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="Q41">
         <v>2.4</v>
@@ -9811,10 +9820,10 @@
         <v>1.5</v>
       </c>
       <c r="AP41">
-        <v>1</v>
+        <v>1.13</v>
       </c>
       <c r="AQ41">
-        <v>1.5</v>
+        <v>1.59</v>
       </c>
       <c r="AR41">
         <v>1.49</v>
@@ -9939,7 +9948,7 @@
         <v>108</v>
       </c>
       <c r="P42" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="Q42">
         <v>2.61</v>
@@ -10145,7 +10154,7 @@
         <v>118</v>
       </c>
       <c r="P43" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="Q43">
         <v>1.69</v>
@@ -10223,7 +10232,7 @@
         <v>1.5</v>
       </c>
       <c r="AP43">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="AQ43">
         <v>0.73</v>
@@ -10638,7 +10647,7 @@
         <v>2.24</v>
       </c>
       <c r="AQ45">
-        <v>1.27</v>
+        <v>1.19</v>
       </c>
       <c r="AR45">
         <v>1.87</v>
@@ -10844,7 +10853,7 @@
         <v>1</v>
       </c>
       <c r="AQ46">
-        <v>0.07000000000000001</v>
+        <v>0.13</v>
       </c>
       <c r="AR46">
         <v>0.97</v>
@@ -11459,10 +11468,10 @@
         <v>2</v>
       </c>
       <c r="AP49">
-        <v>1.38</v>
+        <v>1.35</v>
       </c>
       <c r="AQ49">
-        <v>1.5</v>
+        <v>1.59</v>
       </c>
       <c r="AR49">
         <v>1.24</v>
@@ -11587,7 +11596,7 @@
         <v>88</v>
       </c>
       <c r="P50" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="Q50">
         <v>5.1</v>
@@ -11999,7 +12008,7 @@
         <v>122</v>
       </c>
       <c r="P52" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="Q52">
         <v>3</v>
@@ -12411,7 +12420,7 @@
         <v>124</v>
       </c>
       <c r="P54" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="Q54">
         <v>3</v>
@@ -13029,7 +13038,7 @@
         <v>88</v>
       </c>
       <c r="P57" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="Q57">
         <v>5.88</v>
@@ -13107,7 +13116,7 @@
         <v>2</v>
       </c>
       <c r="AP57">
-        <v>1.27</v>
+        <v>1.38</v>
       </c>
       <c r="AQ57">
         <v>2.25</v>
@@ -13522,7 +13531,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ59">
-        <v>1.5</v>
+        <v>1.59</v>
       </c>
       <c r="AR59">
         <v>1.83</v>
@@ -13647,7 +13656,7 @@
         <v>128</v>
       </c>
       <c r="P60" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="Q60">
         <v>3.86</v>
@@ -14059,7 +14068,7 @@
         <v>130</v>
       </c>
       <c r="P62" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="Q62">
         <v>1.83</v>
@@ -14137,7 +14146,7 @@
         <v>0.75</v>
       </c>
       <c r="AP62">
-        <v>1.27</v>
+        <v>1.38</v>
       </c>
       <c r="AQ62">
         <v>0.35</v>
@@ -14471,7 +14480,7 @@
         <v>88</v>
       </c>
       <c r="P64" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="Q64">
         <v>8.77</v>
@@ -14677,7 +14686,7 @@
         <v>132</v>
       </c>
       <c r="P65" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="Q65">
         <v>2.4</v>
@@ -14883,7 +14892,7 @@
         <v>133</v>
       </c>
       <c r="P66" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="Q66">
         <v>1.55</v>
@@ -14961,7 +14970,7 @@
         <v>1</v>
       </c>
       <c r="AP66">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="AQ66">
         <v>1.31</v>
@@ -15089,7 +15098,7 @@
         <v>134</v>
       </c>
       <c r="P67" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="Q67">
         <v>4</v>
@@ -15170,7 +15179,7 @@
         <v>1</v>
       </c>
       <c r="AQ67">
-        <v>1.27</v>
+        <v>1.19</v>
       </c>
       <c r="AR67">
         <v>1.08</v>
@@ -15373,7 +15382,7 @@
         <v>2</v>
       </c>
       <c r="AP68">
-        <v>1.38</v>
+        <v>1.35</v>
       </c>
       <c r="AQ68">
         <v>1.19</v>
@@ -15501,7 +15510,7 @@
         <v>88</v>
       </c>
       <c r="P69" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="Q69">
         <v>3.1</v>
@@ -15582,7 +15591,7 @@
         <v>0.87</v>
       </c>
       <c r="AQ69">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="AR69">
         <v>1.23</v>
@@ -15994,7 +16003,7 @@
         <v>2.24</v>
       </c>
       <c r="AQ71">
-        <v>0.07000000000000001</v>
+        <v>0.13</v>
       </c>
       <c r="AR71">
         <v>1.82</v>
@@ -16119,7 +16128,7 @@
         <v>124</v>
       </c>
       <c r="P72" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="Q72">
         <v>1.88</v>
@@ -16325,7 +16334,7 @@
         <v>88</v>
       </c>
       <c r="P73" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="Q73">
         <v>7</v>
@@ -16403,7 +16412,7 @@
         <v>2.33</v>
       </c>
       <c r="AP73">
-        <v>1</v>
+        <v>1.13</v>
       </c>
       <c r="AQ73">
         <v>2.25</v>
@@ -16737,7 +16746,7 @@
         <v>88</v>
       </c>
       <c r="P75" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="Q75">
         <v>3.7</v>
@@ -16943,7 +16952,7 @@
         <v>138</v>
       </c>
       <c r="P76" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="Q76">
         <v>2.3</v>
@@ -17149,7 +17158,7 @@
         <v>88</v>
       </c>
       <c r="P77" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="Q77">
         <v>2.47</v>
@@ -17230,7 +17239,7 @@
         <v>1.53</v>
       </c>
       <c r="AQ77">
-        <v>1.5</v>
+        <v>1.59</v>
       </c>
       <c r="AR77">
         <v>1.45</v>
@@ -17561,7 +17570,7 @@
         <v>140</v>
       </c>
       <c r="P79" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="Q79">
         <v>2.5</v>
@@ -17845,7 +17854,7 @@
         <v>1</v>
       </c>
       <c r="AP80">
-        <v>1.27</v>
+        <v>1.38</v>
       </c>
       <c r="AQ80">
         <v>1.8</v>
@@ -17973,7 +17982,7 @@
         <v>141</v>
       </c>
       <c r="P81" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="Q81">
         <v>2.38</v>
@@ -18179,7 +18188,7 @@
         <v>142</v>
       </c>
       <c r="P82" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="Q82">
         <v>2.8</v>
@@ -18385,7 +18394,7 @@
         <v>143</v>
       </c>
       <c r="P83" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="Q83">
         <v>2.6</v>
@@ -18591,7 +18600,7 @@
         <v>144</v>
       </c>
       <c r="P84" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="Q84">
         <v>3.4</v>
@@ -18875,10 +18884,10 @@
         <v>1.5</v>
       </c>
       <c r="AP85">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="AQ85">
-        <v>1.27</v>
+        <v>1.19</v>
       </c>
       <c r="AR85">
         <v>2.02</v>
@@ -19003,7 +19012,7 @@
         <v>146</v>
       </c>
       <c r="P86" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="Q86">
         <v>2.88</v>
@@ -19081,7 +19090,7 @@
         <v>0.8</v>
       </c>
       <c r="AP86">
-        <v>1</v>
+        <v>1.13</v>
       </c>
       <c r="AQ86">
         <v>1.13</v>
@@ -19209,7 +19218,7 @@
         <v>88</v>
       </c>
       <c r="P87" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="Q87">
         <v>2.6</v>
@@ -19287,10 +19296,10 @@
         <v>0.75</v>
       </c>
       <c r="AP87">
-        <v>1.38</v>
+        <v>1.35</v>
       </c>
       <c r="AQ87">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="AR87">
         <v>1.12</v>
@@ -19496,7 +19505,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ88">
-        <v>0.07000000000000001</v>
+        <v>0.13</v>
       </c>
       <c r="AR88">
         <v>1.73</v>
@@ -19621,7 +19630,7 @@
         <v>93</v>
       </c>
       <c r="P89" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="Q89">
         <v>6.5</v>
@@ -20033,7 +20042,7 @@
         <v>88</v>
       </c>
       <c r="P91" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="Q91">
         <v>3.8</v>
@@ -20239,7 +20248,7 @@
         <v>149</v>
       </c>
       <c r="P92" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="Q92">
         <v>4.7</v>
@@ -20526,7 +20535,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ93">
-        <v>1.5</v>
+        <v>1.59</v>
       </c>
       <c r="AR93">
         <v>1.61</v>
@@ -20651,7 +20660,7 @@
         <v>150</v>
       </c>
       <c r="P94" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="Q94">
         <v>3</v>
@@ -21141,7 +21150,7 @@
         <v>1.5</v>
       </c>
       <c r="AP96">
-        <v>1.27</v>
+        <v>1.38</v>
       </c>
       <c r="AQ96">
         <v>1.19</v>
@@ -21762,7 +21771,7 @@
         <v>2</v>
       </c>
       <c r="AQ99">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="AR99">
         <v>1.65</v>
@@ -22093,7 +22102,7 @@
         <v>156</v>
       </c>
       <c r="P101" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="Q101">
         <v>1.83</v>
@@ -22171,7 +22180,7 @@
         <v>1.29</v>
       </c>
       <c r="AP101">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="AQ101">
         <v>1.8</v>
@@ -22380,7 +22389,7 @@
         <v>0.25</v>
       </c>
       <c r="AQ102">
-        <v>1.27</v>
+        <v>1.19</v>
       </c>
       <c r="AR102">
         <v>1.41</v>
@@ -22583,7 +22592,7 @@
         <v>1.83</v>
       </c>
       <c r="AP103">
-        <v>1.38</v>
+        <v>1.35</v>
       </c>
       <c r="AQ103">
         <v>1.88</v>
@@ -22789,7 +22798,7 @@
         <v>0.57</v>
       </c>
       <c r="AP104">
-        <v>1</v>
+        <v>1.13</v>
       </c>
       <c r="AQ104">
         <v>0.35</v>
@@ -23410,7 +23419,7 @@
         <v>0.87</v>
       </c>
       <c r="AQ107">
-        <v>1.5</v>
+        <v>1.59</v>
       </c>
       <c r="AR107">
         <v>1.14</v>
@@ -23741,7 +23750,7 @@
         <v>161</v>
       </c>
       <c r="P109" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="Q109">
         <v>2.24</v>
@@ -23822,7 +23831,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ109">
-        <v>0.07000000000000001</v>
+        <v>0.13</v>
       </c>
       <c r="AR109">
         <v>1.51</v>
@@ -24153,7 +24162,7 @@
         <v>163</v>
       </c>
       <c r="P111" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="Q111">
         <v>4.6</v>
@@ -24231,7 +24240,7 @@
         <v>2.14</v>
       </c>
       <c r="AP111">
-        <v>1.27</v>
+        <v>1.38</v>
       </c>
       <c r="AQ111">
         <v>1.88</v>
@@ -24565,7 +24574,7 @@
         <v>165</v>
       </c>
       <c r="P113" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="Q113">
         <v>3.25</v>
@@ -24771,7 +24780,7 @@
         <v>152</v>
       </c>
       <c r="P114" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="Q114">
         <v>2.88</v>
@@ -24849,7 +24858,7 @@
         <v>1.14</v>
       </c>
       <c r="AP114">
-        <v>1.38</v>
+        <v>1.35</v>
       </c>
       <c r="AQ114">
         <v>1.13</v>
@@ -24977,7 +24986,7 @@
         <v>99</v>
       </c>
       <c r="P115" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="Q115">
         <v>1.73</v>
@@ -25055,10 +25064,10 @@
         <v>1</v>
       </c>
       <c r="AP115">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="AQ115">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="AR115">
         <v>1.87</v>
@@ -25183,7 +25192,7 @@
         <v>88</v>
       </c>
       <c r="P116" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="Q116">
         <v>4.33</v>
@@ -25467,7 +25476,7 @@
         <v>0.29</v>
       </c>
       <c r="AP117">
-        <v>1</v>
+        <v>1.13</v>
       </c>
       <c r="AQ117">
         <v>0.75</v>
@@ -25595,7 +25604,7 @@
         <v>88</v>
       </c>
       <c r="P118" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="Q118">
         <v>15</v>
@@ -26007,7 +26016,7 @@
         <v>168</v>
       </c>
       <c r="P120" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="Q120">
         <v>3</v>
@@ -26088,7 +26097,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ120">
-        <v>1.27</v>
+        <v>1.19</v>
       </c>
       <c r="AR120">
         <v>1.59</v>
@@ -26419,7 +26428,7 @@
         <v>170</v>
       </c>
       <c r="P122" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="Q122">
         <v>3.25</v>
@@ -26497,7 +26506,7 @@
         <v>1</v>
       </c>
       <c r="AP122">
-        <v>1</v>
+        <v>1.13</v>
       </c>
       <c r="AQ122">
         <v>0.73</v>
@@ -26625,7 +26634,7 @@
         <v>171</v>
       </c>
       <c r="P123" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="Q123">
         <v>1.83</v>
@@ -27037,7 +27046,7 @@
         <v>172</v>
       </c>
       <c r="P125" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="Q125">
         <v>6.3</v>
@@ -27324,7 +27333,7 @@
         <v>3</v>
       </c>
       <c r="AQ126">
-        <v>1.27</v>
+        <v>1.19</v>
       </c>
       <c r="AR126">
         <v>2.37</v>
@@ -27530,7 +27539,7 @@
         <v>0.87</v>
       </c>
       <c r="AQ127">
-        <v>0.07000000000000001</v>
+        <v>0.13</v>
       </c>
       <c r="AR127">
         <v>1.1</v>
@@ -27733,7 +27742,7 @@
         <v>0.71</v>
       </c>
       <c r="AP128">
-        <v>1.27</v>
+        <v>1.38</v>
       </c>
       <c r="AQ128">
         <v>1.13</v>
@@ -27861,7 +27870,7 @@
         <v>174</v>
       </c>
       <c r="P129" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="Q129">
         <v>2.1</v>
@@ -27942,7 +27951,7 @@
         <v>2.38</v>
       </c>
       <c r="AQ129">
-        <v>1.5</v>
+        <v>1.59</v>
       </c>
       <c r="AR129">
         <v>1.69</v>
@@ -28067,7 +28076,7 @@
         <v>175</v>
       </c>
       <c r="P130" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="Q130">
         <v>1.5</v>
@@ -28145,7 +28154,7 @@
         <v>1</v>
       </c>
       <c r="AP130">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="AQ130">
         <v>1.19</v>
@@ -28354,7 +28363,7 @@
         <v>2</v>
       </c>
       <c r="AQ131">
-        <v>0.07000000000000001</v>
+        <v>0.13</v>
       </c>
       <c r="AR131">
         <v>1.63</v>
@@ -28479,7 +28488,7 @@
         <v>177</v>
       </c>
       <c r="P132" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="Q132">
         <v>3.5</v>
@@ -28685,7 +28694,7 @@
         <v>178</v>
       </c>
       <c r="P133" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="Q133">
         <v>4.04</v>
@@ -28891,7 +28900,7 @@
         <v>88</v>
       </c>
       <c r="P134" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="Q134">
         <v>2.75</v>
@@ -28969,7 +28978,7 @@
         <v>0.63</v>
       </c>
       <c r="AP134">
-        <v>1</v>
+        <v>1.13</v>
       </c>
       <c r="AQ134">
         <v>1.13</v>
@@ -29175,10 +29184,10 @@
         <v>1.25</v>
       </c>
       <c r="AP135">
-        <v>1.27</v>
+        <v>1.38</v>
       </c>
       <c r="AQ135">
-        <v>1.27</v>
+        <v>1.19</v>
       </c>
       <c r="AR135">
         <v>1.56</v>
@@ -29590,7 +29599,7 @@
         <v>2.38</v>
       </c>
       <c r="AQ137">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="AR137">
         <v>1.7</v>
@@ -29715,7 +29724,7 @@
         <v>91</v>
       </c>
       <c r="P138" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="Q138">
         <v>2.25</v>
@@ -29793,7 +29802,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AP138">
-        <v>1.38</v>
+        <v>1.35</v>
       </c>
       <c r="AQ138">
         <v>0.35</v>
@@ -29921,7 +29930,7 @@
         <v>179</v>
       </c>
       <c r="P139" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="Q139">
         <v>1.9</v>
@@ -30205,7 +30214,7 @@
         <v>1.5</v>
       </c>
       <c r="AP140">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="AQ140">
         <v>1.27</v>
@@ -30333,7 +30342,7 @@
         <v>88</v>
       </c>
       <c r="P141" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="Q141">
         <v>4</v>
@@ -30539,7 +30548,7 @@
         <v>117</v>
       </c>
       <c r="P142" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="Q142">
         <v>4</v>
@@ -30745,7 +30754,7 @@
         <v>181</v>
       </c>
       <c r="P143" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="Q143">
         <v>6</v>
@@ -31032,7 +31041,7 @@
         <v>1.53</v>
       </c>
       <c r="AQ144">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="AR144">
         <v>1.52</v>
@@ -31157,7 +31166,7 @@
         <v>88</v>
       </c>
       <c r="P145" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="Q145">
         <v>3.5</v>
@@ -31363,7 +31372,7 @@
         <v>183</v>
       </c>
       <c r="P146" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="Q146">
         <v>4.33</v>
@@ -31569,7 +31578,7 @@
         <v>184</v>
       </c>
       <c r="P147" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="Q147">
         <v>3.8</v>
@@ -31650,7 +31659,7 @@
         <v>0.87</v>
       </c>
       <c r="AQ147">
-        <v>1.27</v>
+        <v>1.19</v>
       </c>
       <c r="AR147">
         <v>1.26</v>
@@ -31775,7 +31784,7 @@
         <v>185</v>
       </c>
       <c r="P148" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="Q148">
         <v>2.5</v>
@@ -31853,7 +31862,7 @@
         <v>0.88</v>
       </c>
       <c r="AP148">
-        <v>1</v>
+        <v>1.13</v>
       </c>
       <c r="AQ148">
         <v>1.19</v>
@@ -31981,7 +31990,7 @@
         <v>186</v>
       </c>
       <c r="P149" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="Q149">
         <v>2.05</v>
@@ -32265,10 +32274,10 @@
         <v>1.22</v>
       </c>
       <c r="AP150">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="AQ150">
-        <v>1.5</v>
+        <v>1.59</v>
       </c>
       <c r="AR150">
         <v>1.98</v>
@@ -32393,7 +32402,7 @@
         <v>188</v>
       </c>
       <c r="P151" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="Q151">
         <v>2.48</v>
@@ -32471,7 +32480,7 @@
         <v>1</v>
       </c>
       <c r="AP151">
-        <v>1.27</v>
+        <v>1.38</v>
       </c>
       <c r="AQ151">
         <v>1.31</v>
@@ -32805,7 +32814,7 @@
         <v>190</v>
       </c>
       <c r="P153" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="Q153">
         <v>1.4</v>
@@ -32886,7 +32895,7 @@
         <v>2.38</v>
       </c>
       <c r="AQ153">
-        <v>0.07000000000000001</v>
+        <v>0.13</v>
       </c>
       <c r="AR153">
         <v>1.75</v>
@@ -33092,7 +33101,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ154">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="AR154">
         <v>1.58</v>
@@ -33217,7 +33226,7 @@
         <v>88</v>
       </c>
       <c r="P155" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="Q155">
         <v>3.2</v>
@@ -33835,7 +33844,7 @@
         <v>88</v>
       </c>
       <c r="P158" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="Q158">
         <v>5</v>
@@ -33913,7 +33922,7 @@
         <v>1.89</v>
       </c>
       <c r="AP158">
-        <v>1.38</v>
+        <v>1.35</v>
       </c>
       <c r="AQ158">
         <v>1.88</v>
@@ -34041,7 +34050,7 @@
         <v>88</v>
       </c>
       <c r="P159" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="Q159">
         <v>2.38</v>
@@ -34453,7 +34462,7 @@
         <v>193</v>
       </c>
       <c r="P161" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="Q161">
         <v>4.75</v>
@@ -34659,7 +34668,7 @@
         <v>194</v>
       </c>
       <c r="P162" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="Q162">
         <v>2.63</v>
@@ -34737,10 +34746,10 @@
         <v>0.9</v>
       </c>
       <c r="AP162">
-        <v>1.27</v>
+        <v>1.38</v>
       </c>
       <c r="AQ162">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="AR162">
         <v>1.6</v>
@@ -34865,7 +34874,7 @@
         <v>88</v>
       </c>
       <c r="P163" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="Q163">
         <v>11</v>
@@ -35071,7 +35080,7 @@
         <v>195</v>
       </c>
       <c r="P164" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="Q164">
         <v>2</v>
@@ -35152,7 +35161,7 @@
         <v>2.38</v>
       </c>
       <c r="AQ164">
-        <v>1.27</v>
+        <v>1.19</v>
       </c>
       <c r="AR164">
         <v>1.81</v>
@@ -35277,7 +35286,7 @@
         <v>196</v>
       </c>
       <c r="P165" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="Q165">
         <v>2.5</v>
@@ -35561,10 +35570,10 @@
         <v>0.11</v>
       </c>
       <c r="AP166">
-        <v>1</v>
+        <v>1.13</v>
       </c>
       <c r="AQ166">
-        <v>0.07000000000000001</v>
+        <v>0.13</v>
       </c>
       <c r="AR166">
         <v>1.6</v>
@@ -35973,7 +35982,7 @@
         <v>1.1</v>
       </c>
       <c r="AP168">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="AQ168">
         <v>1.13</v>
@@ -36385,7 +36394,7 @@
         <v>0.3</v>
       </c>
       <c r="AP170">
-        <v>1.38</v>
+        <v>1.35</v>
       </c>
       <c r="AQ170">
         <v>0.75</v>
@@ -36513,7 +36522,7 @@
         <v>201</v>
       </c>
       <c r="P171" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="Q171">
         <v>5.2</v>
@@ -36594,7 +36603,7 @@
         <v>0.25</v>
       </c>
       <c r="AQ171">
-        <v>1.5</v>
+        <v>1.59</v>
       </c>
       <c r="AR171">
         <v>1.3</v>
@@ -36719,7 +36728,7 @@
         <v>202</v>
       </c>
       <c r="P172" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="Q172">
         <v>6.35</v>
@@ -36925,7 +36934,7 @@
         <v>203</v>
       </c>
       <c r="P173" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="Q173">
         <v>2.6</v>
@@ -37131,7 +37140,7 @@
         <v>204</v>
       </c>
       <c r="P174" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="Q174">
         <v>2.66</v>
@@ -37337,7 +37346,7 @@
         <v>88</v>
       </c>
       <c r="P175" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="Q175">
         <v>4.86</v>
@@ -37749,7 +37758,7 @@
         <v>172</v>
       </c>
       <c r="P177" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="Q177">
         <v>3.63</v>
@@ -37955,7 +37964,7 @@
         <v>88</v>
       </c>
       <c r="P178" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="Q178">
         <v>3.92</v>
@@ -38242,7 +38251,7 @@
         <v>2.24</v>
       </c>
       <c r="AQ179">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="AR179">
         <v>1.82</v>
@@ -38445,10 +38454,10 @@
         <v>0.1</v>
       </c>
       <c r="AP180">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="AQ180">
-        <v>0.07000000000000001</v>
+        <v>0.13</v>
       </c>
       <c r="AR180">
         <v>2.04</v>
@@ -38651,10 +38660,10 @@
         <v>1</v>
       </c>
       <c r="AP181">
-        <v>1</v>
+        <v>1.13</v>
       </c>
       <c r="AQ181">
-        <v>1.27</v>
+        <v>1.19</v>
       </c>
       <c r="AR181">
         <v>1.62</v>
@@ -38985,7 +38994,7 @@
         <v>208</v>
       </c>
       <c r="P183" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="Q183">
         <v>4.3</v>
@@ -39191,7 +39200,7 @@
         <v>88</v>
       </c>
       <c r="P184" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="Q184">
         <v>5.8</v>
@@ -39397,7 +39406,7 @@
         <v>96</v>
       </c>
       <c r="P185" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="Q185">
         <v>4.7</v>
@@ -39684,7 +39693,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ186">
-        <v>1.5</v>
+        <v>1.59</v>
       </c>
       <c r="AR186">
         <v>1.46</v>
@@ -40221,7 +40230,7 @@
         <v>88</v>
       </c>
       <c r="P189" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="Q189">
         <v>4.5</v>
@@ -40299,7 +40308,7 @@
         <v>1.82</v>
       </c>
       <c r="AP189">
-        <v>1.27</v>
+        <v>1.38</v>
       </c>
       <c r="AQ189">
         <v>1.88</v>
@@ -40920,7 +40929,7 @@
         <v>1</v>
       </c>
       <c r="AQ192">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="AR192">
         <v>1.24</v>
@@ -41123,10 +41132,10 @@
         <v>0.09</v>
       </c>
       <c r="AP193">
-        <v>1.38</v>
+        <v>1.35</v>
       </c>
       <c r="AQ193">
-        <v>0.07000000000000001</v>
+        <v>0.13</v>
       </c>
       <c r="AR193">
         <v>1.2</v>
@@ -41332,7 +41341,7 @@
         <v>2</v>
       </c>
       <c r="AQ194">
-        <v>1.27</v>
+        <v>1.19</v>
       </c>
       <c r="AR194">
         <v>1.7</v>
@@ -41535,7 +41544,7 @@
         <v>2.42</v>
       </c>
       <c r="AP195">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="AQ195">
         <v>2.25</v>
@@ -41663,7 +41672,7 @@
         <v>215</v>
       </c>
       <c r="P196" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="Q196">
         <v>1.95</v>
@@ -41869,7 +41878,7 @@
         <v>88</v>
       </c>
       <c r="P197" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="Q197">
         <v>2.88</v>
@@ -41947,7 +41956,7 @@
         <v>1.25</v>
       </c>
       <c r="AP197">
-        <v>1</v>
+        <v>1.13</v>
       </c>
       <c r="AQ197">
         <v>1.31</v>
@@ -42693,7 +42702,7 @@
         <v>158</v>
       </c>
       <c r="P201" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="Q201">
         <v>2.63</v>
@@ -42771,7 +42780,7 @@
         <v>1.33</v>
       </c>
       <c r="AP201">
-        <v>1.27</v>
+        <v>1.38</v>
       </c>
       <c r="AQ201">
         <v>1.27</v>
@@ -42899,7 +42908,7 @@
         <v>88</v>
       </c>
       <c r="P202" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="Q202">
         <v>2.75</v>
@@ -43517,7 +43526,7 @@
         <v>218</v>
       </c>
       <c r="P205" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="Q205">
         <v>2.88</v>
@@ -43723,7 +43732,7 @@
         <v>88</v>
       </c>
       <c r="P206" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="Q206">
         <v>2.38</v>
@@ -43929,7 +43938,7 @@
         <v>219</v>
       </c>
       <c r="P207" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="Q207">
         <v>4.75</v>
@@ -44216,7 +44225,7 @@
         <v>3</v>
       </c>
       <c r="AQ208">
-        <v>1.5</v>
+        <v>1.59</v>
       </c>
       <c r="AR208">
         <v>2.31</v>
@@ -44625,10 +44634,10 @@
         <v>0.77</v>
       </c>
       <c r="AP210">
-        <v>1</v>
+        <v>1.13</v>
       </c>
       <c r="AQ210">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="AR210">
         <v>1.59</v>
@@ -44753,7 +44762,7 @@
         <v>221</v>
       </c>
       <c r="P211" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="Q211">
         <v>1.57</v>
@@ -45165,7 +45174,7 @@
         <v>88</v>
       </c>
       <c r="P213" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="Q213">
         <v>3.5</v>
@@ -45243,10 +45252,10 @@
         <v>1</v>
       </c>
       <c r="AP213">
-        <v>1.38</v>
+        <v>1.35</v>
       </c>
       <c r="AQ213">
-        <v>1.27</v>
+        <v>1.19</v>
       </c>
       <c r="AR213">
         <v>1.18</v>
@@ -45452,7 +45461,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ214">
-        <v>0.07000000000000001</v>
+        <v>0.13</v>
       </c>
       <c r="AR214">
         <v>1.53</v>
@@ -45783,7 +45792,7 @@
         <v>224</v>
       </c>
       <c r="P216" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="Q216">
         <v>2.75</v>
@@ -45861,7 +45870,7 @@
         <v>1.85</v>
       </c>
       <c r="AP216">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="AQ216">
         <v>1.88</v>
@@ -46195,7 +46204,7 @@
         <v>124</v>
       </c>
       <c r="P218" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="Q218">
         <v>2.4</v>
@@ -46401,7 +46410,7 @@
         <v>226</v>
       </c>
       <c r="P219" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="Q219">
         <v>3</v>
@@ -46688,7 +46697,7 @@
         <v>1.53</v>
       </c>
       <c r="AQ220">
-        <v>0.07000000000000001</v>
+        <v>0.13</v>
       </c>
       <c r="AR220">
         <v>1.48</v>
@@ -46813,7 +46822,7 @@
         <v>228</v>
       </c>
       <c r="P221" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="Q221">
         <v>1.67</v>
@@ -47100,7 +47109,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ222">
-        <v>1.5</v>
+        <v>1.59</v>
       </c>
       <c r="AR222">
         <v>1.47</v>
@@ -47225,7 +47234,7 @@
         <v>88</v>
       </c>
       <c r="P223" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="Q223">
         <v>2.3</v>
@@ -47303,7 +47312,7 @@
         <v>0.62</v>
       </c>
       <c r="AP223">
-        <v>1.27</v>
+        <v>1.38</v>
       </c>
       <c r="AQ223">
         <v>0.75</v>
@@ -47637,7 +47646,7 @@
         <v>218</v>
       </c>
       <c r="P225" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="Q225">
         <v>3.3</v>
@@ -47715,7 +47724,7 @@
         <v>1.08</v>
       </c>
       <c r="AP225">
-        <v>1.38</v>
+        <v>1.35</v>
       </c>
       <c r="AQ225">
         <v>1.13</v>
@@ -47843,7 +47852,7 @@
         <v>88</v>
       </c>
       <c r="P226" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="Q226">
         <v>7.5</v>
@@ -48049,7 +48058,7 @@
         <v>152</v>
       </c>
       <c r="P227" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="Q227">
         <v>5.5</v>
@@ -48255,7 +48264,7 @@
         <v>230</v>
       </c>
       <c r="P228" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="Q228">
         <v>5</v>
@@ -48336,7 +48345,7 @@
         <v>0.25</v>
       </c>
       <c r="AQ228">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="AR228">
         <v>1.21</v>
@@ -48745,7 +48754,7 @@
         <v>1.07</v>
       </c>
       <c r="AP230">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="AQ230">
         <v>1.13</v>
@@ -48873,7 +48882,7 @@
         <v>232</v>
       </c>
       <c r="P231" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="Q231">
         <v>3.6</v>
@@ -48951,7 +48960,7 @@
         <v>1.36</v>
       </c>
       <c r="AP231">
-        <v>1.38</v>
+        <v>1.35</v>
       </c>
       <c r="AQ231">
         <v>1.31</v>
@@ -49079,7 +49088,7 @@
         <v>88</v>
       </c>
       <c r="P232" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="Q232">
         <v>3</v>
@@ -49160,7 +49169,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ232">
-        <v>1.27</v>
+        <v>1.19</v>
       </c>
       <c r="AR232">
         <v>1.53</v>
@@ -49285,7 +49294,7 @@
         <v>233</v>
       </c>
       <c r="P233" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="Q233">
         <v>4.5</v>
@@ -49363,7 +49372,7 @@
         <v>1.93</v>
       </c>
       <c r="AP233">
-        <v>1</v>
+        <v>1.13</v>
       </c>
       <c r="AQ233">
         <v>1.88</v>
@@ -49491,7 +49500,7 @@
         <v>234</v>
       </c>
       <c r="P234" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="Q234">
         <v>2.3</v>
@@ -49984,7 +49993,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ236">
-        <v>0.07000000000000001</v>
+        <v>0.13</v>
       </c>
       <c r="AR236">
         <v>1.57</v>
@@ -50599,10 +50608,10 @@
         <v>1.29</v>
       </c>
       <c r="AP239">
-        <v>1.27</v>
+        <v>1.38</v>
       </c>
       <c r="AQ239">
-        <v>1.5</v>
+        <v>1.59</v>
       </c>
       <c r="AR239">
         <v>1.64</v>
@@ -50727,7 +50736,7 @@
         <v>158</v>
       </c>
       <c r="P240" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="Q240">
         <v>8</v>
@@ -50933,7 +50942,7 @@
         <v>238</v>
       </c>
       <c r="P241" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="Q241">
         <v>1.67</v>
@@ -51139,7 +51148,7 @@
         <v>239</v>
       </c>
       <c r="P242" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="Q242">
         <v>3.9</v>
@@ -51423,7 +51432,7 @@
         <v>0.4</v>
       </c>
       <c r="AP243">
-        <v>1.38</v>
+        <v>1.35</v>
       </c>
       <c r="AQ243">
         <v>0.35</v>
@@ -51551,7 +51560,7 @@
         <v>88</v>
       </c>
       <c r="P244" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="Q244">
         <v>6.5</v>
@@ -51757,7 +51766,7 @@
         <v>241</v>
       </c>
       <c r="P245" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="Q245">
         <v>2.5</v>
@@ -51963,7 +51972,7 @@
         <v>242</v>
       </c>
       <c r="P246" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="Q246">
         <v>2</v>
@@ -52044,7 +52053,7 @@
         <v>2.24</v>
       </c>
       <c r="AQ246">
-        <v>1.5</v>
+        <v>1.59</v>
       </c>
       <c r="AR246">
         <v>1.81</v>
@@ -52787,7 +52796,7 @@
         <v>245</v>
       </c>
       <c r="P250" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="Q250">
         <v>2.25</v>
@@ -53150,6 +53159,830 @@
       </c>
       <c r="BP251">
         <v>1.5</v>
+      </c>
+    </row>
+    <row r="252" spans="1:68">
+      <c r="A252" s="1">
+        <v>251</v>
+      </c>
+      <c r="B252">
+        <v>7885771</v>
+      </c>
+      <c r="C252" t="s">
+        <v>68</v>
+      </c>
+      <c r="D252" t="s">
+        <v>69</v>
+      </c>
+      <c r="E252" s="2">
+        <v>45781.33333333334</v>
+      </c>
+      <c r="F252">
+        <v>2</v>
+      </c>
+      <c r="G252" t="s">
+        <v>76</v>
+      </c>
+      <c r="H252" t="s">
+        <v>72</v>
+      </c>
+      <c r="I252">
+        <v>0</v>
+      </c>
+      <c r="J252">
+        <v>0</v>
+      </c>
+      <c r="K252">
+        <v>0</v>
+      </c>
+      <c r="L252">
+        <v>0</v>
+      </c>
+      <c r="M252">
+        <v>0</v>
+      </c>
+      <c r="N252">
+        <v>0</v>
+      </c>
+      <c r="O252" t="s">
+        <v>88</v>
+      </c>
+      <c r="P252" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q252">
+        <v>1.91</v>
+      </c>
+      <c r="R252">
+        <v>2.5</v>
+      </c>
+      <c r="S252">
+        <v>7</v>
+      </c>
+      <c r="T252">
+        <v>1.3</v>
+      </c>
+      <c r="U252">
+        <v>3.4</v>
+      </c>
+      <c r="V252">
+        <v>2.5</v>
+      </c>
+      <c r="W252">
+        <v>1.5</v>
+      </c>
+      <c r="X252">
+        <v>6</v>
+      </c>
+      <c r="Y252">
+        <v>1.13</v>
+      </c>
+      <c r="Z252">
+        <v>1.4</v>
+      </c>
+      <c r="AA252">
+        <v>4.5</v>
+      </c>
+      <c r="AB252">
+        <v>7.5</v>
+      </c>
+      <c r="AC252">
+        <v>1.02</v>
+      </c>
+      <c r="AD252">
+        <v>11.5</v>
+      </c>
+      <c r="AE252">
+        <v>1.26</v>
+      </c>
+      <c r="AF252">
+        <v>3.71</v>
+      </c>
+      <c r="AG252">
+        <v>1.75</v>
+      </c>
+      <c r="AH252">
+        <v>2.05</v>
+      </c>
+      <c r="AI252">
+        <v>1.95</v>
+      </c>
+      <c r="AJ252">
+        <v>1.8</v>
+      </c>
+      <c r="AK252">
+        <v>1.08</v>
+      </c>
+      <c r="AL252">
+        <v>1.2</v>
+      </c>
+      <c r="AM252">
+        <v>2.9</v>
+      </c>
+      <c r="AN252">
+        <v>1.38</v>
+      </c>
+      <c r="AO252">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="AP252">
+        <v>1.35</v>
+      </c>
+      <c r="AQ252">
+        <v>0.13</v>
+      </c>
+      <c r="AR252">
+        <v>1.27</v>
+      </c>
+      <c r="AS252">
+        <v>0.97</v>
+      </c>
+      <c r="AT252">
+        <v>2.24</v>
+      </c>
+      <c r="AU252">
+        <v>0</v>
+      </c>
+      <c r="AV252">
+        <v>2</v>
+      </c>
+      <c r="AW252">
+        <v>7</v>
+      </c>
+      <c r="AX252">
+        <v>6</v>
+      </c>
+      <c r="AY252">
+        <v>7</v>
+      </c>
+      <c r="AZ252">
+        <v>8</v>
+      </c>
+      <c r="BA252">
+        <v>9</v>
+      </c>
+      <c r="BB252">
+        <v>4</v>
+      </c>
+      <c r="BC252">
+        <v>13</v>
+      </c>
+      <c r="BD252">
+        <v>1.34</v>
+      </c>
+      <c r="BE252">
+        <v>7.5</v>
+      </c>
+      <c r="BF252">
+        <v>3.55</v>
+      </c>
+      <c r="BG252">
+        <v>1.22</v>
+      </c>
+      <c r="BH252">
+        <v>3.8</v>
+      </c>
+      <c r="BI252">
+        <v>1.38</v>
+      </c>
+      <c r="BJ252">
+        <v>2.8</v>
+      </c>
+      <c r="BK252">
+        <v>1.64</v>
+      </c>
+      <c r="BL252">
+        <v>2.12</v>
+      </c>
+      <c r="BM252">
+        <v>1.97</v>
+      </c>
+      <c r="BN252">
+        <v>1.74</v>
+      </c>
+      <c r="BO252">
+        <v>2.43</v>
+      </c>
+      <c r="BP252">
+        <v>1.48</v>
+      </c>
+    </row>
+    <row r="253" spans="1:68">
+      <c r="A253" s="1">
+        <v>252</v>
+      </c>
+      <c r="B253">
+        <v>7885772</v>
+      </c>
+      <c r="C253" t="s">
+        <v>68</v>
+      </c>
+      <c r="D253" t="s">
+        <v>69</v>
+      </c>
+      <c r="E253" s="2">
+        <v>45781.4375</v>
+      </c>
+      <c r="F253">
+        <v>2</v>
+      </c>
+      <c r="G253" t="s">
+        <v>83</v>
+      </c>
+      <c r="H253" t="s">
+        <v>78</v>
+      </c>
+      <c r="I253">
+        <v>0</v>
+      </c>
+      <c r="J253">
+        <v>0</v>
+      </c>
+      <c r="K253">
+        <v>0</v>
+      </c>
+      <c r="L253">
+        <v>1</v>
+      </c>
+      <c r="M253">
+        <v>0</v>
+      </c>
+      <c r="N253">
+        <v>1</v>
+      </c>
+      <c r="O253" t="s">
+        <v>246</v>
+      </c>
+      <c r="P253" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q253">
+        <v>2.63</v>
+      </c>
+      <c r="R253">
+        <v>2.3</v>
+      </c>
+      <c r="S253">
+        <v>3.75</v>
+      </c>
+      <c r="T253">
+        <v>1.33</v>
+      </c>
+      <c r="U253">
+        <v>3.25</v>
+      </c>
+      <c r="V253">
+        <v>2.63</v>
+      </c>
+      <c r="W253">
+        <v>1.44</v>
+      </c>
+      <c r="X253">
+        <v>6.5</v>
+      </c>
+      <c r="Y253">
+        <v>1.11</v>
+      </c>
+      <c r="Z253">
+        <v>2.05</v>
+      </c>
+      <c r="AA253">
+        <v>3.4</v>
+      </c>
+      <c r="AB253">
+        <v>3.3</v>
+      </c>
+      <c r="AC253">
+        <v>1.02</v>
+      </c>
+      <c r="AD253">
+        <v>10</v>
+      </c>
+      <c r="AE253">
+        <v>1.18</v>
+      </c>
+      <c r="AF253">
+        <v>3.92</v>
+      </c>
+      <c r="AG253">
+        <v>1.75</v>
+      </c>
+      <c r="AH253">
+        <v>2.05</v>
+      </c>
+      <c r="AI253">
+        <v>1.62</v>
+      </c>
+      <c r="AJ253">
+        <v>2.2</v>
+      </c>
+      <c r="AK253">
+        <v>1.3</v>
+      </c>
+      <c r="AL253">
+        <v>1.3</v>
+      </c>
+      <c r="AM253">
+        <v>1.73</v>
+      </c>
+      <c r="AN253">
+        <v>1.27</v>
+      </c>
+      <c r="AO253">
+        <v>0.8</v>
+      </c>
+      <c r="AP253">
+        <v>1.38</v>
+      </c>
+      <c r="AQ253">
+        <v>0.75</v>
+      </c>
+      <c r="AR253">
+        <v>1.63</v>
+      </c>
+      <c r="AS253">
+        <v>1.28</v>
+      </c>
+      <c r="AT253">
+        <v>2.91</v>
+      </c>
+      <c r="AU253">
+        <v>2</v>
+      </c>
+      <c r="AV253">
+        <v>3</v>
+      </c>
+      <c r="AW253">
+        <v>2</v>
+      </c>
+      <c r="AX253">
+        <v>4</v>
+      </c>
+      <c r="AY253">
+        <v>4</v>
+      </c>
+      <c r="AZ253">
+        <v>7</v>
+      </c>
+      <c r="BA253">
+        <v>3</v>
+      </c>
+      <c r="BB253">
+        <v>6</v>
+      </c>
+      <c r="BC253">
+        <v>9</v>
+      </c>
+      <c r="BD253">
+        <v>1.74</v>
+      </c>
+      <c r="BE253">
+        <v>6.75</v>
+      </c>
+      <c r="BF253">
+        <v>2.3</v>
+      </c>
+      <c r="BG253">
+        <v>1.24</v>
+      </c>
+      <c r="BH253">
+        <v>3.65</v>
+      </c>
+      <c r="BI253">
+        <v>1.41</v>
+      </c>
+      <c r="BJ253">
+        <v>2.65</v>
+      </c>
+      <c r="BK253">
+        <v>1.66</v>
+      </c>
+      <c r="BL253">
+        <v>2.07</v>
+      </c>
+      <c r="BM253">
+        <v>2.02</v>
+      </c>
+      <c r="BN253">
+        <v>1.7</v>
+      </c>
+      <c r="BO253">
+        <v>2.55</v>
+      </c>
+      <c r="BP253">
+        <v>1.45</v>
+      </c>
+    </row>
+    <row r="254" spans="1:68">
+      <c r="A254" s="1">
+        <v>253</v>
+      </c>
+      <c r="B254">
+        <v>7885773</v>
+      </c>
+      <c r="C254" t="s">
+        <v>68</v>
+      </c>
+      <c r="D254" t="s">
+        <v>69</v>
+      </c>
+      <c r="E254" s="2">
+        <v>45781.4375</v>
+      </c>
+      <c r="F254">
+        <v>0</v>
+      </c>
+      <c r="G254" t="s">
+        <v>73</v>
+      </c>
+      <c r="H254" t="s">
+        <v>81</v>
+      </c>
+      <c r="I254">
+        <v>3</v>
+      </c>
+      <c r="J254">
+        <v>0</v>
+      </c>
+      <c r="K254">
+        <v>3</v>
+      </c>
+      <c r="L254">
+        <v>4</v>
+      </c>
+      <c r="M254">
+        <v>1</v>
+      </c>
+      <c r="N254">
+        <v>5</v>
+      </c>
+      <c r="O254" t="s">
+        <v>247</v>
+      </c>
+      <c r="P254" t="s">
+        <v>140</v>
+      </c>
+      <c r="Q254">
+        <v>3.25</v>
+      </c>
+      <c r="R254">
+        <v>2.1</v>
+      </c>
+      <c r="S254">
+        <v>3.2</v>
+      </c>
+      <c r="T254">
+        <v>1.4</v>
+      </c>
+      <c r="U254">
+        <v>2.75</v>
+      </c>
+      <c r="V254">
+        <v>3</v>
+      </c>
+      <c r="W254">
+        <v>1.36</v>
+      </c>
+      <c r="X254">
+        <v>8</v>
+      </c>
+      <c r="Y254">
+        <v>1.08</v>
+      </c>
+      <c r="Z254">
+        <v>2.55</v>
+      </c>
+      <c r="AA254">
+        <v>3.3</v>
+      </c>
+      <c r="AB254">
+        <v>2.45</v>
+      </c>
+      <c r="AC254">
+        <v>0</v>
+      </c>
+      <c r="AD254">
+        <v>0</v>
+      </c>
+      <c r="AE254">
+        <v>0</v>
+      </c>
+      <c r="AF254">
+        <v>0</v>
+      </c>
+      <c r="AG254">
+        <v>1.95</v>
+      </c>
+      <c r="AH254">
+        <v>1.85</v>
+      </c>
+      <c r="AI254">
+        <v>1.8</v>
+      </c>
+      <c r="AJ254">
+        <v>1.95</v>
+      </c>
+      <c r="AK254">
+        <v>0</v>
+      </c>
+      <c r="AL254">
+        <v>0</v>
+      </c>
+      <c r="AM254">
+        <v>0</v>
+      </c>
+      <c r="AN254">
+        <v>1.13</v>
+      </c>
+      <c r="AO254">
+        <v>1.4</v>
+      </c>
+      <c r="AP254">
+        <v>1.19</v>
+      </c>
+      <c r="AQ254">
+        <v>1.35</v>
+      </c>
+      <c r="AR254">
+        <v>1.43</v>
+      </c>
+      <c r="AS254">
+        <v>1.48</v>
+      </c>
+      <c r="AT254">
+        <v>2.91</v>
+      </c>
+      <c r="AU254">
+        <v>6</v>
+      </c>
+      <c r="AV254">
+        <v>8</v>
+      </c>
+      <c r="AW254">
+        <v>5</v>
+      </c>
+      <c r="AX254">
+        <v>13</v>
+      </c>
+      <c r="AY254">
+        <v>11</v>
+      </c>
+      <c r="AZ254">
+        <v>21</v>
+      </c>
+      <c r="BA254">
+        <v>4</v>
+      </c>
+      <c r="BB254">
+        <v>10</v>
+      </c>
+      <c r="BC254">
+        <v>14</v>
+      </c>
+      <c r="BD254">
+        <v>0</v>
+      </c>
+      <c r="BE254">
+        <v>0</v>
+      </c>
+      <c r="BF254">
+        <v>0</v>
+      </c>
+      <c r="BG254">
+        <v>0</v>
+      </c>
+      <c r="BH254">
+        <v>0</v>
+      </c>
+      <c r="BI254">
+        <v>0</v>
+      </c>
+      <c r="BJ254">
+        <v>0</v>
+      </c>
+      <c r="BK254">
+        <v>0</v>
+      </c>
+      <c r="BL254">
+        <v>0</v>
+      </c>
+      <c r="BM254">
+        <v>0</v>
+      </c>
+      <c r="BN254">
+        <v>0</v>
+      </c>
+      <c r="BO254">
+        <v>0</v>
+      </c>
+      <c r="BP254">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="255" spans="1:68">
+      <c r="A255" s="1">
+        <v>254</v>
+      </c>
+      <c r="B255">
+        <v>7885774</v>
+      </c>
+      <c r="C255" t="s">
+        <v>68</v>
+      </c>
+      <c r="D255" t="s">
+        <v>69</v>
+      </c>
+      <c r="E255" s="2">
+        <v>45781.5625</v>
+      </c>
+      <c r="F255">
+        <v>2</v>
+      </c>
+      <c r="G255" t="s">
+        <v>70</v>
+      </c>
+      <c r="H255" t="s">
+        <v>71</v>
+      </c>
+      <c r="I255">
+        <v>0</v>
+      </c>
+      <c r="J255">
+        <v>2</v>
+      </c>
+      <c r="K255">
+        <v>2</v>
+      </c>
+      <c r="L255">
+        <v>1</v>
+      </c>
+      <c r="M255">
+        <v>3</v>
+      </c>
+      <c r="N255">
+        <v>4</v>
+      </c>
+      <c r="O255" t="s">
+        <v>102</v>
+      </c>
+      <c r="P255" t="s">
+        <v>357</v>
+      </c>
+      <c r="Q255">
+        <v>2.1</v>
+      </c>
+      <c r="R255">
+        <v>2.3</v>
+      </c>
+      <c r="S255">
+        <v>6</v>
+      </c>
+      <c r="T255">
+        <v>1.36</v>
+      </c>
+      <c r="U255">
+        <v>3</v>
+      </c>
+      <c r="V255">
+        <v>2.63</v>
+      </c>
+      <c r="W255">
+        <v>1.44</v>
+      </c>
+      <c r="X255">
+        <v>7</v>
+      </c>
+      <c r="Y255">
+        <v>1.1</v>
+      </c>
+      <c r="Z255">
+        <v>1.57</v>
+      </c>
+      <c r="AA255">
+        <v>3.7</v>
+      </c>
+      <c r="AB255">
+        <v>5.25</v>
+      </c>
+      <c r="AC255">
+        <v>1</v>
+      </c>
+      <c r="AD255">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AE255">
+        <v>1.23</v>
+      </c>
+      <c r="AF255">
+        <v>3.44</v>
+      </c>
+      <c r="AG255">
+        <v>1.85</v>
+      </c>
+      <c r="AH255">
+        <v>1.95</v>
+      </c>
+      <c r="AI255">
+        <v>1.91</v>
+      </c>
+      <c r="AJ255">
+        <v>1.91</v>
+      </c>
+      <c r="AK255">
+        <v>1.15</v>
+      </c>
+      <c r="AL255">
+        <v>1.25</v>
+      </c>
+      <c r="AM255">
+        <v>2.3</v>
+      </c>
+      <c r="AN255">
+        <v>2.13</v>
+      </c>
+      <c r="AO255">
+        <v>1.5</v>
+      </c>
+      <c r="AP255">
+        <v>2</v>
+      </c>
+      <c r="AQ255">
+        <v>1.59</v>
+      </c>
+      <c r="AR255">
+        <v>2.06</v>
+      </c>
+      <c r="AS255">
+        <v>1.4</v>
+      </c>
+      <c r="AT255">
+        <v>3.46</v>
+      </c>
+      <c r="AU255">
+        <v>6</v>
+      </c>
+      <c r="AV255">
+        <v>5</v>
+      </c>
+      <c r="AW255">
+        <v>10</v>
+      </c>
+      <c r="AX255">
+        <v>3</v>
+      </c>
+      <c r="AY255">
+        <v>16</v>
+      </c>
+      <c r="AZ255">
+        <v>8</v>
+      </c>
+      <c r="BA255">
+        <v>4</v>
+      </c>
+      <c r="BB255">
+        <v>1</v>
+      </c>
+      <c r="BC255">
+        <v>5</v>
+      </c>
+      <c r="BD255">
+        <v>1.42</v>
+      </c>
+      <c r="BE255">
+        <v>7</v>
+      </c>
+      <c r="BF255">
+        <v>3.15</v>
+      </c>
+      <c r="BG255">
+        <v>1.25</v>
+      </c>
+      <c r="BH255">
+        <v>3.45</v>
+      </c>
+      <c r="BI255">
+        <v>1.45</v>
+      </c>
+      <c r="BJ255">
+        <v>2.55</v>
+      </c>
+      <c r="BK255">
+        <v>1.72</v>
+      </c>
+      <c r="BL255">
+        <v>1.98</v>
+      </c>
+      <c r="BM255">
+        <v>2.1</v>
+      </c>
+      <c r="BN255">
+        <v>1.64</v>
+      </c>
+      <c r="BO255">
+        <v>2.65</v>
+      </c>
+      <c r="BP255">
+        <v>1.41</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Czech Republic First League_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Czech Republic First League_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1592" uniqueCount="358">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1616" uniqueCount="361">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -760,6 +760,12 @@
     <t>['4', '20', '31', '90+3']</t>
   </si>
   <si>
+    <t>['9', '44', '52', '74']</t>
+  </si>
+  <si>
+    <t>['9', '87']</t>
+  </si>
+  <si>
     <t>['25']</t>
   </si>
   <si>
@@ -1088,6 +1094,9 @@
   </si>
   <si>
     <t>['29', '38', '78']</t>
+  </si>
+  <si>
+    <t>['8', '22', '39', '73']</t>
   </si>
 </sst>
 </file>
@@ -1449,7 +1458,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP255"/>
+  <dimension ref="A1:BP259"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1708,7 +1717,7 @@
         <v>86</v>
       </c>
       <c r="P2" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="Q2">
         <v>1.53</v>
@@ -1992,7 +2001,7 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AQ3">
         <v>1.13</v>
@@ -2120,7 +2129,7 @@
         <v>88</v>
       </c>
       <c r="P4" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="Q4">
         <v>2.88</v>
@@ -2201,7 +2210,7 @@
         <v>0.25</v>
       </c>
       <c r="AQ4">
-        <v>1.31</v>
+        <v>1.24</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -2532,7 +2541,7 @@
         <v>90</v>
       </c>
       <c r="P6" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="Q6">
         <v>5.5</v>
@@ -2738,7 +2747,7 @@
         <v>91</v>
       </c>
       <c r="P7" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="Q7">
         <v>3.2</v>
@@ -2816,7 +2825,7 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>1.47</v>
+        <v>1.38</v>
       </c>
       <c r="AQ7">
         <v>1.19</v>
@@ -3562,7 +3571,7 @@
         <v>94</v>
       </c>
       <c r="P11" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="Q11">
         <v>6.5</v>
@@ -3643,7 +3652,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ11">
-        <v>1.88</v>
+        <v>1.76</v>
       </c>
       <c r="AR11">
         <v>0</v>
@@ -3768,7 +3777,7 @@
         <v>88</v>
       </c>
       <c r="P12" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="Q12">
         <v>2.85</v>
@@ -3846,7 +3855,7 @@
         <v>0</v>
       </c>
       <c r="AP12">
-        <v>0.87</v>
+        <v>1</v>
       </c>
       <c r="AQ12">
         <v>1.19</v>
@@ -4055,7 +4064,7 @@
         <v>3</v>
       </c>
       <c r="AQ13">
-        <v>0.13</v>
+        <v>0.12</v>
       </c>
       <c r="AR13">
         <v>0</v>
@@ -4261,7 +4270,7 @@
         <v>1.53</v>
       </c>
       <c r="AQ14">
-        <v>1.31</v>
+        <v>1.24</v>
       </c>
       <c r="AR14">
         <v>0</v>
@@ -4879,7 +4888,7 @@
         <v>2.38</v>
       </c>
       <c r="AQ17">
-        <v>1.13</v>
+        <v>1.25</v>
       </c>
       <c r="AR17">
         <v>0</v>
@@ -5004,7 +5013,7 @@
         <v>88</v>
       </c>
       <c r="P18" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="Q18">
         <v>5.4</v>
@@ -5700,7 +5709,7 @@
         <v>3</v>
       </c>
       <c r="AP21">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AQ21">
         <v>1.88</v>
@@ -6034,7 +6043,7 @@
         <v>102</v>
       </c>
       <c r="P23" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="Q23">
         <v>2.6</v>
@@ -6240,7 +6249,7 @@
         <v>103</v>
       </c>
       <c r="P24" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="Q24">
         <v>2.75</v>
@@ -6446,7 +6455,7 @@
         <v>88</v>
       </c>
       <c r="P25" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="Q25">
         <v>1.06</v>
@@ -6858,7 +6867,7 @@
         <v>105</v>
       </c>
       <c r="P27" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="Q27">
         <v>6.23</v>
@@ -6939,7 +6948,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ27">
-        <v>1.88</v>
+        <v>1.76</v>
       </c>
       <c r="AR27">
         <v>1.73</v>
@@ -7145,7 +7154,7 @@
         <v>3</v>
       </c>
       <c r="AQ28">
-        <v>1.31</v>
+        <v>1.24</v>
       </c>
       <c r="AR28">
         <v>2.4</v>
@@ -7348,7 +7357,7 @@
         <v>0</v>
       </c>
       <c r="AP29">
-        <v>0.87</v>
+        <v>1</v>
       </c>
       <c r="AQ29">
         <v>0.73</v>
@@ -7557,7 +7566,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ30">
-        <v>0.13</v>
+        <v>0.12</v>
       </c>
       <c r="AR30">
         <v>1.76</v>
@@ -7763,7 +7772,7 @@
         <v>2.24</v>
       </c>
       <c r="AQ31">
-        <v>1.13</v>
+        <v>1.25</v>
       </c>
       <c r="AR31">
         <v>1.24</v>
@@ -8300,7 +8309,7 @@
         <v>111</v>
       </c>
       <c r="P34" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="Q34">
         <v>2.84</v>
@@ -8378,7 +8387,7 @@
         <v>0.5</v>
       </c>
       <c r="AP34">
-        <v>1.47</v>
+        <v>1.38</v>
       </c>
       <c r="AQ34">
         <v>1.27</v>
@@ -8506,7 +8515,7 @@
         <v>112</v>
       </c>
       <c r="P35" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="Q35">
         <v>1.45</v>
@@ -8712,7 +8721,7 @@
         <v>113</v>
       </c>
       <c r="P36" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="Q36">
         <v>5.63</v>
@@ -8790,10 +8799,10 @@
         <v>3</v>
       </c>
       <c r="AP36">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AQ36">
-        <v>1.88</v>
+        <v>1.76</v>
       </c>
       <c r="AR36">
         <v>1.54</v>
@@ -8918,7 +8927,7 @@
         <v>114</v>
       </c>
       <c r="P37" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="Q37">
         <v>2.58</v>
@@ -9124,7 +9133,7 @@
         <v>88</v>
       </c>
       <c r="P38" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="Q38">
         <v>4.75</v>
@@ -9742,7 +9751,7 @@
         <v>117</v>
       </c>
       <c r="P41" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="Q41">
         <v>2.4</v>
@@ -9948,7 +9957,7 @@
         <v>108</v>
       </c>
       <c r="P42" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="Q42">
         <v>2.61</v>
@@ -10154,7 +10163,7 @@
         <v>118</v>
       </c>
       <c r="P43" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="Q43">
         <v>1.69</v>
@@ -10438,10 +10447,10 @@
         <v>0</v>
       </c>
       <c r="AP44">
-        <v>0.87</v>
+        <v>1</v>
       </c>
       <c r="AQ44">
-        <v>1.13</v>
+        <v>1.25</v>
       </c>
       <c r="AR44">
         <v>1.16</v>
@@ -10853,7 +10862,7 @@
         <v>1</v>
       </c>
       <c r="AQ46">
-        <v>0.13</v>
+        <v>0.12</v>
       </c>
       <c r="AR46">
         <v>0.97</v>
@@ -11056,7 +11065,7 @@
         <v>0</v>
       </c>
       <c r="AP47">
-        <v>1.47</v>
+        <v>1.38</v>
       </c>
       <c r="AQ47">
         <v>1.8</v>
@@ -11596,7 +11605,7 @@
         <v>88</v>
       </c>
       <c r="P50" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="Q50">
         <v>5.1</v>
@@ -11677,7 +11686,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ50">
-        <v>1.88</v>
+        <v>1.76</v>
       </c>
       <c r="AR50">
         <v>1.24</v>
@@ -11880,7 +11889,7 @@
         <v>0</v>
       </c>
       <c r="AP51">
-        <v>1.47</v>
+        <v>1.38</v>
       </c>
       <c r="AQ51">
         <v>0.75</v>
@@ -12008,7 +12017,7 @@
         <v>122</v>
       </c>
       <c r="P52" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="Q52">
         <v>3</v>
@@ -12420,7 +12429,7 @@
         <v>124</v>
       </c>
       <c r="P54" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="Q54">
         <v>3</v>
@@ -12913,7 +12922,7 @@
         <v>2.38</v>
       </c>
       <c r="AQ56">
-        <v>1.31</v>
+        <v>1.24</v>
       </c>
       <c r="AR56">
         <v>1.85</v>
@@ -13038,7 +13047,7 @@
         <v>88</v>
       </c>
       <c r="P57" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="Q57">
         <v>5.88</v>
@@ -13528,7 +13537,7 @@
         <v>1.75</v>
       </c>
       <c r="AP59">
-        <v>1.47</v>
+        <v>1.38</v>
       </c>
       <c r="AQ59">
         <v>1.59</v>
@@ -13656,7 +13665,7 @@
         <v>128</v>
       </c>
       <c r="P60" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="Q60">
         <v>3.86</v>
@@ -14068,7 +14077,7 @@
         <v>130</v>
       </c>
       <c r="P62" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="Q62">
         <v>1.83</v>
@@ -14480,7 +14489,7 @@
         <v>88</v>
       </c>
       <c r="P64" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="Q64">
         <v>8.77</v>
@@ -14561,7 +14570,7 @@
         <v>0.25</v>
       </c>
       <c r="AQ64">
-        <v>1.88</v>
+        <v>1.76</v>
       </c>
       <c r="AR64">
         <v>1.37</v>
@@ -14686,7 +14695,7 @@
         <v>132</v>
       </c>
       <c r="P65" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="Q65">
         <v>2.4</v>
@@ -14892,7 +14901,7 @@
         <v>133</v>
       </c>
       <c r="P66" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="Q66">
         <v>1.55</v>
@@ -14973,7 +14982,7 @@
         <v>2</v>
       </c>
       <c r="AQ66">
-        <v>1.31</v>
+        <v>1.24</v>
       </c>
       <c r="AR66">
         <v>2.05</v>
@@ -15098,7 +15107,7 @@
         <v>134</v>
       </c>
       <c r="P67" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="Q67">
         <v>4</v>
@@ -15510,7 +15519,7 @@
         <v>88</v>
       </c>
       <c r="P69" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="Q69">
         <v>3.1</v>
@@ -15588,7 +15597,7 @@
         <v>0</v>
       </c>
       <c r="AP69">
-        <v>0.87</v>
+        <v>1</v>
       </c>
       <c r="AQ69">
         <v>0.75</v>
@@ -15794,10 +15803,10 @@
         <v>0</v>
       </c>
       <c r="AP70">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AQ70">
-        <v>1.13</v>
+        <v>1.25</v>
       </c>
       <c r="AR70">
         <v>1.53</v>
@@ -16003,7 +16012,7 @@
         <v>2.24</v>
       </c>
       <c r="AQ71">
-        <v>0.13</v>
+        <v>0.12</v>
       </c>
       <c r="AR71">
         <v>1.82</v>
@@ -16128,7 +16137,7 @@
         <v>124</v>
       </c>
       <c r="P72" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="Q72">
         <v>1.88</v>
@@ -16334,7 +16343,7 @@
         <v>88</v>
       </c>
       <c r="P73" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="Q73">
         <v>7</v>
@@ -16618,10 +16627,10 @@
         <v>0</v>
       </c>
       <c r="AP74">
-        <v>1.47</v>
+        <v>1.38</v>
       </c>
       <c r="AQ74">
-        <v>1.13</v>
+        <v>1.25</v>
       </c>
       <c r="AR74">
         <v>1.81</v>
@@ -16746,7 +16755,7 @@
         <v>88</v>
       </c>
       <c r="P75" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="Q75">
         <v>3.7</v>
@@ -16952,7 +16961,7 @@
         <v>138</v>
       </c>
       <c r="P76" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="Q76">
         <v>2.3</v>
@@ -17158,7 +17167,7 @@
         <v>88</v>
       </c>
       <c r="P77" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="Q77">
         <v>2.47</v>
@@ -17570,7 +17579,7 @@
         <v>140</v>
       </c>
       <c r="P79" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="Q79">
         <v>2.5</v>
@@ -17982,7 +17991,7 @@
         <v>141</v>
       </c>
       <c r="P81" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="Q81">
         <v>2.38</v>
@@ -18063,7 +18072,7 @@
         <v>3</v>
       </c>
       <c r="AQ81">
-        <v>1.88</v>
+        <v>1.76</v>
       </c>
       <c r="AR81">
         <v>2.43</v>
@@ -18188,7 +18197,7 @@
         <v>142</v>
       </c>
       <c r="P82" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="Q82">
         <v>2.8</v>
@@ -18269,7 +18278,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ82">
-        <v>1.31</v>
+        <v>1.24</v>
       </c>
       <c r="AR82">
         <v>1.31</v>
@@ -18394,7 +18403,7 @@
         <v>143</v>
       </c>
       <c r="P83" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="Q83">
         <v>2.6</v>
@@ -18600,7 +18609,7 @@
         <v>144</v>
       </c>
       <c r="P84" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="Q84">
         <v>3.4</v>
@@ -19012,7 +19021,7 @@
         <v>146</v>
       </c>
       <c r="P86" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="Q86">
         <v>2.88</v>
@@ -19218,7 +19227,7 @@
         <v>88</v>
       </c>
       <c r="P87" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="Q87">
         <v>2.6</v>
@@ -19502,10 +19511,10 @@
         <v>0</v>
       </c>
       <c r="AP88">
-        <v>1.47</v>
+        <v>1.38</v>
       </c>
       <c r="AQ88">
-        <v>0.13</v>
+        <v>0.12</v>
       </c>
       <c r="AR88">
         <v>1.73</v>
@@ -19630,7 +19639,7 @@
         <v>93</v>
       </c>
       <c r="P89" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="Q89">
         <v>6.5</v>
@@ -19708,7 +19717,7 @@
         <v>2.5</v>
       </c>
       <c r="AP89">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AQ89">
         <v>2.25</v>
@@ -20042,7 +20051,7 @@
         <v>88</v>
       </c>
       <c r="P91" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="Q91">
         <v>3.8</v>
@@ -20123,7 +20132,7 @@
         <v>0.25</v>
       </c>
       <c r="AQ91">
-        <v>1.13</v>
+        <v>1.25</v>
       </c>
       <c r="AR91">
         <v>1.33</v>
@@ -20248,7 +20257,7 @@
         <v>149</v>
       </c>
       <c r="P92" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="Q92">
         <v>4.7</v>
@@ -20326,7 +20335,7 @@
         <v>1</v>
       </c>
       <c r="AP92">
-        <v>0.87</v>
+        <v>1</v>
       </c>
       <c r="AQ92">
         <v>1.8</v>
@@ -20660,7 +20669,7 @@
         <v>150</v>
       </c>
       <c r="P94" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="Q94">
         <v>3</v>
@@ -21359,7 +21368,7 @@
         <v>2.38</v>
       </c>
       <c r="AQ97">
-        <v>1.88</v>
+        <v>1.76</v>
       </c>
       <c r="AR97">
         <v>1.81</v>
@@ -21768,7 +21777,7 @@
         <v>1.2</v>
       </c>
       <c r="AP99">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AQ99">
         <v>0.75</v>
@@ -21974,10 +21983,10 @@
         <v>1.33</v>
       </c>
       <c r="AP100">
-        <v>1.47</v>
+        <v>1.38</v>
       </c>
       <c r="AQ100">
-        <v>1.31</v>
+        <v>1.24</v>
       </c>
       <c r="AR100">
         <v>1.67</v>
@@ -22102,7 +22111,7 @@
         <v>156</v>
       </c>
       <c r="P101" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="Q101">
         <v>1.83</v>
@@ -23416,7 +23425,7 @@
         <v>1.57</v>
       </c>
       <c r="AP107">
-        <v>0.87</v>
+        <v>1</v>
       </c>
       <c r="AQ107">
         <v>1.59</v>
@@ -23625,7 +23634,7 @@
         <v>1.53</v>
       </c>
       <c r="AQ108">
-        <v>1.13</v>
+        <v>1.25</v>
       </c>
       <c r="AR108">
         <v>1.5</v>
@@ -23750,7 +23759,7 @@
         <v>161</v>
       </c>
       <c r="P109" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="Q109">
         <v>2.24</v>
@@ -23831,7 +23840,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ109">
-        <v>0.13</v>
+        <v>0.12</v>
       </c>
       <c r="AR109">
         <v>1.51</v>
@@ -24162,7 +24171,7 @@
         <v>163</v>
       </c>
       <c r="P111" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="Q111">
         <v>4.6</v>
@@ -24243,7 +24252,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ111">
-        <v>1.88</v>
+        <v>1.76</v>
       </c>
       <c r="AR111">
         <v>1.51</v>
@@ -24574,7 +24583,7 @@
         <v>165</v>
       </c>
       <c r="P113" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="Q113">
         <v>3.25</v>
@@ -24652,7 +24661,7 @@
         <v>1.5</v>
       </c>
       <c r="AP113">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AQ113">
         <v>1.8</v>
@@ -24780,7 +24789,7 @@
         <v>152</v>
       </c>
       <c r="P114" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="Q114">
         <v>2.88</v>
@@ -24986,7 +24995,7 @@
         <v>99</v>
       </c>
       <c r="P115" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="Q115">
         <v>1.73</v>
@@ -25192,7 +25201,7 @@
         <v>88</v>
       </c>
       <c r="P116" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="Q116">
         <v>4.33</v>
@@ -25604,7 +25613,7 @@
         <v>88</v>
       </c>
       <c r="P118" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="Q118">
         <v>15</v>
@@ -25888,7 +25897,7 @@
         <v>0.63</v>
       </c>
       <c r="AP119">
-        <v>1.47</v>
+        <v>1.38</v>
       </c>
       <c r="AQ119">
         <v>0.35</v>
@@ -26016,7 +26025,7 @@
         <v>168</v>
       </c>
       <c r="P120" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="Q120">
         <v>3</v>
@@ -26428,7 +26437,7 @@
         <v>170</v>
       </c>
       <c r="P122" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="Q122">
         <v>3.25</v>
@@ -26634,7 +26643,7 @@
         <v>171</v>
       </c>
       <c r="P123" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="Q123">
         <v>1.83</v>
@@ -26921,7 +26930,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ124">
-        <v>1.31</v>
+        <v>1.24</v>
       </c>
       <c r="AR124">
         <v>1.58</v>
@@ -27046,7 +27055,7 @@
         <v>172</v>
       </c>
       <c r="P125" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="Q125">
         <v>6.3</v>
@@ -27127,7 +27136,7 @@
         <v>1</v>
       </c>
       <c r="AQ125">
-        <v>1.88</v>
+        <v>1.76</v>
       </c>
       <c r="AR125">
         <v>1.21</v>
@@ -27536,10 +27545,10 @@
         <v>0</v>
       </c>
       <c r="AP127">
-        <v>0.87</v>
+        <v>1</v>
       </c>
       <c r="AQ127">
-        <v>0.13</v>
+        <v>0.12</v>
       </c>
       <c r="AR127">
         <v>1.1</v>
@@ -27745,7 +27754,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ128">
-        <v>1.13</v>
+        <v>1.25</v>
       </c>
       <c r="AR128">
         <v>1.5</v>
@@ -27870,7 +27879,7 @@
         <v>174</v>
       </c>
       <c r="P129" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="Q129">
         <v>2.1</v>
@@ -28076,7 +28085,7 @@
         <v>175</v>
       </c>
       <c r="P130" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="Q130">
         <v>1.5</v>
@@ -28360,10 +28369,10 @@
         <v>0.14</v>
       </c>
       <c r="AP131">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AQ131">
-        <v>0.13</v>
+        <v>0.12</v>
       </c>
       <c r="AR131">
         <v>1.63</v>
@@ -28488,7 +28497,7 @@
         <v>177</v>
       </c>
       <c r="P132" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="Q132">
         <v>3.5</v>
@@ -28566,10 +28575,10 @@
         <v>1</v>
       </c>
       <c r="AP132">
-        <v>0.87</v>
+        <v>1</v>
       </c>
       <c r="AQ132">
-        <v>1.31</v>
+        <v>1.24</v>
       </c>
       <c r="AR132">
         <v>1.21</v>
@@ -28694,7 +28703,7 @@
         <v>178</v>
       </c>
       <c r="P133" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="Q133">
         <v>4.04</v>
@@ -28900,7 +28909,7 @@
         <v>88</v>
       </c>
       <c r="P134" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="Q134">
         <v>2.75</v>
@@ -28981,7 +28990,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ134">
-        <v>1.13</v>
+        <v>1.25</v>
       </c>
       <c r="AR134">
         <v>1.51</v>
@@ -29724,7 +29733,7 @@
         <v>91</v>
       </c>
       <c r="P138" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="Q138">
         <v>2.25</v>
@@ -29930,7 +29939,7 @@
         <v>179</v>
       </c>
       <c r="P139" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="Q139">
         <v>1.9</v>
@@ -30008,7 +30017,7 @@
         <v>0.25</v>
       </c>
       <c r="AP139">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AQ139">
         <v>0.75</v>
@@ -30342,7 +30351,7 @@
         <v>88</v>
       </c>
       <c r="P141" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="Q141">
         <v>4</v>
@@ -30548,7 +30557,7 @@
         <v>117</v>
       </c>
       <c r="P142" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="Q142">
         <v>4</v>
@@ -30626,7 +30635,7 @@
         <v>1.75</v>
       </c>
       <c r="AP142">
-        <v>1.47</v>
+        <v>1.38</v>
       </c>
       <c r="AQ142">
         <v>1.88</v>
@@ -30754,7 +30763,7 @@
         <v>181</v>
       </c>
       <c r="P143" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="Q143">
         <v>6</v>
@@ -31166,7 +31175,7 @@
         <v>88</v>
       </c>
       <c r="P145" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="Q145">
         <v>3.5</v>
@@ -31372,7 +31381,7 @@
         <v>183</v>
       </c>
       <c r="P146" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="Q146">
         <v>4.33</v>
@@ -31453,7 +31462,7 @@
         <v>1</v>
       </c>
       <c r="AQ146">
-        <v>1.13</v>
+        <v>1.25</v>
       </c>
       <c r="AR146">
         <v>1.22</v>
@@ -31578,7 +31587,7 @@
         <v>184</v>
       </c>
       <c r="P147" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="Q147">
         <v>3.8</v>
@@ -31656,7 +31665,7 @@
         <v>1.11</v>
       </c>
       <c r="AP147">
-        <v>0.87</v>
+        <v>1</v>
       </c>
       <c r="AQ147">
         <v>1.19</v>
@@ -31784,7 +31793,7 @@
         <v>185</v>
       </c>
       <c r="P148" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="Q148">
         <v>2.5</v>
@@ -31990,7 +31999,7 @@
         <v>186</v>
       </c>
       <c r="P149" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="Q149">
         <v>2.05</v>
@@ -32402,7 +32411,7 @@
         <v>188</v>
       </c>
       <c r="P151" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="Q151">
         <v>2.48</v>
@@ -32483,7 +32492,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ151">
-        <v>1.31</v>
+        <v>1.24</v>
       </c>
       <c r="AR151">
         <v>1.53</v>
@@ -32814,7 +32823,7 @@
         <v>190</v>
       </c>
       <c r="P153" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="Q153">
         <v>1.4</v>
@@ -32895,7 +32904,7 @@
         <v>2.38</v>
       </c>
       <c r="AQ153">
-        <v>0.13</v>
+        <v>0.12</v>
       </c>
       <c r="AR153">
         <v>1.75</v>
@@ -33098,7 +33107,7 @@
         <v>0.89</v>
       </c>
       <c r="AP154">
-        <v>1.47</v>
+        <v>1.38</v>
       </c>
       <c r="AQ154">
         <v>0.75</v>
@@ -33226,7 +33235,7 @@
         <v>88</v>
       </c>
       <c r="P155" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="Q155">
         <v>3.2</v>
@@ -33844,7 +33853,7 @@
         <v>88</v>
       </c>
       <c r="P158" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="Q158">
         <v>5</v>
@@ -33925,7 +33934,7 @@
         <v>1.35</v>
       </c>
       <c r="AQ158">
-        <v>1.88</v>
+        <v>1.76</v>
       </c>
       <c r="AR158">
         <v>1.21</v>
@@ -34050,7 +34059,7 @@
         <v>88</v>
       </c>
       <c r="P159" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="Q159">
         <v>2.38</v>
@@ -34128,7 +34137,7 @@
         <v>1.33</v>
       </c>
       <c r="AP159">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AQ159">
         <v>1.27</v>
@@ -34462,7 +34471,7 @@
         <v>193</v>
       </c>
       <c r="P161" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="Q161">
         <v>4.75</v>
@@ -34668,7 +34677,7 @@
         <v>194</v>
       </c>
       <c r="P162" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="Q162">
         <v>2.63</v>
@@ -34874,7 +34883,7 @@
         <v>88</v>
       </c>
       <c r="P163" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="Q163">
         <v>11</v>
@@ -34952,7 +34961,7 @@
         <v>2.3</v>
       </c>
       <c r="AP163">
-        <v>0.87</v>
+        <v>1</v>
       </c>
       <c r="AQ163">
         <v>2.25</v>
@@ -35080,7 +35089,7 @@
         <v>195</v>
       </c>
       <c r="P164" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="Q164">
         <v>2</v>
@@ -35286,7 +35295,7 @@
         <v>196</v>
       </c>
       <c r="P165" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="Q165">
         <v>2.5</v>
@@ -35364,7 +35373,7 @@
         <v>1.1</v>
       </c>
       <c r="AP165">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AQ165">
         <v>0.73</v>
@@ -35573,7 +35582,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ166">
-        <v>0.13</v>
+        <v>0.12</v>
       </c>
       <c r="AR166">
         <v>1.6</v>
@@ -35779,7 +35788,7 @@
         <v>2.24</v>
       </c>
       <c r="AQ167">
-        <v>1.31</v>
+        <v>1.24</v>
       </c>
       <c r="AR167">
         <v>1.9</v>
@@ -35985,7 +35994,7 @@
         <v>2</v>
       </c>
       <c r="AQ168">
-        <v>1.13</v>
+        <v>1.25</v>
       </c>
       <c r="AR168">
         <v>1.96</v>
@@ -36522,7 +36531,7 @@
         <v>201</v>
       </c>
       <c r="P171" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="Q171">
         <v>5.2</v>
@@ -36728,7 +36737,7 @@
         <v>202</v>
       </c>
       <c r="P172" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="Q172">
         <v>6.35</v>
@@ -36806,10 +36815,10 @@
         <v>2</v>
       </c>
       <c r="AP172">
-        <v>1.47</v>
+        <v>1.38</v>
       </c>
       <c r="AQ172">
-        <v>1.88</v>
+        <v>1.76</v>
       </c>
       <c r="AR172">
         <v>1.5</v>
@@ -36934,7 +36943,7 @@
         <v>203</v>
       </c>
       <c r="P173" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="Q173">
         <v>2.6</v>
@@ -37140,7 +37149,7 @@
         <v>204</v>
       </c>
       <c r="P174" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="Q174">
         <v>2.66</v>
@@ -37346,7 +37355,7 @@
         <v>88</v>
       </c>
       <c r="P175" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="Q175">
         <v>4.86</v>
@@ -37758,7 +37767,7 @@
         <v>172</v>
       </c>
       <c r="P177" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="Q177">
         <v>3.63</v>
@@ -37839,7 +37848,7 @@
         <v>1</v>
       </c>
       <c r="AQ177">
-        <v>1.31</v>
+        <v>1.24</v>
       </c>
       <c r="AR177">
         <v>1.28</v>
@@ -37964,7 +37973,7 @@
         <v>88</v>
       </c>
       <c r="P178" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="Q178">
         <v>3.92</v>
@@ -38042,7 +38051,7 @@
         <v>1.09</v>
       </c>
       <c r="AP178">
-        <v>0.87</v>
+        <v>1</v>
       </c>
       <c r="AQ178">
         <v>1.13</v>
@@ -38457,7 +38466,7 @@
         <v>2</v>
       </c>
       <c r="AQ180">
-        <v>0.13</v>
+        <v>0.12</v>
       </c>
       <c r="AR180">
         <v>2.04</v>
@@ -38866,7 +38875,7 @@
         <v>0.89</v>
       </c>
       <c r="AP182">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AQ182">
         <v>1.19</v>
@@ -38994,7 +39003,7 @@
         <v>208</v>
       </c>
       <c r="P183" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="Q183">
         <v>4.3</v>
@@ -39200,7 +39209,7 @@
         <v>88</v>
       </c>
       <c r="P184" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="Q184">
         <v>5.8</v>
@@ -39406,7 +39415,7 @@
         <v>96</v>
       </c>
       <c r="P185" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="Q185">
         <v>4.7</v>
@@ -39487,7 +39496,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ185">
-        <v>1.88</v>
+        <v>1.76</v>
       </c>
       <c r="AR185">
         <v>1.58</v>
@@ -40230,7 +40239,7 @@
         <v>88</v>
       </c>
       <c r="P189" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="Q189">
         <v>4.5</v>
@@ -40514,7 +40523,7 @@
         <v>1</v>
       </c>
       <c r="AP190">
-        <v>1.47</v>
+        <v>1.38</v>
       </c>
       <c r="AQ190">
         <v>0.73</v>
@@ -41135,7 +41144,7 @@
         <v>1.35</v>
       </c>
       <c r="AQ193">
-        <v>0.13</v>
+        <v>0.12</v>
       </c>
       <c r="AR193">
         <v>1.2</v>
@@ -41338,7 +41347,7 @@
         <v>1</v>
       </c>
       <c r="AP194">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AQ194">
         <v>1.19</v>
@@ -41672,7 +41681,7 @@
         <v>215</v>
       </c>
       <c r="P196" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="Q196">
         <v>1.95</v>
@@ -41878,7 +41887,7 @@
         <v>88</v>
       </c>
       <c r="P197" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="Q197">
         <v>2.88</v>
@@ -41959,7 +41968,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ197">
-        <v>1.31</v>
+        <v>1.24</v>
       </c>
       <c r="AR197">
         <v>1.61</v>
@@ -42368,7 +42377,7 @@
         <v>1.92</v>
       </c>
       <c r="AP199">
-        <v>0.87</v>
+        <v>1</v>
       </c>
       <c r="AQ199">
         <v>1.88</v>
@@ -42702,7 +42711,7 @@
         <v>158</v>
       </c>
       <c r="P201" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="Q201">
         <v>2.63</v>
@@ -42908,7 +42917,7 @@
         <v>88</v>
       </c>
       <c r="P202" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="Q202">
         <v>2.75</v>
@@ -42986,7 +42995,7 @@
         <v>0.42</v>
       </c>
       <c r="AP202">
-        <v>0.87</v>
+        <v>1</v>
       </c>
       <c r="AQ202">
         <v>0.75</v>
@@ -43401,7 +43410,7 @@
         <v>1.53</v>
       </c>
       <c r="AQ204">
-        <v>1.88</v>
+        <v>1.76</v>
       </c>
       <c r="AR204">
         <v>1.49</v>
@@ -43526,7 +43535,7 @@
         <v>218</v>
       </c>
       <c r="P205" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="Q205">
         <v>2.88</v>
@@ -43607,7 +43616,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ205">
-        <v>1.13</v>
+        <v>1.25</v>
       </c>
       <c r="AR205">
         <v>1.56</v>
@@ -43732,7 +43741,7 @@
         <v>88</v>
       </c>
       <c r="P206" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="Q206">
         <v>2.38</v>
@@ -43938,7 +43947,7 @@
         <v>219</v>
       </c>
       <c r="P207" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="Q207">
         <v>4.75</v>
@@ -44428,10 +44437,10 @@
         <v>1.38</v>
       </c>
       <c r="AP209">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AQ209">
-        <v>1.31</v>
+        <v>1.24</v>
       </c>
       <c r="AR209">
         <v>1.67</v>
@@ -44762,7 +44771,7 @@
         <v>221</v>
       </c>
       <c r="P211" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="Q211">
         <v>1.57</v>
@@ -45174,7 +45183,7 @@
         <v>88</v>
       </c>
       <c r="P213" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="Q213">
         <v>3.5</v>
@@ -45461,7 +45470,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ214">
-        <v>0.13</v>
+        <v>0.12</v>
       </c>
       <c r="AR214">
         <v>1.53</v>
@@ -45664,7 +45673,7 @@
         <v>1.15</v>
       </c>
       <c r="AP215">
-        <v>1.47</v>
+        <v>1.38</v>
       </c>
       <c r="AQ215">
         <v>1.13</v>
@@ -45792,7 +45801,7 @@
         <v>224</v>
       </c>
       <c r="P216" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="Q216">
         <v>2.75</v>
@@ -46076,7 +46085,7 @@
         <v>1.46</v>
       </c>
       <c r="AP217">
-        <v>0.87</v>
+        <v>1</v>
       </c>
       <c r="AQ217">
         <v>1.27</v>
@@ -46204,7 +46213,7 @@
         <v>124</v>
       </c>
       <c r="P218" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="Q218">
         <v>2.4</v>
@@ -46410,7 +46419,7 @@
         <v>226</v>
       </c>
       <c r="P219" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="Q219">
         <v>3</v>
@@ -46491,7 +46500,7 @@
         <v>2.24</v>
       </c>
       <c r="AQ219">
-        <v>1.88</v>
+        <v>1.76</v>
       </c>
       <c r="AR219">
         <v>1.85</v>
@@ -46697,7 +46706,7 @@
         <v>1.53</v>
       </c>
       <c r="AQ220">
-        <v>0.13</v>
+        <v>0.12</v>
       </c>
       <c r="AR220">
         <v>1.48</v>
@@ -46822,7 +46831,7 @@
         <v>228</v>
       </c>
       <c r="P221" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="Q221">
         <v>1.67</v>
@@ -46903,7 +46912,7 @@
         <v>3</v>
       </c>
       <c r="AQ221">
-        <v>1.13</v>
+        <v>1.25</v>
       </c>
       <c r="AR221">
         <v>2.26</v>
@@ -47234,7 +47243,7 @@
         <v>88</v>
       </c>
       <c r="P223" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="Q223">
         <v>2.3</v>
@@ -47646,7 +47655,7 @@
         <v>218</v>
       </c>
       <c r="P225" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="Q225">
         <v>3.3</v>
@@ -47727,7 +47736,7 @@
         <v>1.35</v>
       </c>
       <c r="AQ225">
-        <v>1.13</v>
+        <v>1.25</v>
       </c>
       <c r="AR225">
         <v>1.23</v>
@@ -47852,7 +47861,7 @@
         <v>88</v>
       </c>
       <c r="P226" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="Q226">
         <v>7.5</v>
@@ -47930,7 +47939,7 @@
         <v>2.14</v>
       </c>
       <c r="AP226">
-        <v>1.47</v>
+        <v>1.38</v>
       </c>
       <c r="AQ226">
         <v>2.25</v>
@@ -48058,7 +48067,7 @@
         <v>152</v>
       </c>
       <c r="P227" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="Q227">
         <v>5.5</v>
@@ -48264,7 +48273,7 @@
         <v>230</v>
       </c>
       <c r="P228" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="Q228">
         <v>5</v>
@@ -48548,7 +48557,7 @@
         <v>0.43</v>
       </c>
       <c r="AP229">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AQ229">
         <v>0.35</v>
@@ -48882,7 +48891,7 @@
         <v>232</v>
       </c>
       <c r="P231" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="Q231">
         <v>3.6</v>
@@ -48963,7 +48972,7 @@
         <v>1.35</v>
       </c>
       <c r="AQ231">
-        <v>1.31</v>
+        <v>1.24</v>
       </c>
       <c r="AR231">
         <v>1.27</v>
@@ -49088,7 +49097,7 @@
         <v>88</v>
       </c>
       <c r="P232" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="Q232">
         <v>3</v>
@@ -49294,7 +49303,7 @@
         <v>233</v>
       </c>
       <c r="P233" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="Q233">
         <v>4.5</v>
@@ -49500,7 +49509,7 @@
         <v>234</v>
       </c>
       <c r="P234" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="Q234">
         <v>2.3</v>
@@ -49993,7 +50002,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ236">
-        <v>0.13</v>
+        <v>0.12</v>
       </c>
       <c r="AR236">
         <v>1.57</v>
@@ -50405,7 +50414,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ238">
-        <v>1.13</v>
+        <v>1.25</v>
       </c>
       <c r="AR238">
         <v>1.41</v>
@@ -50736,7 +50745,7 @@
         <v>158</v>
       </c>
       <c r="P240" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="Q240">
         <v>8</v>
@@ -50814,10 +50823,10 @@
         <v>1.93</v>
       </c>
       <c r="AP240">
-        <v>0.87</v>
+        <v>1</v>
       </c>
       <c r="AQ240">
-        <v>1.88</v>
+        <v>1.76</v>
       </c>
       <c r="AR240">
         <v>1.23</v>
@@ -50942,7 +50951,7 @@
         <v>238</v>
       </c>
       <c r="P241" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="Q241">
         <v>1.67</v>
@@ -51148,7 +51157,7 @@
         <v>239</v>
       </c>
       <c r="P242" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="Q242">
         <v>3.9</v>
@@ -51560,7 +51569,7 @@
         <v>88</v>
       </c>
       <c r="P244" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="Q244">
         <v>6.5</v>
@@ -51766,7 +51775,7 @@
         <v>241</v>
       </c>
       <c r="P245" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="Q245">
         <v>2.5</v>
@@ -51972,7 +51981,7 @@
         <v>242</v>
       </c>
       <c r="P246" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="Q246">
         <v>2</v>
@@ -52259,7 +52268,7 @@
         <v>2.38</v>
       </c>
       <c r="AQ247">
-        <v>1.88</v>
+        <v>1.76</v>
       </c>
       <c r="AR247">
         <v>1.76</v>
@@ -52668,10 +52677,10 @@
         <v>1.37</v>
       </c>
       <c r="AP249">
-        <v>1.39</v>
+        <v>1.44</v>
       </c>
       <c r="AQ249">
-        <v>1.32</v>
+        <v>1.28</v>
       </c>
       <c r="AR249">
         <v>1.45</v>
@@ -52796,7 +52805,7 @@
         <v>245</v>
       </c>
       <c r="P250" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="Q250">
         <v>2.25</v>
@@ -53083,7 +53092,7 @@
         <v>2.24</v>
       </c>
       <c r="AQ251">
-        <v>1.31</v>
+        <v>1.24</v>
       </c>
       <c r="AR251">
         <v>1.76</v>
@@ -53289,7 +53298,7 @@
         <v>1.35</v>
       </c>
       <c r="AQ252">
-        <v>0.13</v>
+        <v>0.12</v>
       </c>
       <c r="AR252">
         <v>1.27</v>
@@ -53826,7 +53835,7 @@
         <v>102</v>
       </c>
       <c r="P255" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="Q255">
         <v>2.1</v>
@@ -53983,6 +53992,830 @@
       </c>
       <c r="BP255">
         <v>1.41</v>
+      </c>
+    </row>
+    <row r="256" spans="1:68">
+      <c r="A256" s="1">
+        <v>255</v>
+      </c>
+      <c r="B256">
+        <v>7885775</v>
+      </c>
+      <c r="C256" t="s">
+        <v>68</v>
+      </c>
+      <c r="D256" t="s">
+        <v>69</v>
+      </c>
+      <c r="E256" s="2">
+        <v>45787.35416666666</v>
+      </c>
+      <c r="F256">
+        <v>3</v>
+      </c>
+      <c r="G256" t="s">
+        <v>79</v>
+      </c>
+      <c r="H256" t="s">
+        <v>72</v>
+      </c>
+      <c r="I256">
+        <v>0</v>
+      </c>
+      <c r="J256">
+        <v>0</v>
+      </c>
+      <c r="K256">
+        <v>0</v>
+      </c>
+      <c r="L256">
+        <v>1</v>
+      </c>
+      <c r="M256">
+        <v>0</v>
+      </c>
+      <c r="N256">
+        <v>1</v>
+      </c>
+      <c r="O256" t="s">
+        <v>180</v>
+      </c>
+      <c r="P256" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q256">
+        <v>2.2</v>
+      </c>
+      <c r="R256">
+        <v>2.3</v>
+      </c>
+      <c r="S256">
+        <v>5</v>
+      </c>
+      <c r="T256">
+        <v>1.33</v>
+      </c>
+      <c r="U256">
+        <v>3.25</v>
+      </c>
+      <c r="V256">
+        <v>2.63</v>
+      </c>
+      <c r="W256">
+        <v>1.44</v>
+      </c>
+      <c r="X256">
+        <v>6.5</v>
+      </c>
+      <c r="Y256">
+        <v>1.11</v>
+      </c>
+      <c r="Z256">
+        <v>1.67</v>
+      </c>
+      <c r="AA256">
+        <v>3.9</v>
+      </c>
+      <c r="AB256">
+        <v>4.75</v>
+      </c>
+      <c r="AC256">
+        <v>1.04</v>
+      </c>
+      <c r="AD256">
+        <v>9</v>
+      </c>
+      <c r="AE256">
+        <v>1.25</v>
+      </c>
+      <c r="AF256">
+        <v>3.65</v>
+      </c>
+      <c r="AG256">
+        <v>1.8</v>
+      </c>
+      <c r="AH256">
+        <v>2</v>
+      </c>
+      <c r="AI256">
+        <v>1.8</v>
+      </c>
+      <c r="AJ256">
+        <v>1.95</v>
+      </c>
+      <c r="AK256">
+        <v>1.19</v>
+      </c>
+      <c r="AL256">
+        <v>1.25</v>
+      </c>
+      <c r="AM256">
+        <v>2.1</v>
+      </c>
+      <c r="AN256">
+        <v>0.87</v>
+      </c>
+      <c r="AO256">
+        <v>0.13</v>
+      </c>
+      <c r="AP256">
+        <v>1</v>
+      </c>
+      <c r="AQ256">
+        <v>0.12</v>
+      </c>
+      <c r="AR256">
+        <v>1.23</v>
+      </c>
+      <c r="AS256">
+        <v>0.96</v>
+      </c>
+      <c r="AT256">
+        <v>2.19</v>
+      </c>
+      <c r="AU256">
+        <v>3</v>
+      </c>
+      <c r="AV256">
+        <v>2</v>
+      </c>
+      <c r="AW256">
+        <v>7</v>
+      </c>
+      <c r="AX256">
+        <v>7</v>
+      </c>
+      <c r="AY256">
+        <v>10</v>
+      </c>
+      <c r="AZ256">
+        <v>9</v>
+      </c>
+      <c r="BA256">
+        <v>5</v>
+      </c>
+      <c r="BB256">
+        <v>2</v>
+      </c>
+      <c r="BC256">
+        <v>7</v>
+      </c>
+      <c r="BD256">
+        <v>1.65</v>
+      </c>
+      <c r="BE256">
+        <v>7</v>
+      </c>
+      <c r="BF256">
+        <v>2.45</v>
+      </c>
+      <c r="BG256">
+        <v>1.2</v>
+      </c>
+      <c r="BH256">
+        <v>3.95</v>
+      </c>
+      <c r="BI256">
+        <v>1.34</v>
+      </c>
+      <c r="BJ256">
+        <v>2.9</v>
+      </c>
+      <c r="BK256">
+        <v>1.56</v>
+      </c>
+      <c r="BL256">
+        <v>2.23</v>
+      </c>
+      <c r="BM256">
+        <v>1.89</v>
+      </c>
+      <c r="BN256">
+        <v>1.8</v>
+      </c>
+      <c r="BO256">
+        <v>2.33</v>
+      </c>
+      <c r="BP256">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="257" spans="1:68">
+      <c r="A257" s="1">
+        <v>256</v>
+      </c>
+      <c r="B257">
+        <v>7885782</v>
+      </c>
+      <c r="C257" t="s">
+        <v>68</v>
+      </c>
+      <c r="D257" t="s">
+        <v>69</v>
+      </c>
+      <c r="E257" s="2">
+        <v>45787.45833333334</v>
+      </c>
+      <c r="F257">
+        <v>3</v>
+      </c>
+      <c r="G257" t="s">
+        <v>71</v>
+      </c>
+      <c r="H257" t="s">
+        <v>85</v>
+      </c>
+      <c r="I257">
+        <v>2</v>
+      </c>
+      <c r="J257">
+        <v>0</v>
+      </c>
+      <c r="K257">
+        <v>2</v>
+      </c>
+      <c r="L257">
+        <v>4</v>
+      </c>
+      <c r="M257">
+        <v>0</v>
+      </c>
+      <c r="N257">
+        <v>4</v>
+      </c>
+      <c r="O257" t="s">
+        <v>248</v>
+      </c>
+      <c r="P257" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q257">
+        <v>2</v>
+      </c>
+      <c r="R257">
+        <v>2.2</v>
+      </c>
+      <c r="S257">
+        <v>6</v>
+      </c>
+      <c r="T257">
+        <v>1.38</v>
+      </c>
+      <c r="U257">
+        <v>2.8</v>
+      </c>
+      <c r="V257">
+        <v>2.7</v>
+      </c>
+      <c r="W257">
+        <v>1.4</v>
+      </c>
+      <c r="X257">
+        <v>6.75</v>
+      </c>
+      <c r="Y257">
+        <v>1.09</v>
+      </c>
+      <c r="Z257">
+        <v>1.41</v>
+      </c>
+      <c r="AA257">
+        <v>4.22</v>
+      </c>
+      <c r="AB257">
+        <v>7.17</v>
+      </c>
+      <c r="AC257">
+        <v>1.05</v>
+      </c>
+      <c r="AD257">
+        <v>8.5</v>
+      </c>
+      <c r="AE257">
+        <v>1.3</v>
+      </c>
+      <c r="AF257">
+        <v>3.35</v>
+      </c>
+      <c r="AG257">
+        <v>1.91</v>
+      </c>
+      <c r="AH257">
+        <v>1.91</v>
+      </c>
+      <c r="AI257">
+        <v>2.05</v>
+      </c>
+      <c r="AJ257">
+        <v>1.66</v>
+      </c>
+      <c r="AK257">
+        <v>1.11</v>
+      </c>
+      <c r="AL257">
+        <v>1.22</v>
+      </c>
+      <c r="AM257">
+        <v>2.55</v>
+      </c>
+      <c r="AN257">
+        <v>2</v>
+      </c>
+      <c r="AO257">
+        <v>1.31</v>
+      </c>
+      <c r="AP257">
+        <v>2.06</v>
+      </c>
+      <c r="AQ257">
+        <v>1.24</v>
+      </c>
+      <c r="AR257">
+        <v>1.63</v>
+      </c>
+      <c r="AS257">
+        <v>1.21</v>
+      </c>
+      <c r="AT257">
+        <v>2.84</v>
+      </c>
+      <c r="AU257">
+        <v>10</v>
+      </c>
+      <c r="AV257">
+        <v>3</v>
+      </c>
+      <c r="AW257">
+        <v>4</v>
+      </c>
+      <c r="AX257">
+        <v>1</v>
+      </c>
+      <c r="AY257">
+        <v>15</v>
+      </c>
+      <c r="AZ257">
+        <v>4</v>
+      </c>
+      <c r="BA257">
+        <v>6</v>
+      </c>
+      <c r="BB257">
+        <v>2</v>
+      </c>
+      <c r="BC257">
+        <v>8</v>
+      </c>
+      <c r="BD257">
+        <v>1.3</v>
+      </c>
+      <c r="BE257">
+        <v>7.5</v>
+      </c>
+      <c r="BF257">
+        <v>3.9</v>
+      </c>
+      <c r="BG257">
+        <v>1.24</v>
+      </c>
+      <c r="BH257">
+        <v>3.55</v>
+      </c>
+      <c r="BI257">
+        <v>1.41</v>
+      </c>
+      <c r="BJ257">
+        <v>2.65</v>
+      </c>
+      <c r="BK257">
+        <v>1.67</v>
+      </c>
+      <c r="BL257">
+        <v>2.07</v>
+      </c>
+      <c r="BM257">
+        <v>2.02</v>
+      </c>
+      <c r="BN257">
+        <v>1.68</v>
+      </c>
+      <c r="BO257">
+        <v>2.55</v>
+      </c>
+      <c r="BP257">
+        <v>1.45</v>
+      </c>
+    </row>
+    <row r="258" spans="1:68">
+      <c r="A258" s="1">
+        <v>257</v>
+      </c>
+      <c r="B258">
+        <v>7885781</v>
+      </c>
+      <c r="C258" t="s">
+        <v>68</v>
+      </c>
+      <c r="D258" t="s">
+        <v>69</v>
+      </c>
+      <c r="E258" s="2">
+        <v>45787.45833333334</v>
+      </c>
+      <c r="F258">
+        <v>0</v>
+      </c>
+      <c r="G258" t="s">
+        <v>75</v>
+      </c>
+      <c r="H258" t="s">
+        <v>77</v>
+      </c>
+      <c r="I258">
+        <v>0</v>
+      </c>
+      <c r="J258">
+        <v>3</v>
+      </c>
+      <c r="K258">
+        <v>3</v>
+      </c>
+      <c r="L258">
+        <v>0</v>
+      </c>
+      <c r="M258">
+        <v>4</v>
+      </c>
+      <c r="N258">
+        <v>4</v>
+      </c>
+      <c r="O258" t="s">
+        <v>88</v>
+      </c>
+      <c r="P258" t="s">
+        <v>360</v>
+      </c>
+      <c r="Q258">
+        <v>2.88</v>
+      </c>
+      <c r="R258">
+        <v>2.2</v>
+      </c>
+      <c r="S258">
+        <v>3.6</v>
+      </c>
+      <c r="T258">
+        <v>1.36</v>
+      </c>
+      <c r="U258">
+        <v>3</v>
+      </c>
+      <c r="V258">
+        <v>2.75</v>
+      </c>
+      <c r="W258">
+        <v>1.4</v>
+      </c>
+      <c r="X258">
+        <v>7</v>
+      </c>
+      <c r="Y258">
+        <v>1.1</v>
+      </c>
+      <c r="Z258">
+        <v>2.25</v>
+      </c>
+      <c r="AA258">
+        <v>3.5</v>
+      </c>
+      <c r="AB258">
+        <v>3.1</v>
+      </c>
+      <c r="AC258">
+        <v>1.05</v>
+      </c>
+      <c r="AD258">
+        <v>8.5</v>
+      </c>
+      <c r="AE258">
+        <v>1.28</v>
+      </c>
+      <c r="AF258">
+        <v>3.45</v>
+      </c>
+      <c r="AG258">
+        <v>1.9</v>
+      </c>
+      <c r="AH258">
+        <v>1.9</v>
+      </c>
+      <c r="AI258">
+        <v>1.7</v>
+      </c>
+      <c r="AJ258">
+        <v>2.05</v>
+      </c>
+      <c r="AK258">
+        <v>1.36</v>
+      </c>
+      <c r="AL258">
+        <v>1.29</v>
+      </c>
+      <c r="AM258">
+        <v>1.62</v>
+      </c>
+      <c r="AN258">
+        <v>1.32</v>
+      </c>
+      <c r="AO258">
+        <v>1.39</v>
+      </c>
+      <c r="AP258">
+        <v>1.28</v>
+      </c>
+      <c r="AQ258">
+        <v>1.44</v>
+      </c>
+      <c r="AR258">
+        <v>1.44</v>
+      </c>
+      <c r="AS258">
+        <v>1.45</v>
+      </c>
+      <c r="AT258">
+        <v>2.89</v>
+      </c>
+      <c r="AU258">
+        <v>3</v>
+      </c>
+      <c r="AV258">
+        <v>11</v>
+      </c>
+      <c r="AW258">
+        <v>0</v>
+      </c>
+      <c r="AX258">
+        <v>4</v>
+      </c>
+      <c r="AY258">
+        <v>3</v>
+      </c>
+      <c r="AZ258">
+        <v>15</v>
+      </c>
+      <c r="BA258">
+        <v>3</v>
+      </c>
+      <c r="BB258">
+        <v>5</v>
+      </c>
+      <c r="BC258">
+        <v>8</v>
+      </c>
+      <c r="BD258">
+        <v>1.86</v>
+      </c>
+      <c r="BE258">
+        <v>6.5</v>
+      </c>
+      <c r="BF258">
+        <v>2.12</v>
+      </c>
+      <c r="BG258">
+        <v>1.28</v>
+      </c>
+      <c r="BH258">
+        <v>3.2</v>
+      </c>
+      <c r="BI258">
+        <v>1.49</v>
+      </c>
+      <c r="BJ258">
+        <v>2.4</v>
+      </c>
+      <c r="BK258">
+        <v>1.79</v>
+      </c>
+      <c r="BL258">
+        <v>1.9</v>
+      </c>
+      <c r="BM258">
+        <v>2.23</v>
+      </c>
+      <c r="BN258">
+        <v>1.56</v>
+      </c>
+      <c r="BO258">
+        <v>2.9</v>
+      </c>
+      <c r="BP258">
+        <v>1.34</v>
+      </c>
+    </row>
+    <row r="259" spans="1:68">
+      <c r="A259" s="1">
+        <v>258</v>
+      </c>
+      <c r="B259">
+        <v>7885778</v>
+      </c>
+      <c r="C259" t="s">
+        <v>68</v>
+      </c>
+      <c r="D259" t="s">
+        <v>69</v>
+      </c>
+      <c r="E259" s="2">
+        <v>45787.58333333334</v>
+      </c>
+      <c r="F259">
+        <v>3</v>
+      </c>
+      <c r="G259" t="s">
+        <v>80</v>
+      </c>
+      <c r="H259" t="s">
+        <v>70</v>
+      </c>
+      <c r="I259">
+        <v>1</v>
+      </c>
+      <c r="J259">
+        <v>0</v>
+      </c>
+      <c r="K259">
+        <v>1</v>
+      </c>
+      <c r="L259">
+        <v>2</v>
+      </c>
+      <c r="M259">
+        <v>1</v>
+      </c>
+      <c r="N259">
+        <v>3</v>
+      </c>
+      <c r="O259" t="s">
+        <v>249</v>
+      </c>
+      <c r="P259" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q259">
+        <v>2.25</v>
+      </c>
+      <c r="R259">
+        <v>2.25</v>
+      </c>
+      <c r="S259">
+        <v>5</v>
+      </c>
+      <c r="T259">
+        <v>1.36</v>
+      </c>
+      <c r="U259">
+        <v>3</v>
+      </c>
+      <c r="V259">
+        <v>2.63</v>
+      </c>
+      <c r="W259">
+        <v>1.44</v>
+      </c>
+      <c r="X259">
+        <v>7</v>
+      </c>
+      <c r="Y259">
+        <v>1.1</v>
+      </c>
+      <c r="Z259">
+        <v>1.7</v>
+      </c>
+      <c r="AA259">
+        <v>4.2</v>
+      </c>
+      <c r="AB259">
+        <v>4.2</v>
+      </c>
+      <c r="AC259">
+        <v>1.04</v>
+      </c>
+      <c r="AD259">
+        <v>9</v>
+      </c>
+      <c r="AE259">
+        <v>1.28</v>
+      </c>
+      <c r="AF259">
+        <v>3.55</v>
+      </c>
+      <c r="AG259">
+        <v>1.85</v>
+      </c>
+      <c r="AH259">
+        <v>1.95</v>
+      </c>
+      <c r="AI259">
+        <v>1.91</v>
+      </c>
+      <c r="AJ259">
+        <v>1.91</v>
+      </c>
+      <c r="AK259">
+        <v>1.21</v>
+      </c>
+      <c r="AL259">
+        <v>1.26</v>
+      </c>
+      <c r="AM259">
+        <v>2</v>
+      </c>
+      <c r="AN259">
+        <v>3</v>
+      </c>
+      <c r="AO259">
+        <v>1.88</v>
+      </c>
+      <c r="AP259">
+        <v>3</v>
+      </c>
+      <c r="AQ259">
+        <v>1.76</v>
+      </c>
+      <c r="AR259">
+        <v>2.28</v>
+      </c>
+      <c r="AS259">
+        <v>1.62</v>
+      </c>
+      <c r="AT259">
+        <v>3.9</v>
+      </c>
+      <c r="AU259">
+        <v>9</v>
+      </c>
+      <c r="AV259">
+        <v>3</v>
+      </c>
+      <c r="AW259">
+        <v>9</v>
+      </c>
+      <c r="AX259">
+        <v>5</v>
+      </c>
+      <c r="AY259">
+        <v>18</v>
+      </c>
+      <c r="AZ259">
+        <v>8</v>
+      </c>
+      <c r="BA259">
+        <v>7</v>
+      </c>
+      <c r="BB259">
+        <v>2</v>
+      </c>
+      <c r="BC259">
+        <v>9</v>
+      </c>
+      <c r="BD259">
+        <v>1.38</v>
+      </c>
+      <c r="BE259">
+        <v>7</v>
+      </c>
+      <c r="BF259">
+        <v>3.4</v>
+      </c>
+      <c r="BG259">
+        <v>1.34</v>
+      </c>
+      <c r="BH259">
+        <v>2.9</v>
+      </c>
+      <c r="BI259">
+        <v>1.58</v>
+      </c>
+      <c r="BJ259">
+        <v>2.18</v>
+      </c>
+      <c r="BK259">
+        <v>1.94</v>
+      </c>
+      <c r="BL259">
+        <v>1.76</v>
+      </c>
+      <c r="BM259">
+        <v>2.43</v>
+      </c>
+      <c r="BN259">
+        <v>1.48</v>
+      </c>
+      <c r="BO259">
+        <v>3.15</v>
+      </c>
+      <c r="BP259">
+        <v>1.3</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Czech Republic First League_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Czech Republic First League_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1616" uniqueCount="361">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1634" uniqueCount="363">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -766,6 +766,12 @@
     <t>['9', '87']</t>
   </si>
   <si>
+    <t>['25', '87']</t>
+  </si>
+  <si>
+    <t>['71']</t>
+  </si>
+  <si>
     <t>['25']</t>
   </si>
   <si>
@@ -1018,9 +1024,6 @@
     <t>['13', '45', '68', '81']</t>
   </si>
   <si>
-    <t>['25', '87']</t>
-  </si>
-  <si>
     <t>['13', '80']</t>
   </si>
   <si>
@@ -1097,6 +1100,9 @@
   </si>
   <si>
     <t>['8', '22', '39', '73']</t>
+  </si>
+  <si>
+    <t>['31', '62', '74']</t>
   </si>
 </sst>
 </file>
@@ -1458,7 +1464,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP259"/>
+  <dimension ref="A1:BP262"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1717,7 +1723,7 @@
         <v>86</v>
       </c>
       <c r="P2" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="Q2">
         <v>1.53</v>
@@ -2129,7 +2135,7 @@
         <v>88</v>
       </c>
       <c r="P4" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="Q4">
         <v>2.88</v>
@@ -2541,7 +2547,7 @@
         <v>90</v>
       </c>
       <c r="P6" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="Q6">
         <v>5.5</v>
@@ -2747,7 +2753,7 @@
         <v>91</v>
       </c>
       <c r="P7" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="Q7">
         <v>3.2</v>
@@ -3446,7 +3452,7 @@
         <v>1</v>
       </c>
       <c r="AQ10">
-        <v>1.27</v>
+        <v>1.19</v>
       </c>
       <c r="AR10">
         <v>0.98</v>
@@ -3571,7 +3577,7 @@
         <v>94</v>
       </c>
       <c r="P11" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="Q11">
         <v>6.5</v>
@@ -3649,7 +3655,7 @@
         <v>0</v>
       </c>
       <c r="AP11">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AQ11">
         <v>1.76</v>
@@ -3777,7 +3783,7 @@
         <v>88</v>
       </c>
       <c r="P12" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="Q12">
         <v>2.85</v>
@@ -4267,7 +4273,7 @@
         <v>3</v>
       </c>
       <c r="AP14">
-        <v>1.53</v>
+        <v>1.63</v>
       </c>
       <c r="AQ14">
         <v>1.24</v>
@@ -4679,10 +4685,10 @@
         <v>0</v>
       </c>
       <c r="AP16">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AQ16">
-        <v>0.73</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR16">
         <v>0</v>
@@ -5013,7 +5019,7 @@
         <v>88</v>
       </c>
       <c r="P18" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="Q18">
         <v>5.4</v>
@@ -5091,7 +5097,7 @@
         <v>1</v>
       </c>
       <c r="AP18">
-        <v>1.53</v>
+        <v>1.63</v>
       </c>
       <c r="AQ18">
         <v>2.25</v>
@@ -5300,7 +5306,7 @@
         <v>2</v>
       </c>
       <c r="AQ19">
-        <v>0.75</v>
+        <v>0.88</v>
       </c>
       <c r="AR19">
         <v>1.9</v>
@@ -5506,7 +5512,7 @@
         <v>1.35</v>
       </c>
       <c r="AQ20">
-        <v>1.27</v>
+        <v>1.19</v>
       </c>
       <c r="AR20">
         <v>1</v>
@@ -6043,7 +6049,7 @@
         <v>102</v>
       </c>
       <c r="P23" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="Q23">
         <v>2.6</v>
@@ -6249,7 +6255,7 @@
         <v>103</v>
       </c>
       <c r="P24" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="Q24">
         <v>2.75</v>
@@ -6455,7 +6461,7 @@
         <v>88</v>
       </c>
       <c r="P25" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="Q25">
         <v>1.06</v>
@@ -6739,7 +6745,7 @@
         <v>3</v>
       </c>
       <c r="AP26">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AQ26">
         <v>1.19</v>
@@ -6867,7 +6873,7 @@
         <v>105</v>
       </c>
       <c r="P27" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="Q27">
         <v>6.23</v>
@@ -7360,7 +7366,7 @@
         <v>1</v>
       </c>
       <c r="AQ29">
-        <v>0.73</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR29">
         <v>1.22</v>
@@ -7563,7 +7569,7 @@
         <v>0</v>
       </c>
       <c r="AP30">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AQ30">
         <v>0.12</v>
@@ -8184,7 +8190,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ33">
-        <v>0.75</v>
+        <v>0.88</v>
       </c>
       <c r="AR33">
         <v>1.08</v>
@@ -8309,7 +8315,7 @@
         <v>111</v>
       </c>
       <c r="P34" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="Q34">
         <v>2.84</v>
@@ -8390,7 +8396,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ34">
-        <v>1.27</v>
+        <v>1.19</v>
       </c>
       <c r="AR34">
         <v>1.93</v>
@@ -8515,7 +8521,7 @@
         <v>112</v>
       </c>
       <c r="P35" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="Q35">
         <v>1.45</v>
@@ -8721,7 +8727,7 @@
         <v>113</v>
       </c>
       <c r="P36" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="Q36">
         <v>5.63</v>
@@ -8927,7 +8933,7 @@
         <v>114</v>
       </c>
       <c r="P37" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="Q37">
         <v>2.58</v>
@@ -9133,7 +9139,7 @@
         <v>88</v>
       </c>
       <c r="P38" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="Q38">
         <v>4.75</v>
@@ -9417,7 +9423,7 @@
         <v>1.5</v>
       </c>
       <c r="AP39">
-        <v>1.53</v>
+        <v>1.63</v>
       </c>
       <c r="AQ39">
         <v>0.35</v>
@@ -9751,7 +9757,7 @@
         <v>117</v>
       </c>
       <c r="P41" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="Q41">
         <v>2.4</v>
@@ -9957,7 +9963,7 @@
         <v>108</v>
       </c>
       <c r="P42" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="Q42">
         <v>2.61</v>
@@ -10035,7 +10041,7 @@
         <v>1.5</v>
       </c>
       <c r="AP42">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AQ42">
         <v>1.19</v>
@@ -10163,7 +10169,7 @@
         <v>118</v>
       </c>
       <c r="P43" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="Q43">
         <v>1.69</v>
@@ -10244,7 +10250,7 @@
         <v>2</v>
       </c>
       <c r="AQ43">
-        <v>0.73</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR43">
         <v>2.07</v>
@@ -11274,7 +11280,7 @@
         <v>0.25</v>
       </c>
       <c r="AQ48">
-        <v>1.27</v>
+        <v>1.19</v>
       </c>
       <c r="AR48">
         <v>1.34</v>
@@ -11605,7 +11611,7 @@
         <v>88</v>
       </c>
       <c r="P50" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="Q50">
         <v>5.1</v>
@@ -11892,7 +11898,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ51">
-        <v>0.75</v>
+        <v>0.88</v>
       </c>
       <c r="AR51">
         <v>1.76</v>
@@ -12017,7 +12023,7 @@
         <v>122</v>
       </c>
       <c r="P52" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="Q52">
         <v>3</v>
@@ -12429,7 +12435,7 @@
         <v>124</v>
       </c>
       <c r="P54" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="Q54">
         <v>3</v>
@@ -12507,7 +12513,7 @@
         <v>0</v>
       </c>
       <c r="AP54">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AQ54">
         <v>1.13</v>
@@ -12713,7 +12719,7 @@
         <v>2.33</v>
       </c>
       <c r="AP55">
-        <v>1.53</v>
+        <v>1.63</v>
       </c>
       <c r="AQ55">
         <v>1.88</v>
@@ -13047,7 +13053,7 @@
         <v>88</v>
       </c>
       <c r="P57" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="Q57">
         <v>5.88</v>
@@ -13125,7 +13131,7 @@
         <v>2</v>
       </c>
       <c r="AP57">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AQ57">
         <v>2.25</v>
@@ -13334,7 +13340,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ58">
-        <v>0.73</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR58">
         <v>1.32</v>
@@ -13665,7 +13671,7 @@
         <v>128</v>
       </c>
       <c r="P60" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="Q60">
         <v>3.86</v>
@@ -13743,7 +13749,7 @@
         <v>0.5</v>
       </c>
       <c r="AP60">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AQ60">
         <v>1.8</v>
@@ -14077,7 +14083,7 @@
         <v>130</v>
       </c>
       <c r="P62" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="Q62">
         <v>1.83</v>
@@ -14155,7 +14161,7 @@
         <v>0.75</v>
       </c>
       <c r="AP62">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AQ62">
         <v>0.35</v>
@@ -14364,7 +14370,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ63">
-        <v>0.75</v>
+        <v>0.88</v>
       </c>
       <c r="AR63">
         <v>1.75</v>
@@ -14489,7 +14495,7 @@
         <v>88</v>
       </c>
       <c r="P64" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="Q64">
         <v>8.77</v>
@@ -14695,7 +14701,7 @@
         <v>132</v>
       </c>
       <c r="P65" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="Q65">
         <v>2.4</v>
@@ -14773,10 +14779,10 @@
         <v>1.25</v>
       </c>
       <c r="AP65">
-        <v>1.53</v>
+        <v>1.63</v>
       </c>
       <c r="AQ65">
-        <v>1.27</v>
+        <v>1.19</v>
       </c>
       <c r="AR65">
         <v>1.42</v>
@@ -14901,7 +14907,7 @@
         <v>133</v>
       </c>
       <c r="P66" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="Q66">
         <v>1.55</v>
@@ -15107,7 +15113,7 @@
         <v>134</v>
       </c>
       <c r="P67" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="Q67">
         <v>4</v>
@@ -15519,7 +15525,7 @@
         <v>88</v>
       </c>
       <c r="P69" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="Q69">
         <v>3.1</v>
@@ -16137,7 +16143,7 @@
         <v>124</v>
       </c>
       <c r="P72" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="Q72">
         <v>1.88</v>
@@ -16343,7 +16349,7 @@
         <v>88</v>
       </c>
       <c r="P73" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="Q73">
         <v>7</v>
@@ -16755,7 +16761,7 @@
         <v>88</v>
       </c>
       <c r="P75" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="Q75">
         <v>3.7</v>
@@ -16836,7 +16842,7 @@
         <v>0.25</v>
       </c>
       <c r="AQ75">
-        <v>0.73</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR75">
         <v>1.29</v>
@@ -16961,7 +16967,7 @@
         <v>138</v>
       </c>
       <c r="P76" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="Q76">
         <v>2.3</v>
@@ -17039,10 +17045,10 @@
         <v>0.25</v>
       </c>
       <c r="AP76">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AQ76">
-        <v>0.75</v>
+        <v>0.88</v>
       </c>
       <c r="AR76">
         <v>1.49</v>
@@ -17167,7 +17173,7 @@
         <v>88</v>
       </c>
       <c r="P77" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="Q77">
         <v>2.47</v>
@@ -17245,7 +17251,7 @@
         <v>1.4</v>
       </c>
       <c r="AP77">
-        <v>1.53</v>
+        <v>1.63</v>
       </c>
       <c r="AQ77">
         <v>1.59</v>
@@ -17579,7 +17585,7 @@
         <v>140</v>
       </c>
       <c r="P79" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="Q79">
         <v>2.5</v>
@@ -17660,7 +17666,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ79">
-        <v>1.27</v>
+        <v>1.19</v>
       </c>
       <c r="AR79">
         <v>1.66</v>
@@ -17863,7 +17869,7 @@
         <v>1</v>
       </c>
       <c r="AP80">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AQ80">
         <v>1.8</v>
@@ -17991,7 +17997,7 @@
         <v>141</v>
       </c>
       <c r="P81" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="Q81">
         <v>2.38</v>
@@ -18197,7 +18203,7 @@
         <v>142</v>
       </c>
       <c r="P82" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="Q82">
         <v>2.8</v>
@@ -18403,7 +18409,7 @@
         <v>143</v>
       </c>
       <c r="P83" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="Q83">
         <v>2.6</v>
@@ -18609,7 +18615,7 @@
         <v>144</v>
       </c>
       <c r="P84" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="Q84">
         <v>3.4</v>
@@ -19021,7 +19027,7 @@
         <v>146</v>
       </c>
       <c r="P86" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="Q86">
         <v>2.88</v>
@@ -19227,7 +19233,7 @@
         <v>88</v>
       </c>
       <c r="P87" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="Q87">
         <v>2.6</v>
@@ -19639,7 +19645,7 @@
         <v>93</v>
       </c>
       <c r="P89" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="Q89">
         <v>6.5</v>
@@ -19923,10 +19929,10 @@
         <v>1.4</v>
       </c>
       <c r="AP90">
-        <v>1.53</v>
+        <v>1.63</v>
       </c>
       <c r="AQ90">
-        <v>0.73</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR90">
         <v>1.39</v>
@@ -20051,7 +20057,7 @@
         <v>88</v>
       </c>
       <c r="P91" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="Q91">
         <v>3.8</v>
@@ -20257,7 +20263,7 @@
         <v>149</v>
       </c>
       <c r="P92" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="Q92">
         <v>4.7</v>
@@ -20669,7 +20675,7 @@
         <v>150</v>
       </c>
       <c r="P94" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="Q94">
         <v>3</v>
@@ -20747,10 +20753,10 @@
         <v>1.5</v>
       </c>
       <c r="AP94">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AQ94">
-        <v>1.27</v>
+        <v>1.19</v>
       </c>
       <c r="AR94">
         <v>1.52</v>
@@ -20956,7 +20962,7 @@
         <v>3</v>
       </c>
       <c r="AQ95">
-        <v>0.75</v>
+        <v>0.88</v>
       </c>
       <c r="AR95">
         <v>2.31</v>
@@ -21159,7 +21165,7 @@
         <v>1.5</v>
       </c>
       <c r="AP96">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AQ96">
         <v>1.19</v>
@@ -22111,7 +22117,7 @@
         <v>156</v>
       </c>
       <c r="P101" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="Q101">
         <v>1.83</v>
@@ -23222,7 +23228,7 @@
         <v>2.24</v>
       </c>
       <c r="AQ106">
-        <v>0.75</v>
+        <v>0.88</v>
       </c>
       <c r="AR106">
         <v>1.87</v>
@@ -23631,7 +23637,7 @@
         <v>0.67</v>
       </c>
       <c r="AP108">
-        <v>1.53</v>
+        <v>1.63</v>
       </c>
       <c r="AQ108">
         <v>1.25</v>
@@ -23759,7 +23765,7 @@
         <v>161</v>
       </c>
       <c r="P109" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="Q109">
         <v>2.24</v>
@@ -23837,7 +23843,7 @@
         <v>0</v>
       </c>
       <c r="AP109">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AQ109">
         <v>0.12</v>
@@ -24046,7 +24052,7 @@
         <v>2.38</v>
       </c>
       <c r="AQ110">
-        <v>1.27</v>
+        <v>1.19</v>
       </c>
       <c r="AR110">
         <v>1.73</v>
@@ -24171,7 +24177,7 @@
         <v>163</v>
       </c>
       <c r="P111" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="Q111">
         <v>4.6</v>
@@ -24249,7 +24255,7 @@
         <v>2.14</v>
       </c>
       <c r="AP111">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AQ111">
         <v>1.76</v>
@@ -24583,7 +24589,7 @@
         <v>165</v>
       </c>
       <c r="P113" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="Q113">
         <v>3.25</v>
@@ -24789,7 +24795,7 @@
         <v>152</v>
       </c>
       <c r="P114" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="Q114">
         <v>2.88</v>
@@ -24995,7 +25001,7 @@
         <v>99</v>
       </c>
       <c r="P115" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="Q115">
         <v>1.73</v>
@@ -25201,7 +25207,7 @@
         <v>88</v>
       </c>
       <c r="P116" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="Q116">
         <v>4.33</v>
@@ -25488,7 +25494,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ117">
-        <v>0.75</v>
+        <v>0.88</v>
       </c>
       <c r="AR117">
         <v>1.44</v>
@@ -25613,7 +25619,7 @@
         <v>88</v>
       </c>
       <c r="P118" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="Q118">
         <v>15</v>
@@ -26025,7 +26031,7 @@
         <v>168</v>
       </c>
       <c r="P120" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="Q120">
         <v>3</v>
@@ -26312,7 +26318,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ121">
-        <v>0.73</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR121">
         <v>1.57</v>
@@ -26437,7 +26443,7 @@
         <v>170</v>
       </c>
       <c r="P122" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="Q122">
         <v>3.25</v>
@@ -26518,7 +26524,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ122">
-        <v>0.73</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR122">
         <v>1.54</v>
@@ -26643,7 +26649,7 @@
         <v>171</v>
       </c>
       <c r="P123" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="Q123">
         <v>1.83</v>
@@ -26927,7 +26933,7 @@
         <v>1.14</v>
       </c>
       <c r="AP124">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AQ124">
         <v>1.24</v>
@@ -27055,7 +27061,7 @@
         <v>172</v>
       </c>
       <c r="P125" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="Q125">
         <v>6.3</v>
@@ -27751,7 +27757,7 @@
         <v>0.71</v>
       </c>
       <c r="AP128">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AQ128">
         <v>1.25</v>
@@ -27879,7 +27885,7 @@
         <v>174</v>
       </c>
       <c r="P129" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="Q129">
         <v>2.1</v>
@@ -28085,7 +28091,7 @@
         <v>175</v>
       </c>
       <c r="P130" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="Q130">
         <v>1.5</v>
@@ -28497,7 +28503,7 @@
         <v>177</v>
       </c>
       <c r="P132" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="Q132">
         <v>3.5</v>
@@ -28703,7 +28709,7 @@
         <v>178</v>
       </c>
       <c r="P133" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="Q133">
         <v>4.04</v>
@@ -28784,7 +28790,7 @@
         <v>1</v>
       </c>
       <c r="AQ133">
-        <v>0.73</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR133">
         <v>1.24</v>
@@ -28909,7 +28915,7 @@
         <v>88</v>
       </c>
       <c r="P134" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="Q134">
         <v>2.75</v>
@@ -29193,7 +29199,7 @@
         <v>1.25</v>
       </c>
       <c r="AP135">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AQ135">
         <v>1.19</v>
@@ -29733,7 +29739,7 @@
         <v>91</v>
       </c>
       <c r="P138" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="Q138">
         <v>2.25</v>
@@ -29939,7 +29945,7 @@
         <v>179</v>
       </c>
       <c r="P139" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="Q139">
         <v>1.9</v>
@@ -30020,7 +30026,7 @@
         <v>2.06</v>
       </c>
       <c r="AQ139">
-        <v>0.75</v>
+        <v>0.88</v>
       </c>
       <c r="AR139">
         <v>1.71</v>
@@ -30226,7 +30232,7 @@
         <v>2</v>
       </c>
       <c r="AQ140">
-        <v>1.27</v>
+        <v>1.19</v>
       </c>
       <c r="AR140">
         <v>2.06</v>
@@ -30351,7 +30357,7 @@
         <v>88</v>
       </c>
       <c r="P141" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="Q141">
         <v>4</v>
@@ -30557,7 +30563,7 @@
         <v>117</v>
       </c>
       <c r="P142" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="Q142">
         <v>4</v>
@@ -30763,7 +30769,7 @@
         <v>181</v>
       </c>
       <c r="P143" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="Q143">
         <v>6</v>
@@ -31047,7 +31053,7 @@
         <v>1</v>
       </c>
       <c r="AP144">
-        <v>1.53</v>
+        <v>1.63</v>
       </c>
       <c r="AQ144">
         <v>0.75</v>
@@ -31175,7 +31181,7 @@
         <v>88</v>
       </c>
       <c r="P145" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="Q145">
         <v>3.5</v>
@@ -31381,7 +31387,7 @@
         <v>183</v>
       </c>
       <c r="P146" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="Q146">
         <v>4.33</v>
@@ -31587,7 +31593,7 @@
         <v>184</v>
       </c>
       <c r="P147" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="Q147">
         <v>3.8</v>
@@ -31793,7 +31799,7 @@
         <v>185</v>
       </c>
       <c r="P148" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="Q148">
         <v>2.5</v>
@@ -31999,7 +32005,7 @@
         <v>186</v>
       </c>
       <c r="P149" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="Q149">
         <v>2.05</v>
@@ -32080,7 +32086,7 @@
         <v>2.24</v>
       </c>
       <c r="AQ149">
-        <v>0.73</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR149">
         <v>1.91</v>
@@ -32411,7 +32417,7 @@
         <v>188</v>
       </c>
       <c r="P151" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="Q151">
         <v>2.48</v>
@@ -32489,7 +32495,7 @@
         <v>1</v>
       </c>
       <c r="AP151">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AQ151">
         <v>1.24</v>
@@ -32695,7 +32701,7 @@
         <v>2.56</v>
       </c>
       <c r="AP152">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AQ152">
         <v>2.25</v>
@@ -32823,7 +32829,7 @@
         <v>190</v>
       </c>
       <c r="P153" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="Q153">
         <v>1.4</v>
@@ -33235,7 +33241,7 @@
         <v>88</v>
       </c>
       <c r="P155" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="Q155">
         <v>3.2</v>
@@ -33313,7 +33319,7 @@
         <v>1.5</v>
       </c>
       <c r="AP155">
-        <v>1.53</v>
+        <v>1.63</v>
       </c>
       <c r="AQ155">
         <v>1.8</v>
@@ -33522,7 +33528,7 @@
         <v>0.25</v>
       </c>
       <c r="AQ156">
-        <v>0.75</v>
+        <v>0.88</v>
       </c>
       <c r="AR156">
         <v>1.34</v>
@@ -33853,7 +33859,7 @@
         <v>88</v>
       </c>
       <c r="P158" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="Q158">
         <v>5</v>
@@ -34059,7 +34065,7 @@
         <v>88</v>
       </c>
       <c r="P159" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="Q159">
         <v>2.38</v>
@@ -34140,7 +34146,7 @@
         <v>2.06</v>
       </c>
       <c r="AQ159">
-        <v>1.27</v>
+        <v>1.19</v>
       </c>
       <c r="AR159">
         <v>1.67</v>
@@ -34471,7 +34477,7 @@
         <v>193</v>
       </c>
       <c r="P161" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="Q161">
         <v>4.75</v>
@@ -34677,7 +34683,7 @@
         <v>194</v>
       </c>
       <c r="P162" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="Q162">
         <v>2.63</v>
@@ -34755,7 +34761,7 @@
         <v>0.9</v>
       </c>
       <c r="AP162">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AQ162">
         <v>0.75</v>
@@ -34883,7 +34889,7 @@
         <v>88</v>
       </c>
       <c r="P163" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="Q163">
         <v>11</v>
@@ -35089,7 +35095,7 @@
         <v>195</v>
       </c>
       <c r="P164" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="Q164">
         <v>2</v>
@@ -35295,7 +35301,7 @@
         <v>196</v>
       </c>
       <c r="P165" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="Q165">
         <v>2.5</v>
@@ -35376,7 +35382,7 @@
         <v>2.06</v>
       </c>
       <c r="AQ165">
-        <v>0.73</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR165">
         <v>1.66</v>
@@ -36406,7 +36412,7 @@
         <v>1.35</v>
       </c>
       <c r="AQ170">
-        <v>0.75</v>
+        <v>0.88</v>
       </c>
       <c r="AR170">
         <v>1.21</v>
@@ -36531,7 +36537,7 @@
         <v>201</v>
       </c>
       <c r="P171" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="Q171">
         <v>5.2</v>
@@ -36737,7 +36743,7 @@
         <v>202</v>
       </c>
       <c r="P172" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="Q172">
         <v>6.35</v>
@@ -36943,7 +36949,7 @@
         <v>203</v>
       </c>
       <c r="P173" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="Q173">
         <v>2.6</v>
@@ -37024,7 +37030,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ173">
-        <v>1.27</v>
+        <v>1.19</v>
       </c>
       <c r="AR173">
         <v>1.47</v>
@@ -37149,7 +37155,7 @@
         <v>204</v>
       </c>
       <c r="P174" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="Q174">
         <v>2.66</v>
@@ -37227,7 +37233,7 @@
         <v>1.2</v>
       </c>
       <c r="AP174">
-        <v>1.53</v>
+        <v>1.63</v>
       </c>
       <c r="AQ174">
         <v>1.13</v>
@@ -37355,7 +37361,7 @@
         <v>88</v>
       </c>
       <c r="P175" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="Q175">
         <v>4.86</v>
@@ -37433,7 +37439,7 @@
         <v>1.7</v>
       </c>
       <c r="AP175">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AQ175">
         <v>1.88</v>
@@ -37767,7 +37773,7 @@
         <v>172</v>
       </c>
       <c r="P177" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="Q177">
         <v>3.63</v>
@@ -37973,7 +37979,7 @@
         <v>88</v>
       </c>
       <c r="P178" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="Q178">
         <v>3.92</v>
@@ -39003,7 +39009,7 @@
         <v>208</v>
       </c>
       <c r="P183" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="Q183">
         <v>4.3</v>
@@ -39209,7 +39215,7 @@
         <v>88</v>
       </c>
       <c r="P184" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="Q184">
         <v>5.8</v>
@@ -39415,7 +39421,7 @@
         <v>96</v>
       </c>
       <c r="P185" t="s">
-        <v>334</v>
+        <v>250</v>
       </c>
       <c r="Q185">
         <v>4.7</v>
@@ -39905,7 +39911,7 @@
         <v>0.5</v>
       </c>
       <c r="AP187">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AQ187">
         <v>0.35</v>
@@ -40111,10 +40117,10 @@
         <v>0.36</v>
       </c>
       <c r="AP188">
-        <v>1.53</v>
+        <v>1.63</v>
       </c>
       <c r="AQ188">
-        <v>0.75</v>
+        <v>0.88</v>
       </c>
       <c r="AR188">
         <v>1.49</v>
@@ -40239,7 +40245,7 @@
         <v>88</v>
       </c>
       <c r="P189" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="Q189">
         <v>4.5</v>
@@ -40317,7 +40323,7 @@
         <v>1.82</v>
       </c>
       <c r="AP189">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AQ189">
         <v>1.88</v>
@@ -40526,7 +40532,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ190">
-        <v>0.73</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR190">
         <v>1.53</v>
@@ -40732,7 +40738,7 @@
         <v>3</v>
       </c>
       <c r="AQ191">
-        <v>1.27</v>
+        <v>1.19</v>
       </c>
       <c r="AR191">
         <v>2.28</v>
@@ -41681,7 +41687,7 @@
         <v>215</v>
       </c>
       <c r="P196" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="Q196">
         <v>1.95</v>
@@ -41887,7 +41893,7 @@
         <v>88</v>
       </c>
       <c r="P197" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="Q197">
         <v>2.88</v>
@@ -42711,7 +42717,7 @@
         <v>158</v>
       </c>
       <c r="P201" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="Q201">
         <v>2.63</v>
@@ -42789,10 +42795,10 @@
         <v>1.33</v>
       </c>
       <c r="AP201">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AQ201">
-        <v>1.27</v>
+        <v>1.19</v>
       </c>
       <c r="AR201">
         <v>1.55</v>
@@ -42917,7 +42923,7 @@
         <v>88</v>
       </c>
       <c r="P202" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="Q202">
         <v>2.75</v>
@@ -42998,7 +43004,7 @@
         <v>1</v>
       </c>
       <c r="AQ202">
-        <v>0.75</v>
+        <v>0.88</v>
       </c>
       <c r="AR202">
         <v>1.23</v>
@@ -43201,10 +43207,10 @@
         <v>0.92</v>
       </c>
       <c r="AP203">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AQ203">
-        <v>0.73</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR203">
         <v>1.47</v>
@@ -43407,7 +43413,7 @@
         <v>2.17</v>
       </c>
       <c r="AP204">
-        <v>1.53</v>
+        <v>1.63</v>
       </c>
       <c r="AQ204">
         <v>1.76</v>
@@ -43535,7 +43541,7 @@
         <v>218</v>
       </c>
       <c r="P205" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="Q205">
         <v>2.88</v>
@@ -43741,7 +43747,7 @@
         <v>88</v>
       </c>
       <c r="P206" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="Q206">
         <v>2.38</v>
@@ -43947,7 +43953,7 @@
         <v>219</v>
       </c>
       <c r="P207" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="Q207">
         <v>4.75</v>
@@ -44771,7 +44777,7 @@
         <v>221</v>
       </c>
       <c r="P211" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="Q211">
         <v>1.57</v>
@@ -45183,7 +45189,7 @@
         <v>88</v>
       </c>
       <c r="P213" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="Q213">
         <v>3.5</v>
@@ -45801,7 +45807,7 @@
         <v>224</v>
       </c>
       <c r="P216" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="Q216">
         <v>2.75</v>
@@ -46088,7 +46094,7 @@
         <v>1</v>
       </c>
       <c r="AQ217">
-        <v>1.27</v>
+        <v>1.19</v>
       </c>
       <c r="AR217">
         <v>1.24</v>
@@ -46213,7 +46219,7 @@
         <v>124</v>
       </c>
       <c r="P218" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="Q218">
         <v>2.4</v>
@@ -46419,7 +46425,7 @@
         <v>226</v>
       </c>
       <c r="P219" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="Q219">
         <v>3</v>
@@ -46703,7 +46709,7 @@
         <v>0.08</v>
       </c>
       <c r="AP220">
-        <v>1.53</v>
+        <v>1.63</v>
       </c>
       <c r="AQ220">
         <v>0.12</v>
@@ -46831,7 +46837,7 @@
         <v>228</v>
       </c>
       <c r="P221" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="Q221">
         <v>1.67</v>
@@ -47115,7 +47121,7 @@
         <v>1.15</v>
       </c>
       <c r="AP222">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AQ222">
         <v>1.59</v>
@@ -47243,7 +47249,7 @@
         <v>88</v>
       </c>
       <c r="P223" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="Q223">
         <v>2.3</v>
@@ -47321,10 +47327,10 @@
         <v>0.62</v>
       </c>
       <c r="AP223">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AQ223">
-        <v>0.75</v>
+        <v>0.88</v>
       </c>
       <c r="AR223">
         <v>1.65</v>
@@ -47530,7 +47536,7 @@
         <v>2.38</v>
       </c>
       <c r="AQ224">
-        <v>0.73</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR224">
         <v>1.77</v>
@@ -47655,7 +47661,7 @@
         <v>218</v>
       </c>
       <c r="P225" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="Q225">
         <v>3.3</v>
@@ -47861,7 +47867,7 @@
         <v>88</v>
       </c>
       <c r="P226" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="Q226">
         <v>7.5</v>
@@ -48067,7 +48073,7 @@
         <v>152</v>
       </c>
       <c r="P227" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="Q227">
         <v>5.5</v>
@@ -48273,7 +48279,7 @@
         <v>230</v>
       </c>
       <c r="P228" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="Q228">
         <v>5</v>
@@ -48891,7 +48897,7 @@
         <v>232</v>
       </c>
       <c r="P231" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="Q231">
         <v>3.6</v>
@@ -49097,7 +49103,7 @@
         <v>88</v>
       </c>
       <c r="P232" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="Q232">
         <v>3</v>
@@ -49303,7 +49309,7 @@
         <v>233</v>
       </c>
       <c r="P233" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="Q233">
         <v>4.5</v>
@@ -49509,7 +49515,7 @@
         <v>234</v>
       </c>
       <c r="P234" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="Q234">
         <v>2.3</v>
@@ -49587,7 +49593,7 @@
         <v>1.14</v>
       </c>
       <c r="AP234">
-        <v>1.53</v>
+        <v>1.63</v>
       </c>
       <c r="AQ234">
         <v>1.19</v>
@@ -49796,7 +49802,7 @@
         <v>2.24</v>
       </c>
       <c r="AQ235">
-        <v>1.27</v>
+        <v>1.19</v>
       </c>
       <c r="AR235">
         <v>1.84</v>
@@ -50208,7 +50214,7 @@
         <v>3</v>
       </c>
       <c r="AQ237">
-        <v>0.73</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR237">
         <v>2.25</v>
@@ -50411,7 +50417,7 @@
         <v>1.21</v>
       </c>
       <c r="AP238">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AQ238">
         <v>1.25</v>
@@ -50617,7 +50623,7 @@
         <v>1.29</v>
       </c>
       <c r="AP239">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AQ239">
         <v>1.59</v>
@@ -50745,7 +50751,7 @@
         <v>158</v>
       </c>
       <c r="P240" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="Q240">
         <v>8</v>
@@ -50951,7 +50957,7 @@
         <v>238</v>
       </c>
       <c r="P241" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="Q241">
         <v>1.67</v>
@@ -51032,7 +51038,7 @@
         <v>2.38</v>
       </c>
       <c r="AQ241">
-        <v>0.75</v>
+        <v>0.88</v>
       </c>
       <c r="AR241">
         <v>1.77</v>
@@ -51157,7 +51163,7 @@
         <v>239</v>
       </c>
       <c r="P242" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="Q242">
         <v>3.9</v>
@@ -51569,7 +51575,7 @@
         <v>88</v>
       </c>
       <c r="P244" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="Q244">
         <v>6.5</v>
@@ -51775,7 +51781,7 @@
         <v>241</v>
       </c>
       <c r="P245" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="Q245">
         <v>2.5</v>
@@ -51853,10 +51859,10 @@
         <v>0.73</v>
       </c>
       <c r="AP245">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AQ245">
-        <v>0.75</v>
+        <v>0.88</v>
       </c>
       <c r="AR245">
         <v>1.43</v>
@@ -51981,7 +51987,7 @@
         <v>242</v>
       </c>
       <c r="P246" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="Q246">
         <v>2</v>
@@ -52805,7 +52811,7 @@
         <v>245</v>
       </c>
       <c r="P250" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="Q250">
         <v>2.25</v>
@@ -53501,7 +53507,7 @@
         <v>0.8</v>
       </c>
       <c r="AP253">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AQ253">
         <v>0.75</v>
@@ -53707,10 +53713,10 @@
         <v>1.4</v>
       </c>
       <c r="AP254">
-        <v>1.19</v>
+        <v>1.16</v>
       </c>
       <c r="AQ254">
-        <v>1.35</v>
+        <v>1.41</v>
       </c>
       <c r="AR254">
         <v>1.43</v>
@@ -53835,7 +53841,7 @@
         <v>102</v>
       </c>
       <c r="P255" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="Q255">
         <v>2.1</v>
@@ -54453,7 +54459,7 @@
         <v>88</v>
       </c>
       <c r="P258" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="Q258">
         <v>2.88</v>
@@ -54816,6 +54822,624 @@
       </c>
       <c r="BP259">
         <v>1.3</v>
+      </c>
+    </row>
+    <row r="260" spans="1:68">
+      <c r="A260" s="1">
+        <v>259</v>
+      </c>
+      <c r="B260">
+        <v>7885779</v>
+      </c>
+      <c r="C260" t="s">
+        <v>68</v>
+      </c>
+      <c r="D260" t="s">
+        <v>69</v>
+      </c>
+      <c r="E260" s="2">
+        <v>45788.33333333334</v>
+      </c>
+      <c r="F260">
+        <v>3</v>
+      </c>
+      <c r="G260" t="s">
+        <v>78</v>
+      </c>
+      <c r="H260" t="s">
+        <v>76</v>
+      </c>
+      <c r="I260">
+        <v>0</v>
+      </c>
+      <c r="J260">
+        <v>0</v>
+      </c>
+      <c r="K260">
+        <v>0</v>
+      </c>
+      <c r="L260">
+        <v>1</v>
+      </c>
+      <c r="M260">
+        <v>0</v>
+      </c>
+      <c r="N260">
+        <v>1</v>
+      </c>
+      <c r="O260" t="s">
+        <v>239</v>
+      </c>
+      <c r="P260" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q260">
+        <v>2.5</v>
+      </c>
+      <c r="R260">
+        <v>2.1</v>
+      </c>
+      <c r="S260">
+        <v>4.75</v>
+      </c>
+      <c r="T260">
+        <v>1.44</v>
+      </c>
+      <c r="U260">
+        <v>2.63</v>
+      </c>
+      <c r="V260">
+        <v>3.25</v>
+      </c>
+      <c r="W260">
+        <v>1.33</v>
+      </c>
+      <c r="X260">
+        <v>9</v>
+      </c>
+      <c r="Y260">
+        <v>1.07</v>
+      </c>
+      <c r="Z260">
+        <v>1.85</v>
+      </c>
+      <c r="AA260">
+        <v>3.5</v>
+      </c>
+      <c r="AB260">
+        <v>4.2</v>
+      </c>
+      <c r="AC260">
+        <v>1.03</v>
+      </c>
+      <c r="AD260">
+        <v>7.6</v>
+      </c>
+      <c r="AE260">
+        <v>1.36</v>
+      </c>
+      <c r="AF260">
+        <v>3.06</v>
+      </c>
+      <c r="AG260">
+        <v>2.15</v>
+      </c>
+      <c r="AH260">
+        <v>1.67</v>
+      </c>
+      <c r="AI260">
+        <v>2</v>
+      </c>
+      <c r="AJ260">
+        <v>1.75</v>
+      </c>
+      <c r="AK260">
+        <v>1.22</v>
+      </c>
+      <c r="AL260">
+        <v>1.3</v>
+      </c>
+      <c r="AM260">
+        <v>1.85</v>
+      </c>
+      <c r="AN260">
+        <v>1.44</v>
+      </c>
+      <c r="AO260">
+        <v>0.73</v>
+      </c>
+      <c r="AP260">
+        <v>1.53</v>
+      </c>
+      <c r="AQ260">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="AR260">
+        <v>1.44</v>
+      </c>
+      <c r="AS260">
+        <v>1.1</v>
+      </c>
+      <c r="AT260">
+        <v>2.54</v>
+      </c>
+      <c r="AU260">
+        <v>4</v>
+      </c>
+      <c r="AV260">
+        <v>2</v>
+      </c>
+      <c r="AW260">
+        <v>9</v>
+      </c>
+      <c r="AX260">
+        <v>5</v>
+      </c>
+      <c r="AY260">
+        <v>13</v>
+      </c>
+      <c r="AZ260">
+        <v>7</v>
+      </c>
+      <c r="BA260">
+        <v>7</v>
+      </c>
+      <c r="BB260">
+        <v>3</v>
+      </c>
+      <c r="BC260">
+        <v>10</v>
+      </c>
+      <c r="BD260">
+        <v>1.4</v>
+      </c>
+      <c r="BE260">
+        <v>7</v>
+      </c>
+      <c r="BF260">
+        <v>3.3</v>
+      </c>
+      <c r="BG260">
+        <v>1.29</v>
+      </c>
+      <c r="BH260">
+        <v>3.2</v>
+      </c>
+      <c r="BI260">
+        <v>1.49</v>
+      </c>
+      <c r="BJ260">
+        <v>2.4</v>
+      </c>
+      <c r="BK260">
+        <v>1.81</v>
+      </c>
+      <c r="BL260">
+        <v>1.88</v>
+      </c>
+      <c r="BM260">
+        <v>2.28</v>
+      </c>
+      <c r="BN260">
+        <v>1.55</v>
+      </c>
+      <c r="BO260">
+        <v>2.9</v>
+      </c>
+      <c r="BP260">
+        <v>1.35</v>
+      </c>
+    </row>
+    <row r="261" spans="1:68">
+      <c r="A261" s="1">
+        <v>260</v>
+      </c>
+      <c r="B261">
+        <v>7885780</v>
+      </c>
+      <c r="C261" t="s">
+        <v>68</v>
+      </c>
+      <c r="D261" t="s">
+        <v>69</v>
+      </c>
+      <c r="E261" s="2">
+        <v>45788.41666666666</v>
+      </c>
+      <c r="F261">
+        <v>3</v>
+      </c>
+      <c r="G261" t="s">
+        <v>83</v>
+      </c>
+      <c r="H261" t="s">
+        <v>74</v>
+      </c>
+      <c r="I261">
+        <v>1</v>
+      </c>
+      <c r="J261">
+        <v>1</v>
+      </c>
+      <c r="K261">
+        <v>2</v>
+      </c>
+      <c r="L261">
+        <v>2</v>
+      </c>
+      <c r="M261">
+        <v>3</v>
+      </c>
+      <c r="N261">
+        <v>5</v>
+      </c>
+      <c r="O261" t="s">
+        <v>250</v>
+      </c>
+      <c r="P261" t="s">
+        <v>362</v>
+      </c>
+      <c r="Q261">
+        <v>2.5</v>
+      </c>
+      <c r="R261">
+        <v>2.3</v>
+      </c>
+      <c r="S261">
+        <v>4</v>
+      </c>
+      <c r="T261">
+        <v>1.33</v>
+      </c>
+      <c r="U261">
+        <v>3.25</v>
+      </c>
+      <c r="V261">
+        <v>2.5</v>
+      </c>
+      <c r="W261">
+        <v>1.5</v>
+      </c>
+      <c r="X261">
+        <v>6.5</v>
+      </c>
+      <c r="Y261">
+        <v>1.11</v>
+      </c>
+      <c r="Z261">
+        <v>1.95</v>
+      </c>
+      <c r="AA261">
+        <v>3.75</v>
+      </c>
+      <c r="AB261">
+        <v>3.5</v>
+      </c>
+      <c r="AC261">
+        <v>1.01</v>
+      </c>
+      <c r="AD261">
+        <v>11</v>
+      </c>
+      <c r="AE261">
+        <v>1.19</v>
+      </c>
+      <c r="AF261">
+        <v>3.84</v>
+      </c>
+      <c r="AG261">
+        <v>1.73</v>
+      </c>
+      <c r="AH261">
+        <v>2.08</v>
+      </c>
+      <c r="AI261">
+        <v>1.67</v>
+      </c>
+      <c r="AJ261">
+        <v>2.1</v>
+      </c>
+      <c r="AK261">
+        <v>1.3</v>
+      </c>
+      <c r="AL261">
+        <v>1.3</v>
+      </c>
+      <c r="AM261">
+        <v>1.75</v>
+      </c>
+      <c r="AN261">
+        <v>1.38</v>
+      </c>
+      <c r="AO261">
+        <v>0.75</v>
+      </c>
+      <c r="AP261">
+        <v>1.29</v>
+      </c>
+      <c r="AQ261">
+        <v>0.88</v>
+      </c>
+      <c r="AR261">
+        <v>1.57</v>
+      </c>
+      <c r="AS261">
+        <v>0.99</v>
+      </c>
+      <c r="AT261">
+        <v>2.56</v>
+      </c>
+      <c r="AU261">
+        <v>3</v>
+      </c>
+      <c r="AV261">
+        <v>10</v>
+      </c>
+      <c r="AW261">
+        <v>4</v>
+      </c>
+      <c r="AX261">
+        <v>8</v>
+      </c>
+      <c r="AY261">
+        <v>7</v>
+      </c>
+      <c r="AZ261">
+        <v>18</v>
+      </c>
+      <c r="BA261">
+        <v>7</v>
+      </c>
+      <c r="BB261">
+        <v>5</v>
+      </c>
+      <c r="BC261">
+        <v>12</v>
+      </c>
+      <c r="BD261">
+        <v>1.64</v>
+      </c>
+      <c r="BE261">
+        <v>7</v>
+      </c>
+      <c r="BF261">
+        <v>2.48</v>
+      </c>
+      <c r="BG261">
+        <v>1.22</v>
+      </c>
+      <c r="BH261">
+        <v>3.7</v>
+      </c>
+      <c r="BI261">
+        <v>1.38</v>
+      </c>
+      <c r="BJ261">
+        <v>2.7</v>
+      </c>
+      <c r="BK261">
+        <v>1.65</v>
+      </c>
+      <c r="BL261">
+        <v>2.08</v>
+      </c>
+      <c r="BM261">
+        <v>2</v>
+      </c>
+      <c r="BN261">
+        <v>1.71</v>
+      </c>
+      <c r="BO261">
+        <v>2.5</v>
+      </c>
+      <c r="BP261">
+        <v>1.46</v>
+      </c>
+    </row>
+    <row r="262" spans="1:68">
+      <c r="A262" s="1">
+        <v>261</v>
+      </c>
+      <c r="B262">
+        <v>7885776</v>
+      </c>
+      <c r="C262" t="s">
+        <v>68</v>
+      </c>
+      <c r="D262" t="s">
+        <v>69</v>
+      </c>
+      <c r="E262" s="2">
+        <v>45788.41666666666</v>
+      </c>
+      <c r="F262">
+        <v>0</v>
+      </c>
+      <c r="G262" t="s">
+        <v>81</v>
+      </c>
+      <c r="H262" t="s">
+        <v>73</v>
+      </c>
+      <c r="I262">
+        <v>0</v>
+      </c>
+      <c r="J262">
+        <v>0</v>
+      </c>
+      <c r="K262">
+        <v>0</v>
+      </c>
+      <c r="L262">
+        <v>1</v>
+      </c>
+      <c r="M262">
+        <v>0</v>
+      </c>
+      <c r="N262">
+        <v>1</v>
+      </c>
+      <c r="O262" t="s">
+        <v>251</v>
+      </c>
+      <c r="P262" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q262">
+        <v>2.38</v>
+      </c>
+      <c r="R262">
+        <v>2.38</v>
+      </c>
+      <c r="S262">
+        <v>4.33</v>
+      </c>
+      <c r="T262">
+        <v>1.3</v>
+      </c>
+      <c r="U262">
+        <v>3.4</v>
+      </c>
+      <c r="V262">
+        <v>2.38</v>
+      </c>
+      <c r="W262">
+        <v>1.53</v>
+      </c>
+      <c r="X262">
+        <v>6</v>
+      </c>
+      <c r="Y262">
+        <v>1.13</v>
+      </c>
+      <c r="Z262">
+        <v>1.83</v>
+      </c>
+      <c r="AA262">
+        <v>4.1</v>
+      </c>
+      <c r="AB262">
+        <v>3.7</v>
+      </c>
+      <c r="AC262">
+        <v>1.03</v>
+      </c>
+      <c r="AD262">
+        <v>10</v>
+      </c>
+      <c r="AE262">
+        <v>1.2</v>
+      </c>
+      <c r="AF262">
+        <v>4.33</v>
+      </c>
+      <c r="AG262">
+        <v>1.65</v>
+      </c>
+      <c r="AH262">
+        <v>2.2</v>
+      </c>
+      <c r="AI262">
+        <v>1.62</v>
+      </c>
+      <c r="AJ262">
+        <v>2.2</v>
+      </c>
+      <c r="AK262">
+        <v>1.22</v>
+      </c>
+      <c r="AL262">
+        <v>1.2</v>
+      </c>
+      <c r="AM262">
+        <v>1.91</v>
+      </c>
+      <c r="AN262">
+        <v>1.35</v>
+      </c>
+      <c r="AO262">
+        <v>1.19</v>
+      </c>
+      <c r="AP262">
+        <v>1.41</v>
+      </c>
+      <c r="AQ262">
+        <v>1.16</v>
+      </c>
+      <c r="AR262">
+        <v>1.51</v>
+      </c>
+      <c r="AS262">
+        <v>1.43</v>
+      </c>
+      <c r="AT262">
+        <v>2.94</v>
+      </c>
+      <c r="AU262">
+        <v>7</v>
+      </c>
+      <c r="AV262">
+        <v>2</v>
+      </c>
+      <c r="AW262">
+        <v>6</v>
+      </c>
+      <c r="AX262">
+        <v>2</v>
+      </c>
+      <c r="AY262">
+        <v>13</v>
+      </c>
+      <c r="AZ262">
+        <v>4</v>
+      </c>
+      <c r="BA262">
+        <v>9</v>
+      </c>
+      <c r="BB262">
+        <v>1</v>
+      </c>
+      <c r="BC262">
+        <v>10</v>
+      </c>
+      <c r="BD262">
+        <v>1.4</v>
+      </c>
+      <c r="BE262">
+        <v>9.5</v>
+      </c>
+      <c r="BF262">
+        <v>3.2</v>
+      </c>
+      <c r="BG262">
+        <v>1.21</v>
+      </c>
+      <c r="BH262">
+        <v>3.9</v>
+      </c>
+      <c r="BI262">
+        <v>1.29</v>
+      </c>
+      <c r="BJ262">
+        <v>3.04</v>
+      </c>
+      <c r="BK262">
+        <v>1.54</v>
+      </c>
+      <c r="BL262">
+        <v>2.25</v>
+      </c>
+      <c r="BM262">
+        <v>1.91</v>
+      </c>
+      <c r="BN262">
+        <v>1.8</v>
+      </c>
+      <c r="BO262">
+        <v>2.45</v>
+      </c>
+      <c r="BP262">
+        <v>1.46</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Czech Republic First League_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Czech Republic First League_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1634" uniqueCount="363">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1640" uniqueCount="364">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -772,6 +772,9 @@
     <t>['71']</t>
   </si>
   <si>
+    <t>['57']</t>
+  </si>
+  <si>
     <t>['25']</t>
   </si>
   <si>
@@ -806,9 +809,6 @@
   </si>
   <si>
     <t>['1', '38']</t>
-  </si>
-  <si>
-    <t>['57']</t>
   </si>
   <si>
     <t>['38', '68']</t>
@@ -1103,6 +1103,9 @@
   </si>
   <si>
     <t>['31', '62', '74']</t>
+  </si>
+  <si>
+    <t>['59', '63']</t>
   </si>
 </sst>
 </file>
@@ -1464,7 +1467,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP262"/>
+  <dimension ref="A1:BP263"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1723,7 +1726,7 @@
         <v>86</v>
       </c>
       <c r="P2" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q2">
         <v>1.53</v>
@@ -2135,7 +2138,7 @@
         <v>88</v>
       </c>
       <c r="P4" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q4">
         <v>2.88</v>
@@ -2422,7 +2425,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ5">
-        <v>1.8</v>
+        <v>1.88</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -2547,7 +2550,7 @@
         <v>90</v>
       </c>
       <c r="P6" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q6">
         <v>5.5</v>
@@ -2753,7 +2756,7 @@
         <v>91</v>
       </c>
       <c r="P7" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q7">
         <v>3.2</v>
@@ -3577,7 +3580,7 @@
         <v>94</v>
       </c>
       <c r="P11" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Q11">
         <v>6.5</v>
@@ -3783,7 +3786,7 @@
         <v>88</v>
       </c>
       <c r="P12" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Q12">
         <v>2.85</v>
@@ -4891,7 +4894,7 @@
         <v>0</v>
       </c>
       <c r="AP17">
-        <v>2.38</v>
+        <v>2.24</v>
       </c>
       <c r="AQ17">
         <v>1.25</v>
@@ -5019,7 +5022,7 @@
         <v>88</v>
       </c>
       <c r="P18" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Q18">
         <v>5.4</v>
@@ -6049,7 +6052,7 @@
         <v>102</v>
       </c>
       <c r="P23" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q23">
         <v>2.6</v>
@@ -6255,7 +6258,7 @@
         <v>103</v>
       </c>
       <c r="P24" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Q24">
         <v>2.75</v>
@@ -6461,7 +6464,7 @@
         <v>88</v>
       </c>
       <c r="P25" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Q25">
         <v>1.06</v>
@@ -6873,7 +6876,7 @@
         <v>105</v>
       </c>
       <c r="P27" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Q27">
         <v>6.23</v>
@@ -7981,7 +7984,7 @@
         <v>3</v>
       </c>
       <c r="AP32">
-        <v>2.38</v>
+        <v>2.24</v>
       </c>
       <c r="AQ32">
         <v>1.19</v>
@@ -8315,7 +8318,7 @@
         <v>111</v>
       </c>
       <c r="P34" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Q34">
         <v>2.84</v>
@@ -8521,7 +8524,7 @@
         <v>112</v>
       </c>
       <c r="P35" t="s">
-        <v>264</v>
+        <v>252</v>
       </c>
       <c r="Q35">
         <v>1.45</v>
@@ -9632,7 +9635,7 @@
         <v>1.35</v>
       </c>
       <c r="AQ40">
-        <v>1.8</v>
+        <v>1.88</v>
       </c>
       <c r="AR40">
         <v>1.19</v>
@@ -11074,7 +11077,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ47">
-        <v>1.8</v>
+        <v>1.88</v>
       </c>
       <c r="AR47">
         <v>1.77</v>
@@ -12104,7 +12107,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ52">
-        <v>1.8</v>
+        <v>1.88</v>
       </c>
       <c r="AR52">
         <v>1.61</v>
@@ -12925,7 +12928,7 @@
         <v>1.33</v>
       </c>
       <c r="AP56">
-        <v>2.38</v>
+        <v>2.24</v>
       </c>
       <c r="AQ56">
         <v>1.24</v>
@@ -13752,7 +13755,7 @@
         <v>1.53</v>
       </c>
       <c r="AQ60">
-        <v>1.8</v>
+        <v>1.88</v>
       </c>
       <c r="AR60">
         <v>1.44</v>
@@ -16221,7 +16224,7 @@
         <v>0.75</v>
       </c>
       <c r="AP72">
-        <v>2.38</v>
+        <v>2.24</v>
       </c>
       <c r="AQ72">
         <v>1.13</v>
@@ -17457,7 +17460,7 @@
         <v>0.8</v>
       </c>
       <c r="AP78">
-        <v>2.38</v>
+        <v>2.24</v>
       </c>
       <c r="AQ78">
         <v>0.35</v>
@@ -17872,7 +17875,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ80">
-        <v>1.8</v>
+        <v>1.88</v>
       </c>
       <c r="AR80">
         <v>1.49</v>
@@ -20344,7 +20347,7 @@
         <v>1</v>
       </c>
       <c r="AQ92">
-        <v>1.8</v>
+        <v>1.88</v>
       </c>
       <c r="AR92">
         <v>1.11</v>
@@ -21371,7 +21374,7 @@
         <v>2.5</v>
       </c>
       <c r="AP97">
-        <v>2.38</v>
+        <v>2.24</v>
       </c>
       <c r="AQ97">
         <v>1.76</v>
@@ -22198,7 +22201,7 @@
         <v>2</v>
       </c>
       <c r="AQ101">
-        <v>1.8</v>
+        <v>1.88</v>
       </c>
       <c r="AR101">
         <v>1.9</v>
@@ -24049,7 +24052,7 @@
         <v>1.71</v>
       </c>
       <c r="AP110">
-        <v>2.38</v>
+        <v>2.24</v>
       </c>
       <c r="AQ110">
         <v>1.19</v>
@@ -24670,7 +24673,7 @@
         <v>2.06</v>
       </c>
       <c r="AQ113">
-        <v>1.8</v>
+        <v>1.88</v>
       </c>
       <c r="AR113">
         <v>1.63</v>
@@ -26649,7 +26652,7 @@
         <v>171</v>
       </c>
       <c r="P123" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Q123">
         <v>1.83</v>
@@ -27963,7 +27966,7 @@
         <v>1.38</v>
       </c>
       <c r="AP129">
-        <v>2.38</v>
+        <v>2.24</v>
       </c>
       <c r="AQ129">
         <v>1.59</v>
@@ -29611,7 +29614,7 @@
         <v>1</v>
       </c>
       <c r="AP137">
-        <v>2.38</v>
+        <v>2.24</v>
       </c>
       <c r="AQ137">
         <v>0.75</v>
@@ -31262,7 +31265,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ145">
-        <v>1.8</v>
+        <v>1.88</v>
       </c>
       <c r="AR145">
         <v>1.32</v>
@@ -32907,7 +32910,7 @@
         <v>0.13</v>
       </c>
       <c r="AP153">
-        <v>2.38</v>
+        <v>2.24</v>
       </c>
       <c r="AQ153">
         <v>0.12</v>
@@ -33241,7 +33244,7 @@
         <v>88</v>
       </c>
       <c r="P155" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Q155">
         <v>3.2</v>
@@ -33322,7 +33325,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ155">
-        <v>1.8</v>
+        <v>1.88</v>
       </c>
       <c r="AR155">
         <v>1.51</v>
@@ -35173,7 +35176,7 @@
         <v>1.1</v>
       </c>
       <c r="AP164">
-        <v>2.38</v>
+        <v>2.24</v>
       </c>
       <c r="AQ164">
         <v>1.19</v>
@@ -37648,7 +37651,7 @@
         <v>3</v>
       </c>
       <c r="AQ176">
-        <v>1.8</v>
+        <v>1.88</v>
       </c>
       <c r="AR176">
         <v>2.32</v>
@@ -39087,7 +39090,7 @@
         <v>2.36</v>
       </c>
       <c r="AP183">
-        <v>2.38</v>
+        <v>2.24</v>
       </c>
       <c r="AQ183">
         <v>2.25</v>
@@ -39296,7 +39299,7 @@
         <v>0.25</v>
       </c>
       <c r="AQ184">
-        <v>1.8</v>
+        <v>1.88</v>
       </c>
       <c r="AR184">
         <v>1.24</v>
@@ -41687,7 +41690,7 @@
         <v>215</v>
       </c>
       <c r="P196" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Q196">
         <v>1.95</v>
@@ -41893,7 +41896,7 @@
         <v>88</v>
       </c>
       <c r="P197" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Q197">
         <v>2.88</v>
@@ -43825,10 +43828,10 @@
         <v>1.62</v>
       </c>
       <c r="AP206">
-        <v>2.38</v>
+        <v>2.24</v>
       </c>
       <c r="AQ206">
-        <v>1.8</v>
+        <v>1.88</v>
       </c>
       <c r="AR206">
         <v>1.77</v>
@@ -46837,7 +46840,7 @@
         <v>228</v>
       </c>
       <c r="P221" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Q221">
         <v>1.67</v>
@@ -47533,7 +47536,7 @@
         <v>0.85</v>
       </c>
       <c r="AP224">
-        <v>2.38</v>
+        <v>2.24</v>
       </c>
       <c r="AQ224">
         <v>0.6899999999999999</v>
@@ -48154,7 +48157,7 @@
         <v>1</v>
       </c>
       <c r="AQ227">
-        <v>1.8</v>
+        <v>1.88</v>
       </c>
       <c r="AR227">
         <v>1.29</v>
@@ -51035,7 +51038,7 @@
         <v>0.79</v>
       </c>
       <c r="AP241">
-        <v>2.38</v>
+        <v>2.24</v>
       </c>
       <c r="AQ241">
         <v>0.88</v>
@@ -52271,7 +52274,7 @@
         <v>2</v>
       </c>
       <c r="AP247">
-        <v>2.38</v>
+        <v>2.24</v>
       </c>
       <c r="AQ247">
         <v>1.76</v>
@@ -55440,6 +55443,212 @@
       </c>
       <c r="BP262">
         <v>1.46</v>
+      </c>
+    </row>
+    <row r="263" spans="1:68">
+      <c r="A263" s="1">
+        <v>262</v>
+      </c>
+      <c r="B263">
+        <v>7885777</v>
+      </c>
+      <c r="C263" t="s">
+        <v>68</v>
+      </c>
+      <c r="D263" t="s">
+        <v>69</v>
+      </c>
+      <c r="E263" s="2">
+        <v>45788.52083333334</v>
+      </c>
+      <c r="F263">
+        <v>3</v>
+      </c>
+      <c r="G263" t="s">
+        <v>84</v>
+      </c>
+      <c r="H263" t="s">
+        <v>82</v>
+      </c>
+      <c r="I263">
+        <v>0</v>
+      </c>
+      <c r="J263">
+        <v>0</v>
+      </c>
+      <c r="K263">
+        <v>0</v>
+      </c>
+      <c r="L263">
+        <v>1</v>
+      </c>
+      <c r="M263">
+        <v>2</v>
+      </c>
+      <c r="N263">
+        <v>3</v>
+      </c>
+      <c r="O263" t="s">
+        <v>252</v>
+      </c>
+      <c r="P263" t="s">
+        <v>363</v>
+      </c>
+      <c r="Q263">
+        <v>2.2</v>
+      </c>
+      <c r="R263">
+        <v>2.4</v>
+      </c>
+      <c r="S263">
+        <v>5</v>
+      </c>
+      <c r="T263">
+        <v>1.3</v>
+      </c>
+      <c r="U263">
+        <v>3.4</v>
+      </c>
+      <c r="V263">
+        <v>2.5</v>
+      </c>
+      <c r="W263">
+        <v>1.5</v>
+      </c>
+      <c r="X263">
+        <v>6</v>
+      </c>
+      <c r="Y263">
+        <v>1.13</v>
+      </c>
+      <c r="Z263">
+        <v>1.67</v>
+      </c>
+      <c r="AA263">
+        <v>3.7</v>
+      </c>
+      <c r="AB263">
+        <v>4.8</v>
+      </c>
+      <c r="AC263">
+        <v>1.01</v>
+      </c>
+      <c r="AD263">
+        <v>11</v>
+      </c>
+      <c r="AE263">
+        <v>1.16</v>
+      </c>
+      <c r="AF263">
+        <v>4.15</v>
+      </c>
+      <c r="AG263">
+        <v>1.67</v>
+      </c>
+      <c r="AH263">
+        <v>2.15</v>
+      </c>
+      <c r="AI263">
+        <v>1.7</v>
+      </c>
+      <c r="AJ263">
+        <v>2.05</v>
+      </c>
+      <c r="AK263">
+        <v>1.18</v>
+      </c>
+      <c r="AL263">
+        <v>1.25</v>
+      </c>
+      <c r="AM263">
+        <v>2.15</v>
+      </c>
+      <c r="AN263">
+        <v>2.38</v>
+      </c>
+      <c r="AO263">
+        <v>1.8</v>
+      </c>
+      <c r="AP263">
+        <v>2.24</v>
+      </c>
+      <c r="AQ263">
+        <v>1.88</v>
+      </c>
+      <c r="AR263">
+        <v>1.76</v>
+      </c>
+      <c r="AS263">
+        <v>1.74</v>
+      </c>
+      <c r="AT263">
+        <v>3.5</v>
+      </c>
+      <c r="AU263">
+        <v>-1</v>
+      </c>
+      <c r="AV263">
+        <v>-1</v>
+      </c>
+      <c r="AW263">
+        <v>-1</v>
+      </c>
+      <c r="AX263">
+        <v>-1</v>
+      </c>
+      <c r="AY263">
+        <v>-1</v>
+      </c>
+      <c r="AZ263">
+        <v>-1</v>
+      </c>
+      <c r="BA263">
+        <v>-1</v>
+      </c>
+      <c r="BB263">
+        <v>-1</v>
+      </c>
+      <c r="BC263">
+        <v>-1</v>
+      </c>
+      <c r="BD263">
+        <v>1.57</v>
+      </c>
+      <c r="BE263">
+        <v>7</v>
+      </c>
+      <c r="BF263">
+        <v>2.65</v>
+      </c>
+      <c r="BG263">
+        <v>1.19</v>
+      </c>
+      <c r="BH263">
+        <v>4.1</v>
+      </c>
+      <c r="BI263">
+        <v>1.32</v>
+      </c>
+      <c r="BJ263">
+        <v>3.05</v>
+      </c>
+      <c r="BK263">
+        <v>1.53</v>
+      </c>
+      <c r="BL263">
+        <v>2.32</v>
+      </c>
+      <c r="BM263">
+        <v>1.82</v>
+      </c>
+      <c r="BN263">
+        <v>1.86</v>
+      </c>
+      <c r="BO263">
+        <v>2.23</v>
+      </c>
+      <c r="BP263">
+        <v>1.56</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Czech Republic First League_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Czech Republic First League_20242025.xlsx
@@ -55585,31 +55585,31 @@
         <v>3.5</v>
       </c>
       <c r="AU263">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="AV263">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="AW263">
-        <v>-1</v>
+        <v>13</v>
       </c>
       <c r="AX263">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="AY263">
-        <v>-1</v>
+        <v>23</v>
       </c>
       <c r="AZ263">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="BA263">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="BB263">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="BC263">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="BD263">
         <v>1.57</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Czech Republic First League_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Czech Republic First League_20242025.xlsx
@@ -559,19 +559,19 @@
     <t>['74']</t>
   </si>
   <si>
-    <t>['32']</t>
+    <t>['20', '78', '90+2']</t>
   </si>
   <si>
-    <t>['20', '78', '90+2']</t>
+    <t>['32']</t>
   </si>
   <si>
     <t>['76']</t>
   </si>
   <si>
-    <t>['80']</t>
+    <t>['19', '87', '90+2']</t>
   </si>
   <si>
-    <t>['19', '87', '90+2']</t>
+    <t>['80']</t>
   </si>
   <si>
     <t>['2', '24', '90']</t>
@@ -607,10 +607,10 @@
     <t>['11', '52', '66', '73']</t>
   </si>
   <si>
-    <t>['6']</t>
+    <t>['31']</t>
   </si>
   <si>
-    <t>['31']</t>
+    <t>['6']</t>
   </si>
   <si>
     <t>['36', '64', '69']</t>
@@ -682,10 +682,10 @@
     <t>['17', '34', '67', '84', '90+1']</t>
   </si>
   <si>
-    <t>['34']</t>
+    <t>['35', '56', '61']</t>
   </si>
   <si>
-    <t>['35', '56', '61']</t>
+    <t>['34']</t>
   </si>
   <si>
     <t>['8', '48']</t>
@@ -718,19 +718,19 @@
     <t>['90+9']</t>
   </si>
   <si>
-    <t>['10', '48']</t>
+    <t>['10', '33', '73', '82']</t>
+  </si>
+  <si>
+    <t>['41', '85']</t>
+  </si>
+  <si>
+    <t>['35', '59', '80']</t>
   </si>
   <si>
     <t>['45']</t>
   </si>
   <si>
-    <t>['35', '59', '80']</t>
-  </si>
-  <si>
-    <t>['41', '85']</t>
-  </si>
-  <si>
-    <t>['10', '33', '73', '82']</t>
+    <t>['10', '48']</t>
   </si>
   <si>
     <t>['70']</t>
@@ -973,10 +973,10 @@
     <t>['28', '33']</t>
   </si>
   <si>
-    <t>['82']</t>
+    <t>['26', '30', '38']</t>
   </si>
   <si>
-    <t>['26', '30', '38']</t>
+    <t>['82']</t>
   </si>
   <si>
     <t>['4', '27', '73']</t>
@@ -1066,19 +1066,19 @@
     <t>['33', '74']</t>
   </si>
   <si>
-    <t>['4', '90+5']</t>
-  </si>
-  <si>
     <t>['29', '48']</t>
   </si>
   <si>
-    <t>['45', '51', '69']</t>
+    <t>['4', '90+5']</t>
   </si>
   <si>
     <t>['16', '64']</t>
   </si>
   <si>
     <t>['4', '89']</t>
+  </si>
+  <si>
+    <t>['45', '51', '69']</t>
   </si>
   <si>
     <t>['53', '58']</t>
@@ -30730,7 +30730,7 @@
         <v>142</v>
       </c>
       <c r="B143">
-        <v>7468216</v>
+        <v>7468217</v>
       </c>
       <c r="C143" t="s">
         <v>68</v>
@@ -30745,10 +30745,10 @@
         <v>18</v>
       </c>
       <c r="G143" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="H143" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="I143">
         <v>1</v>
@@ -30760,10 +30760,10 @@
         <v>1</v>
       </c>
       <c r="L143">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M143">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N143">
         <v>3</v>
@@ -30772,133 +30772,133 @@
         <v>181</v>
       </c>
       <c r="P143" t="s">
-        <v>316</v>
+        <v>88</v>
       </c>
       <c r="Q143">
+        <v>2.4</v>
+      </c>
+      <c r="R143">
+        <v>2.25</v>
+      </c>
+      <c r="S143">
+        <v>4</v>
+      </c>
+      <c r="T143">
+        <v>1.32</v>
+      </c>
+      <c r="U143">
+        <v>3.15</v>
+      </c>
+      <c r="V143">
+        <v>2.4</v>
+      </c>
+      <c r="W143">
+        <v>1.51</v>
+      </c>
+      <c r="X143">
+        <v>5.45</v>
+      </c>
+      <c r="Y143">
+        <v>1.12</v>
+      </c>
+      <c r="Z143">
+        <v>1.85</v>
+      </c>
+      <c r="AA143">
+        <v>3.6</v>
+      </c>
+      <c r="AB143">
+        <v>4</v>
+      </c>
+      <c r="AC143">
+        <v>1.04</v>
+      </c>
+      <c r="AD143">
+        <v>9</v>
+      </c>
+      <c r="AE143">
+        <v>1.2</v>
+      </c>
+      <c r="AF143">
+        <v>4.33</v>
+      </c>
+      <c r="AG143">
+        <v>1.63</v>
+      </c>
+      <c r="AH143">
+        <v>2.2</v>
+      </c>
+      <c r="AI143">
+        <v>1.57</v>
+      </c>
+      <c r="AJ143">
+        <v>2.3</v>
+      </c>
+      <c r="AK143">
+        <v>1.2</v>
+      </c>
+      <c r="AL143">
+        <v>1.22</v>
+      </c>
+      <c r="AM143">
+        <v>1.9</v>
+      </c>
+      <c r="AN143">
+        <v>1.25</v>
+      </c>
+      <c r="AO143">
+        <v>1</v>
+      </c>
+      <c r="AP143">
+        <v>1.63</v>
+      </c>
+      <c r="AQ143">
+        <v>0.75</v>
+      </c>
+      <c r="AR143">
+        <v>1.52</v>
+      </c>
+      <c r="AS143">
+        <v>1.26</v>
+      </c>
+      <c r="AT143">
+        <v>2.78</v>
+      </c>
+      <c r="AU143">
         <v>6</v>
       </c>
-      <c r="R143">
-        <v>2.5</v>
-      </c>
-      <c r="S143">
-        <v>1.83</v>
-      </c>
-      <c r="T143">
-        <v>1.28</v>
-      </c>
-      <c r="U143">
-        <v>3.4</v>
-      </c>
-      <c r="V143">
-        <v>2.29</v>
-      </c>
-      <c r="W143">
-        <v>1.56</v>
-      </c>
-      <c r="X143">
+      <c r="AV143">
         <v>5</v>
       </c>
-      <c r="Y143">
-        <v>1.14</v>
-      </c>
-      <c r="Z143">
-        <v>7.5</v>
-      </c>
-      <c r="AA143">
-        <v>4.75</v>
-      </c>
-      <c r="AB143">
-        <v>1.38</v>
-      </c>
-      <c r="AC143">
-        <v>1.03</v>
-      </c>
-      <c r="AD143">
-        <v>10</v>
-      </c>
-      <c r="AE143">
-        <v>1.18</v>
-      </c>
-      <c r="AF143">
-        <v>4.75</v>
-      </c>
-      <c r="AG143">
-        <v>1.57</v>
-      </c>
-      <c r="AH143">
-        <v>2.3</v>
-      </c>
-      <c r="AI143">
-        <v>1.8</v>
-      </c>
-      <c r="AJ143">
-        <v>1.95</v>
-      </c>
-      <c r="AK143">
-        <v>3</v>
-      </c>
-      <c r="AL143">
-        <v>1.12</v>
-      </c>
-      <c r="AM143">
-        <v>1.04</v>
-      </c>
-      <c r="AN143">
-        <v>1.75</v>
-      </c>
-      <c r="AO143">
-        <v>2.5</v>
-      </c>
-      <c r="AP143">
-        <v>1.44</v>
-      </c>
-      <c r="AQ143">
-        <v>2.25</v>
-      </c>
-      <c r="AR143">
-        <v>1.69</v>
-      </c>
-      <c r="AS143">
-        <v>1.67</v>
-      </c>
-      <c r="AT143">
-        <v>3.36</v>
-      </c>
-      <c r="AU143">
-        <v>4</v>
-      </c>
-      <c r="AV143">
-        <v>6</v>
-      </c>
       <c r="AW143">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AX143">
         <v>6</v>
       </c>
       <c r="AY143">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="AZ143">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="BA143">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="BB143">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="BC143">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BD143">
-        <v>6.6</v>
+        <v>1.33</v>
       </c>
       <c r="BE143">
-        <v>8.800000000000001</v>
+        <v>8.4</v>
       </c>
       <c r="BF143">
-        <v>1.16</v>
+        <v>3.9</v>
       </c>
       <c r="BG143">
         <v>0</v>
@@ -30907,28 +30907,28 @@
         <v>0</v>
       </c>
       <c r="BI143">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="BJ143">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="BK143">
-        <v>1.48</v>
+        <v>1.52</v>
       </c>
       <c r="BL143">
-        <v>2.42</v>
+        <v>2.32</v>
       </c>
       <c r="BM143">
-        <v>1.82</v>
+        <v>1.9</v>
       </c>
       <c r="BN143">
-        <v>1.82</v>
+        <v>1.78</v>
       </c>
       <c r="BO143">
-        <v>2.42</v>
+        <v>2.52</v>
       </c>
       <c r="BP143">
-        <v>1.49</v>
+        <v>1.45</v>
       </c>
     </row>
     <row r="144" spans="1:68">
@@ -30936,7 +30936,7 @@
         <v>143</v>
       </c>
       <c r="B144">
-        <v>7468217</v>
+        <v>7468216</v>
       </c>
       <c r="C144" t="s">
         <v>68</v>
@@ -30951,10 +30951,10 @@
         <v>18</v>
       </c>
       <c r="G144" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="H144" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="I144">
         <v>1</v>
@@ -30966,10 +30966,10 @@
         <v>1</v>
       </c>
       <c r="L144">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M144">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N144">
         <v>3</v>
@@ -30978,133 +30978,133 @@
         <v>182</v>
       </c>
       <c r="P144" t="s">
-        <v>88</v>
+        <v>316</v>
       </c>
       <c r="Q144">
-        <v>2.4</v>
+        <v>6</v>
       </c>
       <c r="R144">
+        <v>2.5</v>
+      </c>
+      <c r="S144">
+        <v>1.83</v>
+      </c>
+      <c r="T144">
+        <v>1.28</v>
+      </c>
+      <c r="U144">
+        <v>3.4</v>
+      </c>
+      <c r="V144">
+        <v>2.29</v>
+      </c>
+      <c r="W144">
+        <v>1.56</v>
+      </c>
+      <c r="X144">
+        <v>5</v>
+      </c>
+      <c r="Y144">
+        <v>1.14</v>
+      </c>
+      <c r="Z144">
+        <v>7.5</v>
+      </c>
+      <c r="AA144">
+        <v>4.75</v>
+      </c>
+      <c r="AB144">
+        <v>1.38</v>
+      </c>
+      <c r="AC144">
+        <v>1.03</v>
+      </c>
+      <c r="AD144">
+        <v>10</v>
+      </c>
+      <c r="AE144">
+        <v>1.18</v>
+      </c>
+      <c r="AF144">
+        <v>4.75</v>
+      </c>
+      <c r="AG144">
+        <v>1.57</v>
+      </c>
+      <c r="AH144">
+        <v>2.3</v>
+      </c>
+      <c r="AI144">
+        <v>1.8</v>
+      </c>
+      <c r="AJ144">
+        <v>1.95</v>
+      </c>
+      <c r="AK144">
+        <v>3</v>
+      </c>
+      <c r="AL144">
+        <v>1.12</v>
+      </c>
+      <c r="AM144">
+        <v>1.04</v>
+      </c>
+      <c r="AN144">
+        <v>1.75</v>
+      </c>
+      <c r="AO144">
+        <v>2.5</v>
+      </c>
+      <c r="AP144">
+        <v>1.44</v>
+      </c>
+      <c r="AQ144">
         <v>2.25</v>
       </c>
-      <c r="S144">
+      <c r="AR144">
+        <v>1.69</v>
+      </c>
+      <c r="AS144">
+        <v>1.67</v>
+      </c>
+      <c r="AT144">
+        <v>3.36</v>
+      </c>
+      <c r="AU144">
         <v>4</v>
       </c>
-      <c r="T144">
-        <v>1.32</v>
-      </c>
-      <c r="U144">
-        <v>3.15</v>
-      </c>
-      <c r="V144">
-        <v>2.4</v>
-      </c>
-      <c r="W144">
-        <v>1.51</v>
-      </c>
-      <c r="X144">
-        <v>5.45</v>
-      </c>
-      <c r="Y144">
-        <v>1.12</v>
-      </c>
-      <c r="Z144">
-        <v>1.85</v>
-      </c>
-      <c r="AA144">
-        <v>3.6</v>
-      </c>
-      <c r="AB144">
-        <v>4</v>
-      </c>
-      <c r="AC144">
-        <v>1.04</v>
-      </c>
-      <c r="AD144">
-        <v>9</v>
-      </c>
-      <c r="AE144">
-        <v>1.2</v>
-      </c>
-      <c r="AF144">
-        <v>4.33</v>
-      </c>
-      <c r="AG144">
-        <v>1.63</v>
-      </c>
-      <c r="AH144">
-        <v>2.2</v>
-      </c>
-      <c r="AI144">
-        <v>1.57</v>
-      </c>
-      <c r="AJ144">
-        <v>2.3</v>
-      </c>
-      <c r="AK144">
-        <v>1.2</v>
-      </c>
-      <c r="AL144">
-        <v>1.22</v>
-      </c>
-      <c r="AM144">
-        <v>1.9</v>
-      </c>
-      <c r="AN144">
-        <v>1.25</v>
-      </c>
-      <c r="AO144">
-        <v>1</v>
-      </c>
-      <c r="AP144">
-        <v>1.63</v>
-      </c>
-      <c r="AQ144">
-        <v>0.75</v>
-      </c>
-      <c r="AR144">
-        <v>1.52</v>
-      </c>
-      <c r="AS144">
-        <v>1.26</v>
-      </c>
-      <c r="AT144">
-        <v>2.78</v>
-      </c>
-      <c r="AU144">
+      <c r="AV144">
         <v>6</v>
       </c>
-      <c r="AV144">
-        <v>5</v>
-      </c>
       <c r="AW144">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AX144">
         <v>6</v>
       </c>
       <c r="AY144">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="AZ144">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="BA144">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="BB144">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="BC144">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BD144">
-        <v>1.33</v>
+        <v>6.6</v>
       </c>
       <c r="BE144">
-        <v>8.4</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="BF144">
-        <v>3.9</v>
+        <v>1.16</v>
       </c>
       <c r="BG144">
         <v>0</v>
@@ -31113,28 +31113,28 @@
         <v>0</v>
       </c>
       <c r="BI144">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="BJ144">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="BK144">
-        <v>1.52</v>
+        <v>1.48</v>
       </c>
       <c r="BL144">
-        <v>2.32</v>
+        <v>2.42</v>
       </c>
       <c r="BM144">
-        <v>1.9</v>
+        <v>1.82</v>
       </c>
       <c r="BN144">
-        <v>1.78</v>
+        <v>1.82</v>
       </c>
       <c r="BO144">
-        <v>2.52</v>
+        <v>2.42</v>
       </c>
       <c r="BP144">
-        <v>1.45</v>
+        <v>1.49</v>
       </c>
     </row>
     <row r="145" spans="1:68">
@@ -31554,7 +31554,7 @@
         <v>146</v>
       </c>
       <c r="B147">
-        <v>7468225</v>
+        <v>7468230</v>
       </c>
       <c r="C147" t="s">
         <v>68</v>
@@ -31569,28 +31569,28 @@
         <v>19</v>
       </c>
       <c r="G147" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="H147" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="I147">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J147">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K147">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L147">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M147">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N147">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="O147" t="s">
         <v>184</v>
@@ -31599,160 +31599,160 @@
         <v>319</v>
       </c>
       <c r="Q147">
+        <v>2.5</v>
+      </c>
+      <c r="R147">
+        <v>2.25</v>
+      </c>
+      <c r="S147">
+        <v>4</v>
+      </c>
+      <c r="T147">
+        <v>1.33</v>
+      </c>
+      <c r="U147">
+        <v>3.25</v>
+      </c>
+      <c r="V147">
+        <v>2.63</v>
+      </c>
+      <c r="W147">
+        <v>1.44</v>
+      </c>
+      <c r="X147">
+        <v>6.5</v>
+      </c>
+      <c r="Y147">
+        <v>1.11</v>
+      </c>
+      <c r="Z147">
+        <v>1.9</v>
+      </c>
+      <c r="AA147">
+        <v>3.7</v>
+      </c>
+      <c r="AB147">
         <v>3.8</v>
       </c>
-      <c r="R147">
+      <c r="AC147">
+        <v>1.04</v>
+      </c>
+      <c r="AD147">
+        <v>9</v>
+      </c>
+      <c r="AE147">
+        <v>1.22</v>
+      </c>
+      <c r="AF147">
+        <v>4</v>
+      </c>
+      <c r="AG147">
+        <v>1.73</v>
+      </c>
+      <c r="AH147">
+        <v>2.08</v>
+      </c>
+      <c r="AI147">
+        <v>1.67</v>
+      </c>
+      <c r="AJ147">
         <v>2.1</v>
       </c>
-      <c r="S147">
-        <v>2.73</v>
-      </c>
-      <c r="T147">
-        <v>1.4</v>
-      </c>
-      <c r="U147">
-        <v>2.82</v>
-      </c>
-      <c r="V147">
-        <v>2.86</v>
-      </c>
-      <c r="W147">
-        <v>1.39</v>
-      </c>
-      <c r="X147">
-        <v>7.3</v>
-      </c>
-      <c r="Y147">
-        <v>1.07</v>
-      </c>
-      <c r="Z147">
-        <v>3.2</v>
-      </c>
-      <c r="AA147">
-        <v>3.4</v>
-      </c>
-      <c r="AB147">
-        <v>2.16</v>
-      </c>
-      <c r="AC147">
-        <v>1</v>
-      </c>
-      <c r="AD147">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="AE147">
-        <v>1.26</v>
-      </c>
-      <c r="AF147">
-        <v>3.08</v>
-      </c>
-      <c r="AG147">
-        <v>1.95</v>
-      </c>
-      <c r="AH147">
-        <v>1.82</v>
-      </c>
-      <c r="AI147">
-        <v>1.75</v>
-      </c>
-      <c r="AJ147">
-        <v>1.96</v>
-      </c>
       <c r="AK147">
-        <v>1.65</v>
+        <v>1.22</v>
       </c>
       <c r="AL147">
-        <v>1.29</v>
+        <v>1.22</v>
       </c>
       <c r="AM147">
-        <v>1.33</v>
+        <v>1.85</v>
       </c>
       <c r="AN147">
         <v>1</v>
       </c>
       <c r="AO147">
-        <v>1.11</v>
+        <v>0.88</v>
       </c>
       <c r="AP147">
-        <v>1</v>
+        <v>1.13</v>
       </c>
       <c r="AQ147">
         <v>1.19</v>
       </c>
       <c r="AR147">
-        <v>1.26</v>
+        <v>1.47</v>
       </c>
       <c r="AS147">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="AT147">
-        <v>2.73</v>
+        <v>2.97</v>
       </c>
       <c r="AU147">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="AV147">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AW147">
         <v>9</v>
       </c>
       <c r="AX147">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="AY147">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="AZ147">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="BA147">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="BB147">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="BC147">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="BD147">
-        <v>3.06</v>
+        <v>1.51</v>
       </c>
       <c r="BE147">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="BF147">
-        <v>1.51</v>
+        <v>3.07</v>
       </c>
       <c r="BG147">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
       <c r="BH147">
-        <v>4.33</v>
+        <v>5</v>
       </c>
       <c r="BI147">
-        <v>1.36</v>
+        <v>1.38</v>
       </c>
       <c r="BJ147">
-        <v>3</v>
+        <v>2.88</v>
       </c>
       <c r="BK147">
-        <v>1.51</v>
+        <v>1.63</v>
       </c>
       <c r="BL147">
-        <v>2.46</v>
+        <v>2.18</v>
       </c>
       <c r="BM147">
+        <v>1.95</v>
+      </c>
+      <c r="BN147">
         <v>1.77</v>
       </c>
-      <c r="BN147">
-        <v>1.95</v>
-      </c>
       <c r="BO147">
-        <v>2.27</v>
+        <v>2.57</v>
       </c>
       <c r="BP147">
-        <v>1.59</v>
+        <v>1.47</v>
       </c>
     </row>
     <row r="148" spans="1:68">
@@ -31760,7 +31760,7 @@
         <v>147</v>
       </c>
       <c r="B148">
-        <v>7468230</v>
+        <v>7468225</v>
       </c>
       <c r="C148" t="s">
         <v>68</v>
@@ -31775,28 +31775,28 @@
         <v>19</v>
       </c>
       <c r="G148" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="H148" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="I148">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J148">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K148">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L148">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M148">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N148">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="O148" t="s">
         <v>185</v>
@@ -31805,160 +31805,160 @@
         <v>320</v>
       </c>
       <c r="Q148">
-        <v>2.5</v>
+        <v>3.8</v>
       </c>
       <c r="R148">
-        <v>2.25</v>
+        <v>2.1</v>
       </c>
       <c r="S148">
-        <v>4</v>
+        <v>2.73</v>
       </c>
       <c r="T148">
+        <v>1.4</v>
+      </c>
+      <c r="U148">
+        <v>2.82</v>
+      </c>
+      <c r="V148">
+        <v>2.86</v>
+      </c>
+      <c r="W148">
+        <v>1.39</v>
+      </c>
+      <c r="X148">
+        <v>7.3</v>
+      </c>
+      <c r="Y148">
+        <v>1.07</v>
+      </c>
+      <c r="Z148">
+        <v>3.2</v>
+      </c>
+      <c r="AA148">
+        <v>3.4</v>
+      </c>
+      <c r="AB148">
+        <v>2.16</v>
+      </c>
+      <c r="AC148">
+        <v>1</v>
+      </c>
+      <c r="AD148">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AE148">
+        <v>1.26</v>
+      </c>
+      <c r="AF148">
+        <v>3.08</v>
+      </c>
+      <c r="AG148">
+        <v>1.95</v>
+      </c>
+      <c r="AH148">
+        <v>1.82</v>
+      </c>
+      <c r="AI148">
+        <v>1.75</v>
+      </c>
+      <c r="AJ148">
+        <v>1.96</v>
+      </c>
+      <c r="AK148">
+        <v>1.65</v>
+      </c>
+      <c r="AL148">
+        <v>1.29</v>
+      </c>
+      <c r="AM148">
         <v>1.33</v>
       </c>
-      <c r="U148">
-        <v>3.25</v>
-      </c>
-      <c r="V148">
-        <v>2.63</v>
-      </c>
-      <c r="W148">
-        <v>1.44</v>
-      </c>
-      <c r="X148">
-        <v>6.5</v>
-      </c>
-      <c r="Y148">
+      <c r="AN148">
+        <v>1</v>
+      </c>
+      <c r="AO148">
         <v>1.11</v>
       </c>
-      <c r="Z148">
-        <v>1.9</v>
-      </c>
-      <c r="AA148">
-        <v>3.7</v>
-      </c>
-      <c r="AB148">
-        <v>3.8</v>
-      </c>
-      <c r="AC148">
-        <v>1.04</v>
-      </c>
-      <c r="AD148">
-        <v>9</v>
-      </c>
-      <c r="AE148">
-        <v>1.22</v>
-      </c>
-      <c r="AF148">
-        <v>4</v>
-      </c>
-      <c r="AG148">
-        <v>1.73</v>
-      </c>
-      <c r="AH148">
-        <v>2.08</v>
-      </c>
-      <c r="AI148">
-        <v>1.67</v>
-      </c>
-      <c r="AJ148">
-        <v>2.1</v>
-      </c>
-      <c r="AK148">
-        <v>1.22</v>
-      </c>
-      <c r="AL148">
-        <v>1.22</v>
-      </c>
-      <c r="AM148">
-        <v>1.85</v>
-      </c>
-      <c r="AN148">
-        <v>1</v>
-      </c>
-      <c r="AO148">
-        <v>0.88</v>
-      </c>
       <c r="AP148">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AQ148">
         <v>1.19</v>
       </c>
       <c r="AR148">
+        <v>1.26</v>
+      </c>
+      <c r="AS148">
         <v>1.47</v>
       </c>
-      <c r="AS148">
-        <v>1.5</v>
-      </c>
       <c r="AT148">
-        <v>2.97</v>
+        <v>2.73</v>
       </c>
       <c r="AU148">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="AV148">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AW148">
         <v>9</v>
       </c>
       <c r="AX148">
+        <v>8</v>
+      </c>
+      <c r="AY148">
+        <v>18</v>
+      </c>
+      <c r="AZ148">
+        <v>18</v>
+      </c>
+      <c r="BA148">
+        <v>8</v>
+      </c>
+      <c r="BB148">
+        <v>4</v>
+      </c>
+      <c r="BC148">
+        <v>12</v>
+      </c>
+      <c r="BD148">
+        <v>3.06</v>
+      </c>
+      <c r="BE148">
+        <v>9</v>
+      </c>
+      <c r="BF148">
+        <v>1.51</v>
+      </c>
+      <c r="BG148">
+        <v>1.15</v>
+      </c>
+      <c r="BH148">
+        <v>4.33</v>
+      </c>
+      <c r="BI148">
+        <v>1.36</v>
+      </c>
+      <c r="BJ148">
         <v>3</v>
       </c>
-      <c r="AY148">
-        <v>26</v>
-      </c>
-      <c r="AZ148">
-        <v>12</v>
-      </c>
-      <c r="BA148">
-        <v>10</v>
-      </c>
-      <c r="BB148">
-        <v>0</v>
-      </c>
-      <c r="BC148">
-        <v>10</v>
-      </c>
-      <c r="BD148">
+      <c r="BK148">
         <v>1.51</v>
       </c>
-      <c r="BE148">
-        <v>8.5</v>
-      </c>
-      <c r="BF148">
-        <v>3.07</v>
-      </c>
-      <c r="BG148">
-        <v>1.14</v>
-      </c>
-      <c r="BH148">
-        <v>5</v>
-      </c>
-      <c r="BI148">
-        <v>1.38</v>
-      </c>
-      <c r="BJ148">
-        <v>2.88</v>
-      </c>
-      <c r="BK148">
-        <v>1.63</v>
-      </c>
       <c r="BL148">
-        <v>2.18</v>
+        <v>2.46</v>
       </c>
       <c r="BM148">
+        <v>1.77</v>
+      </c>
+      <c r="BN148">
         <v>1.95</v>
       </c>
-      <c r="BN148">
-        <v>1.77</v>
-      </c>
       <c r="BO148">
-        <v>2.57</v>
+        <v>2.27</v>
       </c>
       <c r="BP148">
-        <v>1.47</v>
+        <v>1.59</v>
       </c>
     </row>
     <row r="149" spans="1:68">
@@ -32214,7 +32214,7 @@
         <v>187</v>
       </c>
       <c r="P150" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Q150">
         <v>1.95</v>
@@ -35468,7 +35468,7 @@
         <v>165</v>
       </c>
       <c r="B166">
-        <v>7468247</v>
+        <v>7468241</v>
       </c>
       <c r="C166" t="s">
         <v>68</v>
@@ -35483,10 +35483,10 @@
         <v>21</v>
       </c>
       <c r="G166" t="s">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="H166" t="s">
-        <v>72</v>
+        <v>85</v>
       </c>
       <c r="I166">
         <v>1</v>
@@ -35513,40 +35513,40 @@
         <v>88</v>
       </c>
       <c r="Q166">
-        <v>1.95</v>
+        <v>2.1</v>
       </c>
       <c r="R166">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="S166">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="T166">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="U166">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="V166">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="W166">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="X166">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="Y166">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="Z166">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AA166">
-        <v>4.2</v>
+        <v>4.09</v>
       </c>
       <c r="AB166">
-        <v>6</v>
+        <v>5.35</v>
       </c>
       <c r="AC166">
         <v>1.04</v>
@@ -35555,16 +35555,16 @@
         <v>9</v>
       </c>
       <c r="AE166">
-        <v>1.21</v>
+        <v>1.23</v>
       </c>
       <c r="AF166">
-        <v>4</v>
+        <v>3.85</v>
       </c>
       <c r="AG166">
-        <v>1.65</v>
+        <v>1.7</v>
       </c>
       <c r="AH166">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="AI166">
         <v>1.8</v>
@@ -35573,100 +35573,100 @@
         <v>1.95</v>
       </c>
       <c r="AK166">
-        <v>1.1</v>
+        <v>1.18</v>
       </c>
       <c r="AL166">
-        <v>1.19</v>
+        <v>1.22</v>
       </c>
       <c r="AM166">
-        <v>2.75</v>
+        <v>2.2</v>
       </c>
       <c r="AN166">
-        <v>1</v>
+        <v>2.33</v>
       </c>
       <c r="AO166">
-        <v>0.11</v>
+        <v>1.2</v>
       </c>
       <c r="AP166">
-        <v>1.13</v>
+        <v>2.24</v>
       </c>
       <c r="AQ166">
-        <v>0.12</v>
+        <v>1.24</v>
       </c>
       <c r="AR166">
-        <v>1.6</v>
+        <v>1.9</v>
       </c>
       <c r="AS166">
-        <v>0.9399999999999999</v>
+        <v>1.22</v>
       </c>
       <c r="AT166">
-        <v>2.54</v>
+        <v>3.12</v>
       </c>
       <c r="AU166">
+        <v>4</v>
+      </c>
+      <c r="AV166">
+        <v>3</v>
+      </c>
+      <c r="AW166">
         <v>5</v>
       </c>
-      <c r="AV166">
+      <c r="AX166">
         <v>4</v>
       </c>
-      <c r="AW166">
+      <c r="AY166">
         <v>9</v>
       </c>
-      <c r="AX166">
+      <c r="AZ166">
+        <v>7</v>
+      </c>
+      <c r="BA166">
         <v>6</v>
       </c>
-      <c r="AY166">
-        <v>14</v>
-      </c>
-      <c r="AZ166">
-        <v>10</v>
-      </c>
-      <c r="BA166">
+      <c r="BB166">
+        <v>2</v>
+      </c>
+      <c r="BC166">
+        <v>8</v>
+      </c>
+      <c r="BD166">
+        <v>1.43</v>
+      </c>
+      <c r="BE166">
         <v>7</v>
       </c>
-      <c r="BB166">
-        <v>6</v>
-      </c>
-      <c r="BC166">
-        <v>13</v>
-      </c>
-      <c r="BD166">
-        <v>1.12</v>
-      </c>
-      <c r="BE166">
-        <v>11</v>
-      </c>
       <c r="BF166">
-        <v>6.6</v>
+        <v>3.15</v>
       </c>
       <c r="BG166">
-        <v>1.14</v>
+        <v>1.17</v>
       </c>
       <c r="BH166">
-        <v>4.8</v>
+        <v>4.35</v>
       </c>
       <c r="BI166">
-        <v>1.19</v>
+        <v>1.3</v>
       </c>
       <c r="BJ166">
-        <v>4.1</v>
+        <v>3.15</v>
       </c>
       <c r="BK166">
-        <v>1.39</v>
+        <v>1.5</v>
       </c>
       <c r="BL166">
-        <v>2.75</v>
+        <v>2.35</v>
       </c>
       <c r="BM166">
-        <v>1.68</v>
+        <v>1.77</v>
       </c>
       <c r="BN166">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="BO166">
-        <v>2.12</v>
+        <v>2.18</v>
       </c>
       <c r="BP166">
-        <v>1.62</v>
+        <v>1.58</v>
       </c>
     </row>
     <row r="167" spans="1:68">
@@ -35674,7 +35674,7 @@
         <v>166</v>
       </c>
       <c r="B167">
-        <v>7468241</v>
+        <v>7468247</v>
       </c>
       <c r="C167" t="s">
         <v>68</v>
@@ -35689,10 +35689,10 @@
         <v>21</v>
       </c>
       <c r="G167" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="H167" t="s">
-        <v>85</v>
+        <v>72</v>
       </c>
       <c r="I167">
         <v>1</v>
@@ -35719,40 +35719,40 @@
         <v>88</v>
       </c>
       <c r="Q167">
-        <v>2.1</v>
+        <v>1.95</v>
       </c>
       <c r="R167">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="S167">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="T167">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="U167">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="V167">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="W167">
+        <v>1.5</v>
+      </c>
+      <c r="X167">
+        <v>6</v>
+      </c>
+      <c r="Y167">
+        <v>1.13</v>
+      </c>
+      <c r="Z167">
         <v>1.44</v>
       </c>
-      <c r="X167">
-        <v>6.5</v>
-      </c>
-      <c r="Y167">
-        <v>1.11</v>
-      </c>
-      <c r="Z167">
-        <v>1.53</v>
-      </c>
       <c r="AA167">
-        <v>4.09</v>
+        <v>4.2</v>
       </c>
       <c r="AB167">
-        <v>5.35</v>
+        <v>6</v>
       </c>
       <c r="AC167">
         <v>1.04</v>
@@ -35761,16 +35761,16 @@
         <v>9</v>
       </c>
       <c r="AE167">
-        <v>1.23</v>
+        <v>1.21</v>
       </c>
       <c r="AF167">
-        <v>3.85</v>
+        <v>4</v>
       </c>
       <c r="AG167">
-        <v>1.7</v>
+        <v>1.65</v>
       </c>
       <c r="AH167">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="AI167">
         <v>1.8</v>
@@ -35779,100 +35779,100 @@
         <v>1.95</v>
       </c>
       <c r="AK167">
-        <v>1.18</v>
+        <v>1.1</v>
       </c>
       <c r="AL167">
-        <v>1.22</v>
+        <v>1.19</v>
       </c>
       <c r="AM167">
-        <v>2.2</v>
+        <v>2.75</v>
       </c>
       <c r="AN167">
-        <v>2.33</v>
+        <v>1</v>
       </c>
       <c r="AO167">
-        <v>1.2</v>
+        <v>0.11</v>
       </c>
       <c r="AP167">
-        <v>2.24</v>
+        <v>1.13</v>
       </c>
       <c r="AQ167">
-        <v>1.24</v>
+        <v>0.12</v>
       </c>
       <c r="AR167">
-        <v>1.9</v>
+        <v>1.6</v>
       </c>
       <c r="AS167">
-        <v>1.22</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AT167">
-        <v>3.12</v>
+        <v>2.54</v>
       </c>
       <c r="AU167">
+        <v>5</v>
+      </c>
+      <c r="AV167">
         <v>4</v>
       </c>
-      <c r="AV167">
-        <v>3</v>
-      </c>
       <c r="AW167">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="AX167">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AY167">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="AZ167">
+        <v>10</v>
+      </c>
+      <c r="BA167">
         <v>7</v>
       </c>
-      <c r="BA167">
+      <c r="BB167">
         <v>6</v>
       </c>
-      <c r="BB167">
-        <v>2</v>
-      </c>
       <c r="BC167">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="BD167">
-        <v>1.43</v>
+        <v>1.12</v>
       </c>
       <c r="BE167">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="BF167">
-        <v>3.15</v>
+        <v>6.6</v>
       </c>
       <c r="BG167">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="BH167">
-        <v>4.35</v>
+        <v>4.8</v>
       </c>
       <c r="BI167">
-        <v>1.3</v>
+        <v>1.19</v>
       </c>
       <c r="BJ167">
-        <v>3.15</v>
+        <v>4.1</v>
       </c>
       <c r="BK167">
-        <v>1.5</v>
+        <v>1.39</v>
       </c>
       <c r="BL167">
-        <v>2.35</v>
+        <v>2.75</v>
       </c>
       <c r="BM167">
-        <v>1.77</v>
+        <v>1.68</v>
       </c>
       <c r="BN167">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="BO167">
-        <v>2.18</v>
+        <v>2.12</v>
       </c>
       <c r="BP167">
-        <v>1.58</v>
+        <v>1.62</v>
       </c>
     </row>
     <row r="168" spans="1:68">
@@ -36292,7 +36292,7 @@
         <v>169</v>
       </c>
       <c r="B170">
-        <v>7468252</v>
+        <v>7468255</v>
       </c>
       <c r="C170" t="s">
         <v>68</v>
@@ -36307,190 +36307,190 @@
         <v>22</v>
       </c>
       <c r="G170" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="H170" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="I170">
         <v>0</v>
       </c>
       <c r="J170">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K170">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L170">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M170">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N170">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="O170" t="s">
-        <v>88</v>
+        <v>201</v>
       </c>
       <c r="P170" t="s">
-        <v>88</v>
+        <v>328</v>
       </c>
       <c r="Q170">
-        <v>2.39</v>
+        <v>5.2</v>
       </c>
       <c r="R170">
-        <v>2.1</v>
+        <v>2.41</v>
       </c>
       <c r="S170">
-        <v>5.2</v>
+        <v>2.09</v>
       </c>
       <c r="T170">
-        <v>1.47</v>
+        <v>1.31</v>
       </c>
       <c r="U170">
-        <v>2.5</v>
+        <v>3.2</v>
       </c>
       <c r="V170">
-        <v>3.1</v>
+        <v>2.4</v>
       </c>
       <c r="W170">
-        <v>1.33</v>
+        <v>1.51</v>
       </c>
       <c r="X170">
-        <v>9.4</v>
+        <v>5.5</v>
       </c>
       <c r="Y170">
-        <v>1.01</v>
+        <v>1.12</v>
       </c>
       <c r="Z170">
-        <v>1.76</v>
+        <v>4.7</v>
       </c>
       <c r="AA170">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="AB170">
-        <v>4.4</v>
+        <v>1.61</v>
       </c>
       <c r="AC170">
         <v>1.01</v>
       </c>
       <c r="AD170">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AE170">
-        <v>1.39</v>
+        <v>1.22</v>
       </c>
       <c r="AF170">
-        <v>2.75</v>
+        <v>3.95</v>
       </c>
       <c r="AG170">
-        <v>2.18</v>
+        <v>1.69</v>
       </c>
       <c r="AH170">
-        <v>1.64</v>
+        <v>2.1</v>
       </c>
       <c r="AI170">
-        <v>2.04</v>
+        <v>1.71</v>
       </c>
       <c r="AJ170">
-        <v>1.7</v>
+        <v>2.02</v>
       </c>
       <c r="AK170">
-        <v>1.19</v>
+        <v>2.19</v>
       </c>
       <c r="AL170">
-        <v>1.27</v>
+        <v>1.22</v>
       </c>
       <c r="AM170">
-        <v>1.96</v>
+        <v>1.17</v>
       </c>
       <c r="AN170">
-        <v>1.4</v>
+        <v>0.27</v>
       </c>
       <c r="AO170">
-        <v>0.3</v>
+        <v>1.1</v>
       </c>
       <c r="AP170">
-        <v>1.35</v>
+        <v>0.25</v>
       </c>
       <c r="AQ170">
-        <v>0.88</v>
+        <v>1.59</v>
       </c>
       <c r="AR170">
-        <v>1.21</v>
+        <v>1.3</v>
       </c>
       <c r="AS170">
-        <v>0.9</v>
+        <v>1.36</v>
       </c>
       <c r="AT170">
-        <v>2.11</v>
+        <v>2.66</v>
       </c>
       <c r="AU170">
         <v>3</v>
       </c>
       <c r="AV170">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AW170">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="AX170">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AY170">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="AZ170">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="BA170">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BB170">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="BC170">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="BD170">
-        <v>1.55</v>
+        <v>2.95</v>
       </c>
       <c r="BE170">
-        <v>6.4</v>
+        <v>6.75</v>
       </c>
       <c r="BF170">
-        <v>2.7</v>
+        <v>1.48</v>
       </c>
       <c r="BG170">
-        <v>1.49</v>
+        <v>1.36</v>
       </c>
       <c r="BH170">
-        <v>2.4</v>
+        <v>2.8</v>
       </c>
       <c r="BI170">
-        <v>1.81</v>
+        <v>1.61</v>
       </c>
       <c r="BJ170">
-        <v>1.88</v>
+        <v>2.15</v>
       </c>
       <c r="BK170">
-        <v>2.32</v>
+        <v>1.98</v>
       </c>
       <c r="BL170">
-        <v>1.53</v>
+        <v>1.72</v>
       </c>
       <c r="BM170">
-        <v>3.05</v>
+        <v>2.55</v>
       </c>
       <c r="BN170">
-        <v>1.32</v>
+        <v>1.45</v>
       </c>
       <c r="BO170">
-        <v>4.1</v>
+        <v>3.3</v>
       </c>
       <c r="BP170">
-        <v>1.19</v>
+        <v>1.27</v>
       </c>
     </row>
     <row r="171" spans="1:68">
@@ -36498,7 +36498,7 @@
         <v>170</v>
       </c>
       <c r="B171">
-        <v>7468255</v>
+        <v>7468252</v>
       </c>
       <c r="C171" t="s">
         <v>68</v>
@@ -36513,190 +36513,190 @@
         <v>22</v>
       </c>
       <c r="G171" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="H171" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="I171">
         <v>0</v>
       </c>
       <c r="J171">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K171">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L171">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M171">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N171">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="O171" t="s">
-        <v>201</v>
+        <v>88</v>
       </c>
       <c r="P171" t="s">
-        <v>328</v>
+        <v>88</v>
       </c>
       <c r="Q171">
+        <v>2.39</v>
+      </c>
+      <c r="R171">
+        <v>2.1</v>
+      </c>
+      <c r="S171">
         <v>5.2</v>
       </c>
-      <c r="R171">
-        <v>2.41</v>
-      </c>
-      <c r="S171">
-        <v>2.09</v>
-      </c>
       <c r="T171">
-        <v>1.31</v>
+        <v>1.47</v>
       </c>
       <c r="U171">
-        <v>3.2</v>
+        <v>2.5</v>
       </c>
       <c r="V171">
-        <v>2.4</v>
+        <v>3.1</v>
       </c>
       <c r="W171">
-        <v>1.51</v>
+        <v>1.33</v>
       </c>
       <c r="X171">
-        <v>5.5</v>
+        <v>9.4</v>
       </c>
       <c r="Y171">
-        <v>1.12</v>
+        <v>1.01</v>
       </c>
       <c r="Z171">
-        <v>4.7</v>
+        <v>1.76</v>
       </c>
       <c r="AA171">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="AB171">
-        <v>1.61</v>
+        <v>4.4</v>
       </c>
       <c r="AC171">
         <v>1.01</v>
       </c>
       <c r="AD171">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AE171">
-        <v>1.22</v>
+        <v>1.39</v>
       </c>
       <c r="AF171">
-        <v>3.95</v>
+        <v>2.75</v>
       </c>
       <c r="AG171">
-        <v>1.69</v>
+        <v>2.18</v>
       </c>
       <c r="AH171">
-        <v>2.1</v>
+        <v>1.64</v>
       </c>
       <c r="AI171">
-        <v>1.71</v>
+        <v>2.04</v>
       </c>
       <c r="AJ171">
-        <v>2.02</v>
+        <v>1.7</v>
       </c>
       <c r="AK171">
-        <v>2.19</v>
+        <v>1.19</v>
       </c>
       <c r="AL171">
-        <v>1.22</v>
+        <v>1.27</v>
       </c>
       <c r="AM171">
-        <v>1.17</v>
+        <v>1.96</v>
       </c>
       <c r="AN171">
-        <v>0.27</v>
+        <v>1.4</v>
       </c>
       <c r="AO171">
-        <v>1.1</v>
+        <v>0.3</v>
       </c>
       <c r="AP171">
-        <v>0.25</v>
+        <v>1.35</v>
       </c>
       <c r="AQ171">
-        <v>1.59</v>
+        <v>0.88</v>
       </c>
       <c r="AR171">
-        <v>1.3</v>
+        <v>1.21</v>
       </c>
       <c r="AS171">
-        <v>1.36</v>
+        <v>0.9</v>
       </c>
       <c r="AT171">
-        <v>2.66</v>
+        <v>2.11</v>
       </c>
       <c r="AU171">
         <v>3</v>
       </c>
       <c r="AV171">
+        <v>5</v>
+      </c>
+      <c r="AW171">
         <v>7</v>
       </c>
-      <c r="AW171">
-        <v>0</v>
-      </c>
       <c r="AX171">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AY171">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="AZ171">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="BA171">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BB171">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="BC171">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="BD171">
-        <v>2.95</v>
+        <v>1.55</v>
       </c>
       <c r="BE171">
-        <v>6.75</v>
+        <v>6.4</v>
       </c>
       <c r="BF171">
-        <v>1.48</v>
+        <v>2.7</v>
       </c>
       <c r="BG171">
-        <v>1.36</v>
+        <v>1.49</v>
       </c>
       <c r="BH171">
-        <v>2.8</v>
+        <v>2.4</v>
       </c>
       <c r="BI171">
-        <v>1.61</v>
+        <v>1.81</v>
       </c>
       <c r="BJ171">
-        <v>2.15</v>
+        <v>1.88</v>
       </c>
       <c r="BK171">
-        <v>1.98</v>
+        <v>2.32</v>
       </c>
       <c r="BL171">
-        <v>1.72</v>
+        <v>1.53</v>
       </c>
       <c r="BM171">
-        <v>2.55</v>
+        <v>3.05</v>
       </c>
       <c r="BN171">
-        <v>1.45</v>
+        <v>1.32</v>
       </c>
       <c r="BO171">
-        <v>3.3</v>
+        <v>4.1</v>
       </c>
       <c r="BP171">
-        <v>1.27</v>
+        <v>1.19</v>
       </c>
     </row>
     <row r="172" spans="1:68">
@@ -37940,7 +37940,7 @@
         <v>177</v>
       </c>
       <c r="B178">
-        <v>7468264</v>
+        <v>7468259</v>
       </c>
       <c r="C178" t="s">
         <v>68</v>
@@ -37955,190 +37955,190 @@
         <v>23</v>
       </c>
       <c r="G178" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="H178" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="I178">
         <v>0</v>
       </c>
       <c r="J178">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K178">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L178">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M178">
+        <v>0</v>
+      </c>
+      <c r="N178">
+        <v>2</v>
+      </c>
+      <c r="O178" t="s">
+        <v>205</v>
+      </c>
+      <c r="P178" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q178">
+        <v>2.05</v>
+      </c>
+      <c r="R178">
+        <v>2.41</v>
+      </c>
+      <c r="S178">
+        <v>5.4</v>
+      </c>
+      <c r="T178">
+        <v>1.32</v>
+      </c>
+      <c r="U178">
+        <v>3.1</v>
+      </c>
+      <c r="V178">
+        <v>2.4</v>
+      </c>
+      <c r="W178">
+        <v>1.5</v>
+      </c>
+      <c r="X178">
+        <v>5.55</v>
+      </c>
+      <c r="Y178">
+        <v>1.12</v>
+      </c>
+      <c r="Z178">
+        <v>1.6</v>
+      </c>
+      <c r="AA178">
+        <v>3.55</v>
+      </c>
+      <c r="AB178">
+        <v>5.2</v>
+      </c>
+      <c r="AC178">
+        <v>1.04</v>
+      </c>
+      <c r="AD178">
+        <v>8.5</v>
+      </c>
+      <c r="AE178">
+        <v>1.23</v>
+      </c>
+      <c r="AF178">
+        <v>3.8</v>
+      </c>
+      <c r="AG178">
+        <v>1.73</v>
+      </c>
+      <c r="AH178">
+        <v>2.03</v>
+      </c>
+      <c r="AI178">
+        <v>1.75</v>
+      </c>
+      <c r="AJ178">
+        <v>1.97</v>
+      </c>
+      <c r="AK178">
+        <v>1.15</v>
+      </c>
+      <c r="AL178">
+        <v>1.23</v>
+      </c>
+      <c r="AM178">
+        <v>2.21</v>
+      </c>
+      <c r="AN178">
+        <v>2.4</v>
+      </c>
+      <c r="AO178">
+        <v>0.82</v>
+      </c>
+      <c r="AP178">
+        <v>2.24</v>
+      </c>
+      <c r="AQ178">
+        <v>0.75</v>
+      </c>
+      <c r="AR178">
+        <v>1.82</v>
+      </c>
+      <c r="AS178">
+        <v>1.38</v>
+      </c>
+      <c r="AT178">
+        <v>3.2</v>
+      </c>
+      <c r="AU178">
+        <v>4</v>
+      </c>
+      <c r="AV178">
+        <v>0</v>
+      </c>
+      <c r="AW178">
         <v>3</v>
       </c>
-      <c r="N178">
-        <v>3</v>
-      </c>
-      <c r="O178" t="s">
-        <v>88</v>
-      </c>
-      <c r="P178" t="s">
-        <v>333</v>
-      </c>
-      <c r="Q178">
-        <v>3.92</v>
-      </c>
-      <c r="R178">
-        <v>2.14</v>
-      </c>
-      <c r="S178">
-        <v>2.61</v>
-      </c>
-      <c r="T178">
-        <v>1.37</v>
-      </c>
-      <c r="U178">
+      <c r="AX178">
+        <v>4</v>
+      </c>
+      <c r="AY178">
+        <v>7</v>
+      </c>
+      <c r="AZ178">
+        <v>4</v>
+      </c>
+      <c r="BA178">
+        <v>13</v>
+      </c>
+      <c r="BB178">
+        <v>2</v>
+      </c>
+      <c r="BC178">
+        <v>15</v>
+      </c>
+      <c r="BD178">
+        <v>1.49</v>
+      </c>
+      <c r="BE178">
+        <v>6.75</v>
+      </c>
+      <c r="BF178">
         <v>2.9</v>
-      </c>
-      <c r="V178">
-        <v>2.73</v>
-      </c>
-      <c r="W178">
-        <v>1.41</v>
-      </c>
-      <c r="X178">
-        <v>6.4</v>
-      </c>
-      <c r="Y178">
-        <v>1.06</v>
-      </c>
-      <c r="Z178">
-        <v>3.36</v>
-      </c>
-      <c r="AA178">
-        <v>3.48</v>
-      </c>
-      <c r="AB178">
-        <v>2.06</v>
-      </c>
-      <c r="AC178">
-        <v>1.01</v>
-      </c>
-      <c r="AD178">
-        <v>9</v>
-      </c>
-      <c r="AE178">
-        <v>1.25</v>
-      </c>
-      <c r="AF178">
-        <v>3.28</v>
-      </c>
-      <c r="AG178">
-        <v>1.88</v>
-      </c>
-      <c r="AH178">
-        <v>1.89</v>
-      </c>
-      <c r="AI178">
-        <v>1.71</v>
-      </c>
-      <c r="AJ178">
-        <v>2.02</v>
-      </c>
-      <c r="AK178">
-        <v>1.72</v>
-      </c>
-      <c r="AL178">
-        <v>1.28</v>
-      </c>
-      <c r="AM178">
-        <v>1.3</v>
-      </c>
-      <c r="AN178">
-        <v>0.9</v>
-      </c>
-      <c r="AO178">
-        <v>1.09</v>
-      </c>
-      <c r="AP178">
-        <v>1</v>
-      </c>
-      <c r="AQ178">
-        <v>1.13</v>
-      </c>
-      <c r="AR178">
-        <v>1.2</v>
-      </c>
-      <c r="AS178">
-        <v>1.3</v>
-      </c>
-      <c r="AT178">
-        <v>2.5</v>
-      </c>
-      <c r="AU178">
-        <v>5</v>
-      </c>
-      <c r="AV178">
-        <v>7</v>
-      </c>
-      <c r="AW178">
-        <v>6</v>
-      </c>
-      <c r="AX178">
-        <v>6</v>
-      </c>
-      <c r="AY178">
-        <v>11</v>
-      </c>
-      <c r="AZ178">
-        <v>13</v>
-      </c>
-      <c r="BA178">
-        <v>3</v>
-      </c>
-      <c r="BB178">
-        <v>3</v>
-      </c>
-      <c r="BC178">
-        <v>6</v>
-      </c>
-      <c r="BD178">
-        <v>2.33</v>
-      </c>
-      <c r="BE178">
-        <v>6.4</v>
-      </c>
-      <c r="BF178">
-        <v>1.74</v>
       </c>
       <c r="BG178">
         <v>1.4</v>
       </c>
       <c r="BH178">
-        <v>2.65</v>
+        <v>2.7</v>
       </c>
       <c r="BI178">
+        <v>1.66</v>
+      </c>
+      <c r="BJ178">
+        <v>2.08</v>
+      </c>
+      <c r="BK178">
+        <v>2.05</v>
+      </c>
+      <c r="BL178">
         <v>1.68</v>
       </c>
-      <c r="BJ178">
-        <v>2.05</v>
-      </c>
-      <c r="BK178">
-        <v>2.08</v>
-      </c>
-      <c r="BL178">
-        <v>1.65</v>
-      </c>
       <c r="BM178">
-        <v>2.65</v>
+        <v>2.6</v>
       </c>
       <c r="BN178">
-        <v>1.41</v>
+        <v>1.43</v>
       </c>
       <c r="BO178">
-        <v>3.55</v>
+        <v>3.4</v>
       </c>
       <c r="BP178">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
     </row>
     <row r="179" spans="1:68">
@@ -38146,7 +38146,7 @@
         <v>178</v>
       </c>
       <c r="B179">
-        <v>7468259</v>
+        <v>7468264</v>
       </c>
       <c r="C179" t="s">
         <v>68</v>
@@ -38161,190 +38161,190 @@
         <v>23</v>
       </c>
       <c r="G179" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="H179" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="I179">
         <v>0</v>
       </c>
       <c r="J179">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K179">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L179">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M179">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N179">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O179" t="s">
-        <v>205</v>
+        <v>88</v>
       </c>
       <c r="P179" t="s">
-        <v>88</v>
+        <v>333</v>
       </c>
       <c r="Q179">
-        <v>2.05</v>
+        <v>3.92</v>
       </c>
       <c r="R179">
-        <v>2.41</v>
+        <v>2.14</v>
       </c>
       <c r="S179">
-        <v>5.4</v>
+        <v>2.61</v>
       </c>
       <c r="T179">
-        <v>1.32</v>
+        <v>1.37</v>
       </c>
       <c r="U179">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="V179">
-        <v>2.4</v>
+        <v>2.73</v>
       </c>
       <c r="W179">
-        <v>1.5</v>
+        <v>1.41</v>
       </c>
       <c r="X179">
-        <v>5.55</v>
+        <v>6.4</v>
       </c>
       <c r="Y179">
-        <v>1.12</v>
+        <v>1.06</v>
       </c>
       <c r="Z179">
-        <v>1.6</v>
+        <v>3.36</v>
       </c>
       <c r="AA179">
-        <v>3.55</v>
+        <v>3.48</v>
       </c>
       <c r="AB179">
-        <v>5.2</v>
+        <v>2.06</v>
       </c>
       <c r="AC179">
-        <v>1.04</v>
+        <v>1.01</v>
       </c>
       <c r="AD179">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AE179">
-        <v>1.23</v>
+        <v>1.25</v>
       </c>
       <c r="AF179">
-        <v>3.8</v>
+        <v>3.28</v>
       </c>
       <c r="AG179">
-        <v>1.73</v>
+        <v>1.88</v>
       </c>
       <c r="AH179">
-        <v>2.03</v>
+        <v>1.89</v>
       </c>
       <c r="AI179">
-        <v>1.75</v>
+        <v>1.71</v>
       </c>
       <c r="AJ179">
-        <v>1.97</v>
+        <v>2.02</v>
       </c>
       <c r="AK179">
-        <v>1.15</v>
+        <v>1.72</v>
       </c>
       <c r="AL179">
-        <v>1.23</v>
+        <v>1.28</v>
       </c>
       <c r="AM179">
-        <v>2.21</v>
+        <v>1.3</v>
       </c>
       <c r="AN179">
-        <v>2.4</v>
+        <v>0.9</v>
       </c>
       <c r="AO179">
-        <v>0.82</v>
+        <v>1.09</v>
       </c>
       <c r="AP179">
-        <v>2.24</v>
+        <v>1</v>
       </c>
       <c r="AQ179">
-        <v>0.75</v>
+        <v>1.13</v>
       </c>
       <c r="AR179">
-        <v>1.82</v>
+        <v>1.2</v>
       </c>
       <c r="AS179">
-        <v>1.38</v>
+        <v>1.3</v>
       </c>
       <c r="AT179">
-        <v>3.2</v>
+        <v>2.5</v>
       </c>
       <c r="AU179">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AV179">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="AW179">
+        <v>6</v>
+      </c>
+      <c r="AX179">
+        <v>6</v>
+      </c>
+      <c r="AY179">
+        <v>11</v>
+      </c>
+      <c r="AZ179">
+        <v>13</v>
+      </c>
+      <c r="BA179">
         <v>3</v>
       </c>
-      <c r="AX179">
-        <v>4</v>
-      </c>
-      <c r="AY179">
-        <v>7</v>
-      </c>
-      <c r="AZ179">
-        <v>4</v>
-      </c>
-      <c r="BA179">
-        <v>13</v>
-      </c>
       <c r="BB179">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BC179">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="BD179">
-        <v>1.49</v>
+        <v>2.33</v>
       </c>
       <c r="BE179">
-        <v>6.75</v>
+        <v>6.4</v>
       </c>
       <c r="BF179">
-        <v>2.9</v>
+        <v>1.74</v>
       </c>
       <c r="BG179">
         <v>1.4</v>
       </c>
       <c r="BH179">
-        <v>2.7</v>
+        <v>2.65</v>
       </c>
       <c r="BI179">
-        <v>1.66</v>
+        <v>1.68</v>
       </c>
       <c r="BJ179">
+        <v>2.05</v>
+      </c>
+      <c r="BK179">
         <v>2.08</v>
       </c>
-      <c r="BK179">
-        <v>2.05</v>
-      </c>
       <c r="BL179">
-        <v>1.68</v>
+        <v>1.65</v>
       </c>
       <c r="BM179">
-        <v>2.6</v>
+        <v>2.65</v>
       </c>
       <c r="BN179">
-        <v>1.43</v>
+        <v>1.41</v>
       </c>
       <c r="BO179">
-        <v>3.4</v>
+        <v>3.55</v>
       </c>
       <c r="BP179">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
     </row>
     <row r="180" spans="1:68">
@@ -39630,7 +39630,7 @@
         <v>150</v>
       </c>
       <c r="P186" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="Q186">
         <v>3.14</v>
@@ -40863,7 +40863,7 @@
         <v>2</v>
       </c>
       <c r="O192" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="P192" t="s">
         <v>92</v>
@@ -41030,7 +41030,7 @@
         <v>192</v>
       </c>
       <c r="B193">
-        <v>7468285</v>
+        <v>7468278</v>
       </c>
       <c r="C193" t="s">
         <v>68</v>
@@ -41045,172 +41045,172 @@
         <v>25</v>
       </c>
       <c r="G193" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="H193" t="s">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="I193">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J193">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K193">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L193">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M193">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N193">
+        <v>0</v>
+      </c>
+      <c r="O193" t="s">
+        <v>88</v>
+      </c>
+      <c r="P193" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q193">
+        <v>2.32</v>
+      </c>
+      <c r="R193">
+        <v>2.19</v>
+      </c>
+      <c r="S193">
+        <v>4.6</v>
+      </c>
+      <c r="T193">
+        <v>1.34</v>
+      </c>
+      <c r="U193">
+        <v>2.99</v>
+      </c>
+      <c r="V193">
+        <v>2.65</v>
+      </c>
+      <c r="W193">
+        <v>1.42</v>
+      </c>
+      <c r="X193">
+        <v>6.35</v>
+      </c>
+      <c r="Y193">
+        <v>1.06</v>
+      </c>
+      <c r="Z193">
+        <v>1.79</v>
+      </c>
+      <c r="AA193">
+        <v>3.72</v>
+      </c>
+      <c r="AB193">
+        <v>4.15</v>
+      </c>
+      <c r="AC193">
+        <v>1.02</v>
+      </c>
+      <c r="AD193">
+        <v>10</v>
+      </c>
+      <c r="AE193">
+        <v>1.22</v>
+      </c>
+      <c r="AF193">
+        <v>3.52</v>
+      </c>
+      <c r="AG193">
+        <v>1.83</v>
+      </c>
+      <c r="AH193">
+        <v>1.94</v>
+      </c>
+      <c r="AI193">
+        <v>1.74</v>
+      </c>
+      <c r="AJ193">
+        <v>1.98</v>
+      </c>
+      <c r="AK193">
+        <v>1.21</v>
+      </c>
+      <c r="AL193">
+        <v>1.25</v>
+      </c>
+      <c r="AM193">
+        <v>1.96</v>
+      </c>
+      <c r="AN193">
+        <v>2.08</v>
+      </c>
+      <c r="AO193">
+        <v>1</v>
+      </c>
+      <c r="AP193">
+        <v>2.06</v>
+      </c>
+      <c r="AQ193">
+        <v>1.19</v>
+      </c>
+      <c r="AR193">
+        <v>1.7</v>
+      </c>
+      <c r="AS193">
+        <v>1.44</v>
+      </c>
+      <c r="AT193">
+        <v>3.14</v>
+      </c>
+      <c r="AU193">
         <v>3</v>
       </c>
-      <c r="O193" t="s">
-        <v>213</v>
-      </c>
-      <c r="P193" t="s">
-        <v>138</v>
-      </c>
-      <c r="Q193">
-        <v>1.95</v>
-      </c>
-      <c r="R193">
-        <v>2.28</v>
-      </c>
-      <c r="S193">
-        <v>6.5</v>
-      </c>
-      <c r="T193">
-        <v>1.33</v>
-      </c>
-      <c r="U193">
-        <v>3.04</v>
-      </c>
-      <c r="V193">
-        <v>2.69</v>
-      </c>
-      <c r="W193">
-        <v>1.41</v>
-      </c>
-      <c r="X193">
-        <v>6.95</v>
-      </c>
-      <c r="Y193">
-        <v>1.04</v>
-      </c>
-      <c r="Z193">
-        <v>1.44</v>
-      </c>
-      <c r="AA193">
-        <v>4.35</v>
-      </c>
-      <c r="AB193">
-        <v>6.85</v>
-      </c>
-      <c r="AC193">
-        <v>1.01</v>
-      </c>
-      <c r="AD193">
-        <v>11</v>
-      </c>
-      <c r="AE193">
-        <v>1.2</v>
-      </c>
-      <c r="AF193">
-        <v>3.7</v>
-      </c>
-      <c r="AG193">
-        <v>1.82</v>
-      </c>
-      <c r="AH193">
-        <v>1.95</v>
-      </c>
-      <c r="AI193">
-        <v>1.95</v>
-      </c>
-      <c r="AJ193">
-        <v>1.76</v>
-      </c>
-      <c r="AK193">
-        <v>1.08</v>
-      </c>
-      <c r="AL193">
-        <v>1.19</v>
-      </c>
-      <c r="AM193">
-        <v>2.67</v>
-      </c>
-      <c r="AN193">
-        <v>1.36</v>
-      </c>
-      <c r="AO193">
-        <v>0.09</v>
-      </c>
-      <c r="AP193">
-        <v>1.35</v>
-      </c>
-      <c r="AQ193">
-        <v>0.12</v>
-      </c>
-      <c r="AR193">
-        <v>1.2</v>
-      </c>
-      <c r="AS193">
-        <v>0.96</v>
-      </c>
-      <c r="AT193">
-        <v>2.16</v>
-      </c>
-      <c r="AU193">
-        <v>4</v>
-      </c>
       <c r="AV193">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AW193">
         <v>4</v>
       </c>
       <c r="AX193">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AY193">
+        <v>7</v>
+      </c>
+      <c r="AZ193">
         <v>8</v>
       </c>
-      <c r="AZ193">
-        <v>10</v>
-      </c>
       <c r="BA193">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="BB193">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BC193">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="BD193">
-        <v>1.35</v>
+        <v>1.58</v>
       </c>
       <c r="BE193">
-        <v>7.5</v>
+        <v>6.75</v>
       </c>
       <c r="BF193">
-        <v>3.45</v>
+        <v>2.55</v>
       </c>
       <c r="BG193">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="BH193">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="BI193">
-        <v>1.5</v>
+        <v>1.49</v>
       </c>
       <c r="BJ193">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="BK193">
         <v>1.81</v>
@@ -41222,13 +41222,13 @@
         <v>2.25</v>
       </c>
       <c r="BN193">
-        <v>1.55</v>
+        <v>1.56</v>
       </c>
       <c r="BO193">
         <v>2.9</v>
       </c>
       <c r="BP193">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
     </row>
     <row r="194" spans="1:68">
@@ -41236,7 +41236,7 @@
         <v>193</v>
       </c>
       <c r="B194">
-        <v>7468278</v>
+        <v>7468285</v>
       </c>
       <c r="C194" t="s">
         <v>68</v>
@@ -41251,172 +41251,172 @@
         <v>25</v>
       </c>
       <c r="G194" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="H194" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="I194">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J194">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K194">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L194">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M194">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N194">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O194" t="s">
-        <v>88</v>
+        <v>213</v>
       </c>
       <c r="P194" t="s">
-        <v>88</v>
+        <v>138</v>
       </c>
       <c r="Q194">
-        <v>2.32</v>
+        <v>1.95</v>
       </c>
       <c r="R194">
-        <v>2.19</v>
+        <v>2.28</v>
       </c>
       <c r="S194">
-        <v>4.6</v>
+        <v>6.5</v>
       </c>
       <c r="T194">
-        <v>1.34</v>
+        <v>1.33</v>
       </c>
       <c r="U194">
-        <v>2.99</v>
+        <v>3.04</v>
       </c>
       <c r="V194">
-        <v>2.65</v>
+        <v>2.69</v>
       </c>
       <c r="W194">
-        <v>1.42</v>
+        <v>1.41</v>
       </c>
       <c r="X194">
-        <v>6.35</v>
+        <v>6.95</v>
       </c>
       <c r="Y194">
-        <v>1.06</v>
+        <v>1.04</v>
       </c>
       <c r="Z194">
-        <v>1.79</v>
+        <v>1.44</v>
       </c>
       <c r="AA194">
-        <v>3.72</v>
+        <v>4.35</v>
       </c>
       <c r="AB194">
-        <v>4.15</v>
+        <v>6.85</v>
       </c>
       <c r="AC194">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="AD194">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AE194">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="AF194">
-        <v>3.52</v>
+        <v>3.7</v>
       </c>
       <c r="AG194">
-        <v>1.83</v>
+        <v>1.82</v>
       </c>
       <c r="AH194">
-        <v>1.94</v>
+        <v>1.95</v>
       </c>
       <c r="AI194">
-        <v>1.74</v>
+        <v>1.95</v>
       </c>
       <c r="AJ194">
-        <v>1.98</v>
+        <v>1.76</v>
       </c>
       <c r="AK194">
-        <v>1.21</v>
+        <v>1.08</v>
       </c>
       <c r="AL194">
-        <v>1.25</v>
+        <v>1.19</v>
       </c>
       <c r="AM194">
-        <v>1.96</v>
+        <v>2.67</v>
       </c>
       <c r="AN194">
-        <v>2.08</v>
+        <v>1.36</v>
       </c>
       <c r="AO194">
-        <v>1</v>
+        <v>0.09</v>
       </c>
       <c r="AP194">
-        <v>2.06</v>
+        <v>1.35</v>
       </c>
       <c r="AQ194">
-        <v>1.19</v>
+        <v>0.12</v>
       </c>
       <c r="AR194">
-        <v>1.7</v>
+        <v>1.2</v>
       </c>
       <c r="AS194">
-        <v>1.44</v>
+        <v>0.96</v>
       </c>
       <c r="AT194">
-        <v>3.14</v>
+        <v>2.16</v>
       </c>
       <c r="AU194">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AV194">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AW194">
         <v>4</v>
       </c>
       <c r="AX194">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AY194">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AZ194">
+        <v>10</v>
+      </c>
+      <c r="BA194">
+        <v>3</v>
+      </c>
+      <c r="BB194">
+        <v>5</v>
+      </c>
+      <c r="BC194">
         <v>8</v>
       </c>
-      <c r="BA194">
-        <v>11</v>
-      </c>
-      <c r="BB194">
-        <v>4</v>
-      </c>
-      <c r="BC194">
-        <v>15</v>
-      </c>
       <c r="BD194">
-        <v>1.58</v>
+        <v>1.35</v>
       </c>
       <c r="BE194">
-        <v>6.75</v>
+        <v>7.5</v>
       </c>
       <c r="BF194">
-        <v>2.55</v>
+        <v>3.45</v>
       </c>
       <c r="BG194">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="BH194">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="BI194">
-        <v>1.49</v>
+        <v>1.5</v>
       </c>
       <c r="BJ194">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="BK194">
         <v>1.81</v>
@@ -41428,13 +41428,13 @@
         <v>2.25</v>
       </c>
       <c r="BN194">
-        <v>1.56</v>
+        <v>1.55</v>
       </c>
       <c r="BO194">
         <v>2.9</v>
       </c>
       <c r="BP194">
-        <v>1.35</v>
+        <v>1.34</v>
       </c>
     </row>
     <row r="195" spans="1:68">
@@ -41854,7 +41854,7 @@
         <v>196</v>
       </c>
       <c r="B197">
-        <v>7468279</v>
+        <v>7468284</v>
       </c>
       <c r="C197" t="s">
         <v>68</v>
@@ -41869,43 +41869,43 @@
         <v>25</v>
       </c>
       <c r="G197" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="H197" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="I197">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J197">
         <v>1</v>
       </c>
       <c r="K197">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L197">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M197">
         <v>1</v>
       </c>
       <c r="N197">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O197" t="s">
-        <v>88</v>
+        <v>182</v>
       </c>
       <c r="P197" t="s">
-        <v>258</v>
+        <v>134</v>
       </c>
       <c r="Q197">
-        <v>2.88</v>
+        <v>2.45</v>
       </c>
       <c r="R197">
         <v>2.1</v>
       </c>
       <c r="S197">
-        <v>3.75</v>
+        <v>4.6</v>
       </c>
       <c r="T197">
         <v>1.4</v>
@@ -41920,139 +41920,139 @@
         <v>1.36</v>
       </c>
       <c r="X197">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="Y197">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="Z197">
-        <v>2.1</v>
+        <v>1.76</v>
       </c>
       <c r="AA197">
-        <v>3.3</v>
+        <v>3.64</v>
       </c>
       <c r="AB197">
-        <v>3.3</v>
+        <v>4.4</v>
       </c>
       <c r="AC197">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD197">
-        <v>0</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="AE197">
+        <v>1.27</v>
+      </c>
+      <c r="AF197">
+        <v>3.15</v>
+      </c>
+      <c r="AG197">
+        <v>1.98</v>
+      </c>
+      <c r="AH197">
+        <v>1.79</v>
+      </c>
+      <c r="AI197">
+        <v>1.85</v>
+      </c>
+      <c r="AJ197">
+        <v>1.85</v>
+      </c>
+      <c r="AK197">
+        <v>1.22</v>
+      </c>
+      <c r="AL197">
+        <v>1.3</v>
+      </c>
+      <c r="AM197">
+        <v>1.91</v>
+      </c>
+      <c r="AN197">
+        <v>1.58</v>
+      </c>
+      <c r="AO197">
+        <v>0.8</v>
+      </c>
+      <c r="AP197">
+        <v>1.63</v>
+      </c>
+      <c r="AQ197">
+        <v>1.19</v>
+      </c>
+      <c r="AR197">
+        <v>1.45</v>
+      </c>
+      <c r="AS197">
+        <v>1.43</v>
+      </c>
+      <c r="AT197">
         <v>2.88</v>
       </c>
-      <c r="AF197">
-        <v>1.41</v>
-      </c>
-      <c r="AG197">
-        <v>1.97</v>
-      </c>
-      <c r="AH197">
-        <v>1.85</v>
-      </c>
-      <c r="AI197">
-        <v>1.75</v>
-      </c>
-      <c r="AJ197">
-        <v>2</v>
-      </c>
-      <c r="AK197">
-        <v>0</v>
-      </c>
-      <c r="AL197">
-        <v>0</v>
-      </c>
-      <c r="AM197">
-        <v>0</v>
-      </c>
-      <c r="AN197">
-        <v>1.17</v>
-      </c>
-      <c r="AO197">
-        <v>1.25</v>
-      </c>
-      <c r="AP197">
-        <v>1.13</v>
-      </c>
-      <c r="AQ197">
-        <v>1.24</v>
-      </c>
-      <c r="AR197">
+      <c r="AU197">
+        <v>9</v>
+      </c>
+      <c r="AV197">
+        <v>3</v>
+      </c>
+      <c r="AW197">
+        <v>6</v>
+      </c>
+      <c r="AX197">
+        <v>2</v>
+      </c>
+      <c r="AY197">
+        <v>15</v>
+      </c>
+      <c r="AZ197">
+        <v>5</v>
+      </c>
+      <c r="BA197">
+        <v>11</v>
+      </c>
+      <c r="BB197">
+        <v>3</v>
+      </c>
+      <c r="BC197">
+        <v>14</v>
+      </c>
+      <c r="BD197">
+        <v>1.47</v>
+      </c>
+      <c r="BE197">
+        <v>6.75</v>
+      </c>
+      <c r="BF197">
+        <v>3.05</v>
+      </c>
+      <c r="BG197">
+        <v>1.43</v>
+      </c>
+      <c r="BH197">
+        <v>2.63</v>
+      </c>
+      <c r="BI197">
+        <v>1.71</v>
+      </c>
+      <c r="BJ197">
+        <v>2</v>
+      </c>
+      <c r="BK197">
+        <v>2.15</v>
+      </c>
+      <c r="BL197">
         <v>1.61</v>
       </c>
-      <c r="AS197">
-        <v>1.22</v>
-      </c>
-      <c r="AT197">
-        <v>2.83</v>
-      </c>
-      <c r="AU197">
-        <v>5</v>
-      </c>
-      <c r="AV197">
-        <v>4</v>
-      </c>
-      <c r="AW197">
-        <v>3</v>
-      </c>
-      <c r="AX197">
-        <v>5</v>
-      </c>
-      <c r="AY197">
-        <v>8</v>
-      </c>
-      <c r="AZ197">
-        <v>9</v>
-      </c>
-      <c r="BA197">
-        <v>5</v>
-      </c>
-      <c r="BB197">
-        <v>4</v>
-      </c>
-      <c r="BC197">
-        <v>9</v>
-      </c>
-      <c r="BD197">
-        <v>0</v>
-      </c>
-      <c r="BE197">
-        <v>0</v>
-      </c>
-      <c r="BF197">
-        <v>0</v>
-      </c>
-      <c r="BG197">
-        <v>0</v>
-      </c>
-      <c r="BH197">
-        <v>0</v>
-      </c>
-      <c r="BI197">
-        <v>0</v>
-      </c>
-      <c r="BJ197">
-        <v>0</v>
-      </c>
-      <c r="BK197">
-        <v>0</v>
-      </c>
-      <c r="BL197">
-        <v>0</v>
-      </c>
       <c r="BM197">
-        <v>0</v>
+        <v>2.75</v>
       </c>
       <c r="BN197">
-        <v>0</v>
+        <v>1.38</v>
       </c>
       <c r="BO197">
-        <v>0</v>
+        <v>3.65</v>
       </c>
       <c r="BP197">
-        <v>0</v>
+        <v>1.23</v>
       </c>
     </row>
     <row r="198" spans="1:68">
@@ -42060,7 +42060,7 @@
         <v>197</v>
       </c>
       <c r="B198">
-        <v>7468284</v>
+        <v>7468279</v>
       </c>
       <c r="C198" t="s">
         <v>68</v>
@@ -42075,43 +42075,43 @@
         <v>25</v>
       </c>
       <c r="G198" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="H198" t="s">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="I198">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J198">
         <v>1</v>
       </c>
       <c r="K198">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L198">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M198">
         <v>1</v>
       </c>
       <c r="N198">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O198" t="s">
-        <v>181</v>
+        <v>88</v>
       </c>
       <c r="P198" t="s">
-        <v>134</v>
+        <v>258</v>
       </c>
       <c r="Q198">
-        <v>2.45</v>
+        <v>2.88</v>
       </c>
       <c r="R198">
         <v>2.1</v>
       </c>
       <c r="S198">
-        <v>4.6</v>
+        <v>3.75</v>
       </c>
       <c r="T198">
         <v>1.4</v>
@@ -42126,139 +42126,139 @@
         <v>1.36</v>
       </c>
       <c r="X198">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="Y198">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="Z198">
-        <v>1.76</v>
+        <v>2.1</v>
       </c>
       <c r="AA198">
-        <v>3.64</v>
+        <v>3.3</v>
       </c>
       <c r="AB198">
-        <v>4.4</v>
+        <v>3.3</v>
       </c>
       <c r="AC198">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD198">
-        <v>9.300000000000001</v>
+        <v>0</v>
       </c>
       <c r="AE198">
-        <v>1.27</v>
+        <v>2.88</v>
       </c>
       <c r="AF198">
-        <v>3.15</v>
+        <v>1.41</v>
       </c>
       <c r="AG198">
-        <v>1.98</v>
+        <v>1.97</v>
       </c>
       <c r="AH198">
-        <v>1.79</v>
+        <v>1.85</v>
       </c>
       <c r="AI198">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="AJ198">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="AK198">
+        <v>0</v>
+      </c>
+      <c r="AL198">
+        <v>0</v>
+      </c>
+      <c r="AM198">
+        <v>0</v>
+      </c>
+      <c r="AN198">
+        <v>1.17</v>
+      </c>
+      <c r="AO198">
+        <v>1.25</v>
+      </c>
+      <c r="AP198">
+        <v>1.13</v>
+      </c>
+      <c r="AQ198">
+        <v>1.24</v>
+      </c>
+      <c r="AR198">
+        <v>1.61</v>
+      </c>
+      <c r="AS198">
         <v>1.22</v>
       </c>
-      <c r="AL198">
-        <v>1.3</v>
-      </c>
-      <c r="AM198">
-        <v>1.91</v>
-      </c>
-      <c r="AN198">
-        <v>1.58</v>
-      </c>
-      <c r="AO198">
-        <v>0.8</v>
-      </c>
-      <c r="AP198">
-        <v>1.63</v>
-      </c>
-      <c r="AQ198">
-        <v>1.19</v>
-      </c>
-      <c r="AR198">
-        <v>1.45</v>
-      </c>
-      <c r="AS198">
-        <v>1.43</v>
-      </c>
       <c r="AT198">
-        <v>2.88</v>
+        <v>2.83</v>
       </c>
       <c r="AU198">
+        <v>5</v>
+      </c>
+      <c r="AV198">
+        <v>4</v>
+      </c>
+      <c r="AW198">
+        <v>3</v>
+      </c>
+      <c r="AX198">
+        <v>5</v>
+      </c>
+      <c r="AY198">
+        <v>8</v>
+      </c>
+      <c r="AZ198">
         <v>9</v>
       </c>
-      <c r="AV198">
-        <v>3</v>
-      </c>
-      <c r="AW198">
-        <v>6</v>
-      </c>
-      <c r="AX198">
-        <v>2</v>
-      </c>
-      <c r="AY198">
-        <v>15</v>
-      </c>
-      <c r="AZ198">
+      <c r="BA198">
         <v>5</v>
       </c>
-      <c r="BA198">
-        <v>11</v>
-      </c>
       <c r="BB198">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BC198">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="BD198">
-        <v>1.47</v>
+        <v>0</v>
       </c>
       <c r="BE198">
-        <v>6.75</v>
+        <v>0</v>
       </c>
       <c r="BF198">
-        <v>3.05</v>
+        <v>0</v>
       </c>
       <c r="BG198">
-        <v>1.43</v>
+        <v>0</v>
       </c>
       <c r="BH198">
-        <v>2.63</v>
+        <v>0</v>
       </c>
       <c r="BI198">
-        <v>1.71</v>
+        <v>0</v>
       </c>
       <c r="BJ198">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="BK198">
-        <v>2.15</v>
+        <v>0</v>
       </c>
       <c r="BL198">
-        <v>1.61</v>
+        <v>0</v>
       </c>
       <c r="BM198">
-        <v>2.75</v>
+        <v>0</v>
       </c>
       <c r="BN198">
-        <v>1.38</v>
+        <v>0</v>
       </c>
       <c r="BO198">
-        <v>3.65</v>
+        <v>0</v>
       </c>
       <c r="BP198">
-        <v>1.23</v>
+        <v>0</v>
       </c>
     </row>
     <row r="199" spans="1:68">
@@ -42884,7 +42884,7 @@
         <v>201</v>
       </c>
       <c r="B202">
-        <v>7468287</v>
+        <v>7468291</v>
       </c>
       <c r="C202" t="s">
         <v>68</v>
@@ -42899,10 +42899,10 @@
         <v>26</v>
       </c>
       <c r="G202" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H202" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="I202">
         <v>0</v>
@@ -42914,136 +42914,136 @@
         <v>0</v>
       </c>
       <c r="L202">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M202">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N202">
         <v>1</v>
       </c>
       <c r="O202" t="s">
+        <v>216</v>
+      </c>
+      <c r="P202" t="s">
         <v>88</v>
       </c>
-      <c r="P202" t="s">
-        <v>281</v>
-      </c>
       <c r="Q202">
-        <v>2.75</v>
+        <v>0</v>
       </c>
       <c r="R202">
-        <v>2.2</v>
+        <v>0</v>
       </c>
       <c r="S202">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="T202">
-        <v>1.4</v>
+        <v>0</v>
       </c>
       <c r="U202">
-        <v>2.75</v>
+        <v>0</v>
       </c>
       <c r="V202">
-        <v>2.75</v>
+        <v>0</v>
       </c>
       <c r="W202">
-        <v>1.4</v>
+        <v>0</v>
       </c>
       <c r="X202">
+        <v>0</v>
+      </c>
+      <c r="Y202">
+        <v>0</v>
+      </c>
+      <c r="Z202">
+        <v>0</v>
+      </c>
+      <c r="AA202">
+        <v>0</v>
+      </c>
+      <c r="AB202">
+        <v>0</v>
+      </c>
+      <c r="AC202">
+        <v>0</v>
+      </c>
+      <c r="AD202">
+        <v>0</v>
+      </c>
+      <c r="AE202">
+        <v>0</v>
+      </c>
+      <c r="AF202">
+        <v>0</v>
+      </c>
+      <c r="AG202">
+        <v>0</v>
+      </c>
+      <c r="AH202">
+        <v>0</v>
+      </c>
+      <c r="AI202">
+        <v>0</v>
+      </c>
+      <c r="AJ202">
+        <v>0</v>
+      </c>
+      <c r="AK202">
+        <v>0</v>
+      </c>
+      <c r="AL202">
+        <v>0</v>
+      </c>
+      <c r="AM202">
+        <v>0</v>
+      </c>
+      <c r="AN202">
+        <v>1.33</v>
+      </c>
+      <c r="AO202">
+        <v>0.92</v>
+      </c>
+      <c r="AP202">
+        <v>1.53</v>
+      </c>
+      <c r="AQ202">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="AR202">
+        <v>1.47</v>
+      </c>
+      <c r="AS202">
+        <v>1.17</v>
+      </c>
+      <c r="AT202">
+        <v>2.64</v>
+      </c>
+      <c r="AU202">
+        <v>3</v>
+      </c>
+      <c r="AV202">
+        <v>2</v>
+      </c>
+      <c r="AW202">
+        <v>9</v>
+      </c>
+      <c r="AX202">
         <v>8</v>
       </c>
-      <c r="Y202">
-        <v>1.08</v>
-      </c>
-      <c r="Z202">
-        <v>1.95</v>
-      </c>
-      <c r="AA202">
-        <v>3.2</v>
-      </c>
-      <c r="AB202">
-        <v>3.3</v>
-      </c>
-      <c r="AC202">
-        <v>0</v>
-      </c>
-      <c r="AD202">
-        <v>0</v>
-      </c>
-      <c r="AE202">
-        <v>0</v>
-      </c>
-      <c r="AF202">
-        <v>0</v>
-      </c>
-      <c r="AG202">
-        <v>1.91</v>
-      </c>
-      <c r="AH202">
-        <v>1.8</v>
-      </c>
-      <c r="AI202">
-        <v>1.75</v>
-      </c>
-      <c r="AJ202">
-        <v>2</v>
-      </c>
-      <c r="AK202">
-        <v>1.33</v>
-      </c>
-      <c r="AL202">
-        <v>1.34</v>
-      </c>
-      <c r="AM202">
-        <v>1.65</v>
-      </c>
-      <c r="AN202">
-        <v>0.83</v>
-      </c>
-      <c r="AO202">
-        <v>0.42</v>
-      </c>
-      <c r="AP202">
-        <v>1</v>
-      </c>
-      <c r="AQ202">
-        <v>0.88</v>
-      </c>
-      <c r="AR202">
-        <v>1.23</v>
-      </c>
-      <c r="AS202">
-        <v>0.91</v>
-      </c>
-      <c r="AT202">
-        <v>2.14</v>
-      </c>
-      <c r="AU202">
-        <v>4</v>
-      </c>
-      <c r="AV202">
-        <v>5</v>
-      </c>
-      <c r="AW202">
-        <v>7</v>
-      </c>
-      <c r="AX202">
-        <v>4</v>
-      </c>
       <c r="AY202">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AZ202">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BA202">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="BB202">
         <v>4</v>
       </c>
       <c r="BC202">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="BD202">
         <v>0</v>
@@ -43067,22 +43067,22 @@
         <v>0</v>
       </c>
       <c r="BK202">
-        <v>1.58</v>
+        <v>0</v>
       </c>
       <c r="BL202">
-        <v>2.29</v>
+        <v>0</v>
       </c>
       <c r="BM202">
-        <v>1.97</v>
+        <v>0</v>
       </c>
       <c r="BN202">
-        <v>1.83</v>
+        <v>0</v>
       </c>
       <c r="BO202">
-        <v>2.47</v>
+        <v>0</v>
       </c>
       <c r="BP202">
-        <v>1.51</v>
+        <v>0</v>
       </c>
     </row>
     <row r="203" spans="1:68">
@@ -43090,7 +43090,7 @@
         <v>202</v>
       </c>
       <c r="B203">
-        <v>7468291</v>
+        <v>7468287</v>
       </c>
       <c r="C203" t="s">
         <v>68</v>
@@ -43105,10 +43105,10 @@
         <v>26</v>
       </c>
       <c r="G203" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H203" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="I203">
         <v>0</v>
@@ -43120,55 +43120,55 @@
         <v>0</v>
       </c>
       <c r="L203">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M203">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N203">
         <v>1</v>
       </c>
       <c r="O203" t="s">
-        <v>216</v>
+        <v>88</v>
       </c>
       <c r="P203" t="s">
-        <v>88</v>
+        <v>281</v>
       </c>
       <c r="Q203">
-        <v>0</v>
+        <v>2.75</v>
       </c>
       <c r="R203">
-        <v>0</v>
+        <v>2.2</v>
       </c>
       <c r="S203">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="T203">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="U203">
-        <v>0</v>
+        <v>2.75</v>
       </c>
       <c r="V203">
-        <v>0</v>
+        <v>2.75</v>
       </c>
       <c r="W203">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="X203">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="Y203">
-        <v>0</v>
+        <v>1.08</v>
       </c>
       <c r="Z203">
-        <v>0</v>
+        <v>1.95</v>
       </c>
       <c r="AA203">
-        <v>0</v>
+        <v>3.2</v>
       </c>
       <c r="AB203">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="AC203">
         <v>0</v>
@@ -43183,73 +43183,73 @@
         <v>0</v>
       </c>
       <c r="AG203">
-        <v>0</v>
+        <v>1.91</v>
       </c>
       <c r="AH203">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="AI203">
-        <v>0</v>
+        <v>1.75</v>
       </c>
       <c r="AJ203">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AK203">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="AL203">
-        <v>0</v>
+        <v>1.34</v>
       </c>
       <c r="AM203">
-        <v>0</v>
+        <v>1.65</v>
       </c>
       <c r="AN203">
-        <v>1.33</v>
+        <v>0.83</v>
       </c>
       <c r="AO203">
-        <v>0.92</v>
+        <v>0.42</v>
       </c>
       <c r="AP203">
-        <v>1.53</v>
+        <v>1</v>
       </c>
       <c r="AQ203">
-        <v>0.6899999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="AR203">
-        <v>1.47</v>
+        <v>1.23</v>
       </c>
       <c r="AS203">
-        <v>1.17</v>
+        <v>0.91</v>
       </c>
       <c r="AT203">
-        <v>2.64</v>
+        <v>2.14</v>
       </c>
       <c r="AU203">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AV203">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AW203">
+        <v>7</v>
+      </c>
+      <c r="AX203">
+        <v>4</v>
+      </c>
+      <c r="AY203">
+        <v>11</v>
+      </c>
+      <c r="AZ203">
         <v>9</v>
       </c>
-      <c r="AX203">
-        <v>8</v>
-      </c>
-      <c r="AY203">
-        <v>12</v>
-      </c>
-      <c r="AZ203">
-        <v>10</v>
-      </c>
       <c r="BA203">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="BB203">
         <v>4</v>
       </c>
       <c r="BC203">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="BD203">
         <v>0</v>
@@ -43273,22 +43273,22 @@
         <v>0</v>
       </c>
       <c r="BK203">
-        <v>0</v>
+        <v>1.58</v>
       </c>
       <c r="BL203">
-        <v>0</v>
+        <v>2.29</v>
       </c>
       <c r="BM203">
-        <v>0</v>
+        <v>1.97</v>
       </c>
       <c r="BN203">
-        <v>0</v>
+        <v>1.83</v>
       </c>
       <c r="BO203">
-        <v>0</v>
+        <v>2.47</v>
       </c>
       <c r="BP203">
-        <v>0</v>
+        <v>1.51</v>
       </c>
     </row>
     <row r="204" spans="1:68">
@@ -45356,7 +45356,7 @@
         <v>213</v>
       </c>
       <c r="B214">
-        <v>7468301</v>
+        <v>7468298</v>
       </c>
       <c r="C214" t="s">
         <v>68</v>
@@ -45371,70 +45371,70 @@
         <v>27</v>
       </c>
       <c r="G214" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="H214" t="s">
-        <v>72</v>
+        <v>83</v>
       </c>
       <c r="I214">
         <v>1</v>
       </c>
       <c r="J214">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K214">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L214">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M214">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N214">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="O214" t="s">
         <v>222</v>
       </c>
       <c r="P214" t="s">
-        <v>88</v>
+        <v>153</v>
       </c>
       <c r="Q214">
-        <v>1.91</v>
+        <v>2.88</v>
       </c>
       <c r="R214">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
       <c r="S214">
-        <v>7</v>
+        <v>3.25</v>
       </c>
       <c r="T214">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="U214">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="V214">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="W214">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="X214">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="Y214">
-        <v>1.11</v>
+        <v>1.13</v>
       </c>
       <c r="Z214">
-        <v>1.42</v>
+        <v>2.3</v>
       </c>
       <c r="AA214">
-        <v>4.71</v>
+        <v>3.5</v>
       </c>
       <c r="AB214">
-        <v>6.88</v>
+        <v>2.9</v>
       </c>
       <c r="AC214">
         <v>0</v>
@@ -45443,22 +45443,22 @@
         <v>0</v>
       </c>
       <c r="AE214">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AF214">
-        <v>1.8</v>
+        <v>0</v>
       </c>
       <c r="AG214">
-        <v>1.75</v>
+        <v>1.62</v>
       </c>
       <c r="AH214">
-        <v>2.05</v>
+        <v>2.25</v>
       </c>
       <c r="AI214">
-        <v>2</v>
+        <v>1.53</v>
       </c>
       <c r="AJ214">
-        <v>1.75</v>
+        <v>2.38</v>
       </c>
       <c r="AK214">
         <v>0</v>
@@ -45470,52 +45470,52 @@
         <v>0</v>
       </c>
       <c r="AN214">
-        <v>1.54</v>
+        <v>1.46</v>
       </c>
       <c r="AO214">
-        <v>0.08</v>
+        <v>1.15</v>
       </c>
       <c r="AP214">
-        <v>1.63</v>
+        <v>1.38</v>
       </c>
       <c r="AQ214">
-        <v>0.12</v>
+        <v>1.13</v>
       </c>
       <c r="AR214">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="AS214">
-        <v>1</v>
+        <v>1.36</v>
       </c>
       <c r="AT214">
-        <v>2.53</v>
+        <v>2.93</v>
       </c>
       <c r="AU214">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="AV214">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AW214">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AX214">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="AY214">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AZ214">
         <v>8</v>
       </c>
       <c r="BA214">
+        <v>7</v>
+      </c>
+      <c r="BB214">
         <v>5</v>
       </c>
-      <c r="BB214">
-        <v>4</v>
-      </c>
       <c r="BC214">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="BD214">
         <v>0</v>
@@ -45562,7 +45562,7 @@
         <v>214</v>
       </c>
       <c r="B215">
-        <v>7468298</v>
+        <v>7468301</v>
       </c>
       <c r="C215" t="s">
         <v>68</v>
@@ -45577,151 +45577,151 @@
         <v>27</v>
       </c>
       <c r="G215" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="H215" t="s">
-        <v>83</v>
+        <v>72</v>
       </c>
       <c r="I215">
         <v>1</v>
       </c>
       <c r="J215">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K215">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L215">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M215">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N215">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="O215" t="s">
         <v>223</v>
       </c>
       <c r="P215" t="s">
-        <v>153</v>
+        <v>88</v>
       </c>
       <c r="Q215">
-        <v>2.88</v>
+        <v>1.91</v>
       </c>
       <c r="R215">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="S215">
+        <v>7</v>
+      </c>
+      <c r="T215">
+        <v>1.33</v>
+      </c>
+      <c r="U215">
         <v>3.25</v>
       </c>
-      <c r="T215">
-        <v>1.3</v>
-      </c>
-      <c r="U215">
-        <v>3.4</v>
-      </c>
       <c r="V215">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="W215">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="X215">
+        <v>6.5</v>
+      </c>
+      <c r="Y215">
+        <v>1.11</v>
+      </c>
+      <c r="Z215">
+        <v>1.42</v>
+      </c>
+      <c r="AA215">
+        <v>4.71</v>
+      </c>
+      <c r="AB215">
+        <v>6.88</v>
+      </c>
+      <c r="AC215">
+        <v>0</v>
+      </c>
+      <c r="AD215">
+        <v>0</v>
+      </c>
+      <c r="AE215">
+        <v>2</v>
+      </c>
+      <c r="AF215">
+        <v>1.8</v>
+      </c>
+      <c r="AG215">
+        <v>1.75</v>
+      </c>
+      <c r="AH215">
+        <v>2.05</v>
+      </c>
+      <c r="AI215">
+        <v>2</v>
+      </c>
+      <c r="AJ215">
+        <v>1.75</v>
+      </c>
+      <c r="AK215">
+        <v>0</v>
+      </c>
+      <c r="AL215">
+        <v>0</v>
+      </c>
+      <c r="AM215">
+        <v>0</v>
+      </c>
+      <c r="AN215">
+        <v>1.54</v>
+      </c>
+      <c r="AO215">
+        <v>0.08</v>
+      </c>
+      <c r="AP215">
+        <v>1.63</v>
+      </c>
+      <c r="AQ215">
+        <v>0.12</v>
+      </c>
+      <c r="AR215">
+        <v>1.53</v>
+      </c>
+      <c r="AS215">
+        <v>1</v>
+      </c>
+      <c r="AT215">
+        <v>2.53</v>
+      </c>
+      <c r="AU215">
         <v>6</v>
       </c>
-      <c r="Y215">
-        <v>1.13</v>
-      </c>
-      <c r="Z215">
-        <v>2.3</v>
-      </c>
-      <c r="AA215">
-        <v>3.5</v>
-      </c>
-      <c r="AB215">
-        <v>2.9</v>
-      </c>
-      <c r="AC215">
-        <v>0</v>
-      </c>
-      <c r="AD215">
-        <v>0</v>
-      </c>
-      <c r="AE215">
-        <v>0</v>
-      </c>
-      <c r="AF215">
-        <v>0</v>
-      </c>
-      <c r="AG215">
-        <v>1.62</v>
-      </c>
-      <c r="AH215">
-        <v>2.25</v>
-      </c>
-      <c r="AI215">
-        <v>1.53</v>
-      </c>
-      <c r="AJ215">
-        <v>2.38</v>
-      </c>
-      <c r="AK215">
-        <v>0</v>
-      </c>
-      <c r="AL215">
-        <v>0</v>
-      </c>
-      <c r="AM215">
-        <v>0</v>
-      </c>
-      <c r="AN215">
-        <v>1.46</v>
-      </c>
-      <c r="AO215">
-        <v>1.15</v>
-      </c>
-      <c r="AP215">
-        <v>1.38</v>
-      </c>
-      <c r="AQ215">
-        <v>1.13</v>
-      </c>
-      <c r="AR215">
-        <v>1.57</v>
-      </c>
-      <c r="AS215">
-        <v>1.36</v>
-      </c>
-      <c r="AT215">
-        <v>2.93</v>
-      </c>
-      <c r="AU215">
-        <v>9</v>
-      </c>
       <c r="AV215">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AW215">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AX215">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="AY215">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AZ215">
         <v>8</v>
       </c>
       <c r="BA215">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="BB215">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BC215">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="BD215">
         <v>0</v>
@@ -49064,7 +49064,7 @@
         <v>231</v>
       </c>
       <c r="B232">
-        <v>7468315</v>
+        <v>7468311</v>
       </c>
       <c r="C232" t="s">
         <v>68</v>
@@ -49079,10 +49079,10 @@
         <v>29</v>
       </c>
       <c r="G232" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="H232" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="I232">
         <v>0</v>
@@ -49094,136 +49094,136 @@
         <v>1</v>
       </c>
       <c r="L232">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M232">
         <v>2</v>
       </c>
       <c r="N232">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O232" t="s">
-        <v>88</v>
+        <v>233</v>
       </c>
       <c r="P232" t="s">
         <v>350</v>
       </c>
       <c r="Q232">
+        <v>4.5</v>
+      </c>
+      <c r="R232">
+        <v>2.25</v>
+      </c>
+      <c r="S232">
+        <v>2.38</v>
+      </c>
+      <c r="T232">
+        <v>1.33</v>
+      </c>
+      <c r="U232">
+        <v>3.25</v>
+      </c>
+      <c r="V232">
+        <v>2.63</v>
+      </c>
+      <c r="W232">
+        <v>1.44</v>
+      </c>
+      <c r="X232">
+        <v>7</v>
+      </c>
+      <c r="Y232">
+        <v>1.1</v>
+      </c>
+      <c r="Z232">
+        <v>4.1</v>
+      </c>
+      <c r="AA232">
+        <v>3.7</v>
+      </c>
+      <c r="AB232">
+        <v>1.75</v>
+      </c>
+      <c r="AC232">
+        <v>1.05</v>
+      </c>
+      <c r="AD232">
+        <v>8.5</v>
+      </c>
+      <c r="AE232">
+        <v>1.25</v>
+      </c>
+      <c r="AF232">
+        <v>3.65</v>
+      </c>
+      <c r="AG232">
+        <v>1.8</v>
+      </c>
+      <c r="AH232">
+        <v>2</v>
+      </c>
+      <c r="AI232">
+        <v>1.7</v>
+      </c>
+      <c r="AJ232">
+        <v>2.05</v>
+      </c>
+      <c r="AK232">
+        <v>2</v>
+      </c>
+      <c r="AL232">
+        <v>1.22</v>
+      </c>
+      <c r="AM232">
+        <v>1.17</v>
+      </c>
+      <c r="AN232">
+        <v>1.07</v>
+      </c>
+      <c r="AO232">
+        <v>1.93</v>
+      </c>
+      <c r="AP232">
+        <v>1.13</v>
+      </c>
+      <c r="AQ232">
+        <v>1.88</v>
+      </c>
+      <c r="AR232">
+        <v>1.58</v>
+      </c>
+      <c r="AS232">
+        <v>1.45</v>
+      </c>
+      <c r="AT232">
+        <v>3.03</v>
+      </c>
+      <c r="AU232">
+        <v>4</v>
+      </c>
+      <c r="AV232">
+        <v>4</v>
+      </c>
+      <c r="AW232">
+        <v>6</v>
+      </c>
+      <c r="AX232">
+        <v>7</v>
+      </c>
+      <c r="AY232">
+        <v>10</v>
+      </c>
+      <c r="AZ232">
+        <v>11</v>
+      </c>
+      <c r="BA232">
         <v>3</v>
       </c>
-      <c r="R232">
-        <v>2.05</v>
-      </c>
-      <c r="S232">
-        <v>3.75</v>
-      </c>
-      <c r="T232">
-        <v>1.44</v>
-      </c>
-      <c r="U232">
-        <v>2.63</v>
-      </c>
-      <c r="V232">
-        <v>3.4</v>
-      </c>
-      <c r="W232">
-        <v>1.3</v>
-      </c>
-      <c r="X232">
-        <v>10</v>
-      </c>
-      <c r="Y232">
-        <v>1.06</v>
-      </c>
-      <c r="Z232">
-        <v>2.2</v>
-      </c>
-      <c r="AA232">
-        <v>3.1</v>
-      </c>
-      <c r="AB232">
-        <v>2.87</v>
-      </c>
-      <c r="AC232">
-        <v>1.06</v>
-      </c>
-      <c r="AD232">
-        <v>8</v>
-      </c>
-      <c r="AE232">
-        <v>1.36</v>
-      </c>
-      <c r="AF232">
-        <v>3</v>
-      </c>
-      <c r="AG232">
-        <v>2.1</v>
-      </c>
-      <c r="AH232">
-        <v>1.65</v>
-      </c>
-      <c r="AI232">
-        <v>1.95</v>
-      </c>
-      <c r="AJ232">
-        <v>1.8</v>
-      </c>
-      <c r="AK232">
-        <v>1.35</v>
-      </c>
-      <c r="AL232">
-        <v>1.28</v>
-      </c>
-      <c r="AM232">
-        <v>1.62</v>
-      </c>
-      <c r="AN232">
-        <v>1.64</v>
-      </c>
-      <c r="AO232">
-        <v>1.14</v>
-      </c>
-      <c r="AP232">
-        <v>1.63</v>
-      </c>
-      <c r="AQ232">
-        <v>1.19</v>
-      </c>
-      <c r="AR232">
-        <v>1.53</v>
-      </c>
-      <c r="AS232">
-        <v>1.46</v>
-      </c>
-      <c r="AT232">
-        <v>2.99</v>
-      </c>
-      <c r="AU232">
-        <v>7</v>
-      </c>
-      <c r="AV232">
-        <v>7</v>
-      </c>
-      <c r="AW232">
-        <v>16</v>
-      </c>
-      <c r="AX232">
-        <v>3</v>
-      </c>
-      <c r="AY232">
-        <v>23</v>
-      </c>
-      <c r="AZ232">
-        <v>10</v>
-      </c>
-      <c r="BA232">
-        <v>11</v>
-      </c>
       <c r="BB232">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="BC232">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="BD232">
         <v>0</v>
@@ -49270,7 +49270,7 @@
         <v>232</v>
       </c>
       <c r="B233">
-        <v>7468311</v>
+        <v>7468315</v>
       </c>
       <c r="C233" t="s">
         <v>68</v>
@@ -49285,10 +49285,10 @@
         <v>29</v>
       </c>
       <c r="G233" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="H233" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="I233">
         <v>0</v>
@@ -49300,136 +49300,136 @@
         <v>1</v>
       </c>
       <c r="L233">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M233">
         <v>2</v>
       </c>
       <c r="N233">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O233" t="s">
-        <v>233</v>
+        <v>88</v>
       </c>
       <c r="P233" t="s">
         <v>351</v>
       </c>
       <c r="Q233">
-        <v>4.5</v>
+        <v>3</v>
       </c>
       <c r="R233">
-        <v>2.25</v>
+        <v>2.05</v>
       </c>
       <c r="S233">
-        <v>2.38</v>
+        <v>3.75</v>
       </c>
       <c r="T233">
-        <v>1.33</v>
+        <v>1.44</v>
       </c>
       <c r="U233">
-        <v>3.25</v>
+        <v>2.63</v>
       </c>
       <c r="V233">
-        <v>2.63</v>
+        <v>3.4</v>
       </c>
       <c r="W233">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="X233">
+        <v>10</v>
+      </c>
+      <c r="Y233">
+        <v>1.06</v>
+      </c>
+      <c r="Z233">
+        <v>2.2</v>
+      </c>
+      <c r="AA233">
+        <v>3.1</v>
+      </c>
+      <c r="AB233">
+        <v>2.87</v>
+      </c>
+      <c r="AC233">
+        <v>1.06</v>
+      </c>
+      <c r="AD233">
+        <v>8</v>
+      </c>
+      <c r="AE233">
+        <v>1.36</v>
+      </c>
+      <c r="AF233">
+        <v>3</v>
+      </c>
+      <c r="AG233">
+        <v>2.1</v>
+      </c>
+      <c r="AH233">
+        <v>1.65</v>
+      </c>
+      <c r="AI233">
+        <v>1.95</v>
+      </c>
+      <c r="AJ233">
+        <v>1.8</v>
+      </c>
+      <c r="AK233">
+        <v>1.35</v>
+      </c>
+      <c r="AL233">
+        <v>1.28</v>
+      </c>
+      <c r="AM233">
+        <v>1.62</v>
+      </c>
+      <c r="AN233">
+        <v>1.64</v>
+      </c>
+      <c r="AO233">
+        <v>1.14</v>
+      </c>
+      <c r="AP233">
+        <v>1.63</v>
+      </c>
+      <c r="AQ233">
+        <v>1.19</v>
+      </c>
+      <c r="AR233">
+        <v>1.53</v>
+      </c>
+      <c r="AS233">
+        <v>1.46</v>
+      </c>
+      <c r="AT233">
+        <v>2.99</v>
+      </c>
+      <c r="AU233">
         <v>7</v>
       </c>
-      <c r="Y233">
-        <v>1.1</v>
-      </c>
-      <c r="Z233">
-        <v>4.1</v>
-      </c>
-      <c r="AA233">
-        <v>3.7</v>
-      </c>
-      <c r="AB233">
-        <v>1.75</v>
-      </c>
-      <c r="AC233">
-        <v>1.05</v>
-      </c>
-      <c r="AD233">
-        <v>8.5</v>
-      </c>
-      <c r="AE233">
-        <v>1.25</v>
-      </c>
-      <c r="AF233">
-        <v>3.65</v>
-      </c>
-      <c r="AG233">
-        <v>1.8</v>
-      </c>
-      <c r="AH233">
-        <v>2</v>
-      </c>
-      <c r="AI233">
-        <v>1.7</v>
-      </c>
-      <c r="AJ233">
-        <v>2.05</v>
-      </c>
-      <c r="AK233">
-        <v>2</v>
-      </c>
-      <c r="AL233">
-        <v>1.22</v>
-      </c>
-      <c r="AM233">
-        <v>1.17</v>
-      </c>
-      <c r="AN233">
-        <v>1.07</v>
-      </c>
-      <c r="AO233">
-        <v>1.93</v>
-      </c>
-      <c r="AP233">
-        <v>1.13</v>
-      </c>
-      <c r="AQ233">
-        <v>1.88</v>
-      </c>
-      <c r="AR233">
-        <v>1.58</v>
-      </c>
-      <c r="AS233">
-        <v>1.45</v>
-      </c>
-      <c r="AT233">
-        <v>3.03</v>
-      </c>
-      <c r="AU233">
-        <v>4</v>
-      </c>
       <c r="AV233">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="AW233">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="AX233">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="AY233">
+        <v>23</v>
+      </c>
+      <c r="AZ233">
         <v>10</v>
       </c>
-      <c r="AZ233">
+      <c r="BA233">
         <v>11</v>
       </c>
-      <c r="BA233">
+      <c r="BB233">
         <v>3</v>
       </c>
-      <c r="BB233">
-        <v>6</v>
-      </c>
       <c r="BC233">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="BD233">
         <v>0</v>
@@ -49476,7 +49476,7 @@
         <v>233</v>
       </c>
       <c r="B234">
-        <v>7468318</v>
+        <v>7468324</v>
       </c>
       <c r="C234" t="s">
         <v>68</v>
@@ -49491,70 +49491,70 @@
         <v>30</v>
       </c>
       <c r="G234" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="H234" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="I234">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J234">
         <v>1</v>
       </c>
       <c r="K234">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L234">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M234">
+        <v>2</v>
+      </c>
+      <c r="N234">
         <v>3</v>
       </c>
-      <c r="N234">
-        <v>5</v>
-      </c>
       <c r="O234" t="s">
-        <v>234</v>
+        <v>158</v>
       </c>
       <c r="P234" t="s">
         <v>352</v>
       </c>
       <c r="Q234">
-        <v>2.3</v>
+        <v>8</v>
       </c>
       <c r="R234">
-        <v>2.3</v>
+        <v>2.6</v>
       </c>
       <c r="S234">
-        <v>4.75</v>
+        <v>1.8</v>
       </c>
       <c r="T234">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="U234">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="V234">
-        <v>2.63</v>
+        <v>2.38</v>
       </c>
       <c r="W234">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="X234">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="Y234">
-        <v>1.11</v>
+        <v>1.13</v>
       </c>
       <c r="Z234">
-        <v>1.7</v>
+        <v>9.27</v>
       </c>
       <c r="AA234">
-        <v>3.87</v>
+        <v>5.59</v>
       </c>
       <c r="AB234">
-        <v>4.65</v>
+        <v>1.29</v>
       </c>
       <c r="AC234">
         <v>0</v>
@@ -49569,73 +49569,73 @@
         <v>0</v>
       </c>
       <c r="AG234">
-        <v>1.73</v>
+        <v>1.6</v>
       </c>
       <c r="AH234">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="AI234">
+        <v>1.95</v>
+      </c>
+      <c r="AJ234">
+        <v>1.8</v>
+      </c>
+      <c r="AK234">
+        <v>0</v>
+      </c>
+      <c r="AL234">
+        <v>0</v>
+      </c>
+      <c r="AM234">
+        <v>0</v>
+      </c>
+      <c r="AN234">
+        <v>0.93</v>
+      </c>
+      <c r="AO234">
+        <v>1.93</v>
+      </c>
+      <c r="AP234">
+        <v>1</v>
+      </c>
+      <c r="AQ234">
+        <v>1.76</v>
+      </c>
+      <c r="AR234">
+        <v>1.23</v>
+      </c>
+      <c r="AS234">
         <v>1.75</v>
       </c>
-      <c r="AJ234">
-        <v>2</v>
-      </c>
-      <c r="AK234">
-        <v>0</v>
-      </c>
-      <c r="AL234">
-        <v>0</v>
-      </c>
-      <c r="AM234">
-        <v>0</v>
-      </c>
-      <c r="AN234">
-        <v>1.64</v>
-      </c>
-      <c r="AO234">
-        <v>1.14</v>
-      </c>
-      <c r="AP234">
-        <v>1.63</v>
-      </c>
-      <c r="AQ234">
-        <v>1.19</v>
-      </c>
-      <c r="AR234">
-        <v>1.48</v>
-      </c>
-      <c r="AS234">
-        <v>1.36</v>
-      </c>
       <c r="AT234">
-        <v>2.84</v>
+        <v>2.98</v>
       </c>
       <c r="AU234">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="AV234">
         <v>4</v>
       </c>
       <c r="AW234">
+        <v>5</v>
+      </c>
+      <c r="AX234">
+        <v>6</v>
+      </c>
+      <c r="AY234">
         <v>9</v>
       </c>
-      <c r="AX234">
-        <v>2</v>
-      </c>
-      <c r="AY234">
-        <v>16</v>
-      </c>
       <c r="AZ234">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="BA234">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="BB234">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="BC234">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="BD234">
         <v>0</v>
@@ -49682,7 +49682,7 @@
         <v>234</v>
       </c>
       <c r="B235">
-        <v>7468319</v>
+        <v>7468325</v>
       </c>
       <c r="C235" t="s">
         <v>68</v>
@@ -49697,70 +49697,70 @@
         <v>30</v>
       </c>
       <c r="G235" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="H235" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I235">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J235">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K235">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L235">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="M235">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N235">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="O235" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="P235" t="s">
-        <v>88</v>
+        <v>353</v>
       </c>
       <c r="Q235">
-        <v>1.91</v>
+        <v>1.67</v>
       </c>
       <c r="R235">
-        <v>2.6</v>
+        <v>2.75</v>
       </c>
       <c r="S235">
-        <v>6.5</v>
+        <v>9</v>
       </c>
       <c r="T235">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="U235">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="V235">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="W235">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="X235">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="Y235">
-        <v>1.14</v>
+        <v>1.17</v>
       </c>
       <c r="Z235">
-        <v>1.39</v>
+        <v>1.23</v>
       </c>
       <c r="AA235">
-        <v>4.92</v>
+        <v>6.54</v>
       </c>
       <c r="AB235">
-        <v>7.1</v>
+        <v>9.970000000000001</v>
       </c>
       <c r="AC235">
         <v>0</v>
@@ -49769,23 +49769,23 @@
         <v>0</v>
       </c>
       <c r="AE235">
-        <v>3.14</v>
+        <v>0</v>
       </c>
       <c r="AF235">
-        <v>1.35</v>
+        <v>0</v>
       </c>
       <c r="AG235">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AH235">
-        <v>2.3</v>
+        <v>2.5</v>
       </c>
       <c r="AI235">
+        <v>2</v>
+      </c>
+      <c r="AJ235">
         <v>1.75</v>
       </c>
-      <c r="AJ235">
-        <v>2</v>
-      </c>
       <c r="AK235">
         <v>0</v>
       </c>
@@ -49796,52 +49796,52 @@
         <v>0</v>
       </c>
       <c r="AN235">
-        <v>2.43</v>
+        <v>2.29</v>
       </c>
       <c r="AO235">
-        <v>1.36</v>
+        <v>0.79</v>
       </c>
       <c r="AP235">
         <v>2.24</v>
       </c>
       <c r="AQ235">
-        <v>1.19</v>
+        <v>0.88</v>
       </c>
       <c r="AR235">
-        <v>1.84</v>
+        <v>1.77</v>
       </c>
       <c r="AS235">
-        <v>1.33</v>
+        <v>0.99</v>
       </c>
       <c r="AT235">
-        <v>3.17</v>
+        <v>2.76</v>
       </c>
       <c r="AU235">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="AV235">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AW235">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AX235">
         <v>5</v>
       </c>
       <c r="AY235">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AZ235">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BA235">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="BB235">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="BC235">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="BD235">
         <v>0</v>
@@ -49888,7 +49888,7 @@
         <v>235</v>
       </c>
       <c r="B236">
-        <v>7468320</v>
+        <v>7468323</v>
       </c>
       <c r="C236" t="s">
         <v>68</v>
@@ -49903,151 +49903,151 @@
         <v>30</v>
       </c>
       <c r="G236" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="H236" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I236">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J236">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K236">
         <v>1</v>
       </c>
       <c r="L236">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M236">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N236">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O236" t="s">
-        <v>236</v>
+        <v>88</v>
       </c>
       <c r="P236" t="s">
-        <v>88</v>
+        <v>153</v>
       </c>
       <c r="Q236">
-        <v>1.73</v>
+        <v>3.4</v>
       </c>
       <c r="R236">
+        <v>2.25</v>
+      </c>
+      <c r="S236">
+        <v>2.88</v>
+      </c>
+      <c r="T236">
+        <v>1.33</v>
+      </c>
+      <c r="U236">
+        <v>3.25</v>
+      </c>
+      <c r="V236">
         <v>2.63</v>
       </c>
-      <c r="S236">
-        <v>8</v>
-      </c>
-      <c r="T236">
+      <c r="W236">
+        <v>1.44</v>
+      </c>
+      <c r="X236">
+        <v>7</v>
+      </c>
+      <c r="Y236">
+        <v>1.1</v>
+      </c>
+      <c r="Z236">
+        <v>3.22</v>
+      </c>
+      <c r="AA236">
+        <v>3.39</v>
+      </c>
+      <c r="AB236">
+        <v>2.22</v>
+      </c>
+      <c r="AC236">
+        <v>0</v>
+      </c>
+      <c r="AD236">
+        <v>0</v>
+      </c>
+      <c r="AE236">
+        <v>3.24</v>
+      </c>
+      <c r="AF236">
+        <v>1.32</v>
+      </c>
+      <c r="AG236">
+        <v>1.75</v>
+      </c>
+      <c r="AH236">
+        <v>2</v>
+      </c>
+      <c r="AI236">
+        <v>1.62</v>
+      </c>
+      <c r="AJ236">
+        <v>2.2</v>
+      </c>
+      <c r="AK236">
+        <v>0</v>
+      </c>
+      <c r="AL236">
+        <v>0</v>
+      </c>
+      <c r="AM236">
+        <v>0</v>
+      </c>
+      <c r="AN236">
+        <v>1.36</v>
+      </c>
+      <c r="AO236">
         <v>1.29</v>
       </c>
-      <c r="U236">
-        <v>3.5</v>
-      </c>
-      <c r="V236">
-        <v>2.25</v>
-      </c>
-      <c r="W236">
-        <v>1.57</v>
-      </c>
-      <c r="X236">
-        <v>5.5</v>
-      </c>
-      <c r="Y236">
-        <v>1.14</v>
-      </c>
-      <c r="Z236">
+      <c r="AP236">
         <v>1.29</v>
       </c>
-      <c r="AA236">
-        <v>5.51</v>
-      </c>
-      <c r="AB236">
-        <v>9.23</v>
-      </c>
-      <c r="AC236">
-        <v>0</v>
-      </c>
-      <c r="AD236">
-        <v>0</v>
-      </c>
-      <c r="AE236">
-        <v>0</v>
-      </c>
-      <c r="AF236">
-        <v>0</v>
-      </c>
-      <c r="AG236">
-        <v>1.53</v>
-      </c>
-      <c r="AH236">
-        <v>2.3</v>
-      </c>
-      <c r="AI236">
-        <v>1.95</v>
-      </c>
-      <c r="AJ236">
-        <v>1.8</v>
-      </c>
-      <c r="AK236">
-        <v>0</v>
-      </c>
-      <c r="AL236">
-        <v>0</v>
-      </c>
-      <c r="AM236">
-        <v>0</v>
-      </c>
-      <c r="AN236">
-        <v>1.43</v>
-      </c>
-      <c r="AO236">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="AP236">
-        <v>1.44</v>
-      </c>
       <c r="AQ236">
-        <v>0.12</v>
+        <v>1.59</v>
       </c>
       <c r="AR236">
-        <v>1.57</v>
+        <v>1.64</v>
       </c>
       <c r="AS236">
-        <v>0.98</v>
+        <v>1.39</v>
       </c>
       <c r="AT236">
-        <v>2.55</v>
+        <v>3.03</v>
       </c>
       <c r="AU236">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="AV236">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AW236">
+        <v>7</v>
+      </c>
+      <c r="AX236">
         <v>5</v>
       </c>
-      <c r="AX236">
-        <v>4</v>
-      </c>
       <c r="AY236">
+        <v>9</v>
+      </c>
+      <c r="AZ236">
+        <v>10</v>
+      </c>
+      <c r="BA236">
+        <v>7</v>
+      </c>
+      <c r="BB236">
+        <v>6</v>
+      </c>
+      <c r="BC236">
         <v>13</v>
-      </c>
-      <c r="AZ236">
-        <v>6</v>
-      </c>
-      <c r="BA236">
-        <v>6</v>
-      </c>
-      <c r="BB236">
-        <v>2</v>
-      </c>
-      <c r="BC236">
-        <v>8</v>
       </c>
       <c r="BD236">
         <v>0</v>
@@ -50133,7 +50133,7 @@
         <v>2</v>
       </c>
       <c r="O237" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="P237" t="s">
         <v>88</v>
@@ -50300,7 +50300,7 @@
         <v>237</v>
       </c>
       <c r="B238">
-        <v>7468322</v>
+        <v>7468320</v>
       </c>
       <c r="C238" t="s">
         <v>68</v>
@@ -50315,151 +50315,151 @@
         <v>30</v>
       </c>
       <c r="G238" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="H238" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="I238">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J238">
         <v>0</v>
       </c>
       <c r="K238">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L238">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M238">
         <v>0</v>
       </c>
       <c r="N238">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O238" t="s">
-        <v>113</v>
+        <v>236</v>
       </c>
       <c r="P238" t="s">
         <v>88</v>
       </c>
       <c r="Q238">
-        <v>3.2</v>
+        <v>1.73</v>
       </c>
       <c r="R238">
-        <v>2.05</v>
+        <v>2.63</v>
       </c>
       <c r="S238">
-        <v>3.6</v>
+        <v>8</v>
       </c>
       <c r="T238">
+        <v>1.29</v>
+      </c>
+      <c r="U238">
+        <v>3.5</v>
+      </c>
+      <c r="V238">
+        <v>2.25</v>
+      </c>
+      <c r="W238">
+        <v>1.57</v>
+      </c>
+      <c r="X238">
+        <v>5.5</v>
+      </c>
+      <c r="Y238">
+        <v>1.14</v>
+      </c>
+      <c r="Z238">
+        <v>1.29</v>
+      </c>
+      <c r="AA238">
+        <v>5.51</v>
+      </c>
+      <c r="AB238">
+        <v>9.23</v>
+      </c>
+      <c r="AC238">
+        <v>0</v>
+      </c>
+      <c r="AD238">
+        <v>0</v>
+      </c>
+      <c r="AE238">
+        <v>0</v>
+      </c>
+      <c r="AF238">
+        <v>0</v>
+      </c>
+      <c r="AG238">
+        <v>1.53</v>
+      </c>
+      <c r="AH238">
+        <v>2.3</v>
+      </c>
+      <c r="AI238">
+        <v>1.95</v>
+      </c>
+      <c r="AJ238">
+        <v>1.8</v>
+      </c>
+      <c r="AK238">
+        <v>0</v>
+      </c>
+      <c r="AL238">
+        <v>0</v>
+      </c>
+      <c r="AM238">
+        <v>0</v>
+      </c>
+      <c r="AN238">
+        <v>1.43</v>
+      </c>
+      <c r="AO238">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="AP238">
         <v>1.44</v>
       </c>
-      <c r="U238">
-        <v>2.63</v>
-      </c>
-      <c r="V238">
-        <v>3.4</v>
-      </c>
-      <c r="W238">
-        <v>1.3</v>
-      </c>
-      <c r="X238">
-        <v>10</v>
-      </c>
-      <c r="Y238">
-        <v>1.06</v>
-      </c>
-      <c r="Z238">
-        <v>2.39</v>
-      </c>
-      <c r="AA238">
-        <v>3.26</v>
-      </c>
-      <c r="AB238">
-        <v>3.03</v>
-      </c>
-      <c r="AC238">
-        <v>2.32</v>
-      </c>
-      <c r="AD238">
-        <v>1.59</v>
-      </c>
-      <c r="AE238">
-        <v>0</v>
-      </c>
-      <c r="AF238">
-        <v>0</v>
-      </c>
-      <c r="AG238">
-        <v>2.1</v>
-      </c>
-      <c r="AH238">
-        <v>1.65</v>
-      </c>
-      <c r="AI238">
-        <v>1.91</v>
-      </c>
-      <c r="AJ238">
-        <v>1.91</v>
-      </c>
-      <c r="AK238">
-        <v>0</v>
-      </c>
-      <c r="AL238">
-        <v>0</v>
-      </c>
-      <c r="AM238">
-        <v>0</v>
-      </c>
-      <c r="AN238">
-        <v>1.36</v>
-      </c>
-      <c r="AO238">
-        <v>1.21</v>
-      </c>
-      <c r="AP238">
-        <v>1.53</v>
-      </c>
       <c r="AQ238">
-        <v>1.25</v>
+        <v>0.12</v>
       </c>
       <c r="AR238">
-        <v>1.41</v>
+        <v>1.57</v>
       </c>
       <c r="AS238">
-        <v>1.29</v>
+        <v>0.98</v>
       </c>
       <c r="AT238">
-        <v>2.7</v>
+        <v>2.55</v>
       </c>
       <c r="AU238">
+        <v>8</v>
+      </c>
+      <c r="AV238">
+        <v>2</v>
+      </c>
+      <c r="AW238">
+        <v>5</v>
+      </c>
+      <c r="AX238">
+        <v>4</v>
+      </c>
+      <c r="AY238">
+        <v>13</v>
+      </c>
+      <c r="AZ238">
         <v>6</v>
       </c>
-      <c r="AV238">
-        <v>5</v>
-      </c>
-      <c r="AW238">
+      <c r="BA238">
         <v>6</v>
       </c>
-      <c r="AX238">
-        <v>6</v>
-      </c>
-      <c r="AY238">
-        <v>12</v>
-      </c>
-      <c r="AZ238">
-        <v>11</v>
-      </c>
-      <c r="BA238">
-        <v>4</v>
-      </c>
       <c r="BB238">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="BC238">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BD238">
         <v>0</v>
@@ -50506,7 +50506,7 @@
         <v>238</v>
       </c>
       <c r="B239">
-        <v>7468323</v>
+        <v>7468319</v>
       </c>
       <c r="C239" t="s">
         <v>68</v>
@@ -50521,130 +50521,130 @@
         <v>30</v>
       </c>
       <c r="G239" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H239" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="I239">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J239">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K239">
         <v>1</v>
       </c>
       <c r="L239">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M239">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N239">
         <v>1</v>
       </c>
       <c r="O239" t="s">
+        <v>237</v>
+      </c>
+      <c r="P239" t="s">
         <v>88</v>
       </c>
-      <c r="P239" t="s">
-        <v>153</v>
-      </c>
       <c r="Q239">
-        <v>3.4</v>
+        <v>1.91</v>
       </c>
       <c r="R239">
+        <v>2.6</v>
+      </c>
+      <c r="S239">
+        <v>6.5</v>
+      </c>
+      <c r="T239">
+        <v>1.29</v>
+      </c>
+      <c r="U239">
+        <v>3.5</v>
+      </c>
+      <c r="V239">
         <v>2.25</v>
       </c>
-      <c r="S239">
-        <v>2.88</v>
-      </c>
-      <c r="T239">
+      <c r="W239">
+        <v>1.57</v>
+      </c>
+      <c r="X239">
+        <v>5.5</v>
+      </c>
+      <c r="Y239">
+        <v>1.14</v>
+      </c>
+      <c r="Z239">
+        <v>1.39</v>
+      </c>
+      <c r="AA239">
+        <v>4.92</v>
+      </c>
+      <c r="AB239">
+        <v>7.1</v>
+      </c>
+      <c r="AC239">
+        <v>0</v>
+      </c>
+      <c r="AD239">
+        <v>0</v>
+      </c>
+      <c r="AE239">
+        <v>3.14</v>
+      </c>
+      <c r="AF239">
+        <v>1.35</v>
+      </c>
+      <c r="AG239">
+        <v>1.53</v>
+      </c>
+      <c r="AH239">
+        <v>2.3</v>
+      </c>
+      <c r="AI239">
+        <v>1.75</v>
+      </c>
+      <c r="AJ239">
+        <v>2</v>
+      </c>
+      <c r="AK239">
+        <v>0</v>
+      </c>
+      <c r="AL239">
+        <v>0</v>
+      </c>
+      <c r="AM239">
+        <v>0</v>
+      </c>
+      <c r="AN239">
+        <v>2.43</v>
+      </c>
+      <c r="AO239">
+        <v>1.36</v>
+      </c>
+      <c r="AP239">
+        <v>2.24</v>
+      </c>
+      <c r="AQ239">
+        <v>1.19</v>
+      </c>
+      <c r="AR239">
+        <v>1.84</v>
+      </c>
+      <c r="AS239">
         <v>1.33</v>
       </c>
-      <c r="U239">
-        <v>3.25</v>
-      </c>
-      <c r="V239">
-        <v>2.63</v>
-      </c>
-      <c r="W239">
-        <v>1.44</v>
-      </c>
-      <c r="X239">
-        <v>7</v>
-      </c>
-      <c r="Y239">
-        <v>1.1</v>
-      </c>
-      <c r="Z239">
-        <v>3.22</v>
-      </c>
-      <c r="AA239">
-        <v>3.39</v>
-      </c>
-      <c r="AB239">
-        <v>2.22</v>
-      </c>
-      <c r="AC239">
-        <v>0</v>
-      </c>
-      <c r="AD239">
-        <v>0</v>
-      </c>
-      <c r="AE239">
-        <v>3.24</v>
-      </c>
-      <c r="AF239">
-        <v>1.32</v>
-      </c>
-      <c r="AG239">
-        <v>1.75</v>
-      </c>
-      <c r="AH239">
-        <v>2</v>
-      </c>
-      <c r="AI239">
-        <v>1.62</v>
-      </c>
-      <c r="AJ239">
-        <v>2.2</v>
-      </c>
-      <c r="AK239">
-        <v>0</v>
-      </c>
-      <c r="AL239">
-        <v>0</v>
-      </c>
-      <c r="AM239">
-        <v>0</v>
-      </c>
-      <c r="AN239">
-        <v>1.36</v>
-      </c>
-      <c r="AO239">
-        <v>1.29</v>
-      </c>
-      <c r="AP239">
-        <v>1.29</v>
-      </c>
-      <c r="AQ239">
-        <v>1.59</v>
-      </c>
-      <c r="AR239">
-        <v>1.64</v>
-      </c>
-      <c r="AS239">
-        <v>1.39</v>
-      </c>
       <c r="AT239">
-        <v>3.03</v>
+        <v>3.17</v>
       </c>
       <c r="AU239">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AV239">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AW239">
         <v>7</v>
@@ -50653,19 +50653,19 @@
         <v>5</v>
       </c>
       <c r="AY239">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AZ239">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="BA239">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="BB239">
         <v>6</v>
       </c>
       <c r="BC239">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="BD239">
         <v>0</v>
@@ -50712,7 +50712,7 @@
         <v>239</v>
       </c>
       <c r="B240">
-        <v>7468324</v>
+        <v>7468318</v>
       </c>
       <c r="C240" t="s">
         <v>68</v>
@@ -50727,70 +50727,70 @@
         <v>30</v>
       </c>
       <c r="G240" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="H240" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="I240">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J240">
         <v>1</v>
       </c>
       <c r="K240">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L240">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M240">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N240">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="O240" t="s">
-        <v>158</v>
+        <v>238</v>
       </c>
       <c r="P240" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="Q240">
-        <v>8</v>
+        <v>2.3</v>
       </c>
       <c r="R240">
-        <v>2.6</v>
+        <v>2.3</v>
       </c>
       <c r="S240">
-        <v>1.8</v>
+        <v>4.75</v>
       </c>
       <c r="T240">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="U240">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="V240">
-        <v>2.38</v>
+        <v>2.63</v>
       </c>
       <c r="W240">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="X240">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="Y240">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="Z240">
-        <v>9.27</v>
+        <v>1.7</v>
       </c>
       <c r="AA240">
-        <v>5.59</v>
+        <v>3.87</v>
       </c>
       <c r="AB240">
-        <v>1.29</v>
+        <v>4.65</v>
       </c>
       <c r="AC240">
         <v>0</v>
@@ -50805,16 +50805,16 @@
         <v>0</v>
       </c>
       <c r="AG240">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="AH240">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="AI240">
-        <v>1.95</v>
+        <v>1.75</v>
       </c>
       <c r="AJ240">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="AK240">
         <v>0</v>
@@ -50826,52 +50826,52 @@
         <v>0</v>
       </c>
       <c r="AN240">
-        <v>0.93</v>
+        <v>1.64</v>
       </c>
       <c r="AO240">
-        <v>1.93</v>
+        <v>1.14</v>
       </c>
       <c r="AP240">
-        <v>1</v>
+        <v>1.63</v>
       </c>
       <c r="AQ240">
-        <v>1.76</v>
+        <v>1.19</v>
       </c>
       <c r="AR240">
-        <v>1.23</v>
+        <v>1.48</v>
       </c>
       <c r="AS240">
-        <v>1.75</v>
+        <v>1.36</v>
       </c>
       <c r="AT240">
-        <v>2.98</v>
+        <v>2.84</v>
       </c>
       <c r="AU240">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="AV240">
         <v>4</v>
       </c>
       <c r="AW240">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="AX240">
+        <v>2</v>
+      </c>
+      <c r="AY240">
+        <v>16</v>
+      </c>
+      <c r="AZ240">
         <v>6</v>
       </c>
-      <c r="AY240">
-        <v>9</v>
-      </c>
-      <c r="AZ240">
-        <v>10</v>
-      </c>
       <c r="BA240">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="BB240">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="BC240">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="BD240">
         <v>0</v>
@@ -50918,7 +50918,7 @@
         <v>240</v>
       </c>
       <c r="B241">
-        <v>7468325</v>
+        <v>7468322</v>
       </c>
       <c r="C241" t="s">
         <v>68</v>
@@ -50933,151 +50933,151 @@
         <v>30</v>
       </c>
       <c r="G241" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="H241" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="I241">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J241">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K241">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L241">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="M241">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N241">
+        <v>1</v>
+      </c>
+      <c r="O241" t="s">
+        <v>113</v>
+      </c>
+      <c r="P241" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q241">
+        <v>3.2</v>
+      </c>
+      <c r="R241">
+        <v>2.05</v>
+      </c>
+      <c r="S241">
+        <v>3.6</v>
+      </c>
+      <c r="T241">
+        <v>1.44</v>
+      </c>
+      <c r="U241">
+        <v>2.63</v>
+      </c>
+      <c r="V241">
+        <v>3.4</v>
+      </c>
+      <c r="W241">
+        <v>1.3</v>
+      </c>
+      <c r="X241">
+        <v>10</v>
+      </c>
+      <c r="Y241">
+        <v>1.06</v>
+      </c>
+      <c r="Z241">
+        <v>2.39</v>
+      </c>
+      <c r="AA241">
+        <v>3.26</v>
+      </c>
+      <c r="AB241">
+        <v>3.03</v>
+      </c>
+      <c r="AC241">
+        <v>2.32</v>
+      </c>
+      <c r="AD241">
+        <v>1.59</v>
+      </c>
+      <c r="AE241">
+        <v>0</v>
+      </c>
+      <c r="AF241">
+        <v>0</v>
+      </c>
+      <c r="AG241">
+        <v>2.1</v>
+      </c>
+      <c r="AH241">
+        <v>1.65</v>
+      </c>
+      <c r="AI241">
+        <v>1.91</v>
+      </c>
+      <c r="AJ241">
+        <v>1.91</v>
+      </c>
+      <c r="AK241">
+        <v>0</v>
+      </c>
+      <c r="AL241">
+        <v>0</v>
+      </c>
+      <c r="AM241">
+        <v>0</v>
+      </c>
+      <c r="AN241">
+        <v>1.36</v>
+      </c>
+      <c r="AO241">
+        <v>1.21</v>
+      </c>
+      <c r="AP241">
+        <v>1.53</v>
+      </c>
+      <c r="AQ241">
+        <v>1.25</v>
+      </c>
+      <c r="AR241">
+        <v>1.41</v>
+      </c>
+      <c r="AS241">
+        <v>1.29</v>
+      </c>
+      <c r="AT241">
+        <v>2.7</v>
+      </c>
+      <c r="AU241">
         <v>6</v>
       </c>
-      <c r="O241" t="s">
-        <v>238</v>
-      </c>
-      <c r="P241" t="s">
-        <v>354</v>
-      </c>
-      <c r="Q241">
-        <v>1.67</v>
-      </c>
-      <c r="R241">
-        <v>2.75</v>
-      </c>
-      <c r="S241">
-        <v>9</v>
-      </c>
-      <c r="T241">
-        <v>1.25</v>
-      </c>
-      <c r="U241">
-        <v>3.75</v>
-      </c>
-      <c r="V241">
-        <v>2.2</v>
-      </c>
-      <c r="W241">
-        <v>1.62</v>
-      </c>
-      <c r="X241">
+      <c r="AV241">
         <v>5</v>
-      </c>
-      <c r="Y241">
-        <v>1.17</v>
-      </c>
-      <c r="Z241">
-        <v>1.23</v>
-      </c>
-      <c r="AA241">
-        <v>6.54</v>
-      </c>
-      <c r="AB241">
-        <v>9.970000000000001</v>
-      </c>
-      <c r="AC241">
-        <v>0</v>
-      </c>
-      <c r="AD241">
-        <v>0</v>
-      </c>
-      <c r="AE241">
-        <v>0</v>
-      </c>
-      <c r="AF241">
-        <v>0</v>
-      </c>
-      <c r="AG241">
-        <v>1.5</v>
-      </c>
-      <c r="AH241">
-        <v>2.5</v>
-      </c>
-      <c r="AI241">
-        <v>2</v>
-      </c>
-      <c r="AJ241">
-        <v>1.75</v>
-      </c>
-      <c r="AK241">
-        <v>0</v>
-      </c>
-      <c r="AL241">
-        <v>0</v>
-      </c>
-      <c r="AM241">
-        <v>0</v>
-      </c>
-      <c r="AN241">
-        <v>2.29</v>
-      </c>
-      <c r="AO241">
-        <v>0.79</v>
-      </c>
-      <c r="AP241">
-        <v>2.24</v>
-      </c>
-      <c r="AQ241">
-        <v>0.88</v>
-      </c>
-      <c r="AR241">
-        <v>1.77</v>
-      </c>
-      <c r="AS241">
-        <v>0.99</v>
-      </c>
-      <c r="AT241">
-        <v>2.76</v>
-      </c>
-      <c r="AU241">
-        <v>7</v>
-      </c>
-      <c r="AV241">
-        <v>3</v>
       </c>
       <c r="AW241">
         <v>6</v>
       </c>
       <c r="AX241">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AY241">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AZ241">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="BA241">
         <v>4</v>
       </c>
       <c r="BB241">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="BC241">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="BD241">
         <v>0</v>
@@ -54214,7 +54214,7 @@
         <v>256</v>
       </c>
       <c r="B257">
-        <v>7885782</v>
+        <v>7885781</v>
       </c>
       <c r="C257" t="s">
         <v>68</v>
@@ -54226,73 +54226,73 @@
         <v>45787.45833333334</v>
       </c>
       <c r="F257">
+        <v>0</v>
+      </c>
+      <c r="G257" t="s">
+        <v>75</v>
+      </c>
+      <c r="H257" t="s">
+        <v>77</v>
+      </c>
+      <c r="I257">
+        <v>0</v>
+      </c>
+      <c r="J257">
         <v>3</v>
       </c>
-      <c r="G257" t="s">
-        <v>71</v>
-      </c>
-      <c r="H257" t="s">
-        <v>85</v>
-      </c>
-      <c r="I257">
-        <v>2</v>
-      </c>
-      <c r="J257">
-        <v>0</v>
-      </c>
       <c r="K257">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L257">
+        <v>0</v>
+      </c>
+      <c r="M257">
         <v>4</v>
-      </c>
-      <c r="M257">
-        <v>0</v>
       </c>
       <c r="N257">
         <v>4</v>
       </c>
       <c r="O257" t="s">
-        <v>248</v>
+        <v>88</v>
       </c>
       <c r="P257" t="s">
-        <v>88</v>
+        <v>361</v>
       </c>
       <c r="Q257">
-        <v>2</v>
+        <v>2.88</v>
       </c>
       <c r="R257">
         <v>2.2</v>
       </c>
       <c r="S257">
-        <v>6</v>
+        <v>3.6</v>
       </c>
       <c r="T257">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="U257">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="V257">
-        <v>2.7</v>
+        <v>2.75</v>
       </c>
       <c r="W257">
         <v>1.4</v>
       </c>
       <c r="X257">
-        <v>6.75</v>
+        <v>7</v>
       </c>
       <c r="Y257">
-        <v>1.09</v>
+        <v>1.1</v>
       </c>
       <c r="Z257">
-        <v>1.41</v>
+        <v>2.25</v>
       </c>
       <c r="AA257">
-        <v>4.22</v>
+        <v>3.5</v>
       </c>
       <c r="AB257">
-        <v>7.17</v>
+        <v>3.1</v>
       </c>
       <c r="AC257">
         <v>1.05</v>
@@ -54301,118 +54301,118 @@
         <v>8.5</v>
       </c>
       <c r="AE257">
-        <v>1.3</v>
+        <v>1.28</v>
       </c>
       <c r="AF257">
-        <v>3.35</v>
+        <v>3.45</v>
       </c>
       <c r="AG257">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="AH257">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="AI257">
+        <v>1.7</v>
+      </c>
+      <c r="AJ257">
         <v>2.05</v>
       </c>
-      <c r="AJ257">
-        <v>1.66</v>
-      </c>
       <c r="AK257">
-        <v>1.11</v>
+        <v>1.36</v>
       </c>
       <c r="AL257">
-        <v>1.22</v>
+        <v>1.29</v>
       </c>
       <c r="AM257">
-        <v>2.55</v>
+        <v>1.62</v>
       </c>
       <c r="AN257">
-        <v>2</v>
+        <v>1.32</v>
       </c>
       <c r="AO257">
-        <v>1.31</v>
+        <v>1.39</v>
       </c>
       <c r="AP257">
-        <v>2.06</v>
+        <v>1.28</v>
       </c>
       <c r="AQ257">
-        <v>1.24</v>
+        <v>1.44</v>
       </c>
       <c r="AR257">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AS257">
-        <v>1.21</v>
+        <v>1.45</v>
       </c>
       <c r="AT257">
-        <v>2.84</v>
+        <v>2.89</v>
       </c>
       <c r="AU257">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="AV257">
+        <v>11</v>
+      </c>
+      <c r="AW257">
+        <v>0</v>
+      </c>
+      <c r="AX257">
+        <v>4</v>
+      </c>
+      <c r="AY257">
         <v>3</v>
       </c>
-      <c r="AW257">
-        <v>4</v>
-      </c>
-      <c r="AX257">
-        <v>1</v>
-      </c>
-      <c r="AY257">
+      <c r="AZ257">
         <v>15</v>
       </c>
-      <c r="AZ257">
-        <v>4</v>
-      </c>
       <c r="BA257">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="BB257">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="BC257">
         <v>8</v>
       </c>
       <c r="BD257">
-        <v>1.3</v>
+        <v>1.86</v>
       </c>
       <c r="BE257">
-        <v>7.5</v>
+        <v>6.5</v>
       </c>
       <c r="BF257">
-        <v>3.9</v>
+        <v>2.12</v>
       </c>
       <c r="BG257">
-        <v>1.24</v>
+        <v>1.28</v>
       </c>
       <c r="BH257">
-        <v>3.55</v>
+        <v>3.2</v>
       </c>
       <c r="BI257">
-        <v>1.41</v>
+        <v>1.49</v>
       </c>
       <c r="BJ257">
-        <v>2.65</v>
+        <v>2.4</v>
       </c>
       <c r="BK257">
-        <v>1.67</v>
+        <v>1.79</v>
       </c>
       <c r="BL257">
-        <v>2.07</v>
+        <v>1.9</v>
       </c>
       <c r="BM257">
-        <v>2.02</v>
+        <v>2.23</v>
       </c>
       <c r="BN257">
-        <v>1.68</v>
+        <v>1.56</v>
       </c>
       <c r="BO257">
-        <v>2.55</v>
+        <v>2.9</v>
       </c>
       <c r="BP257">
-        <v>1.45</v>
+        <v>1.34</v>
       </c>
     </row>
     <row r="258" spans="1:68">
@@ -54420,7 +54420,7 @@
         <v>257</v>
       </c>
       <c r="B258">
-        <v>7885781</v>
+        <v>7885782</v>
       </c>
       <c r="C258" t="s">
         <v>68</v>
@@ -54432,73 +54432,73 @@
         <v>45787.45833333334</v>
       </c>
       <c r="F258">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G258" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="H258" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="I258">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J258">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K258">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L258">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="M258">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="N258">
         <v>4</v>
       </c>
       <c r="O258" t="s">
+        <v>248</v>
+      </c>
+      <c r="P258" t="s">
         <v>88</v>
       </c>
-      <c r="P258" t="s">
-        <v>361</v>
-      </c>
       <c r="Q258">
-        <v>2.88</v>
+        <v>2</v>
       </c>
       <c r="R258">
         <v>2.2</v>
       </c>
       <c r="S258">
-        <v>3.6</v>
+        <v>6</v>
       </c>
       <c r="T258">
-        <v>1.36</v>
+        <v>1.38</v>
       </c>
       <c r="U258">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="V258">
-        <v>2.75</v>
+        <v>2.7</v>
       </c>
       <c r="W258">
         <v>1.4</v>
       </c>
       <c r="X258">
-        <v>7</v>
+        <v>6.75</v>
       </c>
       <c r="Y258">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="Z258">
-        <v>2.25</v>
+        <v>1.41</v>
       </c>
       <c r="AA258">
-        <v>3.5</v>
+        <v>4.22</v>
       </c>
       <c r="AB258">
-        <v>3.1</v>
+        <v>7.17</v>
       </c>
       <c r="AC258">
         <v>1.05</v>
@@ -54507,118 +54507,118 @@
         <v>8.5</v>
       </c>
       <c r="AE258">
-        <v>1.28</v>
+        <v>1.3</v>
       </c>
       <c r="AF258">
-        <v>3.45</v>
+        <v>3.35</v>
       </c>
       <c r="AG258">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="AH258">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="AI258">
-        <v>1.7</v>
+        <v>2.05</v>
       </c>
       <c r="AJ258">
-        <v>2.05</v>
+        <v>1.66</v>
       </c>
       <c r="AK258">
-        <v>1.36</v>
+        <v>1.11</v>
       </c>
       <c r="AL258">
-        <v>1.29</v>
+        <v>1.22</v>
       </c>
       <c r="AM258">
-        <v>1.62</v>
+        <v>2.55</v>
       </c>
       <c r="AN258">
-        <v>1.32</v>
+        <v>2</v>
       </c>
       <c r="AO258">
-        <v>1.39</v>
+        <v>1.31</v>
       </c>
       <c r="AP258">
-        <v>1.28</v>
+        <v>2.06</v>
       </c>
       <c r="AQ258">
-        <v>1.44</v>
+        <v>1.24</v>
       </c>
       <c r="AR258">
-        <v>1.44</v>
+        <v>1.63</v>
       </c>
       <c r="AS258">
-        <v>1.45</v>
+        <v>1.21</v>
       </c>
       <c r="AT258">
-        <v>2.89</v>
+        <v>2.84</v>
       </c>
       <c r="AU258">
+        <v>10</v>
+      </c>
+      <c r="AV258">
         <v>3</v>
       </c>
-      <c r="AV258">
-        <v>11</v>
-      </c>
       <c r="AW258">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AX258">
+        <v>1</v>
+      </c>
+      <c r="AY258">
+        <v>15</v>
+      </c>
+      <c r="AZ258">
         <v>4</v>
       </c>
-      <c r="AY258">
-        <v>3</v>
-      </c>
-      <c r="AZ258">
-        <v>15</v>
-      </c>
       <c r="BA258">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="BB258">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="BC258">
         <v>8</v>
       </c>
       <c r="BD258">
-        <v>1.86</v>
+        <v>1.3</v>
       </c>
       <c r="BE258">
-        <v>6.5</v>
+        <v>7.5</v>
       </c>
       <c r="BF258">
-        <v>2.12</v>
+        <v>3.9</v>
       </c>
       <c r="BG258">
-        <v>1.28</v>
+        <v>1.24</v>
       </c>
       <c r="BH258">
-        <v>3.2</v>
+        <v>3.55</v>
       </c>
       <c r="BI258">
-        <v>1.49</v>
+        <v>1.41</v>
       </c>
       <c r="BJ258">
-        <v>2.4</v>
+        <v>2.65</v>
       </c>
       <c r="BK258">
-        <v>1.79</v>
+        <v>1.67</v>
       </c>
       <c r="BL258">
-        <v>1.9</v>
+        <v>2.07</v>
       </c>
       <c r="BM258">
-        <v>2.23</v>
+        <v>2.02</v>
       </c>
       <c r="BN258">
-        <v>1.56</v>
+        <v>1.68</v>
       </c>
       <c r="BO258">
-        <v>2.9</v>
+        <v>2.55</v>
       </c>
       <c r="BP258">
-        <v>1.34</v>
+        <v>1.45</v>
       </c>
     </row>
     <row r="259" spans="1:68">

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Czech Republic First League_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Czech Republic First League_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1640" uniqueCount="364">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1658" uniqueCount="368">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -775,6 +775,12 @@
     <t>['57']</t>
   </si>
   <si>
+    <t>['41', '63']</t>
+  </si>
+  <si>
+    <t>['48', '54', '61']</t>
+  </si>
+  <si>
     <t>['25']</t>
   </si>
   <si>
@@ -1106,6 +1112,12 @@
   </si>
   <si>
     <t>['59', '63']</t>
+  </si>
+  <si>
+    <t>['41', '50', '52']</t>
+  </si>
+  <si>
+    <t>['44', '88']</t>
   </si>
 </sst>
 </file>
@@ -1467,7 +1479,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP263"/>
+  <dimension ref="A1:BP266"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1726,7 +1738,7 @@
         <v>86</v>
       </c>
       <c r="P2" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="Q2">
         <v>1.53</v>
@@ -2013,7 +2025,7 @@
         <v>2.06</v>
       </c>
       <c r="AQ3">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -2138,7 +2150,7 @@
         <v>88</v>
       </c>
       <c r="P4" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="Q4">
         <v>2.88</v>
@@ -2216,7 +2228,7 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>0.25</v>
+        <v>0.24</v>
       </c>
       <c r="AQ4">
         <v>1.24</v>
@@ -2550,7 +2562,7 @@
         <v>90</v>
       </c>
       <c r="P6" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="Q6">
         <v>5.5</v>
@@ -2756,7 +2768,7 @@
         <v>91</v>
       </c>
       <c r="P7" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="Q7">
         <v>3.2</v>
@@ -3040,7 +3052,7 @@
         <v>0</v>
       </c>
       <c r="AP8">
-        <v>1.35</v>
+        <v>1.44</v>
       </c>
       <c r="AQ8">
         <v>2.25</v>
@@ -3249,7 +3261,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ9">
-        <v>0.75</v>
+        <v>0.88</v>
       </c>
       <c r="AR9">
         <v>0</v>
@@ -3580,7 +3592,7 @@
         <v>94</v>
       </c>
       <c r="P11" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="Q11">
         <v>6.5</v>
@@ -3786,7 +3798,7 @@
         <v>88</v>
       </c>
       <c r="P12" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="Q12">
         <v>2.85</v>
@@ -3864,7 +3876,7 @@
         <v>0</v>
       </c>
       <c r="AP12">
-        <v>1</v>
+        <v>1.12</v>
       </c>
       <c r="AQ12">
         <v>1.19</v>
@@ -5022,7 +5034,7 @@
         <v>88</v>
       </c>
       <c r="P18" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="Q18">
         <v>5.4</v>
@@ -5309,7 +5321,7 @@
         <v>2</v>
       </c>
       <c r="AQ19">
-        <v>0.88</v>
+        <v>0.83</v>
       </c>
       <c r="AR19">
         <v>1.9</v>
@@ -5512,7 +5524,7 @@
         <v>0</v>
       </c>
       <c r="AP20">
-        <v>1.35</v>
+        <v>1.44</v>
       </c>
       <c r="AQ20">
         <v>1.19</v>
@@ -5927,7 +5939,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ22">
-        <v>0.75</v>
+        <v>0.88</v>
       </c>
       <c r="AR22">
         <v>0</v>
@@ -6052,7 +6064,7 @@
         <v>102</v>
       </c>
       <c r="P23" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="Q23">
         <v>2.6</v>
@@ -6130,7 +6142,7 @@
         <v>0</v>
       </c>
       <c r="AP23">
-        <v>0.25</v>
+        <v>0.24</v>
       </c>
       <c r="AQ23">
         <v>0.35</v>
@@ -6258,7 +6270,7 @@
         <v>103</v>
       </c>
       <c r="P24" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="Q24">
         <v>2.75</v>
@@ -6339,7 +6351,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ24">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AR24">
         <v>1.19</v>
@@ -6464,7 +6476,7 @@
         <v>88</v>
       </c>
       <c r="P25" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="Q25">
         <v>1.06</v>
@@ -6876,7 +6888,7 @@
         <v>105</v>
       </c>
       <c r="P27" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="Q27">
         <v>6.23</v>
@@ -7366,7 +7378,7 @@
         <v>0</v>
       </c>
       <c r="AP29">
-        <v>1</v>
+        <v>1.12</v>
       </c>
       <c r="AQ29">
         <v>0.6899999999999999</v>
@@ -8193,7 +8205,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ33">
-        <v>0.88</v>
+        <v>0.83</v>
       </c>
       <c r="AR33">
         <v>1.08</v>
@@ -8318,7 +8330,7 @@
         <v>111</v>
       </c>
       <c r="P34" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="Q34">
         <v>2.84</v>
@@ -8605,7 +8617,7 @@
         <v>3</v>
       </c>
       <c r="AQ35">
-        <v>0.75</v>
+        <v>0.88</v>
       </c>
       <c r="AR35">
         <v>2.27</v>
@@ -8730,7 +8742,7 @@
         <v>113</v>
       </c>
       <c r="P36" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="Q36">
         <v>5.63</v>
@@ -8936,7 +8948,7 @@
         <v>114</v>
       </c>
       <c r="P37" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="Q37">
         <v>2.58</v>
@@ -9017,7 +9029,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ37">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AR37">
         <v>1.25</v>
@@ -9142,7 +9154,7 @@
         <v>88</v>
       </c>
       <c r="P38" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="Q38">
         <v>4.75</v>
@@ -9220,7 +9232,7 @@
         <v>2</v>
       </c>
       <c r="AP38">
-        <v>0.25</v>
+        <v>0.24</v>
       </c>
       <c r="AQ38">
         <v>1.88</v>
@@ -9632,7 +9644,7 @@
         <v>0</v>
       </c>
       <c r="AP40">
-        <v>1.35</v>
+        <v>1.44</v>
       </c>
       <c r="AQ40">
         <v>1.88</v>
@@ -9760,7 +9772,7 @@
         <v>117</v>
       </c>
       <c r="P41" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="Q41">
         <v>2.4</v>
@@ -9966,7 +9978,7 @@
         <v>108</v>
       </c>
       <c r="P42" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="Q42">
         <v>2.61</v>
@@ -10172,7 +10184,7 @@
         <v>118</v>
       </c>
       <c r="P43" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="Q43">
         <v>1.69</v>
@@ -10456,7 +10468,7 @@
         <v>0</v>
       </c>
       <c r="AP44">
-        <v>1</v>
+        <v>1.12</v>
       </c>
       <c r="AQ44">
         <v>1.25</v>
@@ -11280,7 +11292,7 @@
         <v>1.33</v>
       </c>
       <c r="AP48">
-        <v>0.25</v>
+        <v>0.24</v>
       </c>
       <c r="AQ48">
         <v>1.19</v>
@@ -11486,7 +11498,7 @@
         <v>2</v>
       </c>
       <c r="AP49">
-        <v>1.35</v>
+        <v>1.44</v>
       </c>
       <c r="AQ49">
         <v>1.59</v>
@@ -11614,7 +11626,7 @@
         <v>88</v>
       </c>
       <c r="P50" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="Q50">
         <v>5.1</v>
@@ -11901,7 +11913,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ51">
-        <v>0.88</v>
+        <v>0.83</v>
       </c>
       <c r="AR51">
         <v>1.76</v>
@@ -12026,7 +12038,7 @@
         <v>122</v>
       </c>
       <c r="P52" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="Q52">
         <v>3</v>
@@ -12438,7 +12450,7 @@
         <v>124</v>
       </c>
       <c r="P54" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="Q54">
         <v>3</v>
@@ -12519,7 +12531,7 @@
         <v>1.53</v>
       </c>
       <c r="AQ54">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AR54">
         <v>1.4</v>
@@ -13056,7 +13068,7 @@
         <v>88</v>
       </c>
       <c r="P57" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="Q57">
         <v>5.88</v>
@@ -13674,7 +13686,7 @@
         <v>128</v>
       </c>
       <c r="P60" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="Q60">
         <v>3.86</v>
@@ -14086,7 +14098,7 @@
         <v>130</v>
       </c>
       <c r="P62" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="Q62">
         <v>1.83</v>
@@ -14373,7 +14385,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ63">
-        <v>0.88</v>
+        <v>0.83</v>
       </c>
       <c r="AR63">
         <v>1.75</v>
@@ -14498,7 +14510,7 @@
         <v>88</v>
       </c>
       <c r="P64" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="Q64">
         <v>8.77</v>
@@ -14576,7 +14588,7 @@
         <v>3</v>
       </c>
       <c r="AP64">
-        <v>0.25</v>
+        <v>0.24</v>
       </c>
       <c r="AQ64">
         <v>1.76</v>
@@ -14704,7 +14716,7 @@
         <v>132</v>
       </c>
       <c r="P65" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="Q65">
         <v>2.4</v>
@@ -14910,7 +14922,7 @@
         <v>133</v>
       </c>
       <c r="P66" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="Q66">
         <v>1.55</v>
@@ -15116,7 +15128,7 @@
         <v>134</v>
       </c>
       <c r="P67" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="Q67">
         <v>4</v>
@@ -15400,7 +15412,7 @@
         <v>2</v>
       </c>
       <c r="AP68">
-        <v>1.35</v>
+        <v>1.44</v>
       </c>
       <c r="AQ68">
         <v>1.19</v>
@@ -15528,7 +15540,7 @@
         <v>88</v>
       </c>
       <c r="P69" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="Q69">
         <v>3.1</v>
@@ -15606,10 +15618,10 @@
         <v>0</v>
       </c>
       <c r="AP69">
-        <v>1</v>
+        <v>1.12</v>
       </c>
       <c r="AQ69">
-        <v>0.75</v>
+        <v>0.88</v>
       </c>
       <c r="AR69">
         <v>1.23</v>
@@ -16146,7 +16158,7 @@
         <v>124</v>
       </c>
       <c r="P72" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="Q72">
         <v>1.88</v>
@@ -16227,7 +16239,7 @@
         <v>2.24</v>
       </c>
       <c r="AQ72">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AR72">
         <v>1.84</v>
@@ -16352,7 +16364,7 @@
         <v>88</v>
       </c>
       <c r="P73" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="Q73">
         <v>7</v>
@@ -16764,7 +16776,7 @@
         <v>88</v>
       </c>
       <c r="P75" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="Q75">
         <v>3.7</v>
@@ -16842,7 +16854,7 @@
         <v>1</v>
       </c>
       <c r="AP75">
-        <v>0.25</v>
+        <v>0.24</v>
       </c>
       <c r="AQ75">
         <v>0.6899999999999999</v>
@@ -16970,7 +16982,7 @@
         <v>138</v>
       </c>
       <c r="P76" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="Q76">
         <v>2.3</v>
@@ -17051,7 +17063,7 @@
         <v>1.53</v>
       </c>
       <c r="AQ76">
-        <v>0.88</v>
+        <v>0.83</v>
       </c>
       <c r="AR76">
         <v>1.49</v>
@@ -17176,7 +17188,7 @@
         <v>88</v>
       </c>
       <c r="P77" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="Q77">
         <v>2.47</v>
@@ -17588,7 +17600,7 @@
         <v>140</v>
       </c>
       <c r="P79" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="Q79">
         <v>2.5</v>
@@ -18000,7 +18012,7 @@
         <v>141</v>
       </c>
       <c r="P81" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="Q81">
         <v>2.38</v>
@@ -18206,7 +18218,7 @@
         <v>142</v>
       </c>
       <c r="P82" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="Q82">
         <v>2.8</v>
@@ -18412,7 +18424,7 @@
         <v>143</v>
       </c>
       <c r="P83" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="Q83">
         <v>2.6</v>
@@ -18618,7 +18630,7 @@
         <v>144</v>
       </c>
       <c r="P84" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="Q84">
         <v>3.4</v>
@@ -19030,7 +19042,7 @@
         <v>146</v>
       </c>
       <c r="P86" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="Q86">
         <v>2.88</v>
@@ -19111,7 +19123,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ86">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AR86">
         <v>1.41</v>
@@ -19236,7 +19248,7 @@
         <v>88</v>
       </c>
       <c r="P87" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="Q87">
         <v>2.6</v>
@@ -19314,10 +19326,10 @@
         <v>0.75</v>
       </c>
       <c r="AP87">
-        <v>1.35</v>
+        <v>1.44</v>
       </c>
       <c r="AQ87">
-        <v>0.75</v>
+        <v>0.88</v>
       </c>
       <c r="AR87">
         <v>1.12</v>
@@ -19648,7 +19660,7 @@
         <v>93</v>
       </c>
       <c r="P89" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="Q89">
         <v>6.5</v>
@@ -20060,7 +20072,7 @@
         <v>88</v>
       </c>
       <c r="P91" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="Q91">
         <v>3.8</v>
@@ -20138,7 +20150,7 @@
         <v>0.2</v>
       </c>
       <c r="AP91">
-        <v>0.25</v>
+        <v>0.24</v>
       </c>
       <c r="AQ91">
         <v>1.25</v>
@@ -20266,7 +20278,7 @@
         <v>149</v>
       </c>
       <c r="P92" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="Q92">
         <v>4.7</v>
@@ -20344,7 +20356,7 @@
         <v>1</v>
       </c>
       <c r="AP92">
-        <v>1</v>
+        <v>1.12</v>
       </c>
       <c r="AQ92">
         <v>1.88</v>
@@ -20678,7 +20690,7 @@
         <v>150</v>
       </c>
       <c r="P94" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="Q94">
         <v>3</v>
@@ -20965,7 +20977,7 @@
         <v>3</v>
       </c>
       <c r="AQ95">
-        <v>0.88</v>
+        <v>0.83</v>
       </c>
       <c r="AR95">
         <v>2.31</v>
@@ -21583,7 +21595,7 @@
         <v>1</v>
       </c>
       <c r="AQ98">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AR98">
         <v>1.15</v>
@@ -21789,7 +21801,7 @@
         <v>2.06</v>
       </c>
       <c r="AQ99">
-        <v>0.75</v>
+        <v>0.88</v>
       </c>
       <c r="AR99">
         <v>1.65</v>
@@ -22120,7 +22132,7 @@
         <v>156</v>
       </c>
       <c r="P101" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="Q101">
         <v>1.83</v>
@@ -22404,7 +22416,7 @@
         <v>1.2</v>
       </c>
       <c r="AP102">
-        <v>0.25</v>
+        <v>0.24</v>
       </c>
       <c r="AQ102">
         <v>1.19</v>
@@ -22610,7 +22622,7 @@
         <v>1.83</v>
       </c>
       <c r="AP103">
-        <v>1.35</v>
+        <v>1.44</v>
       </c>
       <c r="AQ103">
         <v>1.88</v>
@@ -23231,7 +23243,7 @@
         <v>2.24</v>
       </c>
       <c r="AQ106">
-        <v>0.88</v>
+        <v>0.83</v>
       </c>
       <c r="AR106">
         <v>1.87</v>
@@ -23434,7 +23446,7 @@
         <v>1.57</v>
       </c>
       <c r="AP107">
-        <v>1</v>
+        <v>1.12</v>
       </c>
       <c r="AQ107">
         <v>1.59</v>
@@ -23768,7 +23780,7 @@
         <v>161</v>
       </c>
       <c r="P109" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="Q109">
         <v>2.24</v>
@@ -24180,7 +24192,7 @@
         <v>163</v>
       </c>
       <c r="P111" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="Q111">
         <v>4.6</v>
@@ -24592,7 +24604,7 @@
         <v>165</v>
       </c>
       <c r="P113" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="Q113">
         <v>3.25</v>
@@ -24798,7 +24810,7 @@
         <v>152</v>
       </c>
       <c r="P114" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="Q114">
         <v>2.88</v>
@@ -24876,10 +24888,10 @@
         <v>1.14</v>
       </c>
       <c r="AP114">
-        <v>1.35</v>
+        <v>1.44</v>
       </c>
       <c r="AQ114">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AR114">
         <v>1.11</v>
@@ -25004,7 +25016,7 @@
         <v>99</v>
       </c>
       <c r="P115" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="Q115">
         <v>1.73</v>
@@ -25085,7 +25097,7 @@
         <v>2</v>
       </c>
       <c r="AQ115">
-        <v>0.75</v>
+        <v>0.88</v>
       </c>
       <c r="AR115">
         <v>1.87</v>
@@ -25210,7 +25222,7 @@
         <v>88</v>
       </c>
       <c r="P116" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="Q116">
         <v>4.33</v>
@@ -25497,7 +25509,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ117">
-        <v>0.88</v>
+        <v>0.83</v>
       </c>
       <c r="AR117">
         <v>1.44</v>
@@ -25622,7 +25634,7 @@
         <v>88</v>
       </c>
       <c r="P118" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="Q118">
         <v>15</v>
@@ -25700,7 +25712,7 @@
         <v>2.33</v>
       </c>
       <c r="AP118">
-        <v>0.25</v>
+        <v>0.24</v>
       </c>
       <c r="AQ118">
         <v>2.25</v>
@@ -26034,7 +26046,7 @@
         <v>168</v>
       </c>
       <c r="P120" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="Q120">
         <v>3</v>
@@ -26446,7 +26458,7 @@
         <v>170</v>
       </c>
       <c r="P122" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="Q122">
         <v>3.25</v>
@@ -26652,7 +26664,7 @@
         <v>171</v>
       </c>
       <c r="P123" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="Q123">
         <v>1.83</v>
@@ -27064,7 +27076,7 @@
         <v>172</v>
       </c>
       <c r="P125" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="Q125">
         <v>6.3</v>
@@ -27554,7 +27566,7 @@
         <v>0</v>
       </c>
       <c r="AP127">
-        <v>1</v>
+        <v>1.12</v>
       </c>
       <c r="AQ127">
         <v>0.12</v>
@@ -27888,7 +27900,7 @@
         <v>174</v>
       </c>
       <c r="P129" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="Q129">
         <v>2.1</v>
@@ -28094,7 +28106,7 @@
         <v>175</v>
       </c>
       <c r="P130" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="Q130">
         <v>1.5</v>
@@ -28506,7 +28518,7 @@
         <v>177</v>
       </c>
       <c r="P132" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="Q132">
         <v>3.5</v>
@@ -28584,7 +28596,7 @@
         <v>1</v>
       </c>
       <c r="AP132">
-        <v>1</v>
+        <v>1.12</v>
       </c>
       <c r="AQ132">
         <v>1.24</v>
@@ -28712,7 +28724,7 @@
         <v>178</v>
       </c>
       <c r="P133" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="Q133">
         <v>4.04</v>
@@ -28918,7 +28930,7 @@
         <v>88</v>
       </c>
       <c r="P134" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="Q134">
         <v>2.75</v>
@@ -29617,7 +29629,7 @@
         <v>2.24</v>
       </c>
       <c r="AQ137">
-        <v>0.75</v>
+        <v>0.88</v>
       </c>
       <c r="AR137">
         <v>1.7</v>
@@ -29742,7 +29754,7 @@
         <v>91</v>
       </c>
       <c r="P138" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="Q138">
         <v>2.25</v>
@@ -29820,7 +29832,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AP138">
-        <v>1.35</v>
+        <v>1.44</v>
       </c>
       <c r="AQ138">
         <v>0.35</v>
@@ -29948,7 +29960,7 @@
         <v>179</v>
       </c>
       <c r="P139" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="Q139">
         <v>1.9</v>
@@ -30029,7 +30041,7 @@
         <v>2.06</v>
       </c>
       <c r="AQ139">
-        <v>0.88</v>
+        <v>0.83</v>
       </c>
       <c r="AR139">
         <v>1.71</v>
@@ -30360,7 +30372,7 @@
         <v>88</v>
       </c>
       <c r="P141" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="Q141">
         <v>4</v>
@@ -30438,10 +30450,10 @@
         <v>1.13</v>
       </c>
       <c r="AP141">
-        <v>0.25</v>
+        <v>0.24</v>
       </c>
       <c r="AQ141">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AR141">
         <v>1.34</v>
@@ -30566,7 +30578,7 @@
         <v>117</v>
       </c>
       <c r="P142" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="Q142">
         <v>4</v>
@@ -30853,7 +30865,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ143">
-        <v>0.75</v>
+        <v>0.88</v>
       </c>
       <c r="AR143">
         <v>1.52</v>
@@ -30978,7 +30990,7 @@
         <v>182</v>
       </c>
       <c r="P144" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="Q144">
         <v>6</v>
@@ -31184,7 +31196,7 @@
         <v>88</v>
       </c>
       <c r="P145" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="Q145">
         <v>3.5</v>
@@ -31390,7 +31402,7 @@
         <v>183</v>
       </c>
       <c r="P146" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="Q146">
         <v>4.33</v>
@@ -31596,7 +31608,7 @@
         <v>184</v>
       </c>
       <c r="P147" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="Q147">
         <v>2.5</v>
@@ -31802,7 +31814,7 @@
         <v>185</v>
       </c>
       <c r="P148" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="Q148">
         <v>3.8</v>
@@ -31880,7 +31892,7 @@
         <v>1.11</v>
       </c>
       <c r="AP148">
-        <v>1</v>
+        <v>1.12</v>
       </c>
       <c r="AQ148">
         <v>1.19</v>
@@ -32008,7 +32020,7 @@
         <v>186</v>
       </c>
       <c r="P149" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="Q149">
         <v>2.05</v>
@@ -32420,7 +32432,7 @@
         <v>188</v>
       </c>
       <c r="P151" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="Q151">
         <v>2.48</v>
@@ -32832,7 +32844,7 @@
         <v>190</v>
       </c>
       <c r="P153" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="Q153">
         <v>1.4</v>
@@ -33119,7 +33131,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ154">
-        <v>0.75</v>
+        <v>0.88</v>
       </c>
       <c r="AR154">
         <v>1.58</v>
@@ -33244,7 +33256,7 @@
         <v>88</v>
       </c>
       <c r="P155" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="Q155">
         <v>3.2</v>
@@ -33528,10 +33540,10 @@
         <v>0.22</v>
       </c>
       <c r="AP156">
-        <v>0.25</v>
+        <v>0.24</v>
       </c>
       <c r="AQ156">
-        <v>0.88</v>
+        <v>0.83</v>
       </c>
       <c r="AR156">
         <v>1.34</v>
@@ -33862,7 +33874,7 @@
         <v>88</v>
       </c>
       <c r="P158" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="Q158">
         <v>5</v>
@@ -33940,7 +33952,7 @@
         <v>1.89</v>
       </c>
       <c r="AP158">
-        <v>1.35</v>
+        <v>1.44</v>
       </c>
       <c r="AQ158">
         <v>1.76</v>
@@ -34068,7 +34080,7 @@
         <v>88</v>
       </c>
       <c r="P159" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="Q159">
         <v>2.38</v>
@@ -34355,7 +34367,7 @@
         <v>3</v>
       </c>
       <c r="AQ160">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AR160">
         <v>2.39</v>
@@ -34480,7 +34492,7 @@
         <v>193</v>
       </c>
       <c r="P161" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="Q161">
         <v>4.75</v>
@@ -34686,7 +34698,7 @@
         <v>194</v>
       </c>
       <c r="P162" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="Q162">
         <v>2.63</v>
@@ -34767,7 +34779,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ162">
-        <v>0.75</v>
+        <v>0.88</v>
       </c>
       <c r="AR162">
         <v>1.6</v>
@@ -34892,7 +34904,7 @@
         <v>88</v>
       </c>
       <c r="P163" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="Q163">
         <v>11</v>
@@ -34970,7 +34982,7 @@
         <v>2.3</v>
       </c>
       <c r="AP163">
-        <v>1</v>
+        <v>1.12</v>
       </c>
       <c r="AQ163">
         <v>2.25</v>
@@ -35098,7 +35110,7 @@
         <v>195</v>
       </c>
       <c r="P164" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="Q164">
         <v>2</v>
@@ -35304,7 +35316,7 @@
         <v>196</v>
       </c>
       <c r="P165" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="Q165">
         <v>2.5</v>
@@ -36334,7 +36346,7 @@
         <v>201</v>
       </c>
       <c r="P170" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="Q170">
         <v>5.2</v>
@@ -36412,7 +36424,7 @@
         <v>1.1</v>
       </c>
       <c r="AP170">
-        <v>0.25</v>
+        <v>0.24</v>
       </c>
       <c r="AQ170">
         <v>1.59</v>
@@ -36618,10 +36630,10 @@
         <v>0.3</v>
       </c>
       <c r="AP171">
-        <v>1.35</v>
+        <v>1.44</v>
       </c>
       <c r="AQ171">
-        <v>0.88</v>
+        <v>0.83</v>
       </c>
       <c r="AR171">
         <v>1.21</v>
@@ -36746,7 +36758,7 @@
         <v>202</v>
       </c>
       <c r="P172" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="Q172">
         <v>6.35</v>
@@ -36952,7 +36964,7 @@
         <v>203</v>
       </c>
       <c r="P173" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="Q173">
         <v>2.6</v>
@@ -37158,7 +37170,7 @@
         <v>204</v>
       </c>
       <c r="P174" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="Q174">
         <v>2.66</v>
@@ -37239,7 +37251,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ174">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AR174">
         <v>1.42</v>
@@ -37364,7 +37376,7 @@
         <v>88</v>
       </c>
       <c r="P175" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="Q175">
         <v>4.86</v>
@@ -37776,7 +37788,7 @@
         <v>172</v>
       </c>
       <c r="P177" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="Q177">
         <v>3.63</v>
@@ -38063,7 +38075,7 @@
         <v>2.24</v>
       </c>
       <c r="AQ178">
-        <v>0.75</v>
+        <v>0.88</v>
       </c>
       <c r="AR178">
         <v>1.82</v>
@@ -38188,7 +38200,7 @@
         <v>88</v>
       </c>
       <c r="P179" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="Q179">
         <v>3.92</v>
@@ -38266,10 +38278,10 @@
         <v>1.09</v>
       </c>
       <c r="AP179">
-        <v>1</v>
+        <v>1.12</v>
       </c>
       <c r="AQ179">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AR179">
         <v>1.2</v>
@@ -39012,7 +39024,7 @@
         <v>208</v>
       </c>
       <c r="P183" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="Q183">
         <v>4.3</v>
@@ -39218,7 +39230,7 @@
         <v>88</v>
       </c>
       <c r="P184" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="Q184">
         <v>5.8</v>
@@ -39296,7 +39308,7 @@
         <v>1.5</v>
       </c>
       <c r="AP184">
-        <v>0.25</v>
+        <v>0.24</v>
       </c>
       <c r="AQ184">
         <v>1.88</v>
@@ -40123,7 +40135,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ188">
-        <v>0.88</v>
+        <v>0.83</v>
       </c>
       <c r="AR188">
         <v>1.49</v>
@@ -40248,7 +40260,7 @@
         <v>88</v>
       </c>
       <c r="P189" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="Q189">
         <v>4.5</v>
@@ -40947,7 +40959,7 @@
         <v>1</v>
       </c>
       <c r="AQ192">
-        <v>0.75</v>
+        <v>0.88</v>
       </c>
       <c r="AR192">
         <v>1.24</v>
@@ -41356,7 +41368,7 @@
         <v>0.09</v>
       </c>
       <c r="AP194">
-        <v>1.35</v>
+        <v>1.44</v>
       </c>
       <c r="AQ194">
         <v>0.12</v>
@@ -41690,7 +41702,7 @@
         <v>215</v>
       </c>
       <c r="P196" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="Q196">
         <v>1.95</v>
@@ -41771,7 +41783,7 @@
         <v>2.24</v>
       </c>
       <c r="AQ196">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AR196">
         <v>1.76</v>
@@ -42102,7 +42114,7 @@
         <v>88</v>
       </c>
       <c r="P198" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="Q198">
         <v>2.88</v>
@@ -42386,7 +42398,7 @@
         <v>1.92</v>
       </c>
       <c r="AP199">
-        <v>1</v>
+        <v>1.12</v>
       </c>
       <c r="AQ199">
         <v>1.88</v>
@@ -42720,7 +42732,7 @@
         <v>158</v>
       </c>
       <c r="P201" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="Q201">
         <v>2.63</v>
@@ -43132,7 +43144,7 @@
         <v>88</v>
       </c>
       <c r="P203" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="Q203">
         <v>2.75</v>
@@ -43210,10 +43222,10 @@
         <v>0.42</v>
       </c>
       <c r="AP203">
-        <v>1</v>
+        <v>1.12</v>
       </c>
       <c r="AQ203">
-        <v>0.88</v>
+        <v>0.83</v>
       </c>
       <c r="AR203">
         <v>1.23</v>
@@ -43544,7 +43556,7 @@
         <v>218</v>
       </c>
       <c r="P205" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="Q205">
         <v>2.88</v>
@@ -43750,7 +43762,7 @@
         <v>88</v>
       </c>
       <c r="P206" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="Q206">
         <v>2.38</v>
@@ -43956,7 +43968,7 @@
         <v>219</v>
       </c>
       <c r="P207" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="Q207">
         <v>4.75</v>
@@ -44034,7 +44046,7 @@
         <v>0.83</v>
       </c>
       <c r="AP207">
-        <v>0.25</v>
+        <v>0.24</v>
       </c>
       <c r="AQ207">
         <v>1.19</v>
@@ -44655,7 +44667,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ210">
-        <v>0.75</v>
+        <v>0.88</v>
       </c>
       <c r="AR210">
         <v>1.59</v>
@@ -44780,7 +44792,7 @@
         <v>221</v>
       </c>
       <c r="P211" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="Q211">
         <v>1.57</v>
@@ -45192,7 +45204,7 @@
         <v>88</v>
       </c>
       <c r="P213" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="Q213">
         <v>3.5</v>
@@ -45270,7 +45282,7 @@
         <v>1</v>
       </c>
       <c r="AP213">
-        <v>1.35</v>
+        <v>1.44</v>
       </c>
       <c r="AQ213">
         <v>1.19</v>
@@ -45479,7 +45491,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ214">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AR214">
         <v>1.57</v>
@@ -45810,7 +45822,7 @@
         <v>224</v>
       </c>
       <c r="P216" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="Q216">
         <v>2.75</v>
@@ -46094,7 +46106,7 @@
         <v>1.46</v>
       </c>
       <c r="AP217">
-        <v>1</v>
+        <v>1.12</v>
       </c>
       <c r="AQ217">
         <v>1.19</v>
@@ -46222,7 +46234,7 @@
         <v>124</v>
       </c>
       <c r="P218" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="Q218">
         <v>2.4</v>
@@ -46428,7 +46440,7 @@
         <v>226</v>
       </c>
       <c r="P219" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="Q219">
         <v>3</v>
@@ -46840,7 +46852,7 @@
         <v>228</v>
       </c>
       <c r="P221" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="Q221">
         <v>1.67</v>
@@ -47252,7 +47264,7 @@
         <v>88</v>
       </c>
       <c r="P223" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="Q223">
         <v>2.3</v>
@@ -47333,7 +47345,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ223">
-        <v>0.88</v>
+        <v>0.83</v>
       </c>
       <c r="AR223">
         <v>1.65</v>
@@ -47664,7 +47676,7 @@
         <v>218</v>
       </c>
       <c r="P225" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="Q225">
         <v>3.3</v>
@@ -47742,7 +47754,7 @@
         <v>1.08</v>
       </c>
       <c r="AP225">
-        <v>1.35</v>
+        <v>1.44</v>
       </c>
       <c r="AQ225">
         <v>1.25</v>
@@ -47870,7 +47882,7 @@
         <v>88</v>
       </c>
       <c r="P226" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="Q226">
         <v>7.5</v>
@@ -48076,7 +48088,7 @@
         <v>152</v>
       </c>
       <c r="P227" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="Q227">
         <v>5.5</v>
@@ -48282,7 +48294,7 @@
         <v>230</v>
       </c>
       <c r="P228" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="Q228">
         <v>5</v>
@@ -48360,10 +48372,10 @@
         <v>0.79</v>
       </c>
       <c r="AP228">
-        <v>0.25</v>
+        <v>0.24</v>
       </c>
       <c r="AQ228">
-        <v>0.75</v>
+        <v>0.88</v>
       </c>
       <c r="AR228">
         <v>1.21</v>
@@ -48775,7 +48787,7 @@
         <v>2</v>
       </c>
       <c r="AQ230">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AR230">
         <v>2</v>
@@ -48900,7 +48912,7 @@
         <v>232</v>
       </c>
       <c r="P231" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="Q231">
         <v>3.6</v>
@@ -48978,7 +48990,7 @@
         <v>1.36</v>
       </c>
       <c r="AP231">
-        <v>1.35</v>
+        <v>1.44</v>
       </c>
       <c r="AQ231">
         <v>1.24</v>
@@ -49106,7 +49118,7 @@
         <v>233</v>
       </c>
       <c r="P232" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="Q232">
         <v>4.5</v>
@@ -49312,7 +49324,7 @@
         <v>88</v>
       </c>
       <c r="P233" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="Q233">
         <v>3</v>
@@ -49518,7 +49530,7 @@
         <v>158</v>
       </c>
       <c r="P234" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="Q234">
         <v>8</v>
@@ -49596,7 +49608,7 @@
         <v>1.93</v>
       </c>
       <c r="AP234">
-        <v>1</v>
+        <v>1.12</v>
       </c>
       <c r="AQ234">
         <v>1.76</v>
@@ -49724,7 +49736,7 @@
         <v>234</v>
       </c>
       <c r="P235" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="Q235">
         <v>1.67</v>
@@ -49805,7 +49817,7 @@
         <v>2.24</v>
       </c>
       <c r="AQ235">
-        <v>0.88</v>
+        <v>0.83</v>
       </c>
       <c r="AR235">
         <v>1.77</v>
@@ -50754,7 +50766,7 @@
         <v>238</v>
       </c>
       <c r="P240" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="Q240">
         <v>2.3</v>
@@ -51166,7 +51178,7 @@
         <v>239</v>
       </c>
       <c r="P242" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="Q242">
         <v>3.9</v>
@@ -51244,10 +51256,10 @@
         <v>1</v>
       </c>
       <c r="AP242">
-        <v>0.25</v>
+        <v>0.24</v>
       </c>
       <c r="AQ242">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AR242">
         <v>1.2</v>
@@ -51450,7 +51462,7 @@
         <v>0.4</v>
       </c>
       <c r="AP243">
-        <v>1.35</v>
+        <v>1.44</v>
       </c>
       <c r="AQ243">
         <v>0.35</v>
@@ -51578,7 +51590,7 @@
         <v>88</v>
       </c>
       <c r="P244" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="Q244">
         <v>6.5</v>
@@ -51784,7 +51796,7 @@
         <v>241</v>
       </c>
       <c r="P245" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="Q245">
         <v>2.5</v>
@@ -51865,7 +51877,7 @@
         <v>1.53</v>
       </c>
       <c r="AQ245">
-        <v>0.88</v>
+        <v>0.83</v>
       </c>
       <c r="AR245">
         <v>1.43</v>
@@ -51990,7 +52002,7 @@
         <v>242</v>
       </c>
       <c r="P246" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="Q246">
         <v>2</v>
@@ -52814,7 +52826,7 @@
         <v>245</v>
       </c>
       <c r="P250" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="Q250">
         <v>2.25</v>
@@ -53304,7 +53316,7 @@
         <v>0.07000000000000001</v>
       </c>
       <c r="AP252">
-        <v>1.35</v>
+        <v>1.44</v>
       </c>
       <c r="AQ252">
         <v>0.12</v>
@@ -53513,7 +53525,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ253">
-        <v>0.75</v>
+        <v>0.88</v>
       </c>
       <c r="AR253">
         <v>1.63</v>
@@ -53844,7 +53856,7 @@
         <v>102</v>
       </c>
       <c r="P255" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="Q255">
         <v>2.1</v>
@@ -54128,7 +54140,7 @@
         <v>0.13</v>
       </c>
       <c r="AP256">
-        <v>1</v>
+        <v>1.12</v>
       </c>
       <c r="AQ256">
         <v>0.12</v>
@@ -54256,7 +54268,7 @@
         <v>88</v>
       </c>
       <c r="P257" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="Q257">
         <v>2.88</v>
@@ -55080,7 +55092,7 @@
         <v>250</v>
       </c>
       <c r="P261" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="Q261">
         <v>2.5</v>
@@ -55161,7 +55173,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ261">
-        <v>0.88</v>
+        <v>0.83</v>
       </c>
       <c r="AR261">
         <v>1.57</v>
@@ -55492,7 +55504,7 @@
         <v>252</v>
       </c>
       <c r="P263" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="Q263">
         <v>2.2</v>
@@ -55649,6 +55661,624 @@
       </c>
       <c r="BP263">
         <v>1.56</v>
+      </c>
+    </row>
+    <row r="264" spans="1:68">
+      <c r="A264" s="1">
+        <v>263</v>
+      </c>
+      <c r="B264">
+        <v>7885784</v>
+      </c>
+      <c r="C264" t="s">
+        <v>68</v>
+      </c>
+      <c r="D264" t="s">
+        <v>69</v>
+      </c>
+      <c r="E264" s="2">
+        <v>45794.5</v>
+      </c>
+      <c r="F264">
+        <v>4</v>
+      </c>
+      <c r="G264" t="s">
+        <v>72</v>
+      </c>
+      <c r="H264" t="s">
+        <v>78</v>
+      </c>
+      <c r="I264">
+        <v>0</v>
+      </c>
+      <c r="J264">
+        <v>1</v>
+      </c>
+      <c r="K264">
+        <v>1</v>
+      </c>
+      <c r="L264">
+        <v>0</v>
+      </c>
+      <c r="M264">
+        <v>3</v>
+      </c>
+      <c r="N264">
+        <v>3</v>
+      </c>
+      <c r="O264" t="s">
+        <v>88</v>
+      </c>
+      <c r="P264" t="s">
+        <v>366</v>
+      </c>
+      <c r="Q264">
+        <v>3.4</v>
+      </c>
+      <c r="R264">
+        <v>2.2</v>
+      </c>
+      <c r="S264">
+        <v>2.8</v>
+      </c>
+      <c r="T264">
+        <v>1.35</v>
+      </c>
+      <c r="U264">
+        <v>3</v>
+      </c>
+      <c r="V264">
+        <v>2.7</v>
+      </c>
+      <c r="W264">
+        <v>1.44</v>
+      </c>
+      <c r="X264">
+        <v>7</v>
+      </c>
+      <c r="Y264">
+        <v>1.1</v>
+      </c>
+      <c r="Z264">
+        <v>2.95</v>
+      </c>
+      <c r="AA264">
+        <v>4.12</v>
+      </c>
+      <c r="AB264">
+        <v>2.11</v>
+      </c>
+      <c r="AC264">
+        <v>1.01</v>
+      </c>
+      <c r="AD264">
+        <v>11</v>
+      </c>
+      <c r="AE264">
+        <v>1.18</v>
+      </c>
+      <c r="AF264">
+        <v>3.86</v>
+      </c>
+      <c r="AG264">
+        <v>1.91</v>
+      </c>
+      <c r="AH264">
+        <v>1.95</v>
+      </c>
+      <c r="AI264">
+        <v>1.67</v>
+      </c>
+      <c r="AJ264">
+        <v>2.1</v>
+      </c>
+      <c r="AK264">
+        <v>1.6</v>
+      </c>
+      <c r="AL264">
+        <v>1.3</v>
+      </c>
+      <c r="AM264">
+        <v>1.36</v>
+      </c>
+      <c r="AN264">
+        <v>0.25</v>
+      </c>
+      <c r="AO264">
+        <v>0.75</v>
+      </c>
+      <c r="AP264">
+        <v>0.24</v>
+      </c>
+      <c r="AQ264">
+        <v>0.88</v>
+      </c>
+      <c r="AR264">
+        <v>1.19</v>
+      </c>
+      <c r="AS264">
+        <v>1.26</v>
+      </c>
+      <c r="AT264">
+        <v>2.45</v>
+      </c>
+      <c r="AU264">
+        <v>7</v>
+      </c>
+      <c r="AV264">
+        <v>6</v>
+      </c>
+      <c r="AW264">
+        <v>3</v>
+      </c>
+      <c r="AX264">
+        <v>6</v>
+      </c>
+      <c r="AY264">
+        <v>10</v>
+      </c>
+      <c r="AZ264">
+        <v>12</v>
+      </c>
+      <c r="BA264">
+        <v>2</v>
+      </c>
+      <c r="BB264">
+        <v>4</v>
+      </c>
+      <c r="BC264">
+        <v>6</v>
+      </c>
+      <c r="BD264">
+        <v>2.23</v>
+      </c>
+      <c r="BE264">
+        <v>6.75</v>
+      </c>
+      <c r="BF264">
+        <v>1.77</v>
+      </c>
+      <c r="BG264">
+        <v>1.23</v>
+      </c>
+      <c r="BH264">
+        <v>3.65</v>
+      </c>
+      <c r="BI264">
+        <v>1.4</v>
+      </c>
+      <c r="BJ264">
+        <v>2.7</v>
+      </c>
+      <c r="BK264">
+        <v>1.65</v>
+      </c>
+      <c r="BL264">
+        <v>2.08</v>
+      </c>
+      <c r="BM264">
+        <v>2</v>
+      </c>
+      <c r="BN264">
+        <v>1.71</v>
+      </c>
+      <c r="BO264">
+        <v>2.5</v>
+      </c>
+      <c r="BP264">
+        <v>1.46</v>
+      </c>
+    </row>
+    <row r="265" spans="1:68">
+      <c r="A265" s="1">
+        <v>264</v>
+      </c>
+      <c r="B265">
+        <v>7885783</v>
+      </c>
+      <c r="C265" t="s">
+        <v>68</v>
+      </c>
+      <c r="D265" t="s">
+        <v>69</v>
+      </c>
+      <c r="E265" s="2">
+        <v>45794.5</v>
+      </c>
+      <c r="F265">
+        <v>4</v>
+      </c>
+      <c r="G265" t="s">
+        <v>79</v>
+      </c>
+      <c r="H265" t="s">
+        <v>83</v>
+      </c>
+      <c r="I265">
+        <v>1</v>
+      </c>
+      <c r="J265">
+        <v>1</v>
+      </c>
+      <c r="K265">
+        <v>2</v>
+      </c>
+      <c r="L265">
+        <v>2</v>
+      </c>
+      <c r="M265">
+        <v>1</v>
+      </c>
+      <c r="N265">
+        <v>3</v>
+      </c>
+      <c r="O265" t="s">
+        <v>253</v>
+      </c>
+      <c r="P265" t="s">
+        <v>260</v>
+      </c>
+      <c r="Q265">
+        <v>3.1</v>
+      </c>
+      <c r="R265">
+        <v>2.3</v>
+      </c>
+      <c r="S265">
+        <v>2.9</v>
+      </c>
+      <c r="T265">
+        <v>1.3</v>
+      </c>
+      <c r="U265">
+        <v>3.3</v>
+      </c>
+      <c r="V265">
+        <v>2.5</v>
+      </c>
+      <c r="W265">
+        <v>1.5</v>
+      </c>
+      <c r="X265">
+        <v>6</v>
+      </c>
+      <c r="Y265">
+        <v>1.12</v>
+      </c>
+      <c r="Z265">
+        <v>2.73</v>
+      </c>
+      <c r="AA265">
+        <v>3.63</v>
+      </c>
+      <c r="AB265">
+        <v>2.42</v>
+      </c>
+      <c r="AC265">
+        <v>1.01</v>
+      </c>
+      <c r="AD265">
+        <v>11</v>
+      </c>
+      <c r="AE265">
+        <v>1.16</v>
+      </c>
+      <c r="AF265">
+        <v>4.15</v>
+      </c>
+      <c r="AG265">
+        <v>1.7</v>
+      </c>
+      <c r="AH265">
+        <v>2.11</v>
+      </c>
+      <c r="AI265">
+        <v>1.6</v>
+      </c>
+      <c r="AJ265">
+        <v>2.25</v>
+      </c>
+      <c r="AK265">
+        <v>1.5</v>
+      </c>
+      <c r="AL265">
+        <v>1.3</v>
+      </c>
+      <c r="AM265">
+        <v>1.44</v>
+      </c>
+      <c r="AN265">
+        <v>1</v>
+      </c>
+      <c r="AO265">
+        <v>1.13</v>
+      </c>
+      <c r="AP265">
+        <v>1.12</v>
+      </c>
+      <c r="AQ265">
+        <v>1.06</v>
+      </c>
+      <c r="AR265">
+        <v>1.23</v>
+      </c>
+      <c r="AS265">
+        <v>1.26</v>
+      </c>
+      <c r="AT265">
+        <v>2.49</v>
+      </c>
+      <c r="AU265">
+        <v>7</v>
+      </c>
+      <c r="AV265">
+        <v>3</v>
+      </c>
+      <c r="AW265">
+        <v>8</v>
+      </c>
+      <c r="AX265">
+        <v>16</v>
+      </c>
+      <c r="AY265">
+        <v>15</v>
+      </c>
+      <c r="AZ265">
+        <v>19</v>
+      </c>
+      <c r="BA265">
+        <v>4</v>
+      </c>
+      <c r="BB265">
+        <v>8</v>
+      </c>
+      <c r="BC265">
+        <v>12</v>
+      </c>
+      <c r="BD265">
+        <v>2.23</v>
+      </c>
+      <c r="BE265">
+        <v>6.75</v>
+      </c>
+      <c r="BF265">
+        <v>1.77</v>
+      </c>
+      <c r="BG265">
+        <v>1.23</v>
+      </c>
+      <c r="BH265">
+        <v>3.7</v>
+      </c>
+      <c r="BI265">
+        <v>1.4</v>
+      </c>
+      <c r="BJ265">
+        <v>2.7</v>
+      </c>
+      <c r="BK265">
+        <v>1.66</v>
+      </c>
+      <c r="BL265">
+        <v>2.08</v>
+      </c>
+      <c r="BM265">
+        <v>2</v>
+      </c>
+      <c r="BN265">
+        <v>1.71</v>
+      </c>
+      <c r="BO265">
+        <v>2.55</v>
+      </c>
+      <c r="BP265">
+        <v>1.45</v>
+      </c>
+    </row>
+    <row r="266" spans="1:68">
+      <c r="A266" s="1">
+        <v>265</v>
+      </c>
+      <c r="B266">
+        <v>7885785</v>
+      </c>
+      <c r="C266" t="s">
+        <v>68</v>
+      </c>
+      <c r="D266" t="s">
+        <v>69</v>
+      </c>
+      <c r="E266" s="2">
+        <v>45794.5</v>
+      </c>
+      <c r="F266">
+        <v>4</v>
+      </c>
+      <c r="G266" t="s">
+        <v>76</v>
+      </c>
+      <c r="H266" t="s">
+        <v>74</v>
+      </c>
+      <c r="I266">
+        <v>0</v>
+      </c>
+      <c r="J266">
+        <v>1</v>
+      </c>
+      <c r="K266">
+        <v>1</v>
+      </c>
+      <c r="L266">
+        <v>3</v>
+      </c>
+      <c r="M266">
+        <v>2</v>
+      </c>
+      <c r="N266">
+        <v>5</v>
+      </c>
+      <c r="O266" t="s">
+        <v>254</v>
+      </c>
+      <c r="P266" t="s">
+        <v>367</v>
+      </c>
+      <c r="Q266">
+        <v>3.3</v>
+      </c>
+      <c r="R266">
+        <v>2.05</v>
+      </c>
+      <c r="S266">
+        <v>3.3</v>
+      </c>
+      <c r="T266">
+        <v>1.4</v>
+      </c>
+      <c r="U266">
+        <v>2.7</v>
+      </c>
+      <c r="V266">
+        <v>3.1</v>
+      </c>
+      <c r="W266">
+        <v>1.35</v>
+      </c>
+      <c r="X266">
+        <v>8.5</v>
+      </c>
+      <c r="Y266">
+        <v>1.07</v>
+      </c>
+      <c r="Z266">
+        <v>2.49</v>
+      </c>
+      <c r="AA266">
+        <v>3.3</v>
+      </c>
+      <c r="AB266">
+        <v>2.86</v>
+      </c>
+      <c r="AC266">
+        <v>1.02</v>
+      </c>
+      <c r="AD266">
+        <v>7.9</v>
+      </c>
+      <c r="AE266">
+        <v>1.32</v>
+      </c>
+      <c r="AF266">
+        <v>2.88</v>
+      </c>
+      <c r="AG266">
+        <v>2.12</v>
+      </c>
+      <c r="AH266">
+        <v>1.69</v>
+      </c>
+      <c r="AI266">
+        <v>1.85</v>
+      </c>
+      <c r="AJ266">
+        <v>1.85</v>
+      </c>
+      <c r="AK266">
+        <v>1.4</v>
+      </c>
+      <c r="AL266">
+        <v>1.36</v>
+      </c>
+      <c r="AM266">
+        <v>1.5</v>
+      </c>
+      <c r="AN266">
+        <v>1.35</v>
+      </c>
+      <c r="AO266">
+        <v>0.88</v>
+      </c>
+      <c r="AP266">
+        <v>1.44</v>
+      </c>
+      <c r="AQ266">
+        <v>0.83</v>
+      </c>
+      <c r="AR266">
+        <v>1.24</v>
+      </c>
+      <c r="AS266">
+        <v>1.07</v>
+      </c>
+      <c r="AT266">
+        <v>2.31</v>
+      </c>
+      <c r="AU266">
+        <v>-1</v>
+      </c>
+      <c r="AV266">
+        <v>-1</v>
+      </c>
+      <c r="AW266">
+        <v>-1</v>
+      </c>
+      <c r="AX266">
+        <v>-1</v>
+      </c>
+      <c r="AY266">
+        <v>-1</v>
+      </c>
+      <c r="AZ266">
+        <v>-1</v>
+      </c>
+      <c r="BA266">
+        <v>-1</v>
+      </c>
+      <c r="BB266">
+        <v>-1</v>
+      </c>
+      <c r="BC266">
+        <v>-1</v>
+      </c>
+      <c r="BD266">
+        <v>2.05</v>
+      </c>
+      <c r="BE266">
+        <v>6.75</v>
+      </c>
+      <c r="BF266">
+        <v>1.93</v>
+      </c>
+      <c r="BG266">
+        <v>1.26</v>
+      </c>
+      <c r="BH266">
+        <v>3.4</v>
+      </c>
+      <c r="BI266">
+        <v>1.46</v>
+      </c>
+      <c r="BJ266">
+        <v>2.5</v>
+      </c>
+      <c r="BK266">
+        <v>1.74</v>
+      </c>
+      <c r="BL266">
+        <v>1.97</v>
+      </c>
+      <c r="BM266">
+        <v>2.15</v>
+      </c>
+      <c r="BN266">
+        <v>1.61</v>
+      </c>
+      <c r="BO266">
+        <v>2.7</v>
+      </c>
+      <c r="BP266">
+        <v>1.4</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Czech Republic First League_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Czech Republic First League_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1658" uniqueCount="368">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1682" uniqueCount="373">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -781,6 +781,12 @@
     <t>['48', '54', '61']</t>
   </si>
   <si>
+    <t>['1', '7', '32']</t>
+  </si>
+  <si>
+    <t>['81', '83', '88']</t>
+  </si>
+  <si>
     <t>['25']</t>
   </si>
   <si>
@@ -1118,6 +1124,15 @@
   </si>
   <si>
     <t>['44', '88']</t>
+  </si>
+  <si>
+    <t>['46', '68']</t>
+  </si>
+  <si>
+    <t>['51', '64']</t>
+  </si>
+  <si>
+    <t>['13', '47']</t>
   </si>
 </sst>
 </file>
@@ -1479,7 +1494,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP266"/>
+  <dimension ref="A1:BP270"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1738,7 +1753,7 @@
         <v>86</v>
       </c>
       <c r="P2" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="Q2">
         <v>1.53</v>
@@ -2022,7 +2037,7 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>2.06</v>
+        <v>2.12</v>
       </c>
       <c r="AQ3">
         <v>1.06</v>
@@ -2150,7 +2165,7 @@
         <v>88</v>
       </c>
       <c r="P4" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="Q4">
         <v>2.88</v>
@@ -2434,7 +2449,7 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>1.13</v>
+        <v>1.24</v>
       </c>
       <c r="AQ5">
         <v>1.88</v>
@@ -2562,7 +2577,7 @@
         <v>90</v>
       </c>
       <c r="P6" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="Q6">
         <v>5.5</v>
@@ -2643,7 +2658,7 @@
         <v>1</v>
       </c>
       <c r="AQ6">
-        <v>1.88</v>
+        <v>1.94</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -2768,7 +2783,7 @@
         <v>91</v>
       </c>
       <c r="P7" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="Q7">
         <v>3.2</v>
@@ -3055,7 +3070,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ8">
-        <v>2.25</v>
+        <v>2.12</v>
       </c>
       <c r="AR8">
         <v>0</v>
@@ -3592,7 +3607,7 @@
         <v>94</v>
       </c>
       <c r="P11" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="Q11">
         <v>6.5</v>
@@ -3673,7 +3688,7 @@
         <v>1.53</v>
       </c>
       <c r="AQ11">
-        <v>1.76</v>
+        <v>1.67</v>
       </c>
       <c r="AR11">
         <v>0</v>
@@ -3798,7 +3813,7 @@
         <v>88</v>
       </c>
       <c r="P12" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="Q12">
         <v>2.85</v>
@@ -4494,7 +4509,7 @@
         <v>0</v>
       </c>
       <c r="AP15">
-        <v>2.24</v>
+        <v>2.28</v>
       </c>
       <c r="AQ15">
         <v>1.59</v>
@@ -4909,7 +4924,7 @@
         <v>2.24</v>
       </c>
       <c r="AQ17">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AR17">
         <v>0</v>
@@ -5034,7 +5049,7 @@
         <v>88</v>
       </c>
       <c r="P18" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="Q18">
         <v>5.4</v>
@@ -5115,7 +5130,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ18">
-        <v>2.25</v>
+        <v>2.12</v>
       </c>
       <c r="AR18">
         <v>1.26</v>
@@ -5730,10 +5745,10 @@
         <v>3</v>
       </c>
       <c r="AP21">
-        <v>2.06</v>
+        <v>2.12</v>
       </c>
       <c r="AQ21">
-        <v>1.88</v>
+        <v>1.94</v>
       </c>
       <c r="AR21">
         <v>1.81</v>
@@ -5936,7 +5951,7 @@
         <v>0</v>
       </c>
       <c r="AP22">
-        <v>1.44</v>
+        <v>1.35</v>
       </c>
       <c r="AQ22">
         <v>0.88</v>
@@ -6064,7 +6079,7 @@
         <v>102</v>
       </c>
       <c r="P23" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="Q23">
         <v>2.6</v>
@@ -6270,7 +6285,7 @@
         <v>103</v>
       </c>
       <c r="P24" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="Q24">
         <v>2.75</v>
@@ -6476,7 +6491,7 @@
         <v>88</v>
       </c>
       <c r="P25" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="Q25">
         <v>1.06</v>
@@ -6888,7 +6903,7 @@
         <v>105</v>
       </c>
       <c r="P27" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="Q27">
         <v>6.23</v>
@@ -6966,10 +6981,10 @@
         <v>3</v>
       </c>
       <c r="AP27">
-        <v>1.13</v>
+        <v>1.24</v>
       </c>
       <c r="AQ27">
-        <v>1.76</v>
+        <v>1.67</v>
       </c>
       <c r="AR27">
         <v>1.73</v>
@@ -7790,10 +7805,10 @@
         <v>0</v>
       </c>
       <c r="AP31">
-        <v>2.24</v>
+        <v>2.28</v>
       </c>
       <c r="AQ31">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AR31">
         <v>1.24</v>
@@ -8330,7 +8345,7 @@
         <v>111</v>
       </c>
       <c r="P34" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="Q34">
         <v>2.84</v>
@@ -8742,7 +8757,7 @@
         <v>113</v>
       </c>
       <c r="P36" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="Q36">
         <v>5.63</v>
@@ -8820,10 +8835,10 @@
         <v>3</v>
       </c>
       <c r="AP36">
-        <v>2.06</v>
+        <v>2.12</v>
       </c>
       <c r="AQ36">
-        <v>1.76</v>
+        <v>1.67</v>
       </c>
       <c r="AR36">
         <v>1.54</v>
@@ -8948,7 +8963,7 @@
         <v>114</v>
       </c>
       <c r="P37" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="Q37">
         <v>2.58</v>
@@ -9026,7 +9041,7 @@
         <v>0</v>
       </c>
       <c r="AP37">
-        <v>1.44</v>
+        <v>1.35</v>
       </c>
       <c r="AQ37">
         <v>1.06</v>
@@ -9154,7 +9169,7 @@
         <v>88</v>
       </c>
       <c r="P38" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="Q38">
         <v>4.75</v>
@@ -9235,7 +9250,7 @@
         <v>0.24</v>
       </c>
       <c r="AQ38">
-        <v>1.88</v>
+        <v>1.94</v>
       </c>
       <c r="AR38">
         <v>1.46</v>
@@ -9772,7 +9787,7 @@
         <v>117</v>
       </c>
       <c r="P41" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="Q41">
         <v>2.4</v>
@@ -9850,7 +9865,7 @@
         <v>1.5</v>
       </c>
       <c r="AP41">
-        <v>1.13</v>
+        <v>1.24</v>
       </c>
       <c r="AQ41">
         <v>1.59</v>
@@ -9978,7 +9993,7 @@
         <v>108</v>
       </c>
       <c r="P42" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="Q42">
         <v>2.61</v>
@@ -10184,7 +10199,7 @@
         <v>118</v>
       </c>
       <c r="P43" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="Q43">
         <v>1.69</v>
@@ -10471,7 +10486,7 @@
         <v>1.12</v>
       </c>
       <c r="AQ44">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AR44">
         <v>1.16</v>
@@ -10674,7 +10689,7 @@
         <v>1.5</v>
       </c>
       <c r="AP45">
-        <v>2.24</v>
+        <v>2.28</v>
       </c>
       <c r="AQ45">
         <v>1.19</v>
@@ -11626,7 +11641,7 @@
         <v>88</v>
       </c>
       <c r="P50" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="Q50">
         <v>5.1</v>
@@ -11707,7 +11722,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ50">
-        <v>1.76</v>
+        <v>1.67</v>
       </c>
       <c r="AR50">
         <v>1.24</v>
@@ -12038,7 +12053,7 @@
         <v>122</v>
       </c>
       <c r="P52" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="Q52">
         <v>3</v>
@@ -12116,7 +12131,7 @@
         <v>0.33</v>
       </c>
       <c r="AP52">
-        <v>1.44</v>
+        <v>1.35</v>
       </c>
       <c r="AQ52">
         <v>1.88</v>
@@ -12450,7 +12465,7 @@
         <v>124</v>
       </c>
       <c r="P54" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="Q54">
         <v>3</v>
@@ -12737,7 +12752,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ55">
-        <v>1.88</v>
+        <v>1.94</v>
       </c>
       <c r="AR55">
         <v>1.32</v>
@@ -13068,7 +13083,7 @@
         <v>88</v>
       </c>
       <c r="P57" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="Q57">
         <v>5.88</v>
@@ -13149,7 +13164,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ57">
-        <v>2.25</v>
+        <v>2.12</v>
       </c>
       <c r="AR57">
         <v>1.7</v>
@@ -13686,7 +13701,7 @@
         <v>128</v>
       </c>
       <c r="P60" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="Q60">
         <v>3.86</v>
@@ -13973,7 +13988,7 @@
         <v>3</v>
       </c>
       <c r="AQ61">
-        <v>1.88</v>
+        <v>1.94</v>
       </c>
       <c r="AR61">
         <v>2.33</v>
@@ -14098,7 +14113,7 @@
         <v>130</v>
       </c>
       <c r="P62" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="Q62">
         <v>1.83</v>
@@ -14382,7 +14397,7 @@
         <v>0.33</v>
       </c>
       <c r="AP63">
-        <v>1.44</v>
+        <v>1.35</v>
       </c>
       <c r="AQ63">
         <v>0.83</v>
@@ -14510,7 +14525,7 @@
         <v>88</v>
       </c>
       <c r="P64" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="Q64">
         <v>8.77</v>
@@ -14591,7 +14606,7 @@
         <v>0.24</v>
       </c>
       <c r="AQ64">
-        <v>1.76</v>
+        <v>1.67</v>
       </c>
       <c r="AR64">
         <v>1.37</v>
@@ -14716,7 +14731,7 @@
         <v>132</v>
       </c>
       <c r="P65" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="Q65">
         <v>2.4</v>
@@ -14922,7 +14937,7 @@
         <v>133</v>
       </c>
       <c r="P66" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="Q66">
         <v>1.55</v>
@@ -15128,7 +15143,7 @@
         <v>134</v>
       </c>
       <c r="P67" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="Q67">
         <v>4</v>
@@ -15540,7 +15555,7 @@
         <v>88</v>
       </c>
       <c r="P69" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="Q69">
         <v>3.1</v>
@@ -15824,10 +15839,10 @@
         <v>0</v>
       </c>
       <c r="AP70">
-        <v>2.06</v>
+        <v>2.12</v>
       </c>
       <c r="AQ70">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AR70">
         <v>1.53</v>
@@ -16030,7 +16045,7 @@
         <v>0</v>
       </c>
       <c r="AP71">
-        <v>2.24</v>
+        <v>2.28</v>
       </c>
       <c r="AQ71">
         <v>0.12</v>
@@ -16158,7 +16173,7 @@
         <v>124</v>
       </c>
       <c r="P72" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="Q72">
         <v>1.88</v>
@@ -16364,7 +16379,7 @@
         <v>88</v>
       </c>
       <c r="P73" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="Q73">
         <v>7</v>
@@ -16442,10 +16457,10 @@
         <v>2.33</v>
       </c>
       <c r="AP73">
-        <v>1.13</v>
+        <v>1.24</v>
       </c>
       <c r="AQ73">
-        <v>2.25</v>
+        <v>2.12</v>
       </c>
       <c r="AR73">
         <v>1.68</v>
@@ -16651,7 +16666,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ74">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AR74">
         <v>1.81</v>
@@ -16776,7 +16791,7 @@
         <v>88</v>
       </c>
       <c r="P75" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="Q75">
         <v>3.7</v>
@@ -16982,7 +16997,7 @@
         <v>138</v>
       </c>
       <c r="P76" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="Q76">
         <v>2.3</v>
@@ -17188,7 +17203,7 @@
         <v>88</v>
       </c>
       <c r="P77" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="Q77">
         <v>2.47</v>
@@ -17600,7 +17615,7 @@
         <v>140</v>
       </c>
       <c r="P79" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="Q79">
         <v>2.5</v>
@@ -17678,7 +17693,7 @@
         <v>1.2</v>
       </c>
       <c r="AP79">
-        <v>1.44</v>
+        <v>1.35</v>
       </c>
       <c r="AQ79">
         <v>1.19</v>
@@ -18012,7 +18027,7 @@
         <v>141</v>
       </c>
       <c r="P81" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="Q81">
         <v>2.38</v>
@@ -18093,7 +18108,7 @@
         <v>3</v>
       </c>
       <c r="AQ81">
-        <v>1.76</v>
+        <v>1.67</v>
       </c>
       <c r="AR81">
         <v>2.43</v>
@@ -18218,7 +18233,7 @@
         <v>142</v>
       </c>
       <c r="P82" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="Q82">
         <v>2.8</v>
@@ -18424,7 +18439,7 @@
         <v>143</v>
       </c>
       <c r="P83" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="Q83">
         <v>2.6</v>
@@ -18630,7 +18645,7 @@
         <v>144</v>
       </c>
       <c r="P84" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="Q84">
         <v>3.4</v>
@@ -18708,10 +18723,10 @@
         <v>1.6</v>
       </c>
       <c r="AP84">
-        <v>2.24</v>
+        <v>2.28</v>
       </c>
       <c r="AQ84">
-        <v>1.88</v>
+        <v>1.94</v>
       </c>
       <c r="AR84">
         <v>1.81</v>
@@ -19042,7 +19057,7 @@
         <v>146</v>
       </c>
       <c r="P86" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="Q86">
         <v>2.88</v>
@@ -19120,7 +19135,7 @@
         <v>0.8</v>
       </c>
       <c r="AP86">
-        <v>1.13</v>
+        <v>1.24</v>
       </c>
       <c r="AQ86">
         <v>1.06</v>
@@ -19248,7 +19263,7 @@
         <v>88</v>
       </c>
       <c r="P87" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="Q87">
         <v>2.6</v>
@@ -19660,7 +19675,7 @@
         <v>93</v>
       </c>
       <c r="P89" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="Q89">
         <v>6.5</v>
@@ -19738,10 +19753,10 @@
         <v>2.5</v>
       </c>
       <c r="AP89">
-        <v>2.06</v>
+        <v>2.12</v>
       </c>
       <c r="AQ89">
-        <v>2.25</v>
+        <v>2.12</v>
       </c>
       <c r="AR89">
         <v>1.74</v>
@@ -20072,7 +20087,7 @@
         <v>88</v>
       </c>
       <c r="P91" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="Q91">
         <v>3.8</v>
@@ -20153,7 +20168,7 @@
         <v>0.24</v>
       </c>
       <c r="AQ91">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AR91">
         <v>1.33</v>
@@ -20278,7 +20293,7 @@
         <v>149</v>
       </c>
       <c r="P92" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="Q92">
         <v>4.7</v>
@@ -20562,7 +20577,7 @@
         <v>1.67</v>
       </c>
       <c r="AP93">
-        <v>1.44</v>
+        <v>1.35</v>
       </c>
       <c r="AQ93">
         <v>1.59</v>
@@ -20690,7 +20705,7 @@
         <v>150</v>
       </c>
       <c r="P94" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="Q94">
         <v>3</v>
@@ -21389,7 +21404,7 @@
         <v>2.24</v>
       </c>
       <c r="AQ97">
-        <v>1.76</v>
+        <v>1.67</v>
       </c>
       <c r="AR97">
         <v>1.81</v>
@@ -21798,7 +21813,7 @@
         <v>1.2</v>
       </c>
       <c r="AP99">
-        <v>2.06</v>
+        <v>2.12</v>
       </c>
       <c r="AQ99">
         <v>0.88</v>
@@ -22132,7 +22147,7 @@
         <v>156</v>
       </c>
       <c r="P101" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="Q101">
         <v>1.83</v>
@@ -22625,7 +22640,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ103">
-        <v>1.88</v>
+        <v>1.94</v>
       </c>
       <c r="AR103">
         <v>1.15</v>
@@ -22828,7 +22843,7 @@
         <v>0.57</v>
       </c>
       <c r="AP104">
-        <v>1.13</v>
+        <v>1.24</v>
       </c>
       <c r="AQ104">
         <v>0.35</v>
@@ -23037,7 +23052,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ105">
-        <v>2.25</v>
+        <v>2.12</v>
       </c>
       <c r="AR105">
         <v>1.41</v>
@@ -23240,7 +23255,7 @@
         <v>0.33</v>
       </c>
       <c r="AP106">
-        <v>2.24</v>
+        <v>2.28</v>
       </c>
       <c r="AQ106">
         <v>0.83</v>
@@ -23655,7 +23670,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ108">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AR108">
         <v>1.5</v>
@@ -23780,7 +23795,7 @@
         <v>161</v>
       </c>
       <c r="P109" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="Q109">
         <v>2.24</v>
@@ -24192,7 +24207,7 @@
         <v>163</v>
       </c>
       <c r="P111" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="Q111">
         <v>4.6</v>
@@ -24273,7 +24288,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ111">
-        <v>1.76</v>
+        <v>1.67</v>
       </c>
       <c r="AR111">
         <v>1.51</v>
@@ -24604,7 +24619,7 @@
         <v>165</v>
       </c>
       <c r="P113" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="Q113">
         <v>3.25</v>
@@ -24682,7 +24697,7 @@
         <v>1.5</v>
       </c>
       <c r="AP113">
-        <v>2.06</v>
+        <v>2.12</v>
       </c>
       <c r="AQ113">
         <v>1.88</v>
@@ -24810,7 +24825,7 @@
         <v>152</v>
       </c>
       <c r="P114" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="Q114">
         <v>2.88</v>
@@ -25016,7 +25031,7 @@
         <v>99</v>
       </c>
       <c r="P115" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="Q115">
         <v>1.73</v>
@@ -25222,7 +25237,7 @@
         <v>88</v>
       </c>
       <c r="P116" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="Q116">
         <v>4.33</v>
@@ -25303,7 +25318,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ116">
-        <v>1.88</v>
+        <v>1.94</v>
       </c>
       <c r="AR116">
         <v>1.34</v>
@@ -25506,7 +25521,7 @@
         <v>0.29</v>
       </c>
       <c r="AP117">
-        <v>1.13</v>
+        <v>1.24</v>
       </c>
       <c r="AQ117">
         <v>0.83</v>
@@ -25634,7 +25649,7 @@
         <v>88</v>
       </c>
       <c r="P118" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="Q118">
         <v>15</v>
@@ -25715,7 +25730,7 @@
         <v>0.24</v>
       </c>
       <c r="AQ118">
-        <v>2.25</v>
+        <v>2.12</v>
       </c>
       <c r="AR118">
         <v>1.38</v>
@@ -26046,7 +26061,7 @@
         <v>168</v>
       </c>
       <c r="P120" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="Q120">
         <v>3</v>
@@ -26124,7 +26139,7 @@
         <v>1.17</v>
       </c>
       <c r="AP120">
-        <v>1.44</v>
+        <v>1.35</v>
       </c>
       <c r="AQ120">
         <v>1.19</v>
@@ -26330,7 +26345,7 @@
         <v>1.17</v>
       </c>
       <c r="AP121">
-        <v>1.44</v>
+        <v>1.35</v>
       </c>
       <c r="AQ121">
         <v>0.6899999999999999</v>
@@ -26458,7 +26473,7 @@
         <v>170</v>
       </c>
       <c r="P122" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="Q122">
         <v>3.25</v>
@@ -26536,7 +26551,7 @@
         <v>1</v>
       </c>
       <c r="AP122">
-        <v>1.13</v>
+        <v>1.24</v>
       </c>
       <c r="AQ122">
         <v>0.6899999999999999</v>
@@ -26664,7 +26679,7 @@
         <v>171</v>
       </c>
       <c r="P123" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="Q123">
         <v>1.83</v>
@@ -26742,7 +26757,7 @@
         <v>1.17</v>
       </c>
       <c r="AP123">
-        <v>2.24</v>
+        <v>2.28</v>
       </c>
       <c r="AQ123">
         <v>1.19</v>
@@ -27076,7 +27091,7 @@
         <v>172</v>
       </c>
       <c r="P125" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="Q125">
         <v>6.3</v>
@@ -27157,7 +27172,7 @@
         <v>1</v>
       </c>
       <c r="AQ125">
-        <v>1.76</v>
+        <v>1.67</v>
       </c>
       <c r="AR125">
         <v>1.21</v>
@@ -27775,7 +27790,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ128">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AR128">
         <v>1.5</v>
@@ -27900,7 +27915,7 @@
         <v>174</v>
       </c>
       <c r="P129" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="Q129">
         <v>2.1</v>
@@ -28106,7 +28121,7 @@
         <v>175</v>
       </c>
       <c r="P130" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="Q130">
         <v>1.5</v>
@@ -28390,7 +28405,7 @@
         <v>0.14</v>
       </c>
       <c r="AP131">
-        <v>2.06</v>
+        <v>2.12</v>
       </c>
       <c r="AQ131">
         <v>0.12</v>
@@ -28518,7 +28533,7 @@
         <v>177</v>
       </c>
       <c r="P132" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="Q132">
         <v>3.5</v>
@@ -28724,7 +28739,7 @@
         <v>178</v>
       </c>
       <c r="P133" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="Q133">
         <v>4.04</v>
@@ -28930,7 +28945,7 @@
         <v>88</v>
       </c>
       <c r="P134" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="Q134">
         <v>2.75</v>
@@ -29008,10 +29023,10 @@
         <v>0.63</v>
       </c>
       <c r="AP134">
-        <v>1.13</v>
+        <v>1.24</v>
       </c>
       <c r="AQ134">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AR134">
         <v>1.51</v>
@@ -29420,10 +29435,10 @@
         <v>2.43</v>
       </c>
       <c r="AP136">
-        <v>2.24</v>
+        <v>2.28</v>
       </c>
       <c r="AQ136">
-        <v>2.25</v>
+        <v>2.12</v>
       </c>
       <c r="AR136">
         <v>2.02</v>
@@ -29754,7 +29769,7 @@
         <v>91</v>
       </c>
       <c r="P138" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="Q138">
         <v>2.25</v>
@@ -29960,7 +29975,7 @@
         <v>179</v>
       </c>
       <c r="P139" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="Q139">
         <v>1.9</v>
@@ -30038,7 +30053,7 @@
         <v>0.25</v>
       </c>
       <c r="AP139">
-        <v>2.06</v>
+        <v>2.12</v>
       </c>
       <c r="AQ139">
         <v>0.83</v>
@@ -30372,7 +30387,7 @@
         <v>88</v>
       </c>
       <c r="P141" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="Q141">
         <v>4</v>
@@ -30578,7 +30593,7 @@
         <v>117</v>
       </c>
       <c r="P142" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="Q142">
         <v>4</v>
@@ -30659,7 +30674,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ142">
-        <v>1.88</v>
+        <v>1.94</v>
       </c>
       <c r="AR142">
         <v>1.59</v>
@@ -30990,7 +31005,7 @@
         <v>182</v>
       </c>
       <c r="P144" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="Q144">
         <v>6</v>
@@ -31068,10 +31083,10 @@
         <v>2.5</v>
       </c>
       <c r="AP144">
-        <v>1.44</v>
+        <v>1.35</v>
       </c>
       <c r="AQ144">
-        <v>2.25</v>
+        <v>2.12</v>
       </c>
       <c r="AR144">
         <v>1.69</v>
@@ -31196,7 +31211,7 @@
         <v>88</v>
       </c>
       <c r="P145" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="Q145">
         <v>3.5</v>
@@ -31402,7 +31417,7 @@
         <v>183</v>
       </c>
       <c r="P146" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="Q146">
         <v>4.33</v>
@@ -31483,7 +31498,7 @@
         <v>1</v>
       </c>
       <c r="AQ146">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AR146">
         <v>1.22</v>
@@ -31608,7 +31623,7 @@
         <v>184</v>
       </c>
       <c r="P147" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="Q147">
         <v>2.5</v>
@@ -31686,7 +31701,7 @@
         <v>0.88</v>
       </c>
       <c r="AP147">
-        <v>1.13</v>
+        <v>1.24</v>
       </c>
       <c r="AQ147">
         <v>1.19</v>
@@ -31814,7 +31829,7 @@
         <v>185</v>
       </c>
       <c r="P148" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="Q148">
         <v>3.8</v>
@@ -32020,7 +32035,7 @@
         <v>186</v>
       </c>
       <c r="P149" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="Q149">
         <v>2.05</v>
@@ -32098,7 +32113,7 @@
         <v>1.22</v>
       </c>
       <c r="AP149">
-        <v>2.24</v>
+        <v>2.28</v>
       </c>
       <c r="AQ149">
         <v>0.6899999999999999</v>
@@ -32432,7 +32447,7 @@
         <v>188</v>
       </c>
       <c r="P151" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="Q151">
         <v>2.48</v>
@@ -32719,7 +32734,7 @@
         <v>1.53</v>
       </c>
       <c r="AQ152">
-        <v>2.25</v>
+        <v>2.12</v>
       </c>
       <c r="AR152">
         <v>1.55</v>
@@ -32844,7 +32859,7 @@
         <v>190</v>
       </c>
       <c r="P153" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="Q153">
         <v>1.4</v>
@@ -33256,7 +33271,7 @@
         <v>88</v>
       </c>
       <c r="P155" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="Q155">
         <v>3.2</v>
@@ -33874,7 +33889,7 @@
         <v>88</v>
       </c>
       <c r="P158" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="Q158">
         <v>5</v>
@@ -33955,7 +33970,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ158">
-        <v>1.76</v>
+        <v>1.67</v>
       </c>
       <c r="AR158">
         <v>1.21</v>
@@ -34080,7 +34095,7 @@
         <v>88</v>
       </c>
       <c r="P159" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="Q159">
         <v>2.38</v>
@@ -34158,7 +34173,7 @@
         <v>1.33</v>
       </c>
       <c r="AP159">
-        <v>2.06</v>
+        <v>2.12</v>
       </c>
       <c r="AQ159">
         <v>1.19</v>
@@ -34492,7 +34507,7 @@
         <v>193</v>
       </c>
       <c r="P161" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="Q161">
         <v>4.75</v>
@@ -34570,10 +34585,10 @@
         <v>1.89</v>
       </c>
       <c r="AP161">
-        <v>1.44</v>
+        <v>1.35</v>
       </c>
       <c r="AQ161">
-        <v>1.88</v>
+        <v>1.94</v>
       </c>
       <c r="AR161">
         <v>1.6</v>
@@ -34698,7 +34713,7 @@
         <v>194</v>
       </c>
       <c r="P162" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="Q162">
         <v>2.63</v>
@@ -34904,7 +34919,7 @@
         <v>88</v>
       </c>
       <c r="P163" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="Q163">
         <v>11</v>
@@ -34985,7 +35000,7 @@
         <v>1.12</v>
       </c>
       <c r="AQ163">
-        <v>2.25</v>
+        <v>2.12</v>
       </c>
       <c r="AR163">
         <v>1.29</v>
@@ -35110,7 +35125,7 @@
         <v>195</v>
       </c>
       <c r="P164" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="Q164">
         <v>2</v>
@@ -35316,7 +35331,7 @@
         <v>196</v>
       </c>
       <c r="P165" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="Q165">
         <v>2.5</v>
@@ -35394,7 +35409,7 @@
         <v>1.1</v>
       </c>
       <c r="AP165">
-        <v>2.06</v>
+        <v>2.12</v>
       </c>
       <c r="AQ165">
         <v>0.6899999999999999</v>
@@ -35600,7 +35615,7 @@
         <v>1.2</v>
       </c>
       <c r="AP166">
-        <v>2.24</v>
+        <v>2.28</v>
       </c>
       <c r="AQ166">
         <v>1.24</v>
@@ -35806,7 +35821,7 @@
         <v>0.11</v>
       </c>
       <c r="AP167">
-        <v>1.13</v>
+        <v>1.24</v>
       </c>
       <c r="AQ167">
         <v>0.12</v>
@@ -36015,7 +36030,7 @@
         <v>2</v>
       </c>
       <c r="AQ168">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AR168">
         <v>1.96</v>
@@ -36218,7 +36233,7 @@
         <v>0.55</v>
       </c>
       <c r="AP169">
-        <v>1.44</v>
+        <v>1.35</v>
       </c>
       <c r="AQ169">
         <v>0.35</v>
@@ -36346,7 +36361,7 @@
         <v>201</v>
       </c>
       <c r="P170" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="Q170">
         <v>5.2</v>
@@ -36758,7 +36773,7 @@
         <v>202</v>
       </c>
       <c r="P172" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="Q172">
         <v>6.35</v>
@@ -36839,7 +36854,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ172">
-        <v>1.76</v>
+        <v>1.67</v>
       </c>
       <c r="AR172">
         <v>1.5</v>
@@ -36964,7 +36979,7 @@
         <v>203</v>
       </c>
       <c r="P173" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="Q173">
         <v>2.6</v>
@@ -37170,7 +37185,7 @@
         <v>204</v>
       </c>
       <c r="P174" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="Q174">
         <v>2.66</v>
@@ -37376,7 +37391,7 @@
         <v>88</v>
       </c>
       <c r="P175" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="Q175">
         <v>4.86</v>
@@ -37457,7 +37472,7 @@
         <v>1.53</v>
       </c>
       <c r="AQ175">
-        <v>1.88</v>
+        <v>1.94</v>
       </c>
       <c r="AR175">
         <v>1.47</v>
@@ -37788,7 +37803,7 @@
         <v>172</v>
       </c>
       <c r="P177" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="Q177">
         <v>3.63</v>
@@ -38072,7 +38087,7 @@
         <v>0.82</v>
       </c>
       <c r="AP178">
-        <v>2.24</v>
+        <v>2.28</v>
       </c>
       <c r="AQ178">
         <v>0.88</v>
@@ -38200,7 +38215,7 @@
         <v>88</v>
       </c>
       <c r="P179" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="Q179">
         <v>3.92</v>
@@ -38690,7 +38705,7 @@
         <v>1</v>
       </c>
       <c r="AP181">
-        <v>1.13</v>
+        <v>1.24</v>
       </c>
       <c r="AQ181">
         <v>1.19</v>
@@ -38896,7 +38911,7 @@
         <v>0.89</v>
       </c>
       <c r="AP182">
-        <v>2.06</v>
+        <v>2.12</v>
       </c>
       <c r="AQ182">
         <v>1.19</v>
@@ -39024,7 +39039,7 @@
         <v>208</v>
       </c>
       <c r="P183" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="Q183">
         <v>4.3</v>
@@ -39105,7 +39120,7 @@
         <v>2.24</v>
       </c>
       <c r="AQ183">
-        <v>2.25</v>
+        <v>2.12</v>
       </c>
       <c r="AR183">
         <v>1.82</v>
@@ -39230,7 +39245,7 @@
         <v>88</v>
       </c>
       <c r="P184" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="Q184">
         <v>5.8</v>
@@ -39514,10 +39529,10 @@
         <v>2.09</v>
       </c>
       <c r="AP185">
-        <v>1.44</v>
+        <v>1.35</v>
       </c>
       <c r="AQ185">
-        <v>1.76</v>
+        <v>1.67</v>
       </c>
       <c r="AR185">
         <v>1.58</v>
@@ -40260,7 +40275,7 @@
         <v>88</v>
       </c>
       <c r="P189" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="Q189">
         <v>4.5</v>
@@ -40341,7 +40356,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ189">
-        <v>1.88</v>
+        <v>1.94</v>
       </c>
       <c r="AR189">
         <v>1.57</v>
@@ -41162,7 +41177,7 @@
         <v>1</v>
       </c>
       <c r="AP193">
-        <v>2.06</v>
+        <v>2.12</v>
       </c>
       <c r="AQ193">
         <v>1.19</v>
@@ -41577,7 +41592,7 @@
         <v>2</v>
       </c>
       <c r="AQ195">
-        <v>2.25</v>
+        <v>2.12</v>
       </c>
       <c r="AR195">
         <v>2.09</v>
@@ -41702,7 +41717,7 @@
         <v>215</v>
       </c>
       <c r="P196" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="Q196">
         <v>1.95</v>
@@ -41780,7 +41795,7 @@
         <v>1.25</v>
       </c>
       <c r="AP196">
-        <v>2.24</v>
+        <v>2.28</v>
       </c>
       <c r="AQ196">
         <v>1.06</v>
@@ -42114,7 +42129,7 @@
         <v>88</v>
       </c>
       <c r="P198" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="Q198">
         <v>2.88</v>
@@ -42192,7 +42207,7 @@
         <v>1.25</v>
       </c>
       <c r="AP198">
-        <v>1.13</v>
+        <v>1.24</v>
       </c>
       <c r="AQ198">
         <v>1.24</v>
@@ -42401,7 +42416,7 @@
         <v>1.12</v>
       </c>
       <c r="AQ199">
-        <v>1.88</v>
+        <v>1.94</v>
       </c>
       <c r="AR199">
         <v>1.23</v>
@@ -42732,7 +42747,7 @@
         <v>158</v>
       </c>
       <c r="P201" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="Q201">
         <v>2.63</v>
@@ -43144,7 +43159,7 @@
         <v>88</v>
       </c>
       <c r="P203" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="Q203">
         <v>2.75</v>
@@ -43431,7 +43446,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ204">
-        <v>1.76</v>
+        <v>1.67</v>
       </c>
       <c r="AR204">
         <v>1.49</v>
@@ -43556,7 +43571,7 @@
         <v>218</v>
       </c>
       <c r="P205" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="Q205">
         <v>2.88</v>
@@ -43634,10 +43649,10 @@
         <v>1</v>
       </c>
       <c r="AP205">
-        <v>1.44</v>
+        <v>1.35</v>
       </c>
       <c r="AQ205">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AR205">
         <v>1.56</v>
@@ -43762,7 +43777,7 @@
         <v>88</v>
       </c>
       <c r="P206" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="Q206">
         <v>2.38</v>
@@ -43968,7 +43983,7 @@
         <v>219</v>
       </c>
       <c r="P207" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="Q207">
         <v>4.75</v>
@@ -44458,7 +44473,7 @@
         <v>1.38</v>
       </c>
       <c r="AP209">
-        <v>2.06</v>
+        <v>2.12</v>
       </c>
       <c r="AQ209">
         <v>1.24</v>
@@ -44664,7 +44679,7 @@
         <v>0.77</v>
       </c>
       <c r="AP210">
-        <v>1.13</v>
+        <v>1.24</v>
       </c>
       <c r="AQ210">
         <v>0.88</v>
@@ -44792,7 +44807,7 @@
         <v>221</v>
       </c>
       <c r="P211" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="Q211">
         <v>1.57</v>
@@ -44870,7 +44885,7 @@
         <v>0.46</v>
       </c>
       <c r="AP211">
-        <v>2.24</v>
+        <v>2.28</v>
       </c>
       <c r="AQ211">
         <v>0.35</v>
@@ -45079,7 +45094,7 @@
         <v>1</v>
       </c>
       <c r="AQ212">
-        <v>2.25</v>
+        <v>2.12</v>
       </c>
       <c r="AR212">
         <v>1.26</v>
@@ -45204,7 +45219,7 @@
         <v>88</v>
       </c>
       <c r="P213" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="Q213">
         <v>3.5</v>
@@ -45822,7 +45837,7 @@
         <v>224</v>
       </c>
       <c r="P216" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="Q216">
         <v>2.75</v>
@@ -45903,7 +45918,7 @@
         <v>2</v>
       </c>
       <c r="AQ216">
-        <v>1.88</v>
+        <v>1.94</v>
       </c>
       <c r="AR216">
         <v>2.04</v>
@@ -46234,7 +46249,7 @@
         <v>124</v>
       </c>
       <c r="P218" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="Q218">
         <v>2.4</v>
@@ -46312,7 +46327,7 @@
         <v>1</v>
       </c>
       <c r="AP218">
-        <v>1.44</v>
+        <v>1.35</v>
       </c>
       <c r="AQ218">
         <v>1.19</v>
@@ -46440,7 +46455,7 @@
         <v>226</v>
       </c>
       <c r="P219" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="Q219">
         <v>3</v>
@@ -46518,10 +46533,10 @@
         <v>2</v>
       </c>
       <c r="AP219">
-        <v>2.24</v>
+        <v>2.28</v>
       </c>
       <c r="AQ219">
-        <v>1.76</v>
+        <v>1.67</v>
       </c>
       <c r="AR219">
         <v>1.85</v>
@@ -46852,7 +46867,7 @@
         <v>228</v>
       </c>
       <c r="P221" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="Q221">
         <v>1.67</v>
@@ -46933,7 +46948,7 @@
         <v>3</v>
       </c>
       <c r="AQ221">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AR221">
         <v>2.26</v>
@@ -47264,7 +47279,7 @@
         <v>88</v>
       </c>
       <c r="P223" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="Q223">
         <v>2.3</v>
@@ -47676,7 +47691,7 @@
         <v>218</v>
       </c>
       <c r="P225" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="Q225">
         <v>3.3</v>
@@ -47757,7 +47772,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ225">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AR225">
         <v>1.23</v>
@@ -47882,7 +47897,7 @@
         <v>88</v>
       </c>
       <c r="P226" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="Q226">
         <v>7.5</v>
@@ -47963,7 +47978,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ226">
-        <v>2.25</v>
+        <v>2.12</v>
       </c>
       <c r="AR226">
         <v>1.59</v>
@@ -48088,7 +48103,7 @@
         <v>152</v>
       </c>
       <c r="P227" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="Q227">
         <v>5.5</v>
@@ -48294,7 +48309,7 @@
         <v>230</v>
       </c>
       <c r="P228" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="Q228">
         <v>5</v>
@@ -48578,7 +48593,7 @@
         <v>0.43</v>
       </c>
       <c r="AP229">
-        <v>2.06</v>
+        <v>2.12</v>
       </c>
       <c r="AQ229">
         <v>0.35</v>
@@ -48912,7 +48927,7 @@
         <v>232</v>
       </c>
       <c r="P231" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="Q231">
         <v>3.6</v>
@@ -49118,7 +49133,7 @@
         <v>233</v>
       </c>
       <c r="P232" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="Q232">
         <v>4.5</v>
@@ -49196,10 +49211,10 @@
         <v>1.93</v>
       </c>
       <c r="AP232">
-        <v>1.13</v>
+        <v>1.24</v>
       </c>
       <c r="AQ232">
-        <v>1.88</v>
+        <v>1.94</v>
       </c>
       <c r="AR232">
         <v>1.58</v>
@@ -49324,7 +49339,7 @@
         <v>88</v>
       </c>
       <c r="P233" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="Q233">
         <v>3</v>
@@ -49530,7 +49545,7 @@
         <v>158</v>
       </c>
       <c r="P234" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="Q234">
         <v>8</v>
@@ -49611,7 +49626,7 @@
         <v>1.12</v>
       </c>
       <c r="AQ234">
-        <v>1.76</v>
+        <v>1.67</v>
       </c>
       <c r="AR234">
         <v>1.23</v>
@@ -49736,7 +49751,7 @@
         <v>234</v>
       </c>
       <c r="P235" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="Q235">
         <v>1.67</v>
@@ -50432,7 +50447,7 @@
         <v>0.07000000000000001</v>
       </c>
       <c r="AP238">
-        <v>1.44</v>
+        <v>1.35</v>
       </c>
       <c r="AQ238">
         <v>0.12</v>
@@ -50638,7 +50653,7 @@
         <v>1.36</v>
       </c>
       <c r="AP239">
-        <v>2.24</v>
+        <v>2.28</v>
       </c>
       <c r="AQ239">
         <v>1.19</v>
@@ -50766,7 +50781,7 @@
         <v>238</v>
       </c>
       <c r="P240" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="Q240">
         <v>2.3</v>
@@ -51053,7 +51068,7 @@
         <v>1.53</v>
       </c>
       <c r="AQ241">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AR241">
         <v>1.41</v>
@@ -51178,7 +51193,7 @@
         <v>239</v>
       </c>
       <c r="P242" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="Q242">
         <v>3.9</v>
@@ -51590,7 +51605,7 @@
         <v>88</v>
       </c>
       <c r="P244" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="Q244">
         <v>6.5</v>
@@ -51668,10 +51683,10 @@
         <v>2.2</v>
       </c>
       <c r="AP244">
-        <v>1.44</v>
+        <v>1.35</v>
       </c>
       <c r="AQ244">
-        <v>2.25</v>
+        <v>2.12</v>
       </c>
       <c r="AR244">
         <v>1.59</v>
@@ -51796,7 +51811,7 @@
         <v>241</v>
       </c>
       <c r="P245" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="Q245">
         <v>2.5</v>
@@ -52002,7 +52017,7 @@
         <v>242</v>
       </c>
       <c r="P246" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="Q246">
         <v>2</v>
@@ -52080,7 +52095,7 @@
         <v>1.4</v>
       </c>
       <c r="AP246">
-        <v>2.24</v>
+        <v>2.28</v>
       </c>
       <c r="AQ246">
         <v>1.59</v>
@@ -52289,7 +52304,7 @@
         <v>2.24</v>
       </c>
       <c r="AQ247">
-        <v>1.76</v>
+        <v>1.67</v>
       </c>
       <c r="AR247">
         <v>1.76</v>
@@ -52698,7 +52713,7 @@
         <v>1.37</v>
       </c>
       <c r="AP249">
-        <v>1.44</v>
+        <v>1.39</v>
       </c>
       <c r="AQ249">
         <v>1.28</v>
@@ -52826,7 +52841,7 @@
         <v>245</v>
       </c>
       <c r="P250" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="Q250">
         <v>2.25</v>
@@ -52907,7 +52922,7 @@
         <v>3</v>
       </c>
       <c r="AQ250">
-        <v>1.88</v>
+        <v>1.94</v>
       </c>
       <c r="AR250">
         <v>2.28</v>
@@ -53110,7 +53125,7 @@
         <v>1.33</v>
       </c>
       <c r="AP251">
-        <v>2.24</v>
+        <v>2.28</v>
       </c>
       <c r="AQ251">
         <v>1.24</v>
@@ -53728,7 +53743,7 @@
         <v>1.4</v>
       </c>
       <c r="AP254">
-        <v>1.16</v>
+        <v>1.21</v>
       </c>
       <c r="AQ254">
         <v>1.41</v>
@@ -53856,7 +53871,7 @@
         <v>102</v>
       </c>
       <c r="P255" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="Q255">
         <v>2.1</v>
@@ -54268,7 +54283,7 @@
         <v>88</v>
       </c>
       <c r="P257" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="Q257">
         <v>2.88</v>
@@ -54349,7 +54364,7 @@
         <v>1.28</v>
       </c>
       <c r="AQ257">
-        <v>1.44</v>
+        <v>1.39</v>
       </c>
       <c r="AR257">
         <v>1.44</v>
@@ -54552,7 +54567,7 @@
         <v>1.31</v>
       </c>
       <c r="AP258">
-        <v>2.06</v>
+        <v>2.12</v>
       </c>
       <c r="AQ258">
         <v>1.24</v>
@@ -54761,7 +54776,7 @@
         <v>3</v>
       </c>
       <c r="AQ259">
-        <v>1.76</v>
+        <v>1.67</v>
       </c>
       <c r="AR259">
         <v>2.28</v>
@@ -55092,7 +55107,7 @@
         <v>250</v>
       </c>
       <c r="P261" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="Q261">
         <v>2.5</v>
@@ -55379,7 +55394,7 @@
         <v>1.41</v>
       </c>
       <c r="AQ262">
-        <v>1.16</v>
+        <v>1.21</v>
       </c>
       <c r="AR262">
         <v>1.51</v>
@@ -55504,7 +55519,7 @@
         <v>252</v>
       </c>
       <c r="P263" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="Q263">
         <v>2.2</v>
@@ -55710,7 +55725,7 @@
         <v>88</v>
       </c>
       <c r="P264" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="Q264">
         <v>3.4</v>
@@ -55916,7 +55931,7 @@
         <v>253</v>
       </c>
       <c r="P265" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="Q265">
         <v>3.1</v>
@@ -56122,7 +56137,7 @@
         <v>254</v>
       </c>
       <c r="P266" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="Q266">
         <v>3.3</v>
@@ -56215,31 +56230,31 @@
         <v>2.31</v>
       </c>
       <c r="AU266">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="AV266">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="AW266">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="AX266">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="AY266">
-        <v>-1</v>
+        <v>11</v>
       </c>
       <c r="AZ266">
-        <v>-1</v>
+        <v>12</v>
       </c>
       <c r="BA266">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="BB266">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="BC266">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="BD266">
         <v>2.05</v>
@@ -56279,6 +56294,830 @@
       </c>
       <c r="BP266">
         <v>1.4</v>
+      </c>
+    </row>
+    <row r="267" spans="1:68">
+      <c r="A267" s="1">
+        <v>266</v>
+      </c>
+      <c r="B267">
+        <v>7897687</v>
+      </c>
+      <c r="C267" t="s">
+        <v>68</v>
+      </c>
+      <c r="D267" t="s">
+        <v>69</v>
+      </c>
+      <c r="E267" s="2">
+        <v>45795.39583333334</v>
+      </c>
+      <c r="F267">
+        <v>0</v>
+      </c>
+      <c r="G267" t="s">
+        <v>73</v>
+      </c>
+      <c r="H267" t="s">
+        <v>77</v>
+      </c>
+      <c r="I267">
+        <v>1</v>
+      </c>
+      <c r="J267">
+        <v>0</v>
+      </c>
+      <c r="K267">
+        <v>1</v>
+      </c>
+      <c r="L267">
+        <v>1</v>
+      </c>
+      <c r="M267">
+        <v>0</v>
+      </c>
+      <c r="N267">
+        <v>1</v>
+      </c>
+      <c r="O267" t="s">
+        <v>111</v>
+      </c>
+      <c r="P267" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q267">
+        <v>3</v>
+      </c>
+      <c r="R267">
+        <v>2.2</v>
+      </c>
+      <c r="S267">
+        <v>3.4</v>
+      </c>
+      <c r="T267">
+        <v>1.36</v>
+      </c>
+      <c r="U267">
+        <v>3</v>
+      </c>
+      <c r="V267">
+        <v>2.63</v>
+      </c>
+      <c r="W267">
+        <v>1.44</v>
+      </c>
+      <c r="X267">
+        <v>7</v>
+      </c>
+      <c r="Y267">
+        <v>1.1</v>
+      </c>
+      <c r="Z267">
+        <v>2.33</v>
+      </c>
+      <c r="AA267">
+        <v>3.35</v>
+      </c>
+      <c r="AB267">
+        <v>2.97</v>
+      </c>
+      <c r="AC267">
+        <v>1.01</v>
+      </c>
+      <c r="AD267">
+        <v>10.4</v>
+      </c>
+      <c r="AE267">
+        <v>1.28</v>
+      </c>
+      <c r="AF267">
+        <v>3.51</v>
+      </c>
+      <c r="AG267">
+        <v>1.83</v>
+      </c>
+      <c r="AH267">
+        <v>1.95</v>
+      </c>
+      <c r="AI267">
+        <v>1.67</v>
+      </c>
+      <c r="AJ267">
+        <v>2.1</v>
+      </c>
+      <c r="AK267">
+        <v>1.38</v>
+      </c>
+      <c r="AL267">
+        <v>1.28</v>
+      </c>
+      <c r="AM267">
+        <v>1.57</v>
+      </c>
+      <c r="AN267">
+        <v>1.16</v>
+      </c>
+      <c r="AO267">
+        <v>1.44</v>
+      </c>
+      <c r="AP267">
+        <v>1.21</v>
+      </c>
+      <c r="AQ267">
+        <v>1.39</v>
+      </c>
+      <c r="AR267">
+        <v>1.4</v>
+      </c>
+      <c r="AS267">
+        <v>1.47</v>
+      </c>
+      <c r="AT267">
+        <v>2.87</v>
+      </c>
+      <c r="AU267">
+        <v>5</v>
+      </c>
+      <c r="AV267">
+        <v>3</v>
+      </c>
+      <c r="AW267">
+        <v>8</v>
+      </c>
+      <c r="AX267">
+        <v>13</v>
+      </c>
+      <c r="AY267">
+        <v>13</v>
+      </c>
+      <c r="AZ267">
+        <v>16</v>
+      </c>
+      <c r="BA267">
+        <v>2</v>
+      </c>
+      <c r="BB267">
+        <v>7</v>
+      </c>
+      <c r="BC267">
+        <v>9</v>
+      </c>
+      <c r="BD267">
+        <v>1.62</v>
+      </c>
+      <c r="BE267">
+        <v>8.5</v>
+      </c>
+      <c r="BF267">
+        <v>2.6</v>
+      </c>
+      <c r="BG267">
+        <v>1.2</v>
+      </c>
+      <c r="BH267">
+        <v>3.95</v>
+      </c>
+      <c r="BI267">
+        <v>1.33</v>
+      </c>
+      <c r="BJ267">
+        <v>2.83</v>
+      </c>
+      <c r="BK267">
+        <v>1.61</v>
+      </c>
+      <c r="BL267">
+        <v>2.12</v>
+      </c>
+      <c r="BM267">
+        <v>2.05</v>
+      </c>
+      <c r="BN267">
+        <v>1.7</v>
+      </c>
+      <c r="BO267">
+        <v>2.64</v>
+      </c>
+      <c r="BP267">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="268" spans="1:68">
+      <c r="A268" s="1">
+        <v>267</v>
+      </c>
+      <c r="B268">
+        <v>7885787</v>
+      </c>
+      <c r="C268" t="s">
+        <v>68</v>
+      </c>
+      <c r="D268" t="s">
+        <v>69</v>
+      </c>
+      <c r="E268" s="2">
+        <v>45795.5</v>
+      </c>
+      <c r="F268">
+        <v>4</v>
+      </c>
+      <c r="G268" t="s">
+        <v>85</v>
+      </c>
+      <c r="H268" t="s">
+        <v>84</v>
+      </c>
+      <c r="I268">
+        <v>1</v>
+      </c>
+      <c r="J268">
+        <v>0</v>
+      </c>
+      <c r="K268">
+        <v>1</v>
+      </c>
+      <c r="L268">
+        <v>1</v>
+      </c>
+      <c r="M268">
+        <v>2</v>
+      </c>
+      <c r="N268">
+        <v>3</v>
+      </c>
+      <c r="O268" t="s">
+        <v>110</v>
+      </c>
+      <c r="P268" t="s">
+        <v>370</v>
+      </c>
+      <c r="Q268">
+        <v>5.95</v>
+      </c>
+      <c r="R268">
+        <v>2.33</v>
+      </c>
+      <c r="S268">
+        <v>1.97</v>
+      </c>
+      <c r="T268">
+        <v>1.32</v>
+      </c>
+      <c r="U268">
+        <v>3.1</v>
+      </c>
+      <c r="V268">
+        <v>2.53</v>
+      </c>
+      <c r="W268">
+        <v>1.46</v>
+      </c>
+      <c r="X268">
+        <v>5.9</v>
+      </c>
+      <c r="Y268">
+        <v>1.07</v>
+      </c>
+      <c r="Z268">
+        <v>6.25</v>
+      </c>
+      <c r="AA268">
+        <v>4.39</v>
+      </c>
+      <c r="AB268">
+        <v>1.48</v>
+      </c>
+      <c r="AC268">
+        <v>1.01</v>
+      </c>
+      <c r="AD268">
+        <v>11</v>
+      </c>
+      <c r="AE268">
+        <v>1.19</v>
+      </c>
+      <c r="AF268">
+        <v>3.8</v>
+      </c>
+      <c r="AG268">
+        <v>1.74</v>
+      </c>
+      <c r="AH268">
+        <v>2.05</v>
+      </c>
+      <c r="AI268">
+        <v>1.85</v>
+      </c>
+      <c r="AJ268">
+        <v>1.85</v>
+      </c>
+      <c r="AK268">
+        <v>2.58</v>
+      </c>
+      <c r="AL268">
+        <v>1.2</v>
+      </c>
+      <c r="AM268">
+        <v>1.1</v>
+      </c>
+      <c r="AN268">
+        <v>1.44</v>
+      </c>
+      <c r="AO268">
+        <v>1.88</v>
+      </c>
+      <c r="AP268">
+        <v>1.35</v>
+      </c>
+      <c r="AQ268">
+        <v>1.94</v>
+      </c>
+      <c r="AR268">
+        <v>1.5</v>
+      </c>
+      <c r="AS268">
+        <v>1.44</v>
+      </c>
+      <c r="AT268">
+        <v>2.94</v>
+      </c>
+      <c r="AU268">
+        <v>2</v>
+      </c>
+      <c r="AV268">
+        <v>8</v>
+      </c>
+      <c r="AW268">
+        <v>0</v>
+      </c>
+      <c r="AX268">
+        <v>5</v>
+      </c>
+      <c r="AY268">
+        <v>2</v>
+      </c>
+      <c r="AZ268">
+        <v>13</v>
+      </c>
+      <c r="BA268">
+        <v>2</v>
+      </c>
+      <c r="BB268">
+        <v>15</v>
+      </c>
+      <c r="BC268">
+        <v>17</v>
+      </c>
+      <c r="BD268">
+        <v>2.95</v>
+      </c>
+      <c r="BE268">
+        <v>6.75</v>
+      </c>
+      <c r="BF268">
+        <v>1.47</v>
+      </c>
+      <c r="BG268">
+        <v>1.22</v>
+      </c>
+      <c r="BH268">
+        <v>3.8</v>
+      </c>
+      <c r="BI268">
+        <v>1.38</v>
+      </c>
+      <c r="BJ268">
+        <v>2.75</v>
+      </c>
+      <c r="BK268">
+        <v>1.61</v>
+      </c>
+      <c r="BL268">
+        <v>2.15</v>
+      </c>
+      <c r="BM268">
+        <v>1.98</v>
+      </c>
+      <c r="BN268">
+        <v>1.74</v>
+      </c>
+      <c r="BO268">
+        <v>2.4</v>
+      </c>
+      <c r="BP268">
+        <v>1.49</v>
+      </c>
+    </row>
+    <row r="269" spans="1:68">
+      <c r="A269" s="1">
+        <v>268</v>
+      </c>
+      <c r="B269">
+        <v>7885788</v>
+      </c>
+      <c r="C269" t="s">
+        <v>68</v>
+      </c>
+      <c r="D269" t="s">
+        <v>69</v>
+      </c>
+      <c r="E269" s="2">
+        <v>45795.5</v>
+      </c>
+      <c r="F269">
+        <v>4</v>
+      </c>
+      <c r="G269" t="s">
+        <v>82</v>
+      </c>
+      <c r="H269" t="s">
+        <v>70</v>
+      </c>
+      <c r="I269">
+        <v>3</v>
+      </c>
+      <c r="J269">
+        <v>0</v>
+      </c>
+      <c r="K269">
+        <v>3</v>
+      </c>
+      <c r="L269">
+        <v>3</v>
+      </c>
+      <c r="M269">
+        <v>2</v>
+      </c>
+      <c r="N269">
+        <v>5</v>
+      </c>
+      <c r="O269" t="s">
+        <v>255</v>
+      </c>
+      <c r="P269" t="s">
+        <v>371</v>
+      </c>
+      <c r="Q269">
+        <v>3</v>
+      </c>
+      <c r="R269">
+        <v>2.3</v>
+      </c>
+      <c r="S269">
+        <v>3</v>
+      </c>
+      <c r="T269">
+        <v>1.3</v>
+      </c>
+      <c r="U269">
+        <v>3.3</v>
+      </c>
+      <c r="V269">
+        <v>2.5</v>
+      </c>
+      <c r="W269">
+        <v>1.5</v>
+      </c>
+      <c r="X269">
+        <v>6</v>
+      </c>
+      <c r="Y269">
+        <v>1.12</v>
+      </c>
+      <c r="Z269">
+        <v>2.72</v>
+      </c>
+      <c r="AA269">
+        <v>3.57</v>
+      </c>
+      <c r="AB269">
+        <v>2.46</v>
+      </c>
+      <c r="AC269">
+        <v>1.01</v>
+      </c>
+      <c r="AD269">
+        <v>11</v>
+      </c>
+      <c r="AE269">
+        <v>1.18</v>
+      </c>
+      <c r="AF269">
+        <v>3.85</v>
+      </c>
+      <c r="AG269">
+        <v>1.71</v>
+      </c>
+      <c r="AH269">
+        <v>2.09</v>
+      </c>
+      <c r="AI269">
+        <v>1.62</v>
+      </c>
+      <c r="AJ269">
+        <v>2.2</v>
+      </c>
+      <c r="AK269">
+        <v>1.53</v>
+      </c>
+      <c r="AL269">
+        <v>1.3</v>
+      </c>
+      <c r="AM269">
+        <v>1.44</v>
+      </c>
+      <c r="AN269">
+        <v>2.24</v>
+      </c>
+      <c r="AO269">
+        <v>1.76</v>
+      </c>
+      <c r="AP269">
+        <v>2.28</v>
+      </c>
+      <c r="AQ269">
+        <v>1.67</v>
+      </c>
+      <c r="AR269">
+        <v>1.77</v>
+      </c>
+      <c r="AS269">
+        <v>1.58</v>
+      </c>
+      <c r="AT269">
+        <v>3.35</v>
+      </c>
+      <c r="AU269">
+        <v>4</v>
+      </c>
+      <c r="AV269">
+        <v>4</v>
+      </c>
+      <c r="AW269">
+        <v>3</v>
+      </c>
+      <c r="AX269">
+        <v>5</v>
+      </c>
+      <c r="AY269">
+        <v>7</v>
+      </c>
+      <c r="AZ269">
+        <v>9</v>
+      </c>
+      <c r="BA269">
+        <v>5</v>
+      </c>
+      <c r="BB269">
+        <v>8</v>
+      </c>
+      <c r="BC269">
+        <v>13</v>
+      </c>
+      <c r="BD269">
+        <v>1.75</v>
+      </c>
+      <c r="BE269">
+        <v>6.75</v>
+      </c>
+      <c r="BF269">
+        <v>2.28</v>
+      </c>
+      <c r="BG269">
+        <v>1.27</v>
+      </c>
+      <c r="BH269">
+        <v>3.3</v>
+      </c>
+      <c r="BI269">
+        <v>1.49</v>
+      </c>
+      <c r="BJ269">
+        <v>2.43</v>
+      </c>
+      <c r="BK269">
+        <v>1.77</v>
+      </c>
+      <c r="BL269">
+        <v>1.92</v>
+      </c>
+      <c r="BM269">
+        <v>2.2</v>
+      </c>
+      <c r="BN269">
+        <v>1.58</v>
+      </c>
+      <c r="BO269">
+        <v>2.8</v>
+      </c>
+      <c r="BP269">
+        <v>1.37</v>
+      </c>
+    </row>
+    <row r="270" spans="1:68">
+      <c r="A270" s="1">
+        <v>269</v>
+      </c>
+      <c r="B270">
+        <v>7885786</v>
+      </c>
+      <c r="C270" t="s">
+        <v>68</v>
+      </c>
+      <c r="D270" t="s">
+        <v>69</v>
+      </c>
+      <c r="E270" s="2">
+        <v>45795.5</v>
+      </c>
+      <c r="F270">
+        <v>4</v>
+      </c>
+      <c r="G270" t="s">
+        <v>71</v>
+      </c>
+      <c r="H270" t="s">
+        <v>80</v>
+      </c>
+      <c r="I270">
+        <v>0</v>
+      </c>
+      <c r="J270">
+        <v>1</v>
+      </c>
+      <c r="K270">
+        <v>1</v>
+      </c>
+      <c r="L270">
+        <v>3</v>
+      </c>
+      <c r="M270">
+        <v>2</v>
+      </c>
+      <c r="N270">
+        <v>5</v>
+      </c>
+      <c r="O270" t="s">
+        <v>256</v>
+      </c>
+      <c r="P270" t="s">
+        <v>372</v>
+      </c>
+      <c r="Q270">
+        <v>4.2</v>
+      </c>
+      <c r="R270">
+        <v>2.15</v>
+      </c>
+      <c r="S270">
+        <v>2.5</v>
+      </c>
+      <c r="T270">
+        <v>1.4</v>
+      </c>
+      <c r="U270">
+        <v>2.88</v>
+      </c>
+      <c r="V270">
+        <v>2.9</v>
+      </c>
+      <c r="W270">
+        <v>1.36</v>
+      </c>
+      <c r="X270">
+        <v>7.5</v>
+      </c>
+      <c r="Y270">
+        <v>1.08</v>
+      </c>
+      <c r="Z270">
+        <v>3.13</v>
+      </c>
+      <c r="AA270">
+        <v>3.7</v>
+      </c>
+      <c r="AB270">
+        <v>2.15</v>
+      </c>
+      <c r="AC270">
+        <v>1.02</v>
+      </c>
+      <c r="AD270">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="AE270">
+        <v>1.32</v>
+      </c>
+      <c r="AF270">
+        <v>2.88</v>
+      </c>
+      <c r="AG270">
+        <v>2.04</v>
+      </c>
+      <c r="AH270">
+        <v>1.82</v>
+      </c>
+      <c r="AI270">
+        <v>1.8</v>
+      </c>
+      <c r="AJ270">
+        <v>1.91</v>
+      </c>
+      <c r="AK270">
+        <v>1.67</v>
+      </c>
+      <c r="AL270">
+        <v>1.33</v>
+      </c>
+      <c r="AM270">
+        <v>1.3</v>
+      </c>
+      <c r="AN270">
+        <v>2.06</v>
+      </c>
+      <c r="AO270">
+        <v>2.25</v>
+      </c>
+      <c r="AP270">
+        <v>2.12</v>
+      </c>
+      <c r="AQ270">
+        <v>2.12</v>
+      </c>
+      <c r="AR270">
+        <v>1.66</v>
+      </c>
+      <c r="AS270">
+        <v>1.76</v>
+      </c>
+      <c r="AT270">
+        <v>3.42</v>
+      </c>
+      <c r="AU270">
+        <v>10</v>
+      </c>
+      <c r="AV270">
+        <v>7</v>
+      </c>
+      <c r="AW270">
+        <v>10</v>
+      </c>
+      <c r="AX270">
+        <v>9</v>
+      </c>
+      <c r="AY270">
+        <v>20</v>
+      </c>
+      <c r="AZ270">
+        <v>16</v>
+      </c>
+      <c r="BA270">
+        <v>6</v>
+      </c>
+      <c r="BB270">
+        <v>3</v>
+      </c>
+      <c r="BC270">
+        <v>9</v>
+      </c>
+      <c r="BD270">
+        <v>2.43</v>
+      </c>
+      <c r="BE270">
+        <v>6.75</v>
+      </c>
+      <c r="BF270">
+        <v>1.68</v>
+      </c>
+      <c r="BG270">
+        <v>1.32</v>
+      </c>
+      <c r="BH270">
+        <v>3.05</v>
+      </c>
+      <c r="BI270">
+        <v>1.55</v>
+      </c>
+      <c r="BJ270">
+        <v>2.28</v>
+      </c>
+      <c r="BK270">
+        <v>1.9</v>
+      </c>
+      <c r="BL270">
+        <v>1.79</v>
+      </c>
+      <c r="BM270">
+        <v>2.4</v>
+      </c>
+      <c r="BN270">
+        <v>1.49</v>
+      </c>
+      <c r="BO270">
+        <v>3.15</v>
+      </c>
+      <c r="BP270">
+        <v>1.3</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Czech Republic First League_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Czech Republic First League_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1682" uniqueCount="373">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1724" uniqueCount="382">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -787,6 +787,27 @@
     <t>['81', '83', '88']</t>
   </si>
   <si>
+    <t>['31', '45', '74']</t>
+  </si>
+  <si>
+    <t>['3', '19', '45+1', '67']</t>
+  </si>
+  <si>
+    <t>['61']</t>
+  </si>
+  <si>
+    <t>['24', '60']</t>
+  </si>
+  <si>
+    <t>['52', '90+5']</t>
+  </si>
+  <si>
+    <t>['32', '54', '57']</t>
+  </si>
+  <si>
+    <t>['31', '38']</t>
+  </si>
+  <si>
     <t>['25']</t>
   </si>
   <si>
@@ -935,9 +956,6 @@
   </si>
   <si>
     <t>['23']</t>
-  </si>
-  <si>
-    <t>['61']</t>
   </si>
   <si>
     <t>['83']</t>
@@ -1133,6 +1151,15 @@
   </si>
   <si>
     <t>['13', '47']</t>
+  </si>
+  <si>
+    <t>['50']</t>
+  </si>
+  <si>
+    <t>['58', '85']</t>
+  </si>
+  <si>
+    <t>['17']</t>
   </si>
 </sst>
 </file>
@@ -1494,7 +1521,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP270"/>
+  <dimension ref="A1:BP277"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1753,7 +1780,7 @@
         <v>86</v>
       </c>
       <c r="P2" t="s">
-        <v>257</v>
+        <v>264</v>
       </c>
       <c r="Q2">
         <v>1.53</v>
@@ -1831,10 +1858,10 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>2</v>
+        <v>1.94</v>
       </c>
       <c r="AQ2">
-        <v>0.35</v>
+        <v>0.33</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -2165,7 +2192,7 @@
         <v>88</v>
       </c>
       <c r="P4" t="s">
-        <v>258</v>
+        <v>265</v>
       </c>
       <c r="Q4">
         <v>2.88</v>
@@ -2246,7 +2273,7 @@
         <v>0.24</v>
       </c>
       <c r="AQ4">
-        <v>1.24</v>
+        <v>1.22</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -2452,7 +2479,7 @@
         <v>1.24</v>
       </c>
       <c r="AQ5">
-        <v>1.88</v>
+        <v>1.76</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -2577,7 +2604,7 @@
         <v>90</v>
       </c>
       <c r="P6" t="s">
-        <v>259</v>
+        <v>266</v>
       </c>
       <c r="Q6">
         <v>5.5</v>
@@ -2655,7 +2682,7 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>1</v>
+        <v>1.12</v>
       </c>
       <c r="AQ6">
         <v>1.94</v>
@@ -2783,7 +2810,7 @@
         <v>91</v>
       </c>
       <c r="P7" t="s">
-        <v>260</v>
+        <v>267</v>
       </c>
       <c r="Q7">
         <v>3.2</v>
@@ -3273,7 +3300,7 @@
         <v>0</v>
       </c>
       <c r="AP9">
-        <v>1.63</v>
+        <v>1.71</v>
       </c>
       <c r="AQ9">
         <v>0.88</v>
@@ -3479,10 +3506,10 @@
         <v>0</v>
       </c>
       <c r="AP10">
-        <v>1</v>
+        <v>1.12</v>
       </c>
       <c r="AQ10">
-        <v>1.19</v>
+        <v>1.12</v>
       </c>
       <c r="AR10">
         <v>0.98</v>
@@ -3607,7 +3634,7 @@
         <v>94</v>
       </c>
       <c r="P11" t="s">
-        <v>261</v>
+        <v>268</v>
       </c>
       <c r="Q11">
         <v>6.5</v>
@@ -3685,7 +3712,7 @@
         <v>0</v>
       </c>
       <c r="AP11">
-        <v>1.53</v>
+        <v>1.61</v>
       </c>
       <c r="AQ11">
         <v>1.67</v>
@@ -3813,7 +3840,7 @@
         <v>88</v>
       </c>
       <c r="P12" t="s">
-        <v>262</v>
+        <v>269</v>
       </c>
       <c r="Q12">
         <v>2.85</v>
@@ -4100,7 +4127,7 @@
         <v>3</v>
       </c>
       <c r="AQ13">
-        <v>0.12</v>
+        <v>0.11</v>
       </c>
       <c r="AR13">
         <v>0</v>
@@ -4306,7 +4333,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ14">
-        <v>1.24</v>
+        <v>1.22</v>
       </c>
       <c r="AR14">
         <v>0</v>
@@ -4512,7 +4539,7 @@
         <v>2.28</v>
       </c>
       <c r="AQ15">
-        <v>1.59</v>
+        <v>1.5</v>
       </c>
       <c r="AR15">
         <v>0</v>
@@ -4715,10 +4742,10 @@
         <v>0</v>
       </c>
       <c r="AP16">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="AQ16">
-        <v>0.6899999999999999</v>
+        <v>0.71</v>
       </c>
       <c r="AR16">
         <v>0</v>
@@ -4921,7 +4948,7 @@
         <v>0</v>
       </c>
       <c r="AP17">
-        <v>2.24</v>
+        <v>2.28</v>
       </c>
       <c r="AQ17">
         <v>1.18</v>
@@ -5049,7 +5076,7 @@
         <v>88</v>
       </c>
       <c r="P18" t="s">
-        <v>263</v>
+        <v>270</v>
       </c>
       <c r="Q18">
         <v>5.4</v>
@@ -5333,7 +5360,7 @@
         <v>0</v>
       </c>
       <c r="AP19">
-        <v>2</v>
+        <v>1.94</v>
       </c>
       <c r="AQ19">
         <v>0.83</v>
@@ -5542,7 +5569,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ20">
-        <v>1.19</v>
+        <v>1.12</v>
       </c>
       <c r="AR20">
         <v>1</v>
@@ -6079,7 +6106,7 @@
         <v>102</v>
       </c>
       <c r="P23" t="s">
-        <v>264</v>
+        <v>271</v>
       </c>
       <c r="Q23">
         <v>2.6</v>
@@ -6160,7 +6187,7 @@
         <v>0.24</v>
       </c>
       <c r="AQ23">
-        <v>0.35</v>
+        <v>0.33</v>
       </c>
       <c r="AR23">
         <v>1.33</v>
@@ -6285,7 +6312,7 @@
         <v>103</v>
       </c>
       <c r="P24" t="s">
-        <v>265</v>
+        <v>272</v>
       </c>
       <c r="Q24">
         <v>2.75</v>
@@ -6363,7 +6390,7 @@
         <v>0</v>
       </c>
       <c r="AP24">
-        <v>1.63</v>
+        <v>1.71</v>
       </c>
       <c r="AQ24">
         <v>1.06</v>
@@ -6491,7 +6518,7 @@
         <v>88</v>
       </c>
       <c r="P25" t="s">
-        <v>266</v>
+        <v>273</v>
       </c>
       <c r="Q25">
         <v>1.06</v>
@@ -6569,10 +6596,10 @@
         <v>0</v>
       </c>
       <c r="AP25">
-        <v>1</v>
+        <v>1.12</v>
       </c>
       <c r="AQ25">
-        <v>1.59</v>
+        <v>1.5</v>
       </c>
       <c r="AR25">
         <v>0.93</v>
@@ -6775,7 +6802,7 @@
         <v>3</v>
       </c>
       <c r="AP26">
-        <v>1.53</v>
+        <v>1.61</v>
       </c>
       <c r="AQ26">
         <v>1.19</v>
@@ -6903,7 +6930,7 @@
         <v>105</v>
       </c>
       <c r="P27" t="s">
-        <v>267</v>
+        <v>274</v>
       </c>
       <c r="Q27">
         <v>6.23</v>
@@ -7190,7 +7217,7 @@
         <v>3</v>
       </c>
       <c r="AQ28">
-        <v>1.24</v>
+        <v>1.22</v>
       </c>
       <c r="AR28">
         <v>2.4</v>
@@ -7396,7 +7423,7 @@
         <v>1.12</v>
       </c>
       <c r="AQ29">
-        <v>0.6899999999999999</v>
+        <v>0.71</v>
       </c>
       <c r="AR29">
         <v>1.22</v>
@@ -7599,10 +7626,10 @@
         <v>0</v>
       </c>
       <c r="AP30">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="AQ30">
-        <v>0.12</v>
+        <v>0.11</v>
       </c>
       <c r="AR30">
         <v>1.76</v>
@@ -8011,7 +8038,7 @@
         <v>3</v>
       </c>
       <c r="AP32">
-        <v>2.24</v>
+        <v>2.28</v>
       </c>
       <c r="AQ32">
         <v>1.19</v>
@@ -8217,7 +8244,7 @@
         <v>0</v>
       </c>
       <c r="AP33">
-        <v>1.63</v>
+        <v>1.71</v>
       </c>
       <c r="AQ33">
         <v>0.83</v>
@@ -8345,7 +8372,7 @@
         <v>111</v>
       </c>
       <c r="P34" t="s">
-        <v>268</v>
+        <v>275</v>
       </c>
       <c r="Q34">
         <v>2.84</v>
@@ -8426,7 +8453,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ34">
-        <v>1.19</v>
+        <v>1.12</v>
       </c>
       <c r="AR34">
         <v>1.93</v>
@@ -8757,7 +8784,7 @@
         <v>113</v>
       </c>
       <c r="P36" t="s">
-        <v>269</v>
+        <v>276</v>
       </c>
       <c r="Q36">
         <v>5.63</v>
@@ -8963,7 +8990,7 @@
         <v>114</v>
       </c>
       <c r="P37" t="s">
-        <v>270</v>
+        <v>277</v>
       </c>
       <c r="Q37">
         <v>2.58</v>
@@ -9169,7 +9196,7 @@
         <v>88</v>
       </c>
       <c r="P38" t="s">
-        <v>271</v>
+        <v>278</v>
       </c>
       <c r="Q38">
         <v>4.75</v>
@@ -9456,7 +9483,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ39">
-        <v>0.35</v>
+        <v>0.33</v>
       </c>
       <c r="AR39">
         <v>1.34</v>
@@ -9662,7 +9689,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ40">
-        <v>1.88</v>
+        <v>1.76</v>
       </c>
       <c r="AR40">
         <v>1.19</v>
@@ -9787,7 +9814,7 @@
         <v>117</v>
       </c>
       <c r="P41" t="s">
-        <v>272</v>
+        <v>279</v>
       </c>
       <c r="Q41">
         <v>2.4</v>
@@ -9868,7 +9895,7 @@
         <v>1.24</v>
       </c>
       <c r="AQ41">
-        <v>1.59</v>
+        <v>1.5</v>
       </c>
       <c r="AR41">
         <v>1.49</v>
@@ -9993,7 +10020,7 @@
         <v>108</v>
       </c>
       <c r="P42" t="s">
-        <v>273</v>
+        <v>280</v>
       </c>
       <c r="Q42">
         <v>2.61</v>
@@ -10071,7 +10098,7 @@
         <v>1.5</v>
       </c>
       <c r="AP42">
-        <v>1.53</v>
+        <v>1.61</v>
       </c>
       <c r="AQ42">
         <v>1.19</v>
@@ -10199,7 +10226,7 @@
         <v>118</v>
       </c>
       <c r="P43" t="s">
-        <v>274</v>
+        <v>281</v>
       </c>
       <c r="Q43">
         <v>1.69</v>
@@ -10277,10 +10304,10 @@
         <v>1.5</v>
       </c>
       <c r="AP43">
-        <v>2</v>
+        <v>1.94</v>
       </c>
       <c r="AQ43">
-        <v>0.6899999999999999</v>
+        <v>0.71</v>
       </c>
       <c r="AR43">
         <v>2.07</v>
@@ -10895,10 +10922,10 @@
         <v>0</v>
       </c>
       <c r="AP46">
-        <v>1</v>
+        <v>1.12</v>
       </c>
       <c r="AQ46">
-        <v>0.12</v>
+        <v>0.11</v>
       </c>
       <c r="AR46">
         <v>0.97</v>
@@ -11104,7 +11131,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ47">
-        <v>1.88</v>
+        <v>1.76</v>
       </c>
       <c r="AR47">
         <v>1.77</v>
@@ -11310,7 +11337,7 @@
         <v>0.24</v>
       </c>
       <c r="AQ48">
-        <v>1.19</v>
+        <v>1.12</v>
       </c>
       <c r="AR48">
         <v>1.34</v>
@@ -11516,7 +11543,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ49">
-        <v>1.59</v>
+        <v>1.5</v>
       </c>
       <c r="AR49">
         <v>1.24</v>
@@ -11641,7 +11668,7 @@
         <v>88</v>
       </c>
       <c r="P50" t="s">
-        <v>275</v>
+        <v>282</v>
       </c>
       <c r="Q50">
         <v>5.1</v>
@@ -11719,7 +11746,7 @@
         <v>3</v>
       </c>
       <c r="AP50">
-        <v>1.63</v>
+        <v>1.71</v>
       </c>
       <c r="AQ50">
         <v>1.67</v>
@@ -12053,7 +12080,7 @@
         <v>122</v>
       </c>
       <c r="P52" t="s">
-        <v>276</v>
+        <v>283</v>
       </c>
       <c r="Q52">
         <v>3</v>
@@ -12134,7 +12161,7 @@
         <v>1.35</v>
       </c>
       <c r="AQ52">
-        <v>1.88</v>
+        <v>1.76</v>
       </c>
       <c r="AR52">
         <v>1.61</v>
@@ -12340,7 +12367,7 @@
         <v>3</v>
       </c>
       <c r="AQ53">
-        <v>0.35</v>
+        <v>0.33</v>
       </c>
       <c r="AR53">
         <v>2.35</v>
@@ -12465,7 +12492,7 @@
         <v>124</v>
       </c>
       <c r="P54" t="s">
-        <v>277</v>
+        <v>284</v>
       </c>
       <c r="Q54">
         <v>3</v>
@@ -12543,7 +12570,7 @@
         <v>0</v>
       </c>
       <c r="AP54">
-        <v>1.53</v>
+        <v>1.61</v>
       </c>
       <c r="AQ54">
         <v>1.06</v>
@@ -12955,10 +12982,10 @@
         <v>1.33</v>
       </c>
       <c r="AP56">
-        <v>2.24</v>
+        <v>2.28</v>
       </c>
       <c r="AQ56">
-        <v>1.24</v>
+        <v>1.22</v>
       </c>
       <c r="AR56">
         <v>1.85</v>
@@ -13083,7 +13110,7 @@
         <v>88</v>
       </c>
       <c r="P57" t="s">
-        <v>278</v>
+        <v>285</v>
       </c>
       <c r="Q57">
         <v>5.88</v>
@@ -13161,7 +13188,7 @@
         <v>2</v>
       </c>
       <c r="AP57">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="AQ57">
         <v>2.12</v>
@@ -13367,10 +13394,10 @@
         <v>1.33</v>
       </c>
       <c r="AP58">
-        <v>1.63</v>
+        <v>1.71</v>
       </c>
       <c r="AQ58">
-        <v>0.6899999999999999</v>
+        <v>0.71</v>
       </c>
       <c r="AR58">
         <v>1.32</v>
@@ -13576,7 +13603,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ59">
-        <v>1.59</v>
+        <v>1.5</v>
       </c>
       <c r="AR59">
         <v>1.83</v>
@@ -13701,7 +13728,7 @@
         <v>128</v>
       </c>
       <c r="P60" t="s">
-        <v>279</v>
+        <v>286</v>
       </c>
       <c r="Q60">
         <v>3.86</v>
@@ -13779,10 +13806,10 @@
         <v>0.5</v>
       </c>
       <c r="AP60">
-        <v>1.53</v>
+        <v>1.61</v>
       </c>
       <c r="AQ60">
-        <v>1.88</v>
+        <v>1.76</v>
       </c>
       <c r="AR60">
         <v>1.44</v>
@@ -14113,7 +14140,7 @@
         <v>130</v>
       </c>
       <c r="P62" t="s">
-        <v>280</v>
+        <v>287</v>
       </c>
       <c r="Q62">
         <v>1.83</v>
@@ -14191,10 +14218,10 @@
         <v>0.75</v>
       </c>
       <c r="AP62">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="AQ62">
-        <v>0.35</v>
+        <v>0.33</v>
       </c>
       <c r="AR62">
         <v>1.42</v>
@@ -14525,7 +14552,7 @@
         <v>88</v>
       </c>
       <c r="P64" t="s">
-        <v>281</v>
+        <v>288</v>
       </c>
       <c r="Q64">
         <v>8.77</v>
@@ -14731,7 +14758,7 @@
         <v>132</v>
       </c>
       <c r="P65" t="s">
-        <v>282</v>
+        <v>289</v>
       </c>
       <c r="Q65">
         <v>2.4</v>
@@ -14812,7 +14839,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ65">
-        <v>1.19</v>
+        <v>1.12</v>
       </c>
       <c r="AR65">
         <v>1.42</v>
@@ -14937,7 +14964,7 @@
         <v>133</v>
       </c>
       <c r="P66" t="s">
-        <v>283</v>
+        <v>290</v>
       </c>
       <c r="Q66">
         <v>1.55</v>
@@ -15015,10 +15042,10 @@
         <v>1</v>
       </c>
       <c r="AP66">
-        <v>2</v>
+        <v>1.94</v>
       </c>
       <c r="AQ66">
-        <v>1.24</v>
+        <v>1.22</v>
       </c>
       <c r="AR66">
         <v>2.05</v>
@@ -15143,7 +15170,7 @@
         <v>134</v>
       </c>
       <c r="P67" t="s">
-        <v>284</v>
+        <v>291</v>
       </c>
       <c r="Q67">
         <v>4</v>
@@ -15221,7 +15248,7 @@
         <v>1</v>
       </c>
       <c r="AP67">
-        <v>1</v>
+        <v>1.12</v>
       </c>
       <c r="AQ67">
         <v>1.19</v>
@@ -15555,7 +15582,7 @@
         <v>88</v>
       </c>
       <c r="P69" t="s">
-        <v>285</v>
+        <v>292</v>
       </c>
       <c r="Q69">
         <v>3.1</v>
@@ -16048,7 +16075,7 @@
         <v>2.28</v>
       </c>
       <c r="AQ71">
-        <v>0.12</v>
+        <v>0.11</v>
       </c>
       <c r="AR71">
         <v>1.82</v>
@@ -16173,7 +16200,7 @@
         <v>124</v>
       </c>
       <c r="P72" t="s">
-        <v>286</v>
+        <v>293</v>
       </c>
       <c r="Q72">
         <v>1.88</v>
@@ -16251,7 +16278,7 @@
         <v>0.75</v>
       </c>
       <c r="AP72">
-        <v>2.24</v>
+        <v>2.28</v>
       </c>
       <c r="AQ72">
         <v>1.06</v>
@@ -16379,7 +16406,7 @@
         <v>88</v>
       </c>
       <c r="P73" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="Q73">
         <v>7</v>
@@ -16791,7 +16818,7 @@
         <v>88</v>
       </c>
       <c r="P75" t="s">
-        <v>288</v>
+        <v>295</v>
       </c>
       <c r="Q75">
         <v>3.7</v>
@@ -16872,7 +16899,7 @@
         <v>0.24</v>
       </c>
       <c r="AQ75">
-        <v>0.6899999999999999</v>
+        <v>0.71</v>
       </c>
       <c r="AR75">
         <v>1.29</v>
@@ -16997,7 +17024,7 @@
         <v>138</v>
       </c>
       <c r="P76" t="s">
-        <v>289</v>
+        <v>296</v>
       </c>
       <c r="Q76">
         <v>2.3</v>
@@ -17075,7 +17102,7 @@
         <v>0.25</v>
       </c>
       <c r="AP76">
-        <v>1.53</v>
+        <v>1.61</v>
       </c>
       <c r="AQ76">
         <v>0.83</v>
@@ -17203,7 +17230,7 @@
         <v>88</v>
       </c>
       <c r="P77" t="s">
-        <v>290</v>
+        <v>297</v>
       </c>
       <c r="Q77">
         <v>2.47</v>
@@ -17284,7 +17311,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ77">
-        <v>1.59</v>
+        <v>1.5</v>
       </c>
       <c r="AR77">
         <v>1.45</v>
@@ -17487,10 +17514,10 @@
         <v>0.8</v>
       </c>
       <c r="AP78">
-        <v>2.24</v>
+        <v>2.28</v>
       </c>
       <c r="AQ78">
-        <v>0.35</v>
+        <v>0.33</v>
       </c>
       <c r="AR78">
         <v>1.78</v>
@@ -17615,7 +17642,7 @@
         <v>140</v>
       </c>
       <c r="P79" t="s">
-        <v>291</v>
+        <v>298</v>
       </c>
       <c r="Q79">
         <v>2.5</v>
@@ -17696,7 +17723,7 @@
         <v>1.35</v>
       </c>
       <c r="AQ79">
-        <v>1.19</v>
+        <v>1.12</v>
       </c>
       <c r="AR79">
         <v>1.66</v>
@@ -17899,10 +17926,10 @@
         <v>1</v>
       </c>
       <c r="AP80">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="AQ80">
-        <v>1.88</v>
+        <v>1.76</v>
       </c>
       <c r="AR80">
         <v>1.49</v>
@@ -18027,7 +18054,7 @@
         <v>141</v>
       </c>
       <c r="P81" t="s">
-        <v>292</v>
+        <v>299</v>
       </c>
       <c r="Q81">
         <v>2.38</v>
@@ -18233,7 +18260,7 @@
         <v>142</v>
       </c>
       <c r="P82" t="s">
-        <v>293</v>
+        <v>300</v>
       </c>
       <c r="Q82">
         <v>2.8</v>
@@ -18311,10 +18338,10 @@
         <v>1.4</v>
       </c>
       <c r="AP82">
-        <v>1.63</v>
+        <v>1.71</v>
       </c>
       <c r="AQ82">
-        <v>1.24</v>
+        <v>1.22</v>
       </c>
       <c r="AR82">
         <v>1.31</v>
@@ -18439,7 +18466,7 @@
         <v>143</v>
       </c>
       <c r="P83" t="s">
-        <v>294</v>
+        <v>301</v>
       </c>
       <c r="Q83">
         <v>2.6</v>
@@ -18517,10 +18544,10 @@
         <v>0.67</v>
       </c>
       <c r="AP83">
-        <v>1</v>
+        <v>1.12</v>
       </c>
       <c r="AQ83">
-        <v>0.35</v>
+        <v>0.33</v>
       </c>
       <c r="AR83">
         <v>1.14</v>
@@ -18645,7 +18672,7 @@
         <v>144</v>
       </c>
       <c r="P84" t="s">
-        <v>295</v>
+        <v>302</v>
       </c>
       <c r="Q84">
         <v>3.4</v>
@@ -18929,7 +18956,7 @@
         <v>1.5</v>
       </c>
       <c r="AP85">
-        <v>2</v>
+        <v>1.94</v>
       </c>
       <c r="AQ85">
         <v>1.19</v>
@@ -19057,7 +19084,7 @@
         <v>146</v>
       </c>
       <c r="P86" t="s">
-        <v>296</v>
+        <v>303</v>
       </c>
       <c r="Q86">
         <v>2.88</v>
@@ -19263,7 +19290,7 @@
         <v>88</v>
       </c>
       <c r="P87" t="s">
-        <v>297</v>
+        <v>304</v>
       </c>
       <c r="Q87">
         <v>2.6</v>
@@ -19550,7 +19577,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ88">
-        <v>0.12</v>
+        <v>0.11</v>
       </c>
       <c r="AR88">
         <v>1.73</v>
@@ -19675,7 +19702,7 @@
         <v>93</v>
       </c>
       <c r="P89" t="s">
-        <v>298</v>
+        <v>305</v>
       </c>
       <c r="Q89">
         <v>6.5</v>
@@ -19962,7 +19989,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ90">
-        <v>0.6899999999999999</v>
+        <v>0.71</v>
       </c>
       <c r="AR90">
         <v>1.39</v>
@@ -20087,7 +20114,7 @@
         <v>88</v>
       </c>
       <c r="P91" t="s">
-        <v>299</v>
+        <v>306</v>
       </c>
       <c r="Q91">
         <v>3.8</v>
@@ -20293,7 +20320,7 @@
         <v>149</v>
       </c>
       <c r="P92" t="s">
-        <v>300</v>
+        <v>307</v>
       </c>
       <c r="Q92">
         <v>4.7</v>
@@ -20374,7 +20401,7 @@
         <v>1.12</v>
       </c>
       <c r="AQ92">
-        <v>1.88</v>
+        <v>1.76</v>
       </c>
       <c r="AR92">
         <v>1.11</v>
@@ -20580,7 +20607,7 @@
         <v>1.35</v>
       </c>
       <c r="AQ93">
-        <v>1.59</v>
+        <v>1.5</v>
       </c>
       <c r="AR93">
         <v>1.61</v>
@@ -20705,7 +20732,7 @@
         <v>150</v>
       </c>
       <c r="P94" t="s">
-        <v>301</v>
+        <v>308</v>
       </c>
       <c r="Q94">
         <v>3</v>
@@ -20783,10 +20810,10 @@
         <v>1.5</v>
       </c>
       <c r="AP94">
-        <v>1.53</v>
+        <v>1.61</v>
       </c>
       <c r="AQ94">
-        <v>1.19</v>
+        <v>1.12</v>
       </c>
       <c r="AR94">
         <v>1.52</v>
@@ -21195,7 +21222,7 @@
         <v>1.5</v>
       </c>
       <c r="AP96">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="AQ96">
         <v>1.19</v>
@@ -21401,7 +21428,7 @@
         <v>2.5</v>
       </c>
       <c r="AP97">
-        <v>2.24</v>
+        <v>2.28</v>
       </c>
       <c r="AQ97">
         <v>1.67</v>
@@ -21607,7 +21634,7 @@
         <v>0.83</v>
       </c>
       <c r="AP98">
-        <v>1</v>
+        <v>1.12</v>
       </c>
       <c r="AQ98">
         <v>1.06</v>
@@ -22022,7 +22049,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ100">
-        <v>1.24</v>
+        <v>1.22</v>
       </c>
       <c r="AR100">
         <v>1.67</v>
@@ -22147,7 +22174,7 @@
         <v>156</v>
       </c>
       <c r="P101" t="s">
-        <v>302</v>
+        <v>309</v>
       </c>
       <c r="Q101">
         <v>1.83</v>
@@ -22225,10 +22252,10 @@
         <v>1.29</v>
       </c>
       <c r="AP101">
-        <v>2</v>
+        <v>1.94</v>
       </c>
       <c r="AQ101">
-        <v>1.88</v>
+        <v>1.76</v>
       </c>
       <c r="AR101">
         <v>1.9</v>
@@ -22846,7 +22873,7 @@
         <v>1.24</v>
       </c>
       <c r="AQ104">
-        <v>0.35</v>
+        <v>0.33</v>
       </c>
       <c r="AR104">
         <v>1.41</v>
@@ -23049,7 +23076,7 @@
         <v>2.6</v>
       </c>
       <c r="AP105">
-        <v>1.63</v>
+        <v>1.71</v>
       </c>
       <c r="AQ105">
         <v>2.12</v>
@@ -23464,7 +23491,7 @@
         <v>1.12</v>
       </c>
       <c r="AQ107">
-        <v>1.59</v>
+        <v>1.5</v>
       </c>
       <c r="AR107">
         <v>1.14</v>
@@ -23795,7 +23822,7 @@
         <v>161</v>
       </c>
       <c r="P109" t="s">
-        <v>303</v>
+        <v>310</v>
       </c>
       <c r="Q109">
         <v>2.24</v>
@@ -23873,10 +23900,10 @@
         <v>0</v>
       </c>
       <c r="AP109">
-        <v>1.53</v>
+        <v>1.61</v>
       </c>
       <c r="AQ109">
-        <v>0.12</v>
+        <v>0.11</v>
       </c>
       <c r="AR109">
         <v>1.51</v>
@@ -24079,10 +24106,10 @@
         <v>1.71</v>
       </c>
       <c r="AP110">
-        <v>2.24</v>
+        <v>2.28</v>
       </c>
       <c r="AQ110">
-        <v>1.19</v>
+        <v>1.12</v>
       </c>
       <c r="AR110">
         <v>1.73</v>
@@ -24207,7 +24234,7 @@
         <v>163</v>
       </c>
       <c r="P111" t="s">
-        <v>304</v>
+        <v>311</v>
       </c>
       <c r="Q111">
         <v>4.6</v>
@@ -24285,7 +24312,7 @@
         <v>2.14</v>
       </c>
       <c r="AP111">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="AQ111">
         <v>1.67</v>
@@ -24619,7 +24646,7 @@
         <v>165</v>
       </c>
       <c r="P113" t="s">
-        <v>305</v>
+        <v>312</v>
       </c>
       <c r="Q113">
         <v>3.25</v>
@@ -24700,7 +24727,7 @@
         <v>2.12</v>
       </c>
       <c r="AQ113">
-        <v>1.88</v>
+        <v>1.76</v>
       </c>
       <c r="AR113">
         <v>1.63</v>
@@ -24825,7 +24852,7 @@
         <v>152</v>
       </c>
       <c r="P114" t="s">
-        <v>306</v>
+        <v>313</v>
       </c>
       <c r="Q114">
         <v>2.88</v>
@@ -25031,7 +25058,7 @@
         <v>99</v>
       </c>
       <c r="P115" t="s">
-        <v>307</v>
+        <v>259</v>
       </c>
       <c r="Q115">
         <v>1.73</v>
@@ -25109,7 +25136,7 @@
         <v>1</v>
       </c>
       <c r="AP115">
-        <v>2</v>
+        <v>1.94</v>
       </c>
       <c r="AQ115">
         <v>0.88</v>
@@ -25237,7 +25264,7 @@
         <v>88</v>
       </c>
       <c r="P116" t="s">
-        <v>308</v>
+        <v>314</v>
       </c>
       <c r="Q116">
         <v>4.33</v>
@@ -25315,7 +25342,7 @@
         <v>1.57</v>
       </c>
       <c r="AP116">
-        <v>1.63</v>
+        <v>1.71</v>
       </c>
       <c r="AQ116">
         <v>1.94</v>
@@ -25649,7 +25676,7 @@
         <v>88</v>
       </c>
       <c r="P118" t="s">
-        <v>309</v>
+        <v>315</v>
       </c>
       <c r="Q118">
         <v>15</v>
@@ -25936,7 +25963,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ119">
-        <v>0.35</v>
+        <v>0.33</v>
       </c>
       <c r="AR119">
         <v>1.64</v>
@@ -26061,7 +26088,7 @@
         <v>168</v>
       </c>
       <c r="P120" t="s">
-        <v>310</v>
+        <v>316</v>
       </c>
       <c r="Q120">
         <v>3</v>
@@ -26348,7 +26375,7 @@
         <v>1.35</v>
       </c>
       <c r="AQ121">
-        <v>0.6899999999999999</v>
+        <v>0.71</v>
       </c>
       <c r="AR121">
         <v>1.57</v>
@@ -26473,7 +26500,7 @@
         <v>170</v>
       </c>
       <c r="P122" t="s">
-        <v>311</v>
+        <v>317</v>
       </c>
       <c r="Q122">
         <v>3.25</v>
@@ -26554,7 +26581,7 @@
         <v>1.24</v>
       </c>
       <c r="AQ122">
-        <v>0.6899999999999999</v>
+        <v>0.71</v>
       </c>
       <c r="AR122">
         <v>1.54</v>
@@ -26679,7 +26706,7 @@
         <v>171</v>
       </c>
       <c r="P123" t="s">
-        <v>262</v>
+        <v>269</v>
       </c>
       <c r="Q123">
         <v>1.83</v>
@@ -26963,10 +26990,10 @@
         <v>1.14</v>
       </c>
       <c r="AP124">
-        <v>1.53</v>
+        <v>1.61</v>
       </c>
       <c r="AQ124">
-        <v>1.24</v>
+        <v>1.22</v>
       </c>
       <c r="AR124">
         <v>1.58</v>
@@ -27091,7 +27118,7 @@
         <v>172</v>
       </c>
       <c r="P125" t="s">
-        <v>312</v>
+        <v>318</v>
       </c>
       <c r="Q125">
         <v>6.3</v>
@@ -27169,7 +27196,7 @@
         <v>2</v>
       </c>
       <c r="AP125">
-        <v>1</v>
+        <v>1.12</v>
       </c>
       <c r="AQ125">
         <v>1.67</v>
@@ -27584,7 +27611,7 @@
         <v>1.12</v>
       </c>
       <c r="AQ127">
-        <v>0.12</v>
+        <v>0.11</v>
       </c>
       <c r="AR127">
         <v>1.1</v>
@@ -27787,7 +27814,7 @@
         <v>0.71</v>
       </c>
       <c r="AP128">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="AQ128">
         <v>1.18</v>
@@ -27915,7 +27942,7 @@
         <v>174</v>
       </c>
       <c r="P129" t="s">
-        <v>313</v>
+        <v>319</v>
       </c>
       <c r="Q129">
         <v>2.1</v>
@@ -27993,10 +28020,10 @@
         <v>1.38</v>
       </c>
       <c r="AP129">
-        <v>2.24</v>
+        <v>2.28</v>
       </c>
       <c r="AQ129">
-        <v>1.59</v>
+        <v>1.5</v>
       </c>
       <c r="AR129">
         <v>1.69</v>
@@ -28121,7 +28148,7 @@
         <v>175</v>
       </c>
       <c r="P130" t="s">
-        <v>314</v>
+        <v>320</v>
       </c>
       <c r="Q130">
         <v>1.5</v>
@@ -28199,7 +28226,7 @@
         <v>1</v>
       </c>
       <c r="AP130">
-        <v>2</v>
+        <v>1.94</v>
       </c>
       <c r="AQ130">
         <v>1.19</v>
@@ -28408,7 +28435,7 @@
         <v>2.12</v>
       </c>
       <c r="AQ131">
-        <v>0.12</v>
+        <v>0.11</v>
       </c>
       <c r="AR131">
         <v>1.63</v>
@@ -28533,7 +28560,7 @@
         <v>177</v>
       </c>
       <c r="P132" t="s">
-        <v>315</v>
+        <v>321</v>
       </c>
       <c r="Q132">
         <v>3.5</v>
@@ -28614,7 +28641,7 @@
         <v>1.12</v>
       </c>
       <c r="AQ132">
-        <v>1.24</v>
+        <v>1.22</v>
       </c>
       <c r="AR132">
         <v>1.21</v>
@@ -28739,7 +28766,7 @@
         <v>178</v>
       </c>
       <c r="P133" t="s">
-        <v>316</v>
+        <v>322</v>
       </c>
       <c r="Q133">
         <v>4.04</v>
@@ -28817,10 +28844,10 @@
         <v>1</v>
       </c>
       <c r="AP133">
-        <v>1</v>
+        <v>1.12</v>
       </c>
       <c r="AQ133">
-        <v>0.6899999999999999</v>
+        <v>0.71</v>
       </c>
       <c r="AR133">
         <v>1.24</v>
@@ -28945,7 +28972,7 @@
         <v>88</v>
       </c>
       <c r="P134" t="s">
-        <v>317</v>
+        <v>323</v>
       </c>
       <c r="Q134">
         <v>2.75</v>
@@ -29229,7 +29256,7 @@
         <v>1.25</v>
       </c>
       <c r="AP135">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="AQ135">
         <v>1.19</v>
@@ -29641,7 +29668,7 @@
         <v>1</v>
       </c>
       <c r="AP137">
-        <v>2.24</v>
+        <v>2.28</v>
       </c>
       <c r="AQ137">
         <v>0.88</v>
@@ -29769,7 +29796,7 @@
         <v>91</v>
       </c>
       <c r="P138" t="s">
-        <v>305</v>
+        <v>312</v>
       </c>
       <c r="Q138">
         <v>2.25</v>
@@ -29850,7 +29877,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ138">
-        <v>0.35</v>
+        <v>0.33</v>
       </c>
       <c r="AR138">
         <v>1.11</v>
@@ -29975,7 +30002,7 @@
         <v>179</v>
       </c>
       <c r="P139" t="s">
-        <v>314</v>
+        <v>320</v>
       </c>
       <c r="Q139">
         <v>1.9</v>
@@ -30259,10 +30286,10 @@
         <v>1.5</v>
       </c>
       <c r="AP140">
-        <v>2</v>
+        <v>1.94</v>
       </c>
       <c r="AQ140">
-        <v>1.19</v>
+        <v>1.12</v>
       </c>
       <c r="AR140">
         <v>2.06</v>
@@ -30387,7 +30414,7 @@
         <v>88</v>
       </c>
       <c r="P141" t="s">
-        <v>318</v>
+        <v>324</v>
       </c>
       <c r="Q141">
         <v>4</v>
@@ -30593,7 +30620,7 @@
         <v>117</v>
       </c>
       <c r="P142" t="s">
-        <v>319</v>
+        <v>325</v>
       </c>
       <c r="Q142">
         <v>4</v>
@@ -31005,7 +31032,7 @@
         <v>182</v>
       </c>
       <c r="P144" t="s">
-        <v>320</v>
+        <v>326</v>
       </c>
       <c r="Q144">
         <v>6</v>
@@ -31211,7 +31238,7 @@
         <v>88</v>
       </c>
       <c r="P145" t="s">
-        <v>321</v>
+        <v>327</v>
       </c>
       <c r="Q145">
         <v>3.5</v>
@@ -31289,10 +31316,10 @@
         <v>1.33</v>
       </c>
       <c r="AP145">
-        <v>1.63</v>
+        <v>1.71</v>
       </c>
       <c r="AQ145">
-        <v>1.88</v>
+        <v>1.76</v>
       </c>
       <c r="AR145">
         <v>1.32</v>
@@ -31417,7 +31444,7 @@
         <v>183</v>
       </c>
       <c r="P146" t="s">
-        <v>322</v>
+        <v>328</v>
       </c>
       <c r="Q146">
         <v>4.33</v>
@@ -31495,7 +31522,7 @@
         <v>0.89</v>
       </c>
       <c r="AP146">
-        <v>1</v>
+        <v>1.12</v>
       </c>
       <c r="AQ146">
         <v>1.18</v>
@@ -31623,7 +31650,7 @@
         <v>184</v>
       </c>
       <c r="P147" t="s">
-        <v>323</v>
+        <v>329</v>
       </c>
       <c r="Q147">
         <v>2.5</v>
@@ -31829,7 +31856,7 @@
         <v>185</v>
       </c>
       <c r="P148" t="s">
-        <v>324</v>
+        <v>330</v>
       </c>
       <c r="Q148">
         <v>3.8</v>
@@ -32035,7 +32062,7 @@
         <v>186</v>
       </c>
       <c r="P149" t="s">
-        <v>321</v>
+        <v>327</v>
       </c>
       <c r="Q149">
         <v>2.05</v>
@@ -32116,7 +32143,7 @@
         <v>2.28</v>
       </c>
       <c r="AQ149">
-        <v>0.6899999999999999</v>
+        <v>0.71</v>
       </c>
       <c r="AR149">
         <v>1.91</v>
@@ -32319,10 +32346,10 @@
         <v>1.22</v>
       </c>
       <c r="AP150">
-        <v>2</v>
+        <v>1.94</v>
       </c>
       <c r="AQ150">
-        <v>1.59</v>
+        <v>1.5</v>
       </c>
       <c r="AR150">
         <v>1.98</v>
@@ -32447,7 +32474,7 @@
         <v>188</v>
       </c>
       <c r="P151" t="s">
-        <v>325</v>
+        <v>331</v>
       </c>
       <c r="Q151">
         <v>2.48</v>
@@ -32525,10 +32552,10 @@
         <v>1</v>
       </c>
       <c r="AP151">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="AQ151">
-        <v>1.24</v>
+        <v>1.22</v>
       </c>
       <c r="AR151">
         <v>1.53</v>
@@ -32731,7 +32758,7 @@
         <v>2.56</v>
       </c>
       <c r="AP152">
-        <v>1.53</v>
+        <v>1.61</v>
       </c>
       <c r="AQ152">
         <v>2.12</v>
@@ -32859,7 +32886,7 @@
         <v>190</v>
       </c>
       <c r="P153" t="s">
-        <v>326</v>
+        <v>332</v>
       </c>
       <c r="Q153">
         <v>1.4</v>
@@ -32937,10 +32964,10 @@
         <v>0.13</v>
       </c>
       <c r="AP153">
-        <v>2.24</v>
+        <v>2.28</v>
       </c>
       <c r="AQ153">
-        <v>0.12</v>
+        <v>0.11</v>
       </c>
       <c r="AR153">
         <v>1.75</v>
@@ -33271,7 +33298,7 @@
         <v>88</v>
       </c>
       <c r="P155" t="s">
-        <v>265</v>
+        <v>272</v>
       </c>
       <c r="Q155">
         <v>3.2</v>
@@ -33352,7 +33379,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ155">
-        <v>1.88</v>
+        <v>1.76</v>
       </c>
       <c r="AR155">
         <v>1.51</v>
@@ -33761,10 +33788,10 @@
         <v>0.6</v>
       </c>
       <c r="AP157">
-        <v>1.63</v>
+        <v>1.71</v>
       </c>
       <c r="AQ157">
-        <v>0.35</v>
+        <v>0.33</v>
       </c>
       <c r="AR157">
         <v>1.43</v>
@@ -33889,7 +33916,7 @@
         <v>88</v>
       </c>
       <c r="P158" t="s">
-        <v>327</v>
+        <v>333</v>
       </c>
       <c r="Q158">
         <v>5</v>
@@ -34095,7 +34122,7 @@
         <v>88</v>
       </c>
       <c r="P159" t="s">
-        <v>285</v>
+        <v>292</v>
       </c>
       <c r="Q159">
         <v>2.38</v>
@@ -34176,7 +34203,7 @@
         <v>2.12</v>
       </c>
       <c r="AQ159">
-        <v>1.19</v>
+        <v>1.12</v>
       </c>
       <c r="AR159">
         <v>1.67</v>
@@ -34507,7 +34534,7 @@
         <v>193</v>
       </c>
       <c r="P161" t="s">
-        <v>312</v>
+        <v>318</v>
       </c>
       <c r="Q161">
         <v>4.75</v>
@@ -34713,7 +34740,7 @@
         <v>194</v>
       </c>
       <c r="P162" t="s">
-        <v>328</v>
+        <v>334</v>
       </c>
       <c r="Q162">
         <v>2.63</v>
@@ -34791,7 +34818,7 @@
         <v>0.9</v>
       </c>
       <c r="AP162">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="AQ162">
         <v>0.88</v>
@@ -34919,7 +34946,7 @@
         <v>88</v>
       </c>
       <c r="P163" t="s">
-        <v>329</v>
+        <v>335</v>
       </c>
       <c r="Q163">
         <v>11</v>
@@ -35125,7 +35152,7 @@
         <v>195</v>
       </c>
       <c r="P164" t="s">
-        <v>330</v>
+        <v>336</v>
       </c>
       <c r="Q164">
         <v>2</v>
@@ -35203,7 +35230,7 @@
         <v>1.1</v>
       </c>
       <c r="AP164">
-        <v>2.24</v>
+        <v>2.28</v>
       </c>
       <c r="AQ164">
         <v>1.19</v>
@@ -35331,7 +35358,7 @@
         <v>196</v>
       </c>
       <c r="P165" t="s">
-        <v>331</v>
+        <v>337</v>
       </c>
       <c r="Q165">
         <v>2.5</v>
@@ -35412,7 +35439,7 @@
         <v>2.12</v>
       </c>
       <c r="AQ165">
-        <v>0.6899999999999999</v>
+        <v>0.71</v>
       </c>
       <c r="AR165">
         <v>1.66</v>
@@ -35618,7 +35645,7 @@
         <v>2.28</v>
       </c>
       <c r="AQ166">
-        <v>1.24</v>
+        <v>1.22</v>
       </c>
       <c r="AR166">
         <v>1.9</v>
@@ -35824,7 +35851,7 @@
         <v>1.24</v>
       </c>
       <c r="AQ167">
-        <v>0.12</v>
+        <v>0.11</v>
       </c>
       <c r="AR167">
         <v>1.6</v>
@@ -36027,7 +36054,7 @@
         <v>1.1</v>
       </c>
       <c r="AP168">
-        <v>2</v>
+        <v>1.94</v>
       </c>
       <c r="AQ168">
         <v>1.18</v>
@@ -36236,7 +36263,7 @@
         <v>1.35</v>
       </c>
       <c r="AQ169">
-        <v>0.35</v>
+        <v>0.33</v>
       </c>
       <c r="AR169">
         <v>1.54</v>
@@ -36361,7 +36388,7 @@
         <v>201</v>
       </c>
       <c r="P170" t="s">
-        <v>332</v>
+        <v>338</v>
       </c>
       <c r="Q170">
         <v>5.2</v>
@@ -36442,7 +36469,7 @@
         <v>0.24</v>
       </c>
       <c r="AQ170">
-        <v>1.59</v>
+        <v>1.5</v>
       </c>
       <c r="AR170">
         <v>1.3</v>
@@ -36773,7 +36800,7 @@
         <v>202</v>
       </c>
       <c r="P172" t="s">
-        <v>333</v>
+        <v>339</v>
       </c>
       <c r="Q172">
         <v>6.35</v>
@@ -36979,7 +37006,7 @@
         <v>203</v>
       </c>
       <c r="P173" t="s">
-        <v>334</v>
+        <v>340</v>
       </c>
       <c r="Q173">
         <v>2.6</v>
@@ -37057,10 +37084,10 @@
         <v>1.5</v>
       </c>
       <c r="AP173">
-        <v>1.63</v>
+        <v>1.71</v>
       </c>
       <c r="AQ173">
-        <v>1.19</v>
+        <v>1.12</v>
       </c>
       <c r="AR173">
         <v>1.47</v>
@@ -37185,7 +37212,7 @@
         <v>204</v>
       </c>
       <c r="P174" t="s">
-        <v>321</v>
+        <v>327</v>
       </c>
       <c r="Q174">
         <v>2.66</v>
@@ -37391,7 +37418,7 @@
         <v>88</v>
       </c>
       <c r="P175" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
       <c r="Q175">
         <v>4.86</v>
@@ -37469,7 +37496,7 @@
         <v>1.7</v>
       </c>
       <c r="AP175">
-        <v>1.53</v>
+        <v>1.61</v>
       </c>
       <c r="AQ175">
         <v>1.94</v>
@@ -37678,7 +37705,7 @@
         <v>3</v>
       </c>
       <c r="AQ176">
-        <v>1.88</v>
+        <v>1.76</v>
       </c>
       <c r="AR176">
         <v>2.32</v>
@@ -37803,7 +37830,7 @@
         <v>172</v>
       </c>
       <c r="P177" t="s">
-        <v>336</v>
+        <v>342</v>
       </c>
       <c r="Q177">
         <v>3.63</v>
@@ -37881,10 +37908,10 @@
         <v>1.09</v>
       </c>
       <c r="AP177">
-        <v>1</v>
+        <v>1.12</v>
       </c>
       <c r="AQ177">
-        <v>1.24</v>
+        <v>1.22</v>
       </c>
       <c r="AR177">
         <v>1.28</v>
@@ -38215,7 +38242,7 @@
         <v>88</v>
       </c>
       <c r="P179" t="s">
-        <v>337</v>
+        <v>343</v>
       </c>
       <c r="Q179">
         <v>3.92</v>
@@ -38499,10 +38526,10 @@
         <v>0.1</v>
       </c>
       <c r="AP180">
-        <v>2</v>
+        <v>1.94</v>
       </c>
       <c r="AQ180">
-        <v>0.12</v>
+        <v>0.11</v>
       </c>
       <c r="AR180">
         <v>2.04</v>
@@ -39039,7 +39066,7 @@
         <v>208</v>
       </c>
       <c r="P183" t="s">
-        <v>338</v>
+        <v>344</v>
       </c>
       <c r="Q183">
         <v>4.3</v>
@@ -39117,7 +39144,7 @@
         <v>2.36</v>
       </c>
       <c r="AP183">
-        <v>2.24</v>
+        <v>2.28</v>
       </c>
       <c r="AQ183">
         <v>2.12</v>
@@ -39245,7 +39272,7 @@
         <v>88</v>
       </c>
       <c r="P184" t="s">
-        <v>339</v>
+        <v>345</v>
       </c>
       <c r="Q184">
         <v>5.8</v>
@@ -39326,7 +39353,7 @@
         <v>0.24</v>
       </c>
       <c r="AQ184">
-        <v>1.88</v>
+        <v>1.76</v>
       </c>
       <c r="AR184">
         <v>1.24</v>
@@ -39735,10 +39762,10 @@
         <v>1.27</v>
       </c>
       <c r="AP186">
-        <v>1.63</v>
+        <v>1.71</v>
       </c>
       <c r="AQ186">
-        <v>1.59</v>
+        <v>1.5</v>
       </c>
       <c r="AR186">
         <v>1.46</v>
@@ -39941,10 +39968,10 @@
         <v>0.5</v>
       </c>
       <c r="AP187">
-        <v>1.53</v>
+        <v>1.61</v>
       </c>
       <c r="AQ187">
-        <v>0.35</v>
+        <v>0.33</v>
       </c>
       <c r="AR187">
         <v>1.45</v>
@@ -40275,7 +40302,7 @@
         <v>88</v>
       </c>
       <c r="P189" t="s">
-        <v>340</v>
+        <v>346</v>
       </c>
       <c r="Q189">
         <v>4.5</v>
@@ -40353,7 +40380,7 @@
         <v>1.82</v>
       </c>
       <c r="AP189">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="AQ189">
         <v>1.94</v>
@@ -40562,7 +40589,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ190">
-        <v>0.6899999999999999</v>
+        <v>0.71</v>
       </c>
       <c r="AR190">
         <v>1.53</v>
@@ -40768,7 +40795,7 @@
         <v>3</v>
       </c>
       <c r="AQ191">
-        <v>1.19</v>
+        <v>1.12</v>
       </c>
       <c r="AR191">
         <v>2.28</v>
@@ -40971,7 +40998,7 @@
         <v>0.75</v>
       </c>
       <c r="AP192">
-        <v>1</v>
+        <v>1.12</v>
       </c>
       <c r="AQ192">
         <v>0.88</v>
@@ -41386,7 +41413,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ194">
-        <v>0.12</v>
+        <v>0.11</v>
       </c>
       <c r="AR194">
         <v>1.2</v>
@@ -41589,7 +41616,7 @@
         <v>2.42</v>
       </c>
       <c r="AP195">
-        <v>2</v>
+        <v>1.94</v>
       </c>
       <c r="AQ195">
         <v>2.12</v>
@@ -41717,7 +41744,7 @@
         <v>215</v>
       </c>
       <c r="P196" t="s">
-        <v>262</v>
+        <v>269</v>
       </c>
       <c r="Q196">
         <v>1.95</v>
@@ -42001,7 +42028,7 @@
         <v>0.8</v>
       </c>
       <c r="AP197">
-        <v>1.63</v>
+        <v>1.71</v>
       </c>
       <c r="AQ197">
         <v>1.19</v>
@@ -42129,7 +42156,7 @@
         <v>88</v>
       </c>
       <c r="P198" t="s">
-        <v>262</v>
+        <v>269</v>
       </c>
       <c r="Q198">
         <v>2.88</v>
@@ -42210,7 +42237,7 @@
         <v>1.24</v>
       </c>
       <c r="AQ198">
-        <v>1.24</v>
+        <v>1.22</v>
       </c>
       <c r="AR198">
         <v>1.61</v>
@@ -42619,7 +42646,7 @@
         <v>0.82</v>
       </c>
       <c r="AP200">
-        <v>1</v>
+        <v>1.12</v>
       </c>
       <c r="AQ200">
         <v>1.19</v>
@@ -42747,7 +42774,7 @@
         <v>158</v>
       </c>
       <c r="P201" t="s">
-        <v>341</v>
+        <v>347</v>
       </c>
       <c r="Q201">
         <v>2.63</v>
@@ -42825,10 +42852,10 @@
         <v>1.33</v>
       </c>
       <c r="AP201">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="AQ201">
-        <v>1.19</v>
+        <v>1.12</v>
       </c>
       <c r="AR201">
         <v>1.55</v>
@@ -43031,10 +43058,10 @@
         <v>0.92</v>
       </c>
       <c r="AP202">
-        <v>1.53</v>
+        <v>1.61</v>
       </c>
       <c r="AQ202">
-        <v>0.6899999999999999</v>
+        <v>0.71</v>
       </c>
       <c r="AR202">
         <v>1.47</v>
@@ -43159,7 +43186,7 @@
         <v>88</v>
       </c>
       <c r="P203" t="s">
-        <v>285</v>
+        <v>292</v>
       </c>
       <c r="Q203">
         <v>2.75</v>
@@ -43571,7 +43598,7 @@
         <v>218</v>
       </c>
       <c r="P205" t="s">
-        <v>342</v>
+        <v>348</v>
       </c>
       <c r="Q205">
         <v>2.88</v>
@@ -43777,7 +43804,7 @@
         <v>88</v>
       </c>
       <c r="P206" t="s">
-        <v>306</v>
+        <v>313</v>
       </c>
       <c r="Q206">
         <v>2.38</v>
@@ -43855,10 +43882,10 @@
         <v>1.62</v>
       </c>
       <c r="AP206">
-        <v>2.24</v>
+        <v>2.28</v>
       </c>
       <c r="AQ206">
-        <v>1.88</v>
+        <v>1.76</v>
       </c>
       <c r="AR206">
         <v>1.77</v>
@@ -43983,7 +44010,7 @@
         <v>219</v>
       </c>
       <c r="P207" t="s">
-        <v>343</v>
+        <v>349</v>
       </c>
       <c r="Q207">
         <v>4.75</v>
@@ -44270,7 +44297,7 @@
         <v>3</v>
       </c>
       <c r="AQ208">
-        <v>1.59</v>
+        <v>1.5</v>
       </c>
       <c r="AR208">
         <v>2.31</v>
@@ -44476,7 +44503,7 @@
         <v>2.12</v>
       </c>
       <c r="AQ209">
-        <v>1.24</v>
+        <v>1.22</v>
       </c>
       <c r="AR209">
         <v>1.67</v>
@@ -44807,7 +44834,7 @@
         <v>221</v>
       </c>
       <c r="P211" t="s">
-        <v>344</v>
+        <v>350</v>
       </c>
       <c r="Q211">
         <v>1.57</v>
@@ -44888,7 +44915,7 @@
         <v>2.28</v>
       </c>
       <c r="AQ211">
-        <v>0.35</v>
+        <v>0.33</v>
       </c>
       <c r="AR211">
         <v>1.83</v>
@@ -45091,7 +45118,7 @@
         <v>2.23</v>
       </c>
       <c r="AP212">
-        <v>1</v>
+        <v>1.12</v>
       </c>
       <c r="AQ212">
         <v>2.12</v>
@@ -45219,7 +45246,7 @@
         <v>88</v>
       </c>
       <c r="P213" t="s">
-        <v>345</v>
+        <v>351</v>
       </c>
       <c r="Q213">
         <v>3.5</v>
@@ -45709,10 +45736,10 @@
         <v>0.08</v>
       </c>
       <c r="AP215">
-        <v>1.63</v>
+        <v>1.71</v>
       </c>
       <c r="AQ215">
-        <v>0.12</v>
+        <v>0.11</v>
       </c>
       <c r="AR215">
         <v>1.53</v>
@@ -45837,7 +45864,7 @@
         <v>224</v>
       </c>
       <c r="P216" t="s">
-        <v>346</v>
+        <v>352</v>
       </c>
       <c r="Q216">
         <v>2.75</v>
@@ -45915,7 +45942,7 @@
         <v>1.85</v>
       </c>
       <c r="AP216">
-        <v>2</v>
+        <v>1.94</v>
       </c>
       <c r="AQ216">
         <v>1.94</v>
@@ -46124,7 +46151,7 @@
         <v>1.12</v>
       </c>
       <c r="AQ217">
-        <v>1.19</v>
+        <v>1.12</v>
       </c>
       <c r="AR217">
         <v>1.24</v>
@@ -46249,7 +46276,7 @@
         <v>124</v>
       </c>
       <c r="P218" t="s">
-        <v>347</v>
+        <v>353</v>
       </c>
       <c r="Q218">
         <v>2.4</v>
@@ -46455,7 +46482,7 @@
         <v>226</v>
       </c>
       <c r="P219" t="s">
-        <v>348</v>
+        <v>354</v>
       </c>
       <c r="Q219">
         <v>3</v>
@@ -46742,7 +46769,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ220">
-        <v>0.12</v>
+        <v>0.11</v>
       </c>
       <c r="AR220">
         <v>1.48</v>
@@ -46867,7 +46894,7 @@
         <v>228</v>
       </c>
       <c r="P221" t="s">
-        <v>265</v>
+        <v>272</v>
       </c>
       <c r="Q221">
         <v>1.67</v>
@@ -47151,10 +47178,10 @@
         <v>1.15</v>
       </c>
       <c r="AP222">
-        <v>1.53</v>
+        <v>1.61</v>
       </c>
       <c r="AQ222">
-        <v>1.59</v>
+        <v>1.5</v>
       </c>
       <c r="AR222">
         <v>1.47</v>
@@ -47279,7 +47306,7 @@
         <v>88</v>
       </c>
       <c r="P223" t="s">
-        <v>321</v>
+        <v>327</v>
       </c>
       <c r="Q223">
         <v>2.3</v>
@@ -47357,7 +47384,7 @@
         <v>0.62</v>
       </c>
       <c r="AP223">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="AQ223">
         <v>0.83</v>
@@ -47563,10 +47590,10 @@
         <v>0.85</v>
       </c>
       <c r="AP224">
-        <v>2.24</v>
+        <v>2.28</v>
       </c>
       <c r="AQ224">
-        <v>0.6899999999999999</v>
+        <v>0.71</v>
       </c>
       <c r="AR224">
         <v>1.77</v>
@@ -47691,7 +47718,7 @@
         <v>218</v>
       </c>
       <c r="P225" t="s">
-        <v>349</v>
+        <v>355</v>
       </c>
       <c r="Q225">
         <v>3.3</v>
@@ -47897,7 +47924,7 @@
         <v>88</v>
       </c>
       <c r="P226" t="s">
-        <v>350</v>
+        <v>356</v>
       </c>
       <c r="Q226">
         <v>7.5</v>
@@ -48103,7 +48130,7 @@
         <v>152</v>
       </c>
       <c r="P227" t="s">
-        <v>351</v>
+        <v>357</v>
       </c>
       <c r="Q227">
         <v>5.5</v>
@@ -48181,10 +48208,10 @@
         <v>1.71</v>
       </c>
       <c r="AP227">
-        <v>1</v>
+        <v>1.12</v>
       </c>
       <c r="AQ227">
-        <v>1.88</v>
+        <v>1.76</v>
       </c>
       <c r="AR227">
         <v>1.29</v>
@@ -48309,7 +48336,7 @@
         <v>230</v>
       </c>
       <c r="P228" t="s">
-        <v>352</v>
+        <v>358</v>
       </c>
       <c r="Q228">
         <v>5</v>
@@ -48596,7 +48623,7 @@
         <v>2.12</v>
       </c>
       <c r="AQ229">
-        <v>0.35</v>
+        <v>0.33</v>
       </c>
       <c r="AR229">
         <v>1.64</v>
@@ -48799,7 +48826,7 @@
         <v>1.07</v>
       </c>
       <c r="AP230">
-        <v>2</v>
+        <v>1.94</v>
       </c>
       <c r="AQ230">
         <v>1.06</v>
@@ -48927,7 +48954,7 @@
         <v>232</v>
       </c>
       <c r="P231" t="s">
-        <v>353</v>
+        <v>359</v>
       </c>
       <c r="Q231">
         <v>3.6</v>
@@ -49008,7 +49035,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ231">
-        <v>1.24</v>
+        <v>1.22</v>
       </c>
       <c r="AR231">
         <v>1.27</v>
@@ -49133,7 +49160,7 @@
         <v>233</v>
       </c>
       <c r="P232" t="s">
-        <v>354</v>
+        <v>360</v>
       </c>
       <c r="Q232">
         <v>4.5</v>
@@ -49339,7 +49366,7 @@
         <v>88</v>
       </c>
       <c r="P233" t="s">
-        <v>355</v>
+        <v>361</v>
       </c>
       <c r="Q233">
         <v>3</v>
@@ -49417,7 +49444,7 @@
         <v>1.14</v>
       </c>
       <c r="AP233">
-        <v>1.63</v>
+        <v>1.71</v>
       </c>
       <c r="AQ233">
         <v>1.19</v>
@@ -49545,7 +49572,7 @@
         <v>158</v>
       </c>
       <c r="P234" t="s">
-        <v>356</v>
+        <v>362</v>
       </c>
       <c r="Q234">
         <v>8</v>
@@ -49751,7 +49778,7 @@
         <v>234</v>
       </c>
       <c r="P235" t="s">
-        <v>357</v>
+        <v>363</v>
       </c>
       <c r="Q235">
         <v>1.67</v>
@@ -49829,7 +49856,7 @@
         <v>0.79</v>
       </c>
       <c r="AP235">
-        <v>2.24</v>
+        <v>2.28</v>
       </c>
       <c r="AQ235">
         <v>0.83</v>
@@ -50035,10 +50062,10 @@
         <v>1.29</v>
       </c>
       <c r="AP236">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="AQ236">
-        <v>1.59</v>
+        <v>1.5</v>
       </c>
       <c r="AR236">
         <v>1.64</v>
@@ -50244,7 +50271,7 @@
         <v>3</v>
       </c>
       <c r="AQ237">
-        <v>0.6899999999999999</v>
+        <v>0.71</v>
       </c>
       <c r="AR237">
         <v>2.25</v>
@@ -50450,7 +50477,7 @@
         <v>1.35</v>
       </c>
       <c r="AQ238">
-        <v>0.12</v>
+        <v>0.11</v>
       </c>
       <c r="AR238">
         <v>1.57</v>
@@ -50656,7 +50683,7 @@
         <v>2.28</v>
       </c>
       <c r="AQ239">
-        <v>1.19</v>
+        <v>1.12</v>
       </c>
       <c r="AR239">
         <v>1.84</v>
@@ -50781,7 +50808,7 @@
         <v>238</v>
       </c>
       <c r="P240" t="s">
-        <v>358</v>
+        <v>364</v>
       </c>
       <c r="Q240">
         <v>2.3</v>
@@ -51065,7 +51092,7 @@
         <v>1.21</v>
       </c>
       <c r="AP241">
-        <v>1.53</v>
+        <v>1.61</v>
       </c>
       <c r="AQ241">
         <v>1.18</v>
@@ -51193,7 +51220,7 @@
         <v>239</v>
       </c>
       <c r="P242" t="s">
-        <v>359</v>
+        <v>365</v>
       </c>
       <c r="Q242">
         <v>3.9</v>
@@ -51480,7 +51507,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ243">
-        <v>0.35</v>
+        <v>0.33</v>
       </c>
       <c r="AR243">
         <v>1.3</v>
@@ -51605,7 +51632,7 @@
         <v>88</v>
       </c>
       <c r="P244" t="s">
-        <v>360</v>
+        <v>366</v>
       </c>
       <c r="Q244">
         <v>6.5</v>
@@ -51811,7 +51838,7 @@
         <v>241</v>
       </c>
       <c r="P245" t="s">
-        <v>361</v>
+        <v>367</v>
       </c>
       <c r="Q245">
         <v>2.5</v>
@@ -51889,7 +51916,7 @@
         <v>0.73</v>
       </c>
       <c r="AP245">
-        <v>1.53</v>
+        <v>1.61</v>
       </c>
       <c r="AQ245">
         <v>0.83</v>
@@ -52017,7 +52044,7 @@
         <v>242</v>
       </c>
       <c r="P246" t="s">
-        <v>362</v>
+        <v>368</v>
       </c>
       <c r="Q246">
         <v>2</v>
@@ -52098,7 +52125,7 @@
         <v>2.28</v>
       </c>
       <c r="AQ246">
-        <v>1.59</v>
+        <v>1.5</v>
       </c>
       <c r="AR246">
         <v>1.81</v>
@@ -52301,7 +52328,7 @@
         <v>2</v>
       </c>
       <c r="AP247">
-        <v>2.24</v>
+        <v>2.28</v>
       </c>
       <c r="AQ247">
         <v>1.67</v>
@@ -52507,10 +52534,10 @@
         <v>0.38</v>
       </c>
       <c r="AP248">
-        <v>1</v>
+        <v>1.12</v>
       </c>
       <c r="AQ248">
-        <v>0.35</v>
+        <v>0.33</v>
       </c>
       <c r="AR248">
         <v>1.33</v>
@@ -52713,7 +52740,7 @@
         <v>1.37</v>
       </c>
       <c r="AP249">
-        <v>1.39</v>
+        <v>1.44</v>
       </c>
       <c r="AQ249">
         <v>1.28</v>
@@ -52841,7 +52868,7 @@
         <v>245</v>
       </c>
       <c r="P250" t="s">
-        <v>363</v>
+        <v>369</v>
       </c>
       <c r="Q250">
         <v>2.25</v>
@@ -53128,7 +53155,7 @@
         <v>2.28</v>
       </c>
       <c r="AQ251">
-        <v>1.24</v>
+        <v>1.22</v>
       </c>
       <c r="AR251">
         <v>1.76</v>
@@ -53334,7 +53361,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ252">
-        <v>0.12</v>
+        <v>0.11</v>
       </c>
       <c r="AR252">
         <v>1.27</v>
@@ -53537,7 +53564,7 @@
         <v>0.8</v>
       </c>
       <c r="AP253">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="AQ253">
         <v>0.88</v>
@@ -53743,7 +53770,7 @@
         <v>1.4</v>
       </c>
       <c r="AP254">
-        <v>1.21</v>
+        <v>1.18</v>
       </c>
       <c r="AQ254">
         <v>1.41</v>
@@ -53871,7 +53898,7 @@
         <v>102</v>
       </c>
       <c r="P255" t="s">
-        <v>364</v>
+        <v>370</v>
       </c>
       <c r="Q255">
         <v>2.1</v>
@@ -53949,10 +53976,10 @@
         <v>1.5</v>
       </c>
       <c r="AP255">
-        <v>2</v>
+        <v>1.94</v>
       </c>
       <c r="AQ255">
-        <v>1.59</v>
+        <v>1.5</v>
       </c>
       <c r="AR255">
         <v>2.06</v>
@@ -54158,7 +54185,7 @@
         <v>1.12</v>
       </c>
       <c r="AQ256">
-        <v>0.12</v>
+        <v>0.11</v>
       </c>
       <c r="AR256">
         <v>1.23</v>
@@ -54283,7 +54310,7 @@
         <v>88</v>
       </c>
       <c r="P257" t="s">
-        <v>365</v>
+        <v>371</v>
       </c>
       <c r="Q257">
         <v>2.88</v>
@@ -54364,7 +54391,7 @@
         <v>1.28</v>
       </c>
       <c r="AQ257">
-        <v>1.39</v>
+        <v>1.44</v>
       </c>
       <c r="AR257">
         <v>1.44</v>
@@ -54570,7 +54597,7 @@
         <v>2.12</v>
       </c>
       <c r="AQ258">
-        <v>1.24</v>
+        <v>1.22</v>
       </c>
       <c r="AR258">
         <v>1.63</v>
@@ -54979,10 +55006,10 @@
         <v>0.73</v>
       </c>
       <c r="AP260">
-        <v>1.53</v>
+        <v>1.61</v>
       </c>
       <c r="AQ260">
-        <v>0.6899999999999999</v>
+        <v>0.71</v>
       </c>
       <c r="AR260">
         <v>1.44</v>
@@ -55107,7 +55134,7 @@
         <v>250</v>
       </c>
       <c r="P261" t="s">
-        <v>366</v>
+        <v>372</v>
       </c>
       <c r="Q261">
         <v>2.5</v>
@@ -55185,7 +55212,7 @@
         <v>0.75</v>
       </c>
       <c r="AP261">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="AQ261">
         <v>0.83</v>
@@ -55394,7 +55421,7 @@
         <v>1.41</v>
       </c>
       <c r="AQ262">
-        <v>1.21</v>
+        <v>1.18</v>
       </c>
       <c r="AR262">
         <v>1.51</v>
@@ -55519,7 +55546,7 @@
         <v>252</v>
       </c>
       <c r="P263" t="s">
-        <v>367</v>
+        <v>373</v>
       </c>
       <c r="Q263">
         <v>2.2</v>
@@ -55597,10 +55624,10 @@
         <v>1.8</v>
       </c>
       <c r="AP263">
-        <v>2.24</v>
+        <v>2.28</v>
       </c>
       <c r="AQ263">
-        <v>1.88</v>
+        <v>1.76</v>
       </c>
       <c r="AR263">
         <v>1.76</v>
@@ -55725,7 +55752,7 @@
         <v>88</v>
       </c>
       <c r="P264" t="s">
-        <v>368</v>
+        <v>374</v>
       </c>
       <c r="Q264">
         <v>3.4</v>
@@ -55931,7 +55958,7 @@
         <v>253</v>
       </c>
       <c r="P265" t="s">
-        <v>262</v>
+        <v>269</v>
       </c>
       <c r="Q265">
         <v>3.1</v>
@@ -56137,7 +56164,7 @@
         <v>254</v>
       </c>
       <c r="P266" t="s">
-        <v>369</v>
+        <v>375</v>
       </c>
       <c r="Q266">
         <v>3.3</v>
@@ -56421,10 +56448,10 @@
         <v>1.44</v>
       </c>
       <c r="AP267">
-        <v>1.21</v>
+        <v>1.18</v>
       </c>
       <c r="AQ267">
-        <v>1.39</v>
+        <v>1.44</v>
       </c>
       <c r="AR267">
         <v>1.4</v>
@@ -56549,7 +56576,7 @@
         <v>110</v>
       </c>
       <c r="P268" t="s">
-        <v>370</v>
+        <v>376</v>
       </c>
       <c r="Q268">
         <v>5.95</v>
@@ -56755,7 +56782,7 @@
         <v>255</v>
       </c>
       <c r="P269" t="s">
-        <v>371</v>
+        <v>377</v>
       </c>
       <c r="Q269">
         <v>3</v>
@@ -56961,7 +56988,7 @@
         <v>256</v>
       </c>
       <c r="P270" t="s">
-        <v>372</v>
+        <v>378</v>
       </c>
       <c r="Q270">
         <v>4.2</v>
@@ -57118,6 +57145,1448 @@
       </c>
       <c r="BP270">
         <v>1.3</v>
+      </c>
+    </row>
+    <row r="271" spans="1:68">
+      <c r="A271" s="1">
+        <v>270</v>
+      </c>
+      <c r="B271">
+        <v>7885789</v>
+      </c>
+      <c r="C271" t="s">
+        <v>68</v>
+      </c>
+      <c r="D271" t="s">
+        <v>69</v>
+      </c>
+      <c r="E271" s="2">
+        <v>45801.45833333334</v>
+      </c>
+      <c r="F271">
+        <v>5</v>
+      </c>
+      <c r="G271" t="s">
+        <v>80</v>
+      </c>
+      <c r="H271" t="s">
+        <v>82</v>
+      </c>
+      <c r="I271">
+        <v>2</v>
+      </c>
+      <c r="J271">
+        <v>0</v>
+      </c>
+      <c r="K271">
+        <v>2</v>
+      </c>
+      <c r="L271">
+        <v>3</v>
+      </c>
+      <c r="M271">
+        <v>0</v>
+      </c>
+      <c r="N271">
+        <v>3</v>
+      </c>
+      <c r="O271" t="s">
+        <v>257</v>
+      </c>
+      <c r="P271" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q271">
+        <v>2.24</v>
+      </c>
+      <c r="R271">
+        <v>2.34</v>
+      </c>
+      <c r="S271">
+        <v>4.33</v>
+      </c>
+      <c r="T271">
+        <v>1.28</v>
+      </c>
+      <c r="U271">
+        <v>3.34</v>
+      </c>
+      <c r="V271">
+        <v>2.53</v>
+      </c>
+      <c r="W271">
+        <v>1.46</v>
+      </c>
+      <c r="X271">
+        <v>6.1</v>
+      </c>
+      <c r="Y271">
+        <v>1.06</v>
+      </c>
+      <c r="Z271">
+        <v>1.74</v>
+      </c>
+      <c r="AA271">
+        <v>4.1</v>
+      </c>
+      <c r="AB271">
+        <v>4.1</v>
+      </c>
+      <c r="AC271">
+        <v>1.01</v>
+      </c>
+      <c r="AD271">
+        <v>11</v>
+      </c>
+      <c r="AE271">
+        <v>1.18</v>
+      </c>
+      <c r="AF271">
+        <v>3.92</v>
+      </c>
+      <c r="AG271">
+        <v>1.73</v>
+      </c>
+      <c r="AH271">
+        <v>2.07</v>
+      </c>
+      <c r="AI271">
+        <v>1.68</v>
+      </c>
+      <c r="AJ271">
+        <v>2.06</v>
+      </c>
+      <c r="AK271">
+        <v>1.22</v>
+      </c>
+      <c r="AL271">
+        <v>1.22</v>
+      </c>
+      <c r="AM271">
+        <v>2.05</v>
+      </c>
+      <c r="AN271">
+        <v>3</v>
+      </c>
+      <c r="AO271">
+        <v>1.88</v>
+      </c>
+      <c r="AP271">
+        <v>3</v>
+      </c>
+      <c r="AQ271">
+        <v>1.76</v>
+      </c>
+      <c r="AR271">
+        <v>2.28</v>
+      </c>
+      <c r="AS271">
+        <v>1.68</v>
+      </c>
+      <c r="AT271">
+        <v>3.96</v>
+      </c>
+      <c r="AU271">
+        <v>11</v>
+      </c>
+      <c r="AV271">
+        <v>0</v>
+      </c>
+      <c r="AW271">
+        <v>9</v>
+      </c>
+      <c r="AX271">
+        <v>6</v>
+      </c>
+      <c r="AY271">
+        <v>20</v>
+      </c>
+      <c r="AZ271">
+        <v>6</v>
+      </c>
+      <c r="BA271">
+        <v>4</v>
+      </c>
+      <c r="BB271">
+        <v>2</v>
+      </c>
+      <c r="BC271">
+        <v>6</v>
+      </c>
+      <c r="BD271">
+        <v>1.54</v>
+      </c>
+      <c r="BE271">
+        <v>6.75</v>
+      </c>
+      <c r="BF271">
+        <v>2.7</v>
+      </c>
+      <c r="BG271">
+        <v>1.29</v>
+      </c>
+      <c r="BH271">
+        <v>3.2</v>
+      </c>
+      <c r="BI271">
+        <v>1.49</v>
+      </c>
+      <c r="BJ271">
+        <v>2.4</v>
+      </c>
+      <c r="BK271">
+        <v>1.8</v>
+      </c>
+      <c r="BL271">
+        <v>1.89</v>
+      </c>
+      <c r="BM271">
+        <v>2.25</v>
+      </c>
+      <c r="BN271">
+        <v>1.55</v>
+      </c>
+      <c r="BO271">
+        <v>2.9</v>
+      </c>
+      <c r="BP271">
+        <v>1.35</v>
+      </c>
+    </row>
+    <row r="272" spans="1:68">
+      <c r="A272" s="1">
+        <v>271</v>
+      </c>
+      <c r="B272">
+        <v>7885790</v>
+      </c>
+      <c r="C272" t="s">
+        <v>68</v>
+      </c>
+      <c r="D272" t="s">
+        <v>69</v>
+      </c>
+      <c r="E272" s="2">
+        <v>45801.45833333334</v>
+      </c>
+      <c r="F272">
+        <v>5</v>
+      </c>
+      <c r="G272" t="s">
+        <v>84</v>
+      </c>
+      <c r="H272" t="s">
+        <v>71</v>
+      </c>
+      <c r="I272">
+        <v>3</v>
+      </c>
+      <c r="J272">
+        <v>0</v>
+      </c>
+      <c r="K272">
+        <v>3</v>
+      </c>
+      <c r="L272">
+        <v>4</v>
+      </c>
+      <c r="M272">
+        <v>1</v>
+      </c>
+      <c r="N272">
+        <v>5</v>
+      </c>
+      <c r="O272" t="s">
+        <v>258</v>
+      </c>
+      <c r="P272" t="s">
+        <v>142</v>
+      </c>
+      <c r="Q272">
+        <v>2.08</v>
+      </c>
+      <c r="R272">
+        <v>2.31</v>
+      </c>
+      <c r="S272">
+        <v>5.2</v>
+      </c>
+      <c r="T272">
+        <v>1.28</v>
+      </c>
+      <c r="U272">
+        <v>3.3</v>
+      </c>
+      <c r="V272">
+        <v>2.47</v>
+      </c>
+      <c r="W272">
+        <v>1.48</v>
+      </c>
+      <c r="X272">
+        <v>6.1</v>
+      </c>
+      <c r="Y272">
+        <v>1.06</v>
+      </c>
+      <c r="Z272">
+        <v>1.57</v>
+      </c>
+      <c r="AA272">
+        <v>4.2</v>
+      </c>
+      <c r="AB272">
+        <v>5.25</v>
+      </c>
+      <c r="AC272">
+        <v>1.01</v>
+      </c>
+      <c r="AD272">
+        <v>11</v>
+      </c>
+      <c r="AE272">
+        <v>1.15</v>
+      </c>
+      <c r="AF272">
+        <v>4.2</v>
+      </c>
+      <c r="AG272">
+        <v>1.68</v>
+      </c>
+      <c r="AH272">
+        <v>2.14</v>
+      </c>
+      <c r="AI272">
+        <v>1.71</v>
+      </c>
+      <c r="AJ272">
+        <v>2.02</v>
+      </c>
+      <c r="AK272">
+        <v>1.14</v>
+      </c>
+      <c r="AL272">
+        <v>1.22</v>
+      </c>
+      <c r="AM272">
+        <v>2.34</v>
+      </c>
+      <c r="AN272">
+        <v>2.24</v>
+      </c>
+      <c r="AO272">
+        <v>1.59</v>
+      </c>
+      <c r="AP272">
+        <v>2.28</v>
+      </c>
+      <c r="AQ272">
+        <v>1.5</v>
+      </c>
+      <c r="AR272">
+        <v>1.81</v>
+      </c>
+      <c r="AS272">
+        <v>1.38</v>
+      </c>
+      <c r="AT272">
+        <v>3.19</v>
+      </c>
+      <c r="AU272">
+        <v>8</v>
+      </c>
+      <c r="AV272">
+        <v>5</v>
+      </c>
+      <c r="AW272">
+        <v>7</v>
+      </c>
+      <c r="AX272">
+        <v>8</v>
+      </c>
+      <c r="AY272">
+        <v>15</v>
+      </c>
+      <c r="AZ272">
+        <v>13</v>
+      </c>
+      <c r="BA272">
+        <v>3</v>
+      </c>
+      <c r="BB272">
+        <v>1</v>
+      </c>
+      <c r="BC272">
+        <v>4</v>
+      </c>
+      <c r="BD272">
+        <v>1.47</v>
+      </c>
+      <c r="BE272">
+        <v>7</v>
+      </c>
+      <c r="BF272">
+        <v>2.95</v>
+      </c>
+      <c r="BG272">
+        <v>1.21</v>
+      </c>
+      <c r="BH272">
+        <v>3.9</v>
+      </c>
+      <c r="BI272">
+        <v>1.36</v>
+      </c>
+      <c r="BJ272">
+        <v>2.8</v>
+      </c>
+      <c r="BK272">
+        <v>1.6</v>
+      </c>
+      <c r="BL272">
+        <v>2.17</v>
+      </c>
+      <c r="BM272">
+        <v>1.96</v>
+      </c>
+      <c r="BN272">
+        <v>1.74</v>
+      </c>
+      <c r="BO272">
+        <v>2.4</v>
+      </c>
+      <c r="BP272">
+        <v>1.49</v>
+      </c>
+    </row>
+    <row r="273" spans="1:68">
+      <c r="A273" s="1">
+        <v>272</v>
+      </c>
+      <c r="B273">
+        <v>7885791</v>
+      </c>
+      <c r="C273" t="s">
+        <v>68</v>
+      </c>
+      <c r="D273" t="s">
+        <v>69</v>
+      </c>
+      <c r="E273" s="2">
+        <v>45801.45833333334</v>
+      </c>
+      <c r="F273">
+        <v>5</v>
+      </c>
+      <c r="G273" t="s">
+        <v>70</v>
+      </c>
+      <c r="H273" t="s">
+        <v>85</v>
+      </c>
+      <c r="I273">
+        <v>0</v>
+      </c>
+      <c r="J273">
+        <v>0</v>
+      </c>
+      <c r="K273">
+        <v>0</v>
+      </c>
+      <c r="L273">
+        <v>1</v>
+      </c>
+      <c r="M273">
+        <v>1</v>
+      </c>
+      <c r="N273">
+        <v>2</v>
+      </c>
+      <c r="O273" t="s">
+        <v>259</v>
+      </c>
+      <c r="P273" t="s">
+        <v>379</v>
+      </c>
+      <c r="Q273">
+        <v>1.69</v>
+      </c>
+      <c r="R273">
+        <v>2.51</v>
+      </c>
+      <c r="S273">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="T273">
+        <v>1.27</v>
+      </c>
+      <c r="U273">
+        <v>3.4</v>
+      </c>
+      <c r="V273">
+        <v>2.34</v>
+      </c>
+      <c r="W273">
+        <v>1.53</v>
+      </c>
+      <c r="X273">
+        <v>5.5</v>
+      </c>
+      <c r="Y273">
+        <v>1.08</v>
+      </c>
+      <c r="Z273">
+        <v>1.27</v>
+      </c>
+      <c r="AA273">
+        <v>5.4</v>
+      </c>
+      <c r="AB273">
+        <v>11</v>
+      </c>
+      <c r="AC273">
+        <v>1.01</v>
+      </c>
+      <c r="AD273">
+        <v>13</v>
+      </c>
+      <c r="AE273">
+        <v>1.12</v>
+      </c>
+      <c r="AF273">
+        <v>4.7</v>
+      </c>
+      <c r="AG273">
+        <v>1.58</v>
+      </c>
+      <c r="AH273">
+        <v>2.33</v>
+      </c>
+      <c r="AI273">
+        <v>1.98</v>
+      </c>
+      <c r="AJ273">
+        <v>1.74</v>
+      </c>
+      <c r="AK273">
+        <v>1.03</v>
+      </c>
+      <c r="AL273">
+        <v>1.14</v>
+      </c>
+      <c r="AM273">
+        <v>3.62</v>
+      </c>
+      <c r="AN273">
+        <v>2</v>
+      </c>
+      <c r="AO273">
+        <v>1.24</v>
+      </c>
+      <c r="AP273">
+        <v>1.94</v>
+      </c>
+      <c r="AQ273">
+        <v>1.22</v>
+      </c>
+      <c r="AR273">
+        <v>2.05</v>
+      </c>
+      <c r="AS273">
+        <v>1.18</v>
+      </c>
+      <c r="AT273">
+        <v>3.23</v>
+      </c>
+      <c r="AU273">
+        <v>7</v>
+      </c>
+      <c r="AV273">
+        <v>5</v>
+      </c>
+      <c r="AW273">
+        <v>7</v>
+      </c>
+      <c r="AX273">
+        <v>10</v>
+      </c>
+      <c r="AY273">
+        <v>14</v>
+      </c>
+      <c r="AZ273">
+        <v>15</v>
+      </c>
+      <c r="BA273">
+        <v>3</v>
+      </c>
+      <c r="BB273">
+        <v>2</v>
+      </c>
+      <c r="BC273">
+        <v>5</v>
+      </c>
+      <c r="BD273">
+        <v>1.26</v>
+      </c>
+      <c r="BE273">
+        <v>8</v>
+      </c>
+      <c r="BF273">
+        <v>4.1</v>
+      </c>
+      <c r="BG273">
+        <v>1.22</v>
+      </c>
+      <c r="BH273">
+        <v>3.7</v>
+      </c>
+      <c r="BI273">
+        <v>1.38</v>
+      </c>
+      <c r="BJ273">
+        <v>2.75</v>
+      </c>
+      <c r="BK273">
+        <v>1.64</v>
+      </c>
+      <c r="BL273">
+        <v>2.12</v>
+      </c>
+      <c r="BM273">
+        <v>1.97</v>
+      </c>
+      <c r="BN273">
+        <v>1.74</v>
+      </c>
+      <c r="BO273">
+        <v>2.43</v>
+      </c>
+      <c r="BP273">
+        <v>1.48</v>
+      </c>
+    </row>
+    <row r="274" spans="1:68">
+      <c r="A274" s="1">
+        <v>273</v>
+      </c>
+      <c r="B274">
+        <v>7897688</v>
+      </c>
+      <c r="C274" t="s">
+        <v>68</v>
+      </c>
+      <c r="D274" t="s">
+        <v>69</v>
+      </c>
+      <c r="E274" s="2">
+        <v>45802.35416666666</v>
+      </c>
+      <c r="F274">
+        <v>0</v>
+      </c>
+      <c r="G274" t="s">
+        <v>77</v>
+      </c>
+      <c r="H274" t="s">
+        <v>73</v>
+      </c>
+      <c r="I274">
+        <v>1</v>
+      </c>
+      <c r="J274">
+        <v>0</v>
+      </c>
+      <c r="K274">
+        <v>1</v>
+      </c>
+      <c r="L274">
+        <v>2</v>
+      </c>
+      <c r="M274">
+        <v>0</v>
+      </c>
+      <c r="N274">
+        <v>2</v>
+      </c>
+      <c r="O274" t="s">
+        <v>260</v>
+      </c>
+      <c r="P274" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q274">
+        <v>2.5</v>
+      </c>
+      <c r="R274">
+        <v>2.25</v>
+      </c>
+      <c r="S274">
+        <v>4.5</v>
+      </c>
+      <c r="T274">
+        <v>1.36</v>
+      </c>
+      <c r="U274">
+        <v>3</v>
+      </c>
+      <c r="V274">
+        <v>2.75</v>
+      </c>
+      <c r="W274">
+        <v>1.4</v>
+      </c>
+      <c r="X274">
+        <v>7</v>
+      </c>
+      <c r="Y274">
+        <v>1.1</v>
+      </c>
+      <c r="Z274">
+        <v>1.88</v>
+      </c>
+      <c r="AA274">
+        <v>3.35</v>
+      </c>
+      <c r="AB274">
+        <v>4.22</v>
+      </c>
+      <c r="AC274">
+        <v>1.05</v>
+      </c>
+      <c r="AD274">
+        <v>8.5</v>
+      </c>
+      <c r="AE274">
+        <v>1.28</v>
+      </c>
+      <c r="AF274">
+        <v>3.4</v>
+      </c>
+      <c r="AG274">
+        <v>1.86</v>
+      </c>
+      <c r="AH274">
+        <v>1.93</v>
+      </c>
+      <c r="AI274">
+        <v>1.75</v>
+      </c>
+      <c r="AJ274">
+        <v>2</v>
+      </c>
+      <c r="AK274">
+        <v>1.24</v>
+      </c>
+      <c r="AL274">
+        <v>1.28</v>
+      </c>
+      <c r="AM274">
+        <v>1.87</v>
+      </c>
+      <c r="AN274">
+        <v>1.39</v>
+      </c>
+      <c r="AO274">
+        <v>1.21</v>
+      </c>
+      <c r="AP274">
+        <v>1.44</v>
+      </c>
+      <c r="AQ274">
+        <v>1.18</v>
+      </c>
+      <c r="AR274">
+        <v>1.48</v>
+      </c>
+      <c r="AS274">
+        <v>1.4</v>
+      </c>
+      <c r="AT274">
+        <v>2.88</v>
+      </c>
+      <c r="AU274">
+        <v>7</v>
+      </c>
+      <c r="AV274">
+        <v>0</v>
+      </c>
+      <c r="AW274">
+        <v>4</v>
+      </c>
+      <c r="AX274">
+        <v>7</v>
+      </c>
+      <c r="AY274">
+        <v>11</v>
+      </c>
+      <c r="AZ274">
+        <v>7</v>
+      </c>
+      <c r="BA274">
+        <v>2</v>
+      </c>
+      <c r="BB274">
+        <v>7</v>
+      </c>
+      <c r="BC274">
+        <v>9</v>
+      </c>
+      <c r="BD274">
+        <v>1.55</v>
+      </c>
+      <c r="BE274">
+        <v>9</v>
+      </c>
+      <c r="BF274">
+        <v>2.75</v>
+      </c>
+      <c r="BG274">
+        <v>1.2</v>
+      </c>
+      <c r="BH274">
+        <v>3.95</v>
+      </c>
+      <c r="BI274">
+        <v>1.28</v>
+      </c>
+      <c r="BJ274">
+        <v>3.05</v>
+      </c>
+      <c r="BK274">
+        <v>1.53</v>
+      </c>
+      <c r="BL274">
+        <v>2.27</v>
+      </c>
+      <c r="BM274">
+        <v>1.85</v>
+      </c>
+      <c r="BN274">
+        <v>1.85</v>
+      </c>
+      <c r="BO274">
+        <v>2.45</v>
+      </c>
+      <c r="BP274">
+        <v>1.46</v>
+      </c>
+    </row>
+    <row r="275" spans="1:68">
+      <c r="A275" s="1">
+        <v>274</v>
+      </c>
+      <c r="B275">
+        <v>7885792</v>
+      </c>
+      <c r="C275" t="s">
+        <v>68</v>
+      </c>
+      <c r="D275" t="s">
+        <v>69</v>
+      </c>
+      <c r="E275" s="2">
+        <v>45802.45833333334</v>
+      </c>
+      <c r="F275">
+        <v>5</v>
+      </c>
+      <c r="G275" t="s">
+        <v>83</v>
+      </c>
+      <c r="H275" t="s">
+        <v>76</v>
+      </c>
+      <c r="I275">
+        <v>0</v>
+      </c>
+      <c r="J275">
+        <v>0</v>
+      </c>
+      <c r="K275">
+        <v>0</v>
+      </c>
+      <c r="L275">
+        <v>2</v>
+      </c>
+      <c r="M275">
+        <v>2</v>
+      </c>
+      <c r="N275">
+        <v>4</v>
+      </c>
+      <c r="O275" t="s">
+        <v>261</v>
+      </c>
+      <c r="P275" t="s">
+        <v>380</v>
+      </c>
+      <c r="Q275">
+        <v>2.52</v>
+      </c>
+      <c r="R275">
+        <v>2.19</v>
+      </c>
+      <c r="S275">
+        <v>3.98</v>
+      </c>
+      <c r="T275">
+        <v>1.34</v>
+      </c>
+      <c r="U275">
+        <v>2.99</v>
+      </c>
+      <c r="V275">
+        <v>2.62</v>
+      </c>
+      <c r="W275">
+        <v>1.43</v>
+      </c>
+      <c r="X275">
+        <v>6</v>
+      </c>
+      <c r="Y275">
+        <v>1.07</v>
+      </c>
+      <c r="Z275">
+        <v>2.01</v>
+      </c>
+      <c r="AA275">
+        <v>3.58</v>
+      </c>
+      <c r="AB275">
+        <v>3.48</v>
+      </c>
+      <c r="AC275">
+        <v>1.01</v>
+      </c>
+      <c r="AD275">
+        <v>9</v>
+      </c>
+      <c r="AE275">
+        <v>1.22</v>
+      </c>
+      <c r="AF275">
+        <v>3.52</v>
+      </c>
+      <c r="AG275">
+        <v>1.81</v>
+      </c>
+      <c r="AH275">
+        <v>1.96</v>
+      </c>
+      <c r="AI275">
+        <v>1.67</v>
+      </c>
+      <c r="AJ275">
+        <v>2.07</v>
+      </c>
+      <c r="AK275">
+        <v>1.29</v>
+      </c>
+      <c r="AL275">
+        <v>1.28</v>
+      </c>
+      <c r="AM275">
+        <v>1.77</v>
+      </c>
+      <c r="AN275">
+        <v>1.29</v>
+      </c>
+      <c r="AO275">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="AP275">
+        <v>1.28</v>
+      </c>
+      <c r="AQ275">
+        <v>0.71</v>
+      </c>
+      <c r="AR275">
+        <v>1.55</v>
+      </c>
+      <c r="AS275">
+        <v>1.09</v>
+      </c>
+      <c r="AT275">
+        <v>2.64</v>
+      </c>
+      <c r="AU275">
+        <v>4</v>
+      </c>
+      <c r="AV275">
+        <v>4</v>
+      </c>
+      <c r="AW275">
+        <v>5</v>
+      </c>
+      <c r="AX275">
+        <v>3</v>
+      </c>
+      <c r="AY275">
+        <v>9</v>
+      </c>
+      <c r="AZ275">
+        <v>7</v>
+      </c>
+      <c r="BA275">
+        <v>4</v>
+      </c>
+      <c r="BB275">
+        <v>7</v>
+      </c>
+      <c r="BC275">
+        <v>11</v>
+      </c>
+      <c r="BD275">
+        <v>1.5</v>
+      </c>
+      <c r="BE275">
+        <v>7</v>
+      </c>
+      <c r="BF275">
+        <v>2.8</v>
+      </c>
+      <c r="BG275">
+        <v>1.23</v>
+      </c>
+      <c r="BH275">
+        <v>3.65</v>
+      </c>
+      <c r="BI275">
+        <v>1.4</v>
+      </c>
+      <c r="BJ275">
+        <v>2.7</v>
+      </c>
+      <c r="BK275">
+        <v>1.66</v>
+      </c>
+      <c r="BL275">
+        <v>2.07</v>
+      </c>
+      <c r="BM275">
+        <v>2.02</v>
+      </c>
+      <c r="BN275">
+        <v>1.7</v>
+      </c>
+      <c r="BO275">
+        <v>2.55</v>
+      </c>
+      <c r="BP275">
+        <v>1.45</v>
+      </c>
+    </row>
+    <row r="276" spans="1:68">
+      <c r="A276" s="1">
+        <v>275</v>
+      </c>
+      <c r="B276">
+        <v>7885793</v>
+      </c>
+      <c r="C276" t="s">
+        <v>68</v>
+      </c>
+      <c r="D276" t="s">
+        <v>69</v>
+      </c>
+      <c r="E276" s="2">
+        <v>45802.45833333334</v>
+      </c>
+      <c r="F276">
+        <v>5</v>
+      </c>
+      <c r="G276" t="s">
+        <v>78</v>
+      </c>
+      <c r="H276" t="s">
+        <v>79</v>
+      </c>
+      <c r="I276">
+        <v>1</v>
+      </c>
+      <c r="J276">
+        <v>0</v>
+      </c>
+      <c r="K276">
+        <v>1</v>
+      </c>
+      <c r="L276">
+        <v>3</v>
+      </c>
+      <c r="M276">
+        <v>0</v>
+      </c>
+      <c r="N276">
+        <v>3</v>
+      </c>
+      <c r="O276" t="s">
+        <v>262</v>
+      </c>
+      <c r="P276" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q276">
+        <v>2.18</v>
+      </c>
+      <c r="R276">
+        <v>2.18</v>
+      </c>
+      <c r="S276">
+        <v>5.4</v>
+      </c>
+      <c r="T276">
+        <v>1.35</v>
+      </c>
+      <c r="U276">
+        <v>2.94</v>
+      </c>
+      <c r="V276">
+        <v>2.77</v>
+      </c>
+      <c r="W276">
+        <v>1.39</v>
+      </c>
+      <c r="X276">
+        <v>7.4</v>
+      </c>
+      <c r="Y276">
+        <v>1.03</v>
+      </c>
+      <c r="Z276">
+        <v>1.63</v>
+      </c>
+      <c r="AA276">
+        <v>3.92</v>
+      </c>
+      <c r="AB276">
+        <v>5.1</v>
+      </c>
+      <c r="AC276">
+        <v>1.01</v>
+      </c>
+      <c r="AD276">
+        <v>8.9</v>
+      </c>
+      <c r="AE276">
+        <v>1.22</v>
+      </c>
+      <c r="AF276">
+        <v>3.5</v>
+      </c>
+      <c r="AG276">
+        <v>1.89</v>
+      </c>
+      <c r="AH276">
+        <v>1.89</v>
+      </c>
+      <c r="AI276">
+        <v>1.85</v>
+      </c>
+      <c r="AJ276">
+        <v>1.85</v>
+      </c>
+      <c r="AK276">
+        <v>1.15</v>
+      </c>
+      <c r="AL276">
+        <v>1.24</v>
+      </c>
+      <c r="AM276">
+        <v>2.22</v>
+      </c>
+      <c r="AN276">
+        <v>1.53</v>
+      </c>
+      <c r="AO276">
+        <v>0.35</v>
+      </c>
+      <c r="AP276">
+        <v>1.61</v>
+      </c>
+      <c r="AQ276">
+        <v>0.33</v>
+      </c>
+      <c r="AR276">
+        <v>1.45</v>
+      </c>
+      <c r="AS276">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="AT276">
+        <v>2.39</v>
+      </c>
+      <c r="AU276">
+        <v>6</v>
+      </c>
+      <c r="AV276">
+        <v>4</v>
+      </c>
+      <c r="AW276">
+        <v>10</v>
+      </c>
+      <c r="AX276">
+        <v>4</v>
+      </c>
+      <c r="AY276">
+        <v>21</v>
+      </c>
+      <c r="AZ276">
+        <v>13</v>
+      </c>
+      <c r="BA276">
+        <v>2</v>
+      </c>
+      <c r="BB276">
+        <v>6</v>
+      </c>
+      <c r="BC276">
+        <v>8</v>
+      </c>
+      <c r="BD276">
+        <v>1.33</v>
+      </c>
+      <c r="BE276">
+        <v>7.5</v>
+      </c>
+      <c r="BF276">
+        <v>3.65</v>
+      </c>
+      <c r="BG276">
+        <v>1.25</v>
+      </c>
+      <c r="BH276">
+        <v>3.45</v>
+      </c>
+      <c r="BI276">
+        <v>1.44</v>
+      </c>
+      <c r="BJ276">
+        <v>2.55</v>
+      </c>
+      <c r="BK276">
+        <v>1.71</v>
+      </c>
+      <c r="BL276">
+        <v>2</v>
+      </c>
+      <c r="BM276">
+        <v>2.08</v>
+      </c>
+      <c r="BN276">
+        <v>1.66</v>
+      </c>
+      <c r="BO276">
+        <v>2.65</v>
+      </c>
+      <c r="BP276">
+        <v>1.42</v>
+      </c>
+    </row>
+    <row r="277" spans="1:68">
+      <c r="A277" s="1">
+        <v>276</v>
+      </c>
+      <c r="B277">
+        <v>7885794</v>
+      </c>
+      <c r="C277" t="s">
+        <v>68</v>
+      </c>
+      <c r="D277" t="s">
+        <v>69</v>
+      </c>
+      <c r="E277" s="2">
+        <v>45802.45833333334</v>
+      </c>
+      <c r="F277">
+        <v>5</v>
+      </c>
+      <c r="G277" t="s">
+        <v>74</v>
+      </c>
+      <c r="H277" t="s">
+        <v>72</v>
+      </c>
+      <c r="I277">
+        <v>2</v>
+      </c>
+      <c r="J277">
+        <v>1</v>
+      </c>
+      <c r="K277">
+        <v>3</v>
+      </c>
+      <c r="L277">
+        <v>2</v>
+      </c>
+      <c r="M277">
+        <v>1</v>
+      </c>
+      <c r="N277">
+        <v>3</v>
+      </c>
+      <c r="O277" t="s">
+        <v>263</v>
+      </c>
+      <c r="P277" t="s">
+        <v>381</v>
+      </c>
+      <c r="Q277">
+        <v>2.08</v>
+      </c>
+      <c r="R277">
+        <v>2.27</v>
+      </c>
+      <c r="S277">
+        <v>5.45</v>
+      </c>
+      <c r="T277">
+        <v>1.31</v>
+      </c>
+      <c r="U277">
+        <v>3.15</v>
+      </c>
+      <c r="V277">
+        <v>2.59</v>
+      </c>
+      <c r="W277">
+        <v>1.44</v>
+      </c>
+      <c r="X277">
+        <v>6.55</v>
+      </c>
+      <c r="Y277">
+        <v>1.05</v>
+      </c>
+      <c r="Z277">
+        <v>1.56</v>
+      </c>
+      <c r="AA277">
+        <v>4.15</v>
+      </c>
+      <c r="AB277">
+        <v>5.45</v>
+      </c>
+      <c r="AC277">
+        <v>1.01</v>
+      </c>
+      <c r="AD277">
+        <v>11</v>
+      </c>
+      <c r="AE277">
+        <v>1.18</v>
+      </c>
+      <c r="AF277">
+        <v>3.92</v>
+      </c>
+      <c r="AG277">
+        <v>1.75</v>
+      </c>
+      <c r="AH277">
+        <v>2.04</v>
+      </c>
+      <c r="AI277">
+        <v>1.78</v>
+      </c>
+      <c r="AJ277">
+        <v>1.93</v>
+      </c>
+      <c r="AK277">
+        <v>1.14</v>
+      </c>
+      <c r="AL277">
+        <v>1.22</v>
+      </c>
+      <c r="AM277">
+        <v>2.38</v>
+      </c>
+      <c r="AN277">
+        <v>1</v>
+      </c>
+      <c r="AO277">
+        <v>0.12</v>
+      </c>
+      <c r="AP277">
+        <v>1.12</v>
+      </c>
+      <c r="AQ277">
+        <v>0.11</v>
+      </c>
+      <c r="AR277">
+        <v>1.32</v>
+      </c>
+      <c r="AS277">
+        <v>0.97</v>
+      </c>
+      <c r="AT277">
+        <v>2.29</v>
+      </c>
+      <c r="AU277">
+        <v>6</v>
+      </c>
+      <c r="AV277">
+        <v>6</v>
+      </c>
+      <c r="AW277">
+        <v>7</v>
+      </c>
+      <c r="AX277">
+        <v>10</v>
+      </c>
+      <c r="AY277">
+        <v>13</v>
+      </c>
+      <c r="AZ277">
+        <v>16</v>
+      </c>
+      <c r="BA277">
+        <v>2</v>
+      </c>
+      <c r="BB277">
+        <v>6</v>
+      </c>
+      <c r="BC277">
+        <v>8</v>
+      </c>
+      <c r="BD277">
+        <v>1.5</v>
+      </c>
+      <c r="BE277">
+        <v>7</v>
+      </c>
+      <c r="BF277">
+        <v>2.8</v>
+      </c>
+      <c r="BG277">
+        <v>1.22</v>
+      </c>
+      <c r="BH277">
+        <v>3.8</v>
+      </c>
+      <c r="BI277">
+        <v>1.38</v>
+      </c>
+      <c r="BJ277">
+        <v>2.8</v>
+      </c>
+      <c r="BK277">
+        <v>1.61</v>
+      </c>
+      <c r="BL277">
+        <v>2.15</v>
+      </c>
+      <c r="BM277">
+        <v>1.96</v>
+      </c>
+      <c r="BN277">
+        <v>1.74</v>
+      </c>
+      <c r="BO277">
+        <v>2.45</v>
+      </c>
+      <c r="BP277">
+        <v>1.48</v>
       </c>
     </row>
   </sheetData>
